--- a/doc/tinyvm.xlsx
+++ b/doc/tinyvm.xlsx
@@ -2266,61 +2266,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2337,9 +2282,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2507,15 +2449,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2530,15 +2463,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2557,9 +2481,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2580,18 +2501,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2617,6 +2526,97 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3565,1960 +3565,1960 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="100" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="100" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" style="108" customWidth="1"/>
-    <col min="4" max="4" width="4.69921875" style="118" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="100"/>
-    <col min="6" max="6" width="4.5" style="118"/>
-    <col min="7" max="7" width="6.69921875" style="100" customWidth="1"/>
-    <col min="8" max="8" width="2.59765625" style="100" customWidth="1"/>
-    <col min="9" max="9" width="2.19921875" style="100" customWidth="1"/>
-    <col min="10" max="10" width="3.796875" style="100" customWidth="1"/>
-    <col min="11" max="16" width="3.296875" style="100" customWidth="1"/>
-    <col min="17" max="17" width="1.5" style="100" customWidth="1"/>
-    <col min="18" max="18" width="3.8984375" style="108" customWidth="1"/>
-    <col min="19" max="19" width="3.296875" style="100" customWidth="1"/>
-    <col min="20" max="20" width="10.296875" style="100" customWidth="1"/>
-    <col min="21" max="21" width="1.3984375" style="100" customWidth="1"/>
-    <col min="22" max="23" width="2.19921875" style="100" customWidth="1"/>
-    <col min="24" max="24" width="7" style="100" customWidth="1"/>
-    <col min="25" max="25" width="1.3984375" style="100" customWidth="1"/>
-    <col min="26" max="26" width="1.796875" style="100" customWidth="1"/>
-    <col min="27" max="16384" width="4.5" style="100"/>
+    <col min="1" max="1" width="4.8984375" style="80" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="21" style="88" customWidth="1"/>
+    <col min="4" max="4" width="4.69921875" style="98" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="80"/>
+    <col min="6" max="6" width="4.5" style="98"/>
+    <col min="7" max="7" width="7.3984375" style="80" customWidth="1"/>
+    <col min="8" max="8" width="2.59765625" style="80" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" style="80" customWidth="1"/>
+    <col min="10" max="10" width="3.796875" style="80" customWidth="1"/>
+    <col min="11" max="16" width="3.296875" style="80" customWidth="1"/>
+    <col min="17" max="17" width="1.5" style="80" customWidth="1"/>
+    <col min="18" max="18" width="3.8984375" style="88" customWidth="1"/>
+    <col min="19" max="19" width="3.296875" style="80" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="80" customWidth="1"/>
+    <col min="21" max="21" width="1.3984375" style="80" customWidth="1"/>
+    <col min="22" max="23" width="2.19921875" style="80" customWidth="1"/>
+    <col min="24" max="24" width="7.296875" style="80" customWidth="1"/>
+    <col min="25" max="25" width="1.3984375" style="80" customWidth="1"/>
+    <col min="26" max="26" width="1.796875" style="80" customWidth="1"/>
+    <col min="27" max="16384" width="4.5" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="112" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="112" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="70" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="140" t="s">
+      <c r="R1" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="S1" s="112" t="s">
+      <c r="S1" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="T1" s="113" t="s">
+      <c r="T1" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="145" t="s">
+      <c r="V1" s="119" t="s">
         <v>314</v>
       </c>
-      <c r="W1" s="123" t="s">
+      <c r="W1" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="X1" s="136" t="s">
+      <c r="X1" s="113" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+    <row r="2" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="146" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="105" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="114" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="138">
+      <c r="E2" s="115">
         <v>4096</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="114" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77" t="s">
+      <c r="G2" s="93"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="82"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="109" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="62"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="T2" s="114" t="s">
+      <c r="T2" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="V2" s="146" t="s">
+      <c r="V2" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="W2" s="144" t="s">
+      <c r="W2" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="147" t="s">
+      <c r="X2" s="121" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
-      <c r="B3" s="109" t="s">
+    <row r="3" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="147"/>
+      <c r="B3" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="100" t="s">
         <v>310</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="89">
         <v>1</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="87" t="s">
+      <c r="J3" s="149"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="88" t="s">
+      <c r="P3" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="141"/>
-      <c r="S3" s="109" t="s">
+      <c r="R3" s="144"/>
+      <c r="S3" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="T3" s="114" t="s">
+      <c r="T3" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="V3" s="148" t="s">
+      <c r="V3" s="122" t="s">
         <v>319</v>
       </c>
-      <c r="W3" s="143" t="s">
+      <c r="W3" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="149" t="s">
+      <c r="X3" s="138" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="115" t="s">
+    <row r="4" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="148"/>
+      <c r="B4" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="116" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="115">
+      <c r="E4" s="95">
         <v>4</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="116" t="s">
         <v>306</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="96" t="s">
         <v>326</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87" t="s">
+      <c r="J4" s="149"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="142"/>
-      <c r="S4" s="115" t="s">
+      <c r="R4" s="145"/>
+      <c r="S4" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="T4" s="116" t="s">
+      <c r="T4" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="V4" s="148" t="s">
+      <c r="V4" s="122" t="s">
         <v>322</v>
       </c>
-      <c r="W4" s="143" t="s">
+      <c r="W4" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="149"/>
-    </row>
-    <row r="5" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="132" t="s">
+      <c r="X4" s="138"/>
+    </row>
+    <row r="5" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="114" t="s">
         <v>348</v>
       </c>
-      <c r="E5" s="112">
+      <c r="E5" s="92">
         <v>1</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="114" t="s">
         <v>306</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="87" t="s">
+      <c r="J5" s="149"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="88" t="s">
+      <c r="P5" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="140" t="s">
+      <c r="R5" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="S5" s="112" t="s">
+      <c r="S5" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="T5" s="113" t="s">
+      <c r="T5" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="V5" s="148" t="s">
+      <c r="V5" s="122" t="s">
         <v>369</v>
       </c>
-      <c r="W5" s="143" t="s">
+      <c r="W5" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="149"/>
-    </row>
-    <row r="6" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="133"/>
-      <c r="B6" s="109" t="s">
+      <c r="X5" s="138"/>
+    </row>
+    <row r="6" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="147"/>
+      <c r="B6" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="89">
         <v>1</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="157" t="s">
+      <c r="J6" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="87" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="88" t="s">
+      <c r="P6" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="141"/>
-      <c r="S6" s="109" t="s">
+      <c r="R6" s="144"/>
+      <c r="S6" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="T6" s="114" t="s">
+      <c r="T6" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="V6" s="148" t="s">
+      <c r="V6" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="120" t="s">
+      <c r="W6" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="149"/>
-    </row>
-    <row r="7" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="133"/>
-      <c r="B7" s="109" t="s">
+      <c r="X6" s="138"/>
+    </row>
+    <row r="7" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="147"/>
+      <c r="B7" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="89" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="100" t="s">
         <v>346</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="89">
         <v>1</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="94" t="s">
         <v>322</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="158"/>
-      <c r="K7" s="90" t="s">
+      <c r="J7" s="140"/>
+      <c r="K7" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87" t="s">
+      <c r="L7" s="66"/>
+      <c r="M7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87" t="s">
+      <c r="N7" s="66"/>
+      <c r="O7" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="141"/>
-      <c r="S7" s="109" t="s">
+      <c r="R7" s="144"/>
+      <c r="S7" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="T7" s="114" t="s">
+      <c r="T7" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="V7" s="148" t="s">
+      <c r="V7" s="122" t="s">
         <v>392</v>
       </c>
-      <c r="W7" s="120" t="s">
+      <c r="W7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="149"/>
-    </row>
-    <row r="8" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
-      <c r="B8" s="109" t="s">
+      <c r="X7" s="138"/>
+    </row>
+    <row r="8" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="147"/>
+      <c r="B8" s="89" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="100" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E8" s="89">
         <v>13</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="160"/>
-      <c r="K8" s="90" t="s">
+      <c r="J8" s="142"/>
+      <c r="K8" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87" t="s">
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="87" t="s">
+      <c r="O8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="88" t="s">
+      <c r="P8" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="141"/>
-      <c r="S8" s="109" t="s">
+      <c r="R8" s="144"/>
+      <c r="S8" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="T8" s="114" t="s">
+      <c r="T8" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="V8" s="148" t="s">
+      <c r="V8" s="122" t="s">
         <v>393</v>
       </c>
-      <c r="W8" s="120" t="s">
+      <c r="W8" s="100" t="s">
         <v>383</v>
       </c>
-      <c r="X8" s="149"/>
-    </row>
-    <row r="9" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="133"/>
-      <c r="B9" s="109" t="s">
+      <c r="X8" s="138"/>
+    </row>
+    <row r="9" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="147"/>
+      <c r="B9" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="100" t="s">
         <v>330</v>
       </c>
-      <c r="E9" s="109">
+      <c r="E9" s="89">
         <v>4</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="I9" s="84" t="s">
+      <c r="G9" s="94"/>
+      <c r="I9" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="157" t="s">
+      <c r="J9" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="91">
+      <c r="L9" s="71">
         <v>22</v>
       </c>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="87" t="s">
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="88" t="s">
+      <c r="P9" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="R9" s="141"/>
-      <c r="S9" s="109" t="s">
+      <c r="R9" s="144"/>
+      <c r="S9" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="T9" s="114" t="s">
+      <c r="T9" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="V9" s="148" t="s">
+      <c r="V9" s="122" t="s">
         <v>394</v>
       </c>
-      <c r="W9" s="120" t="s">
+      <c r="W9" s="100" t="s">
         <v>384</v>
       </c>
-      <c r="X9" s="149"/>
-    </row>
-    <row r="10" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="109" t="s">
+      <c r="X9" s="138"/>
+    </row>
+    <row r="10" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="147"/>
+      <c r="B10" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="89">
         <v>4</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="94" t="s">
         <v>350</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="158"/>
-      <c r="K10" s="90" t="s">
+      <c r="J10" s="140"/>
+      <c r="K10" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87">
+      <c r="L10" s="66"/>
+      <c r="M10" s="67">
         <v>26</v>
       </c>
-      <c r="N10" s="86"/>
-      <c r="O10" s="87" t="s">
+      <c r="N10" s="66"/>
+      <c r="O10" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="88" t="s">
+      <c r="P10" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="142"/>
-      <c r="S10" s="115" t="s">
+      <c r="R10" s="145"/>
+      <c r="S10" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="T10" s="116" t="s">
+      <c r="T10" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="V10" s="148" t="s">
+      <c r="V10" s="122" t="s">
         <v>395</v>
       </c>
-      <c r="W10" s="120" t="s">
+      <c r="W10" s="100" t="s">
         <v>385</v>
       </c>
-      <c r="X10" s="149"/>
-    </row>
-    <row r="11" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="115" t="s">
+      <c r="X10" s="138"/>
+    </row>
+    <row r="11" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="148"/>
+      <c r="B11" s="95" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="108" t="s">
         <v>352</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="D11" s="116" t="s">
         <v>353</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="95">
         <v>4</v>
       </c>
-      <c r="F11" s="139" t="s">
+      <c r="F11" s="116" t="s">
         <v>311</v>
       </c>
-      <c r="G11" s="116" t="s">
+      <c r="G11" s="96" t="s">
         <v>316</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="159"/>
-      <c r="K11" s="93" t="s">
+      <c r="J11" s="141"/>
+      <c r="K11" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="96" t="s">
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="O11" s="96" t="s">
+      <c r="O11" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="P11" s="97" t="s">
+      <c r="P11" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="R11" s="140" t="s">
+      <c r="R11" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="S11" s="112" t="s">
+      <c r="S11" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="T11" s="113" t="s">
+      <c r="T11" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="V11" s="148" t="s">
+      <c r="V11" s="122" t="s">
         <v>396</v>
       </c>
-      <c r="W11" s="120" t="s">
+      <c r="W11" s="100" t="s">
         <v>386</v>
       </c>
-      <c r="X11" s="149"/>
-    </row>
-    <row r="12" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132" t="s">
+      <c r="X11" s="138"/>
+    </row>
+    <row r="12" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="146" t="s">
         <v>359</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="92" t="s">
         <v>360</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="114" t="s">
         <v>370</v>
       </c>
-      <c r="E12" s="112">
+      <c r="E12" s="92">
         <v>1</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="114" t="s">
         <v>306</v>
       </c>
-      <c r="G12" s="113" t="s">
+      <c r="G12" s="93" t="s">
         <v>368</v>
       </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="109" t="s">
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="T12" s="114" t="s">
+      <c r="T12" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="V12" s="148" t="s">
+      <c r="V12" s="122" t="s">
         <v>397</v>
       </c>
-      <c r="W12" s="120" t="s">
+      <c r="W12" s="100" t="s">
         <v>387</v>
       </c>
-      <c r="X12" s="149"/>
-    </row>
-    <row r="13" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="109" t="s">
+      <c r="X12" s="138"/>
+    </row>
+    <row r="13" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="147"/>
+      <c r="B13" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="100" t="s">
         <v>371</v>
       </c>
-      <c r="E13" s="109">
+      <c r="E13" s="89">
         <v>1</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="75" t="s">
+      <c r="I13" s="81"/>
+      <c r="J13" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="73" t="s">
+      <c r="L13" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="73" t="s">
+      <c r="M13" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="N13" s="73" t="s">
+      <c r="N13" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="O13" s="74" t="s">
+      <c r="O13" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="P13" s="101"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="109" t="s">
+      <c r="P13" s="81"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="T13" s="114" t="s">
+      <c r="T13" s="94" t="s">
         <v>266</v>
       </c>
-      <c r="V13" s="148" t="s">
+      <c r="V13" s="122" t="s">
         <v>398</v>
       </c>
-      <c r="W13" s="120" t="s">
+      <c r="W13" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="X13" s="149"/>
-    </row>
-    <row r="14" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="133"/>
-      <c r="B14" s="109" t="s">
+      <c r="X13" s="138"/>
+    </row>
+    <row r="14" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="147"/>
+      <c r="B14" s="89" t="s">
         <v>362</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="89" t="s">
         <v>366</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="100" t="s">
         <v>372</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E14" s="89">
         <v>1</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="G14" s="114" t="s">
+      <c r="G14" s="94" t="s">
         <v>369</v>
       </c>
-      <c r="I14" s="101"/>
-      <c r="J14" s="76" t="s">
+      <c r="I14" s="81"/>
+      <c r="J14" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="80" t="s">
+      <c r="K14" s="63"/>
+      <c r="L14" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="80" t="s">
+      <c r="M14" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="80" t="s">
+      <c r="N14" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="98" t="s">
+      <c r="O14" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="P14" s="101"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="109" t="s">
+      <c r="P14" s="81"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="T14" s="114" t="s">
+      <c r="T14" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="V14" s="148" t="s">
+      <c r="V14" s="122" t="s">
         <v>399</v>
       </c>
-      <c r="W14" s="120" t="s">
+      <c r="W14" s="100" t="s">
         <v>389</v>
       </c>
-      <c r="X14" s="114" t="s">
+      <c r="X14" s="94" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="133"/>
-      <c r="B15" s="109" t="s">
+    <row r="15" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="147"/>
+      <c r="B15" s="89" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="99" t="s">
         <v>367</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="100" t="s">
         <v>373</v>
       </c>
-      <c r="E15" s="109">
+      <c r="E15" s="89">
         <v>13</v>
       </c>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="114" t="s">
+      <c r="G15" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="84" t="s">
+      <c r="I15" s="81"/>
+      <c r="J15" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="87" t="s">
+      <c r="K15" s="65"/>
+      <c r="L15" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="N15" s="87" t="s">
+      <c r="N15" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="O15" s="88" t="s">
+      <c r="O15" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="101"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="109" t="s">
+      <c r="P15" s="81"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="T15" s="114" t="s">
+      <c r="T15" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="V15" s="148" t="s">
+      <c r="V15" s="122" t="s">
         <v>400</v>
       </c>
-      <c r="W15" s="120" t="s">
+      <c r="W15" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="X15" s="114" t="s">
+      <c r="X15" s="94" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="133"/>
-      <c r="B16" s="109" t="s">
+    <row r="16" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="147"/>
+      <c r="B16" s="89" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="99" t="s">
         <v>378</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="89">
         <v>128</v>
       </c>
-      <c r="F16" s="120" t="s">
+      <c r="F16" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="G16" s="114" t="s">
+      <c r="G16" s="94" t="s">
         <v>316</v>
       </c>
-      <c r="J16" s="84" t="s">
+      <c r="J16" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="85"/>
-      <c r="L16" s="87" t="s">
+      <c r="K16" s="65"/>
+      <c r="L16" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="O16" s="88" t="s">
+      <c r="O16" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="P16" s="101"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="109" t="s">
+      <c r="P16" s="81"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="T16" s="114" t="s">
+      <c r="T16" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="V16" s="148" t="s">
+      <c r="V16" s="122" t="s">
         <v>401</v>
       </c>
-      <c r="W16" s="120" t="s">
+      <c r="W16" s="100" t="s">
         <v>391</v>
       </c>
-      <c r="X16" s="114" t="s">
+      <c r="X16" s="94" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
-      <c r="B17" s="109" t="s">
+    <row r="17" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="147"/>
+      <c r="B17" s="89" t="s">
         <v>376</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="99" t="s">
         <v>379</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="89">
         <v>1024</v>
       </c>
-      <c r="F17" s="120" t="s">
+      <c r="F17" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="G17" s="114" t="s">
+      <c r="G17" s="94" t="s">
         <v>316</v>
       </c>
-      <c r="J17" s="84" t="s">
+      <c r="J17" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="K17" s="85"/>
-      <c r="L17" s="87" t="s">
+      <c r="K17" s="65"/>
+      <c r="L17" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="M17" s="87" t="s">
+      <c r="M17" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="N17" s="154"/>
-      <c r="O17" s="155"/>
-      <c r="P17" s="101"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="109" t="s">
+      <c r="N17" s="127"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="81"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="T17" s="114" t="s">
+      <c r="T17" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="V17" s="150" t="s">
+      <c r="V17" s="123" t="s">
         <v>402</v>
       </c>
-      <c r="W17" s="139" t="s">
+      <c r="W17" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="X17" s="116" t="s">
+      <c r="X17" s="96" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="115" t="s">
+    <row r="18" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="148"/>
+      <c r="B18" s="95" t="s">
         <v>380</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="108" t="s">
         <v>381</v>
       </c>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="116" t="s">
         <v>382</v>
       </c>
-      <c r="E18" s="115">
+      <c r="E18" s="95">
         <v>1024</v>
       </c>
-      <c r="F18" s="139" t="s">
+      <c r="F18" s="116" t="s">
         <v>311</v>
       </c>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="96" t="s">
         <v>316</v>
       </c>
-      <c r="J18" s="84" t="s">
+      <c r="J18" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="85"/>
-      <c r="L18" s="87" t="s">
+      <c r="K18" s="65"/>
+      <c r="L18" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="M18" s="87" t="s">
+      <c r="M18" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="N18" s="156"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="101"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="115" t="s">
+      <c r="N18" s="129"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="81"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="T18" s="116" t="s">
+      <c r="T18" s="96" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J19" s="92" t="s">
+    <row r="19" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="93" t="s">
+      <c r="K19" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="101"/>
-      <c r="R19" s="140" t="s">
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="81"/>
+      <c r="R19" s="143" t="s">
         <v>253</v>
       </c>
-      <c r="S19" s="112" t="s">
+      <c r="S19" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="T19" s="113" t="s">
+      <c r="T19" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="U19" s="153"/>
-      <c r="V19" s="168" t="s">
+      <c r="U19" s="126"/>
+      <c r="V19" s="137" t="s">
         <v>414</v>
       </c>
-      <c r="W19" s="164" t="s">
+      <c r="W19" s="133" t="s">
         <v>413</v>
       </c>
-      <c r="X19" s="136" t="s">
+      <c r="X19" s="113" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="121" t="s">
+    <row r="20" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="102" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="104" t="s">
         <v>314</v>
       </c>
-      <c r="P20" s="101"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="109" t="s">
+      <c r="P20" s="81"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="T20" s="114" t="s">
+      <c r="T20" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="U20" s="153"/>
-      <c r="V20" s="163">
+      <c r="U20" s="126"/>
+      <c r="V20" s="132">
         <v>0</v>
       </c>
-      <c r="W20" s="165" t="s">
+      <c r="W20" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="X20" s="147" t="s">
+      <c r="X20" s="121" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132" t="s">
+    <row r="21" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="146" t="s">
         <v>308</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="92" t="s">
         <v>312</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="J21" s="99" t="s">
+      <c r="J21" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="73" t="s">
+      <c r="L21" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="73" t="s">
+      <c r="M21" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="73" t="s">
+      <c r="N21" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="74" t="s">
+      <c r="O21" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="101"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="109" t="s">
+      <c r="P21" s="81"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="T21" s="114" t="s">
+      <c r="T21" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="U21" s="153"/>
-      <c r="V21" s="130">
+      <c r="U21" s="126"/>
+      <c r="V21" s="110">
         <v>1</v>
       </c>
-      <c r="W21" s="166" t="s">
+      <c r="W21" s="135" t="s">
         <v>416</v>
       </c>
-      <c r="X21" s="114" t="s">
+      <c r="X21" s="94" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="133"/>
-      <c r="B22" s="109" t="s">
+    <row r="22" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="147"/>
+      <c r="B22" s="89" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="107" t="s">
         <v>319</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="K22" s="83"/>
-      <c r="L22" s="80" t="s">
+      <c r="K22" s="63"/>
+      <c r="L22" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="M22" s="80" t="s">
+      <c r="M22" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="N22" s="80" t="s">
+      <c r="N22" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="O22" s="98" t="s">
+      <c r="O22" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="101"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="109" t="s">
+      <c r="P22" s="81"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="T22" s="114" t="s">
+      <c r="T22" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="U22" s="153"/>
-      <c r="V22" s="130">
+      <c r="U22" s="126"/>
+      <c r="V22" s="110">
         <v>2</v>
       </c>
-      <c r="W22" s="166" t="s">
+      <c r="W22" s="135" t="s">
         <v>417</v>
       </c>
-      <c r="X22" s="114" t="s">
+      <c r="X22" s="94" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="115" t="s">
+    <row r="23" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="148"/>
+      <c r="B23" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="J23" s="84" t="s">
+      <c r="J23" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="87" t="s">
+      <c r="K23" s="65"/>
+      <c r="L23" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="N23" s="87" t="s">
+      <c r="N23" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="O23" s="88" t="s">
+      <c r="O23" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="P23" s="101"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="109" t="s">
+      <c r="P23" s="81"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="T23" s="114" t="s">
+      <c r="T23" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="U23" s="153"/>
-      <c r="V23" s="130">
+      <c r="U23" s="126"/>
+      <c r="V23" s="110">
         <v>3</v>
       </c>
-      <c r="W23" s="166" t="s">
+      <c r="W23" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="X23" s="114" t="s">
+      <c r="X23" s="94" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="132" t="s">
+    <row r="24" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="146" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="92" t="s">
         <v>354</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="J24" s="84" t="s">
+      <c r="J24" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="87" t="s">
+      <c r="K24" s="65"/>
+      <c r="L24" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="M24" s="87" t="s">
+      <c r="M24" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="N24" s="87" t="s">
+      <c r="N24" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="O24" s="88" t="s">
+      <c r="O24" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="P24" s="101"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="109" t="s">
+      <c r="P24" s="81"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="T24" s="114" t="s">
+      <c r="T24" s="94" t="s">
         <v>278</v>
       </c>
-      <c r="U24" s="153"/>
-      <c r="V24" s="130">
+      <c r="U24" s="126"/>
+      <c r="V24" s="110">
         <v>4</v>
       </c>
-      <c r="W24" s="166" t="s">
+      <c r="W24" s="135" t="s">
         <v>418</v>
       </c>
-      <c r="X24" s="114" t="s">
+      <c r="X24" s="94" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="133"/>
-      <c r="B25" s="109" t="s">
+    <row r="25" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="147"/>
+      <c r="B25" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="99" t="s">
         <v>356</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="D25" s="107" t="s">
         <v>319</v>
       </c>
-      <c r="J25" s="84" t="s">
+      <c r="J25" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="87" t="s">
+      <c r="K25" s="65"/>
+      <c r="L25" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="M25" s="87" t="s">
+      <c r="M25" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="N25" s="87" t="s">
+      <c r="N25" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="O25" s="88" t="s">
+      <c r="O25" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="101"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="109" t="s">
+      <c r="P25" s="81"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="T25" s="114" t="s">
+      <c r="T25" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="U25" s="153"/>
-      <c r="V25" s="130">
+      <c r="U25" s="126"/>
+      <c r="V25" s="110">
         <v>5</v>
       </c>
-      <c r="W25" s="166" t="s">
+      <c r="W25" s="135" t="s">
         <v>419</v>
       </c>
-      <c r="X25" s="114" t="s">
+      <c r="X25" s="94" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="134"/>
-      <c r="B26" s="115" t="s">
+    <row r="26" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="148"/>
+      <c r="B26" s="95" t="s">
         <v>357</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="108" t="s">
         <v>358</v>
       </c>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="J26" s="84" t="s">
+      <c r="J26" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="87" t="s">
+      <c r="K26" s="65"/>
+      <c r="L26" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="M26" s="87" t="s">
+      <c r="M26" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="N26" s="87" t="s">
+      <c r="N26" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="O26" s="88" t="s">
+      <c r="O26" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="101"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="109" t="s">
+      <c r="P26" s="81"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="T26" s="114" t="s">
+      <c r="T26" s="94" t="s">
         <v>277</v>
       </c>
-      <c r="U26" s="153"/>
-      <c r="V26" s="130">
+      <c r="U26" s="126"/>
+      <c r="V26" s="110">
         <v>6</v>
       </c>
-      <c r="W26" s="166" t="s">
+      <c r="W26" s="135" t="s">
         <v>420</v>
       </c>
-      <c r="X26" s="114" t="s">
+      <c r="X26" s="94" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="J27" s="84" t="s">
+    <row r="27" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="J27" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="87" t="s">
+      <c r="K27" s="65"/>
+      <c r="L27" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="M27" s="87" t="s">
+      <c r="M27" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="N27" s="87" t="s">
+      <c r="N27" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="O27" s="88" t="s">
+      <c r="O27" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="101"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="109" t="s">
+      <c r="P27" s="81"/>
+      <c r="R27" s="144"/>
+      <c r="S27" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="T27" s="114" t="s">
+      <c r="T27" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="U27" s="153"/>
-      <c r="V27" s="131">
+      <c r="U27" s="126"/>
+      <c r="V27" s="111">
         <v>7</v>
       </c>
-      <c r="W27" s="167" t="s">
+      <c r="W27" s="136" t="s">
         <v>421</v>
       </c>
-      <c r="X27" s="116" t="s">
+      <c r="X27" s="96" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="J28" s="84" t="s">
+    <row r="28" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="J28" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="90" t="s">
+      <c r="K28" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="101"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="109" t="s">
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="81"/>
+      <c r="R28" s="144"/>
+      <c r="S28" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="T28" s="114" t="s">
+      <c r="T28" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="U28" s="153"/>
-      <c r="W28" s="100" t="s">
+      <c r="U28" s="126"/>
+      <c r="W28" s="80" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="J29" s="92" t="s">
+    <row r="29" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="J29" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="93" t="s">
+      <c r="K29" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="101"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="109" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="81"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="T29" s="114" t="s">
+      <c r="T29" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="U29" s="153"/>
-    </row>
-    <row r="30" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="117"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="109" t="s">
+      <c r="U29" s="126"/>
+    </row>
+    <row r="30" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="97"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="T30" s="114" t="s">
+      <c r="T30" s="94" t="s">
         <v>284</v>
       </c>
-      <c r="U30" s="153"/>
-    </row>
-    <row r="31" spans="1:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="117"/>
-      <c r="J31" s="70" t="s">
+      <c r="U30" s="126"/>
+    </row>
+    <row r="31" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="97"/>
+      <c r="J31" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="73" t="s">
+      <c r="L31" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="M31" s="73" t="s">
+      <c r="M31" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="74" t="s">
+      <c r="N31" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="P31" s="101"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="110" t="s">
+      <c r="P31" s="81"/>
+      <c r="R31" s="144"/>
+      <c r="S31" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="T31" s="114" t="s">
+      <c r="T31" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="U31" s="153"/>
-    </row>
-    <row r="32" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="117"/>
-      <c r="J32" s="76" t="s">
+      <c r="U31" s="126"/>
+    </row>
+    <row r="32" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="97"/>
+      <c r="J32" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="80" t="s">
+      <c r="K32" s="63"/>
+      <c r="L32" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="M32" s="81"/>
-      <c r="N32" s="98" t="s">
+      <c r="M32" s="61"/>
+      <c r="N32" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="109" t="s">
+      <c r="Q32" s="81"/>
+      <c r="R32" s="144"/>
+      <c r="S32" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="T32" s="114" t="s">
+      <c r="T32" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="U32" s="153"/>
-    </row>
-    <row r="33" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J33" s="84" t="s">
+      <c r="U32" s="126"/>
+    </row>
+    <row r="33" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="K33" s="85"/>
-      <c r="L33" s="87" t="s">
+      <c r="K33" s="65"/>
+      <c r="L33" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="88" t="s">
+      <c r="M33" s="66"/>
+      <c r="N33" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="161" t="s">
+      <c r="Q33" s="81"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="T33" s="162" t="s">
+      <c r="T33" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="U33" s="153"/>
-    </row>
-    <row r="34" spans="3:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J34" s="84" t="s">
+      <c r="U33" s="126"/>
+    </row>
+    <row r="34" spans="3:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="K34" s="85"/>
-      <c r="L34" s="87" t="s">
+      <c r="K34" s="65"/>
+      <c r="L34" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="M34" s="86"/>
-      <c r="N34" s="88" t="s">
+      <c r="M34" s="66"/>
+      <c r="N34" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="O34" s="101"/>
-      <c r="R34" s="142"/>
-      <c r="S34" s="115" t="s">
+      <c r="O34" s="81"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="95" t="s">
         <v>409</v>
       </c>
-      <c r="T34" s="116" t="s">
+      <c r="T34" s="96" t="s">
         <v>410</v>
       </c>
-      <c r="U34" s="153"/>
-    </row>
-    <row r="35" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J35" s="84" t="s">
+      <c r="U34" s="126"/>
+    </row>
+    <row r="35" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="K35" s="85"/>
-      <c r="L35" s="87" t="s">
+      <c r="K35" s="65"/>
+      <c r="L35" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="M35" s="86"/>
-      <c r="N35" s="88" t="s">
+      <c r="M35" s="66"/>
+      <c r="N35" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="O35" s="101"/>
-      <c r="R35" s="141" t="s">
+      <c r="O35" s="81"/>
+      <c r="R35" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="S35" s="111" t="s">
+      <c r="S35" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="T35" s="147" t="s">
+      <c r="T35" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="U35" s="153"/>
-    </row>
-    <row r="36" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J36" s="84" t="s">
+      <c r="U35" s="126"/>
+    </row>
+    <row r="36" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="K36" s="85"/>
-      <c r="L36" s="87" t="s">
+      <c r="K36" s="65"/>
+      <c r="L36" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="M36" s="86"/>
-      <c r="N36" s="88" t="s">
+      <c r="M36" s="66"/>
+      <c r="N36" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="O36" s="101"/>
-      <c r="R36" s="141"/>
-      <c r="S36" s="109" t="s">
+      <c r="O36" s="81"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="T36" s="114" t="s">
+      <c r="T36" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="U36" s="153"/>
-    </row>
-    <row r="37" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J37" s="84" t="s">
+      <c r="U36" s="126"/>
+    </row>
+    <row r="37" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="K37" s="85"/>
-      <c r="L37" s="87" t="s">
+      <c r="K37" s="65"/>
+      <c r="L37" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="M37" s="86"/>
-      <c r="N37" s="88" t="s">
+      <c r="M37" s="66"/>
+      <c r="N37" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="O37" s="101"/>
-      <c r="R37" s="141"/>
-      <c r="S37" s="109" t="s">
+      <c r="O37" s="81"/>
+      <c r="R37" s="144"/>
+      <c r="S37" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="T37" s="114" t="s">
+      <c r="T37" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="U37" s="153"/>
-    </row>
-    <row r="38" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J38" s="84" t="s">
+      <c r="U37" s="126"/>
+    </row>
+    <row r="38" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="K38" s="85"/>
-      <c r="L38" s="87">
+      <c r="K38" s="65"/>
+      <c r="L38" s="67">
         <v>68</v>
       </c>
-      <c r="M38" s="86"/>
-      <c r="N38" s="88">
+      <c r="M38" s="66"/>
+      <c r="N38" s="68">
         <v>69</v>
       </c>
-      <c r="O38" s="101"/>
-      <c r="R38" s="141"/>
-      <c r="S38" s="109" t="s">
+      <c r="O38" s="81"/>
+      <c r="R38" s="144"/>
+      <c r="S38" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="T38" s="114" t="s">
+      <c r="T38" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="U38" s="153"/>
-    </row>
-    <row r="39" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J39" s="84" t="s">
+      <c r="U38" s="126"/>
+    </row>
+    <row r="39" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="K39" s="85"/>
-      <c r="L39" s="87" t="s">
+      <c r="K39" s="65"/>
+      <c r="L39" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="M39" s="86"/>
-      <c r="N39" s="88" t="s">
+      <c r="M39" s="66"/>
+      <c r="N39" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="O39" s="101"/>
-      <c r="R39" s="141"/>
-      <c r="S39" s="109" t="s">
+      <c r="O39" s="81"/>
+      <c r="R39" s="144"/>
+      <c r="S39" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="T39" s="114" t="s">
+      <c r="T39" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="U39" s="153"/>
-    </row>
-    <row r="40" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J40" s="84" t="s">
+      <c r="U39" s="126"/>
+    </row>
+    <row r="40" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="K40" s="85"/>
-      <c r="L40" s="87" t="s">
+      <c r="K40" s="65"/>
+      <c r="L40" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="M40" s="86"/>
-      <c r="N40" s="88" t="s">
+      <c r="M40" s="66"/>
+      <c r="N40" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="O40" s="101"/>
-      <c r="R40" s="141"/>
-      <c r="S40" s="109" t="s">
+      <c r="O40" s="81"/>
+      <c r="R40" s="144"/>
+      <c r="S40" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="T40" s="114" t="s">
+      <c r="T40" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="U40" s="153"/>
-    </row>
-    <row r="41" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="J41" s="84" t="s">
+      <c r="U40" s="126"/>
+    </row>
+    <row r="41" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="J41" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="K41" s="85"/>
-      <c r="L41" s="87" t="s">
+      <c r="K41" s="65"/>
+      <c r="L41" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="M41" s="86"/>
-      <c r="N41" s="88" t="s">
+      <c r="M41" s="66"/>
+      <c r="N41" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="O41" s="101"/>
-      <c r="R41" s="141"/>
-      <c r="S41" s="109" t="s">
+      <c r="O41" s="81"/>
+      <c r="R41" s="144"/>
+      <c r="S41" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="T41" s="114" t="s">
+      <c r="T41" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="U41" s="153"/>
-    </row>
-    <row r="42" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="J42" s="84" t="s">
+      <c r="U41" s="126"/>
+    </row>
+    <row r="42" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="J42" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="K42" s="85"/>
-      <c r="L42" s="87">
+      <c r="K42" s="65"/>
+      <c r="L42" s="67">
         <v>70</v>
       </c>
-      <c r="M42" s="86"/>
-      <c r="N42" s="88">
+      <c r="M42" s="66"/>
+      <c r="N42" s="68">
         <v>71</v>
       </c>
-      <c r="O42" s="101"/>
-      <c r="R42" s="141"/>
-      <c r="S42" s="109" t="s">
+      <c r="O42" s="81"/>
+      <c r="R42" s="144"/>
+      <c r="S42" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="T42" s="114" t="s">
+      <c r="T42" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="U42" s="153"/>
-    </row>
-    <row r="43" spans="3:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="J43" s="84" t="s">
+      <c r="U42" s="126"/>
+    </row>
+    <row r="43" spans="3:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="J43" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="K43" s="85"/>
-      <c r="L43" s="87">
+      <c r="K43" s="65"/>
+      <c r="L43" s="67">
         <v>72</v>
       </c>
-      <c r="M43" s="86"/>
-      <c r="N43" s="88">
+      <c r="M43" s="66"/>
+      <c r="N43" s="68">
         <v>73</v>
       </c>
-      <c r="R43" s="142"/>
-      <c r="S43" s="115" t="s">
+      <c r="R43" s="145"/>
+      <c r="S43" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="T43" s="116" t="s">
+      <c r="T43" s="96" t="s">
         <v>295</v>
       </c>
-      <c r="U43" s="153"/>
-    </row>
-    <row r="44" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J44" s="84" t="s">
+      <c r="U43" s="126"/>
+    </row>
+    <row r="44" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="K44" s="90">
+      <c r="K44" s="70">
         <v>74</v>
       </c>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="89"/>
-      <c r="U44" s="153"/>
-    </row>
-    <row r="45" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J45" s="84" t="s">
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="69"/>
+      <c r="U44" s="126"/>
+    </row>
+    <row r="45" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="K45" s="85"/>
-      <c r="L45" s="87">
+      <c r="K45" s="65"/>
+      <c r="L45" s="67">
         <v>75</v>
       </c>
-      <c r="M45" s="87">
+      <c r="M45" s="67">
         <v>76</v>
       </c>
-      <c r="N45" s="89"/>
-      <c r="O45" s="101"/>
-      <c r="U45" s="153"/>
-    </row>
-    <row r="46" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J46" s="151" t="s">
+      <c r="N45" s="69"/>
+      <c r="O45" s="81"/>
+      <c r="U45" s="126"/>
+    </row>
+    <row r="46" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="K46" s="152">
+      <c r="K46" s="125">
         <v>77</v>
       </c>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="101"/>
-      <c r="U46" s="153"/>
-    </row>
-    <row r="47" spans="3:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J47" s="92" t="s">
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="81"/>
+      <c r="U46" s="126"/>
+    </row>
+    <row r="47" spans="3:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="K47" s="93">
+      <c r="K47" s="73">
         <v>86</v>
       </c>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="107"/>
-      <c r="O47" s="101"/>
-      <c r="U47" s="153"/>
-    </row>
-    <row r="48" spans="3:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O48" s="101"/>
-      <c r="U48" s="153"/>
-    </row>
-    <row r="49" spans="3:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J49" s="75" t="s">
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="81"/>
+      <c r="U47" s="126"/>
+    </row>
+    <row r="48" spans="3:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="81"/>
+      <c r="U48" s="126"/>
+    </row>
+    <row r="49" spans="3:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="L49" s="73" t="s">
+      <c r="L49" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="M49" s="73" t="s">
+      <c r="M49" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="N49" s="73" t="s">
+      <c r="N49" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="O49" s="74" t="s">
+      <c r="O49" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="U49" s="153"/>
-    </row>
-    <row r="50" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J50" s="103" t="s">
+      <c r="U49" s="126"/>
+    </row>
+    <row r="50" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="K50" s="81"/>
-      <c r="L50" s="80">
+      <c r="K50" s="61"/>
+      <c r="L50" s="60">
         <v>78</v>
       </c>
-      <c r="M50" s="80">
+      <c r="M50" s="60">
         <v>79</v>
       </c>
-      <c r="N50" s="81"/>
-      <c r="O50" s="82"/>
-      <c r="U50" s="153"/>
-    </row>
-    <row r="51" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J51" s="104" t="s">
+      <c r="N50" s="61"/>
+      <c r="O50" s="62"/>
+      <c r="U50" s="126"/>
+    </row>
+    <row r="51" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="K51" s="86"/>
-      <c r="L51" s="87" t="s">
+      <c r="K51" s="66"/>
+      <c r="L51" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="M51" s="86"/>
-      <c r="N51" s="87" t="s">
+      <c r="M51" s="66"/>
+      <c r="N51" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="O51" s="89"/>
-      <c r="U51" s="153"/>
-    </row>
-    <row r="52" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="J52" s="104" t="s">
+      <c r="O51" s="69"/>
+      <c r="U51" s="126"/>
+    </row>
+    <row r="52" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="J52" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="K52" s="86"/>
-      <c r="L52" s="87" t="s">
+      <c r="K52" s="66"/>
+      <c r="L52" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="M52" s="86"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="88" t="s">
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="U52" s="153"/>
-    </row>
-    <row r="53" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="J53" s="104" t="s">
+      <c r="U52" s="126"/>
+    </row>
+    <row r="53" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="J53" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="K53" s="91" t="s">
+      <c r="K53" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="89"/>
-      <c r="U53" s="153"/>
-    </row>
-    <row r="54" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="J54" s="104" t="s">
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="69"/>
+      <c r="U53" s="126"/>
+    </row>
+    <row r="54" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="J54" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="K54" s="86"/>
-      <c r="L54" s="87" t="s">
+      <c r="K54" s="66"/>
+      <c r="L54" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="89"/>
-      <c r="U54" s="153"/>
-    </row>
-    <row r="55" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="J55" s="104" t="s">
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="69"/>
+      <c r="U54" s="126"/>
+    </row>
+    <row r="55" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="J55" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="K55" s="86"/>
-      <c r="L55" s="87">
+      <c r="K55" s="66"/>
+      <c r="L55" s="67">
         <v>80</v>
       </c>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="89"/>
-      <c r="U55" s="153"/>
-    </row>
-    <row r="56" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="J56" s="104" t="s">
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="69"/>
+      <c r="U55" s="126"/>
+    </row>
+    <row r="56" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="J56" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="K56" s="86"/>
-      <c r="L56" s="87">
+      <c r="K56" s="66"/>
+      <c r="L56" s="67">
         <v>81</v>
       </c>
-      <c r="M56" s="86"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="89"/>
-      <c r="U56" s="153"/>
-    </row>
-    <row r="57" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="J57" s="104" t="s">
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
+      <c r="O56" s="69"/>
+      <c r="U56" s="126"/>
+    </row>
+    <row r="57" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="J57" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="K57" s="91">
+      <c r="K57" s="71">
         <v>82</v>
       </c>
-      <c r="L57" s="102"/>
-      <c r="M57" s="102"/>
-      <c r="N57" s="102"/>
-      <c r="O57" s="89"/>
-      <c r="U57" s="153"/>
-    </row>
-    <row r="58" spans="3:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="J58" s="105" t="s">
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="69"/>
+      <c r="U57" s="126"/>
+    </row>
+    <row r="58" spans="3:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="J58" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="K58" s="106"/>
-      <c r="L58" s="96">
+      <c r="K58" s="86"/>
+      <c r="L58" s="76">
         <v>83</v>
       </c>
-      <c r="M58" s="96">
+      <c r="M58" s="76">
         <v>84</v>
       </c>
-      <c r="N58" s="96">
+      <c r="N58" s="76">
         <v>85</v>
       </c>
-      <c r="O58" s="107"/>
-      <c r="U58" s="153"/>
-    </row>
-    <row r="59" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="U59" s="153"/>
-    </row>
-    <row r="60" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U60" s="153"/>
-    </row>
-    <row r="61" spans="3:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U61" s="153"/>
+      <c r="O58" s="87"/>
+      <c r="U58" s="126"/>
+    </row>
+    <row r="59" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="U59" s="126"/>
+    </row>
+    <row r="60" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U60" s="126"/>
+    </row>
+    <row r="61" spans="3:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U61" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="J2:J5"/>
     <mergeCell ref="X3:X13"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="J6:J8"/>
@@ -5531,10 +5531,8 @@
     <mergeCell ref="R11:R18"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="J2:J5"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.17" right="0.18" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
@@ -5553,13 +5551,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
     </row>
     <row r="5" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="2"/>
@@ -5614,20 +5612,20 @@
     <row r="7" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="53"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="152"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -5690,12 +5688,12 @@
     </row>
     <row r="10" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="2"/>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -5729,12 +5727,12 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -5771,12 +5769,12 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -5804,12 +5802,12 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="54" t="s">
+      <c r="N14" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -5880,12 +5878,12 @@
       <c r="J17" s="4"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="54" t="s">
+      <c r="M17" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -5927,20 +5925,20 @@
     </row>
     <row r="19" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="152"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -5968,12 +5966,12 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="54" t="s">
+      <c r="T20" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
+      <c r="U20" s="153"/>
+      <c r="V20" s="153"/>
+      <c r="W20" s="153"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -6306,44 +6304,44 @@
     <row r="6" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="54" t="s">
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="59" t="s">
+      <c r="O6" s="153"/>
+      <c r="P6" s="153"/>
+      <c r="Q6" s="153"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
@@ -6351,44 +6349,44 @@
     <row r="7" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60" t="s">
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="159"/>
+      <c r="AF7" s="159"/>
+      <c r="AG7" s="159"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="159"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
@@ -6477,11 +6475,11 @@
         <v>24</v>
       </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
         <v>42</v>
@@ -6602,16 +6600,16 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57" t="s">
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
       <c r="M13" s="11" t="s">
         <v>29</v>
       </c>
@@ -6649,16 +6647,16 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57" t="s">
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
       <c r="M14" s="8">
         <v>1</v>
       </c>
@@ -6698,16 +6696,16 @@
       <c r="F15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57" t="s">
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
       <c r="M15" s="8">
         <v>1</v>
       </c>
@@ -6747,16 +6745,16 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57" t="s">
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
       <c r="M16" s="11" t="s">
         <v>29</v>
       </c>
@@ -6879,15 +6877,15 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57" t="s">
+      <c r="M19" s="155"/>
+      <c r="N19" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
       <c r="Q19" s="8">
         <v>1</v>
       </c>
@@ -6930,15 +6928,15 @@
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="56" t="s">
+      <c r="L20" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57" t="s">
+      <c r="M20" s="155"/>
+      <c r="N20" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="156"/>
       <c r="Q20" s="8">
         <v>1</v>
       </c>
@@ -6981,15 +6979,15 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="56" t="s">
+      <c r="L21" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57" t="s">
+      <c r="M21" s="155"/>
+      <c r="N21" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
       <c r="Q21" s="11" t="s">
         <v>29</v>
       </c>
@@ -7140,14 +7138,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:P20"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="D6:M6"/>
@@ -7161,6 +7151,14 @@
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7297,30 +7295,30 @@
       <c r="L2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="160"/>
+      <c r="AH2" s="160"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -7555,30 +7553,30 @@
       <c r="L7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="160"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="160"/>
+      <c r="W7" s="160"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="160"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="160"/>
+      <c r="AG7" s="160"/>
+      <c r="AH7" s="160"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -7855,30 +7853,30 @@
       <c r="L13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="M13" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="61"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
+      <c r="AA13" s="160"/>
+      <c r="AB13" s="160"/>
+      <c r="AC13" s="160"/>
+      <c r="AD13" s="160"/>
+      <c r="AE13" s="160"/>
+      <c r="AF13" s="160"/>
+      <c r="AG13" s="160"/>
+      <c r="AH13" s="160"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
@@ -8764,44 +8762,44 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="63" t="s">
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="161"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="161"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="162" t="s">
         <v>207</v>
       </c>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="64" t="s">
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="162"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="162"/>
+      <c r="AI11" s="163" t="s">
         <v>208</v>
       </c>
-      <c r="AJ11" s="64"/>
+      <c r="AJ11" s="163"/>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
@@ -9474,50 +9472,50 @@
       <c r="F21" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66" t="s">
+      <c r="H21" s="164"/>
+      <c r="I21" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67" t="s">
+      <c r="J21" s="165"/>
+      <c r="K21" s="166" t="s">
         <v>219</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="68" t="s">
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="167" t="s">
         <v>220</v>
       </c>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="62" t="s">
+      <c r="P21" s="167"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="167"/>
+      <c r="S21" s="167"/>
+      <c r="T21" s="167"/>
+      <c r="U21" s="167"/>
+      <c r="V21" s="167"/>
+      <c r="W21" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="69" t="s">
+      <c r="X21" s="161"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="161"/>
+      <c r="AA21" s="161"/>
+      <c r="AB21" s="161"/>
+      <c r="AC21" s="161"/>
+      <c r="AD21" s="161"/>
+      <c r="AE21" s="168" t="s">
         <v>222</v>
       </c>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="69"/>
+      <c r="AF21" s="168"/>
+      <c r="AG21" s="168"/>
+      <c r="AH21" s="168"/>
+      <c r="AI21" s="168"/>
+      <c r="AJ21" s="168"/>
+      <c r="AK21" s="168"/>
+      <c r="AL21" s="168"/>
       <c r="AM21" s="49" t="s">
         <v>223</v>
       </c>

--- a/doc/tinyvm.xlsx
+++ b/doc/tinyvm.xlsx
@@ -19,12 +19,12 @@
     <sheet name="Sheet6" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="553">
   <si>
     <t>Device</t>
   </si>
@@ -1529,12 +1529,6 @@
     <t>KBD_OP</t>
   </si>
   <si>
-    <t>KBD_R[0..1]</t>
-  </si>
-  <si>
-    <t>KBD_P[0..1]</t>
-  </si>
-  <si>
     <t>Keyboard device name</t>
   </si>
   <si>
@@ -1547,9 +1541,6 @@
     <t>Keyboard operation</t>
   </si>
   <si>
-    <t>Keyboard operation parameter (4 bytes each)</t>
-  </si>
-  <si>
     <t>Keyboard operation return</t>
   </si>
   <si>
@@ -1601,14 +1592,104 @@
     <t>0xF0040011</t>
   </si>
   <si>
-    <t>0xF003001C</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>KBD_P0</t>
+  </si>
+  <si>
+    <t>KBD_R0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard operation parameter </t>
+  </si>
+  <si>
+    <t>0xF0030018</t>
+  </si>
+  <si>
+    <t>Keyboard pop</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Event (0 = press, 1 = release)</t>
+  </si>
+  <si>
+    <t>S = Shift (1 = pressed)</t>
+  </si>
+  <si>
+    <t>C = Control (1 = pressed)</t>
+  </si>
+  <si>
+    <t>A = Alt (1 = pressed)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1649,8 +1730,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Sudo"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1753,8 +1839,44 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2385,12 +2507,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2895,6 +3041,72 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3973,10 +4185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK101"/>
+  <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4001,12 +4213,14 @@
     <col min="23" max="23" width="2.19921875" style="70"/>
     <col min="24" max="24" width="7.296875" style="70"/>
     <col min="25" max="25" width="1.3984375" style="70"/>
-    <col min="26" max="26" width="1.796875" style="70"/>
-    <col min="27" max="1025" width="4.5" style="70"/>
-    <col min="1026" max="16384" width="8.796875" style="173"/>
+    <col min="26" max="26" width="1.09765625" style="70" customWidth="1"/>
+    <col min="27" max="58" width="1.09765625" style="186" customWidth="1"/>
+    <col min="59" max="119" width="1.09765625" style="70" customWidth="1"/>
+    <col min="120" max="1024" width="4.5" style="70"/>
+    <col min="1025" max="16384" width="8.796875" style="173"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4068,8 +4282,42 @@
       <c r="X1" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA1" s="192" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="193"/>
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="193"/>
+      <c r="AG1" s="193"/>
+      <c r="AH1" s="193"/>
+      <c r="AI1" s="193"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="193"/>
+      <c r="AN1" s="193"/>
+      <c r="AO1" s="193"/>
+      <c r="AP1" s="193"/>
+      <c r="AQ1" s="193"/>
+      <c r="AR1" s="193"/>
+      <c r="AS1" s="193"/>
+      <c r="AT1" s="193"/>
+      <c r="AU1" s="193"/>
+      <c r="AV1" s="193"/>
+      <c r="AW1" s="193"/>
+      <c r="AX1" s="193"/>
+      <c r="AY1" s="193"/>
+      <c r="AZ1" s="193"/>
+      <c r="BA1" s="193"/>
+      <c r="BB1" s="193"/>
+      <c r="BC1" s="193"/>
+      <c r="BD1" s="193"/>
+      <c r="BE1" s="193"/>
+      <c r="BF1" s="194"/>
+    </row>
+    <row r="2" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
         <v>20</v>
       </c>
@@ -4123,8 +4371,104 @@
       <c r="X2" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA2" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" s="191" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="191" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="191" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="191" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG2" s="191" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH2" s="191" t="s">
+        <v>523</v>
+      </c>
+      <c r="AI2" s="191" t="s">
+        <v>524</v>
+      </c>
+      <c r="AJ2" s="191" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK2" s="191" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL2" s="191" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM2" s="191" t="s">
+        <v>528</v>
+      </c>
+      <c r="AN2" s="191" t="s">
+        <v>529</v>
+      </c>
+      <c r="AO2" s="191" t="s">
+        <v>530</v>
+      </c>
+      <c r="AP2" s="191" t="s">
+        <v>531</v>
+      </c>
+      <c r="AQ2" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR2" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" s="191" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2" s="191" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV2" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW2" s="191" t="s">
+        <v>532</v>
+      </c>
+      <c r="AX2" s="191" t="s">
+        <v>533</v>
+      </c>
+      <c r="AY2" s="191" t="s">
+        <v>534</v>
+      </c>
+      <c r="AZ2" s="191" t="s">
+        <v>535</v>
+      </c>
+      <c r="BA2" s="191" t="s">
+        <v>536</v>
+      </c>
+      <c r="BB2" s="191" t="s">
+        <v>537</v>
+      </c>
+      <c r="BC2" s="191" t="s">
+        <v>538</v>
+      </c>
+      <c r="BD2" s="191" t="s">
+        <v>539</v>
+      </c>
+      <c r="BE2" s="191" t="s">
+        <v>540</v>
+      </c>
+      <c r="BF2" s="196" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="141"/>
       <c r="B3" s="27" t="s">
         <v>34</v>
@@ -4174,8 +4518,52 @@
       <c r="X3" s="151" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA3" s="197" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC3" s="199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="200" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="204" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF3" s="205"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="201" t="s">
+        <v>547</v>
+      </c>
+      <c r="AI3" s="201"/>
+      <c r="AJ3" s="201"/>
+      <c r="AK3" s="201"/>
+      <c r="AL3" s="201"/>
+      <c r="AM3" s="201"/>
+      <c r="AN3" s="201"/>
+      <c r="AO3" s="201"/>
+      <c r="AP3" s="201"/>
+      <c r="AQ3" s="201"/>
+      <c r="AR3" s="201"/>
+      <c r="AS3" s="201"/>
+      <c r="AT3" s="201"/>
+      <c r="AU3" s="201"/>
+      <c r="AV3" s="201"/>
+      <c r="AW3" s="201"/>
+      <c r="AX3" s="201"/>
+      <c r="AY3" s="201"/>
+      <c r="AZ3" s="201"/>
+      <c r="BA3" s="201"/>
+      <c r="BB3" s="201"/>
+      <c r="BC3" s="201"/>
+      <c r="BD3" s="201"/>
+      <c r="BE3" s="201"/>
+      <c r="BF3" s="202"/>
+    </row>
+    <row r="4" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="141"/>
       <c r="B4" s="41" t="s">
         <v>46</v>
@@ -4223,8 +4611,44 @@
         <v>56</v>
       </c>
       <c r="X4" s="151"/>
-    </row>
-    <row r="5" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA4" s="187" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="203" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC4" s="185"/>
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="185"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="185"/>
+      <c r="AH4" s="185"/>
+      <c r="AI4" s="185"/>
+      <c r="AJ4" s="185"/>
+      <c r="AK4" s="185"/>
+      <c r="AL4" s="185"/>
+      <c r="AM4" s="185"/>
+      <c r="AN4" s="185"/>
+      <c r="AO4" s="185"/>
+      <c r="AP4" s="185"/>
+      <c r="AQ4" s="185"/>
+      <c r="AR4" s="185"/>
+      <c r="AS4" s="185"/>
+      <c r="AT4" s="185"/>
+      <c r="AU4" s="185"/>
+      <c r="AV4" s="185"/>
+      <c r="AW4" s="185"/>
+      <c r="AX4" s="185"/>
+      <c r="AY4" s="185"/>
+      <c r="AZ4" s="185"/>
+      <c r="BA4" s="185"/>
+      <c r="BB4" s="185"/>
+      <c r="BC4" s="185"/>
+      <c r="BD4" s="185"/>
+      <c r="BE4" s="185"/>
+      <c r="BF4" s="185"/>
+    </row>
+    <row r="5" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="141" t="s">
         <v>57</v>
       </c>
@@ -4276,8 +4700,44 @@
         <v>62</v>
       </c>
       <c r="X5" s="151"/>
-    </row>
-    <row r="6" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA5" s="188" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB5" s="203" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="185"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="185"/>
+      <c r="AG5" s="185"/>
+      <c r="AH5" s="185"/>
+      <c r="AI5" s="185"/>
+      <c r="AJ5" s="185"/>
+      <c r="AK5" s="185"/>
+      <c r="AL5" s="185"/>
+      <c r="AM5" s="185"/>
+      <c r="AN5" s="185"/>
+      <c r="AO5" s="185"/>
+      <c r="AP5" s="185"/>
+      <c r="AQ5" s="185"/>
+      <c r="AR5" s="185"/>
+      <c r="AS5" s="185"/>
+      <c r="AT5" s="185"/>
+      <c r="AU5" s="185"/>
+      <c r="AV5" s="185"/>
+      <c r="AW5" s="185"/>
+      <c r="AX5" s="185"/>
+      <c r="AY5" s="185"/>
+      <c r="AZ5" s="185"/>
+      <c r="BA5" s="185"/>
+      <c r="BB5" s="185"/>
+      <c r="BC5" s="185"/>
+      <c r="BD5" s="185"/>
+      <c r="BE5" s="185"/>
+      <c r="BF5" s="185"/>
+    </row>
+    <row r="6" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="141"/>
       <c r="B6" s="27" t="s">
         <v>69</v>
@@ -4331,8 +4791,44 @@
         <v>80</v>
       </c>
       <c r="X6" s="151"/>
-    </row>
-    <row r="7" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA6" s="189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" s="203" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC6" s="185"/>
+      <c r="AD6" s="185"/>
+      <c r="AE6" s="185"/>
+      <c r="AF6" s="185"/>
+      <c r="AG6" s="185"/>
+      <c r="AH6" s="185"/>
+      <c r="AI6" s="185"/>
+      <c r="AJ6" s="185"/>
+      <c r="AK6" s="185"/>
+      <c r="AL6" s="185"/>
+      <c r="AM6" s="185"/>
+      <c r="AN6" s="185"/>
+      <c r="AO6" s="185"/>
+      <c r="AP6" s="185"/>
+      <c r="AQ6" s="185"/>
+      <c r="AR6" s="185"/>
+      <c r="AS6" s="185"/>
+      <c r="AT6" s="185"/>
+      <c r="AU6" s="185"/>
+      <c r="AV6" s="185"/>
+      <c r="AW6" s="185"/>
+      <c r="AX6" s="185"/>
+      <c r="AY6" s="185"/>
+      <c r="AZ6" s="185"/>
+      <c r="BA6" s="185"/>
+      <c r="BB6" s="185"/>
+      <c r="BC6" s="185"/>
+      <c r="BD6" s="185"/>
+      <c r="BE6" s="185"/>
+      <c r="BF6" s="185"/>
+    </row>
+    <row r="7" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="141"/>
       <c r="B7" s="27" t="s">
         <v>81</v>
@@ -4384,8 +4880,44 @@
         <v>91</v>
       </c>
       <c r="X7" s="151"/>
-    </row>
-    <row r="8" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="190" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="203" t="s">
+        <v>551</v>
+      </c>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185"/>
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185"/>
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185"/>
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185"/>
+    </row>
+    <row r="8" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="141"/>
       <c r="B8" s="27" t="s">
         <v>92</v>
@@ -4437,8 +4969,40 @@
         <v>103</v>
       </c>
       <c r="X8" s="151"/>
-    </row>
-    <row r="9" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="185"/>
+      <c r="AB8" s="185"/>
+      <c r="AC8" s="185"/>
+      <c r="AD8" s="185"/>
+      <c r="AE8" s="185"/>
+      <c r="AF8" s="185"/>
+      <c r="AG8" s="185"/>
+      <c r="AH8" s="185"/>
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="185"/>
+      <c r="AK8" s="185"/>
+      <c r="AL8" s="185"/>
+      <c r="AM8" s="185"/>
+      <c r="AN8" s="185"/>
+      <c r="AO8" s="185"/>
+      <c r="AP8" s="185"/>
+      <c r="AQ8" s="185"/>
+      <c r="AR8" s="185"/>
+      <c r="AS8" s="185"/>
+      <c r="AT8" s="185"/>
+      <c r="AU8" s="185"/>
+      <c r="AV8" s="185"/>
+      <c r="AW8" s="185"/>
+      <c r="AX8" s="185"/>
+      <c r="AY8" s="185"/>
+      <c r="AZ8" s="185"/>
+      <c r="BA8" s="185"/>
+      <c r="BB8" s="185"/>
+      <c r="BC8" s="185"/>
+      <c r="BD8" s="185"/>
+      <c r="BE8" s="185"/>
+      <c r="BF8" s="185"/>
+    </row>
+    <row r="9" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="141"/>
       <c r="B9" s="27" t="s">
         <v>104</v>
@@ -4490,8 +5054,40 @@
         <v>113</v>
       </c>
       <c r="X9" s="151"/>
-    </row>
-    <row r="10" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="185"/>
+      <c r="AB9" s="185"/>
+      <c r="AC9" s="185"/>
+      <c r="AD9" s="185"/>
+      <c r="AE9" s="185"/>
+      <c r="AF9" s="185"/>
+      <c r="AG9" s="185"/>
+      <c r="AH9" s="185"/>
+      <c r="AI9" s="185"/>
+      <c r="AJ9" s="185"/>
+      <c r="AK9" s="185"/>
+      <c r="AL9" s="185"/>
+      <c r="AM9" s="185"/>
+      <c r="AN9" s="185"/>
+      <c r="AO9" s="185"/>
+      <c r="AP9" s="185"/>
+      <c r="AQ9" s="185"/>
+      <c r="AR9" s="185"/>
+      <c r="AS9" s="185"/>
+      <c r="AT9" s="185"/>
+      <c r="AU9" s="185"/>
+      <c r="AV9" s="185"/>
+      <c r="AW9" s="185"/>
+      <c r="AX9" s="185"/>
+      <c r="AY9" s="185"/>
+      <c r="AZ9" s="185"/>
+      <c r="BA9" s="185"/>
+      <c r="BB9" s="185"/>
+      <c r="BC9" s="185"/>
+      <c r="BD9" s="185"/>
+      <c r="BE9" s="185"/>
+      <c r="BF9" s="185"/>
+    </row>
+    <row r="10" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="141"/>
       <c r="B10" s="27" t="s">
         <v>114</v>
@@ -4543,8 +5139,40 @@
         <v>124</v>
       </c>
       <c r="X10" s="151"/>
-    </row>
-    <row r="11" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA10" s="185"/>
+      <c r="AB10" s="185"/>
+      <c r="AC10" s="185"/>
+      <c r="AD10" s="185"/>
+      <c r="AE10" s="185"/>
+      <c r="AF10" s="185"/>
+      <c r="AG10" s="185"/>
+      <c r="AH10" s="185"/>
+      <c r="AI10" s="185"/>
+      <c r="AJ10" s="185"/>
+      <c r="AK10" s="185"/>
+      <c r="AL10" s="185"/>
+      <c r="AM10" s="185"/>
+      <c r="AN10" s="185"/>
+      <c r="AO10" s="185"/>
+      <c r="AP10" s="185"/>
+      <c r="AQ10" s="185"/>
+      <c r="AR10" s="185"/>
+      <c r="AS10" s="185"/>
+      <c r="AT10" s="185"/>
+      <c r="AU10" s="185"/>
+      <c r="AV10" s="185"/>
+      <c r="AW10" s="185"/>
+      <c r="AX10" s="185"/>
+      <c r="AY10" s="185"/>
+      <c r="AZ10" s="185"/>
+      <c r="BA10" s="185"/>
+      <c r="BB10" s="185"/>
+      <c r="BC10" s="185"/>
+      <c r="BD10" s="185"/>
+      <c r="BE10" s="185"/>
+      <c r="BF10" s="185"/>
+    </row>
+    <row r="11" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="141"/>
       <c r="B11" s="41" t="s">
         <v>125</v>
@@ -4598,8 +5226,40 @@
         <v>136</v>
       </c>
       <c r="X11" s="151"/>
-    </row>
-    <row r="12" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA11" s="185"/>
+      <c r="AB11" s="185"/>
+      <c r="AC11" s="185"/>
+      <c r="AD11" s="185"/>
+      <c r="AE11" s="185"/>
+      <c r="AF11" s="185"/>
+      <c r="AG11" s="185"/>
+      <c r="AH11" s="185"/>
+      <c r="AI11" s="185"/>
+      <c r="AJ11" s="185"/>
+      <c r="AK11" s="185"/>
+      <c r="AL11" s="185"/>
+      <c r="AM11" s="185"/>
+      <c r="AN11" s="185"/>
+      <c r="AO11" s="185"/>
+      <c r="AP11" s="185"/>
+      <c r="AQ11" s="185"/>
+      <c r="AR11" s="185"/>
+      <c r="AS11" s="185"/>
+      <c r="AT11" s="185"/>
+      <c r="AU11" s="185"/>
+      <c r="AV11" s="185"/>
+      <c r="AW11" s="185"/>
+      <c r="AX11" s="185"/>
+      <c r="AY11" s="185"/>
+      <c r="AZ11" s="185"/>
+      <c r="BA11" s="185"/>
+      <c r="BB11" s="185"/>
+      <c r="BC11" s="185"/>
+      <c r="BD11" s="185"/>
+      <c r="BE11" s="185"/>
+      <c r="BF11" s="185"/>
+    </row>
+    <row r="12" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="141" t="s">
         <v>137</v>
       </c>
@@ -4643,8 +5303,40 @@
         <v>145</v>
       </c>
       <c r="X12" s="151"/>
-    </row>
-    <row r="13" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA12" s="185"/>
+      <c r="AB12" s="185"/>
+      <c r="AC12" s="185"/>
+      <c r="AD12" s="185"/>
+      <c r="AE12" s="185"/>
+      <c r="AF12" s="185"/>
+      <c r="AG12" s="185"/>
+      <c r="AH12" s="185"/>
+      <c r="AI12" s="185"/>
+      <c r="AJ12" s="185"/>
+      <c r="AK12" s="185"/>
+      <c r="AL12" s="185"/>
+      <c r="AM12" s="185"/>
+      <c r="AN12" s="185"/>
+      <c r="AO12" s="185"/>
+      <c r="AP12" s="185"/>
+      <c r="AQ12" s="185"/>
+      <c r="AR12" s="185"/>
+      <c r="AS12" s="185"/>
+      <c r="AT12" s="185"/>
+      <c r="AU12" s="185"/>
+      <c r="AV12" s="185"/>
+      <c r="AW12" s="185"/>
+      <c r="AX12" s="185"/>
+      <c r="AY12" s="185"/>
+      <c r="AZ12" s="185"/>
+      <c r="BA12" s="185"/>
+      <c r="BB12" s="185"/>
+      <c r="BC12" s="185"/>
+      <c r="BD12" s="185"/>
+      <c r="BE12" s="185"/>
+      <c r="BF12" s="185"/>
+    </row>
+    <row r="13" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="141"/>
       <c r="B13" s="27" t="s">
         <v>146</v>
@@ -4698,8 +5390,40 @@
         <v>156</v>
       </c>
       <c r="X13" s="151"/>
-    </row>
-    <row r="14" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA13" s="185"/>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="185"/>
+      <c r="AD13" s="185"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="185"/>
+      <c r="AG13" s="185"/>
+      <c r="AH13" s="185"/>
+      <c r="AI13" s="185"/>
+      <c r="AJ13" s="185"/>
+      <c r="AK13" s="185"/>
+      <c r="AL13" s="185"/>
+      <c r="AM13" s="185"/>
+      <c r="AN13" s="185"/>
+      <c r="AO13" s="185"/>
+      <c r="AP13" s="185"/>
+      <c r="AQ13" s="185"/>
+      <c r="AR13" s="185"/>
+      <c r="AS13" s="185"/>
+      <c r="AT13" s="185"/>
+      <c r="AU13" s="185"/>
+      <c r="AV13" s="185"/>
+      <c r="AW13" s="185"/>
+      <c r="AX13" s="185"/>
+      <c r="AY13" s="185"/>
+      <c r="AZ13" s="185"/>
+      <c r="BA13" s="185"/>
+      <c r="BB13" s="185"/>
+      <c r="BC13" s="185"/>
+      <c r="BD13" s="185"/>
+      <c r="BE13" s="185"/>
+      <c r="BF13" s="185"/>
+    </row>
+    <row r="14" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="141"/>
       <c r="B14" s="27" t="s">
         <v>157</v>
@@ -4753,8 +5477,40 @@
       <c r="X14" s="28" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="185"/>
+      <c r="AD14" s="185"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="185"/>
+      <c r="AG14" s="185"/>
+      <c r="AH14" s="185"/>
+      <c r="AI14" s="185"/>
+      <c r="AJ14" s="185"/>
+      <c r="AK14" s="185"/>
+      <c r="AL14" s="185"/>
+      <c r="AM14" s="185"/>
+      <c r="AN14" s="185"/>
+      <c r="AO14" s="185"/>
+      <c r="AP14" s="185"/>
+      <c r="AQ14" s="185"/>
+      <c r="AR14" s="185"/>
+      <c r="AS14" s="185"/>
+      <c r="AT14" s="185"/>
+      <c r="AU14" s="185"/>
+      <c r="AV14" s="185"/>
+      <c r="AW14" s="185"/>
+      <c r="AX14" s="185"/>
+      <c r="AY14" s="185"/>
+      <c r="AZ14" s="185"/>
+      <c r="BA14" s="185"/>
+      <c r="BB14" s="185"/>
+      <c r="BC14" s="185"/>
+      <c r="BD14" s="185"/>
+      <c r="BE14" s="185"/>
+      <c r="BF14" s="185"/>
+    </row>
+    <row r="15" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="141"/>
       <c r="B15" s="27" t="s">
         <v>169</v>
@@ -4808,8 +5564,40 @@
       <c r="X15" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="185"/>
+      <c r="AD15" s="185"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="185"/>
+      <c r="AG15" s="185"/>
+      <c r="AH15" s="185"/>
+      <c r="AI15" s="185"/>
+      <c r="AJ15" s="185"/>
+      <c r="AK15" s="185"/>
+      <c r="AL15" s="185"/>
+      <c r="AM15" s="185"/>
+      <c r="AN15" s="185"/>
+      <c r="AO15" s="185"/>
+      <c r="AP15" s="185"/>
+      <c r="AQ15" s="185"/>
+      <c r="AR15" s="185"/>
+      <c r="AS15" s="185"/>
+      <c r="AT15" s="185"/>
+      <c r="AU15" s="185"/>
+      <c r="AV15" s="185"/>
+      <c r="AW15" s="185"/>
+      <c r="AX15" s="185"/>
+      <c r="AY15" s="185"/>
+      <c r="AZ15" s="185"/>
+      <c r="BA15" s="185"/>
+      <c r="BB15" s="185"/>
+      <c r="BC15" s="185"/>
+      <c r="BD15" s="185"/>
+      <c r="BE15" s="185"/>
+      <c r="BF15" s="185"/>
+    </row>
+    <row r="16" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="141"/>
       <c r="B16" s="27" t="s">
         <v>181</v>
@@ -4862,8 +5650,40 @@
       <c r="X16" s="28" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="185"/>
+      <c r="AG16" s="185"/>
+      <c r="AH16" s="185"/>
+      <c r="AI16" s="185"/>
+      <c r="AJ16" s="185"/>
+      <c r="AK16" s="185"/>
+      <c r="AL16" s="185"/>
+      <c r="AM16" s="185"/>
+      <c r="AN16" s="185"/>
+      <c r="AO16" s="185"/>
+      <c r="AP16" s="185"/>
+      <c r="AQ16" s="185"/>
+      <c r="AR16" s="185"/>
+      <c r="AS16" s="185"/>
+      <c r="AT16" s="185"/>
+      <c r="AU16" s="185"/>
+      <c r="AV16" s="185"/>
+      <c r="AW16" s="185"/>
+      <c r="AX16" s="185"/>
+      <c r="AY16" s="185"/>
+      <c r="AZ16" s="185"/>
+      <c r="BA16" s="185"/>
+      <c r="BB16" s="185"/>
+      <c r="BC16" s="185"/>
+      <c r="BD16" s="185"/>
+      <c r="BE16" s="185"/>
+      <c r="BF16" s="185"/>
+    </row>
+    <row r="17" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="141"/>
       <c r="B17" s="27" t="s">
         <v>193</v>
@@ -4912,8 +5732,40 @@
       <c r="X17" s="44" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="185"/>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="185"/>
+      <c r="AD17" s="185"/>
+      <c r="AE17" s="185"/>
+      <c r="AF17" s="185"/>
+      <c r="AG17" s="185"/>
+      <c r="AH17" s="185"/>
+      <c r="AI17" s="185"/>
+      <c r="AJ17" s="185"/>
+      <c r="AK17" s="185"/>
+      <c r="AL17" s="185"/>
+      <c r="AM17" s="185"/>
+      <c r="AN17" s="185"/>
+      <c r="AO17" s="185"/>
+      <c r="AP17" s="185"/>
+      <c r="AQ17" s="185"/>
+      <c r="AR17" s="185"/>
+      <c r="AS17" s="185"/>
+      <c r="AT17" s="185"/>
+      <c r="AU17" s="185"/>
+      <c r="AV17" s="185"/>
+      <c r="AW17" s="185"/>
+      <c r="AX17" s="185"/>
+      <c r="AY17" s="185"/>
+      <c r="AZ17" s="185"/>
+      <c r="BA17" s="185"/>
+      <c r="BB17" s="185"/>
+      <c r="BC17" s="185"/>
+      <c r="BD17" s="185"/>
+      <c r="BE17" s="185"/>
+      <c r="BF17" s="185"/>
+    </row>
+    <row r="18" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="142"/>
       <c r="B18" s="134" t="s">
         <v>203</v>
@@ -4953,8 +5805,40 @@
       <c r="T18" s="44" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="185"/>
+      <c r="AD18" s="185"/>
+      <c r="AE18" s="185"/>
+      <c r="AF18" s="185"/>
+      <c r="AG18" s="185"/>
+      <c r="AH18" s="185"/>
+      <c r="AI18" s="185"/>
+      <c r="AJ18" s="185"/>
+      <c r="AK18" s="185"/>
+      <c r="AL18" s="185"/>
+      <c r="AM18" s="185"/>
+      <c r="AN18" s="185"/>
+      <c r="AO18" s="185"/>
+      <c r="AP18" s="185"/>
+      <c r="AQ18" s="185"/>
+      <c r="AR18" s="185"/>
+      <c r="AS18" s="185"/>
+      <c r="AT18" s="185"/>
+      <c r="AU18" s="185"/>
+      <c r="AV18" s="185"/>
+      <c r="AW18" s="185"/>
+      <c r="AX18" s="185"/>
+      <c r="AY18" s="185"/>
+      <c r="AZ18" s="185"/>
+      <c r="BA18" s="185"/>
+      <c r="BB18" s="185"/>
+      <c r="BC18" s="185"/>
+      <c r="BD18" s="185"/>
+      <c r="BE18" s="185"/>
+      <c r="BF18" s="185"/>
+    </row>
+    <row r="19" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="143" t="s">
         <v>210</v>
       </c>
@@ -5006,8 +5890,40 @@
       <c r="X19" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="185"/>
+      <c r="AB19" s="185"/>
+      <c r="AC19" s="185"/>
+      <c r="AD19" s="185"/>
+      <c r="AE19" s="185"/>
+      <c r="AF19" s="185"/>
+      <c r="AG19" s="185"/>
+      <c r="AH19" s="185"/>
+      <c r="AI19" s="185"/>
+      <c r="AJ19" s="185"/>
+      <c r="AK19" s="185"/>
+      <c r="AL19" s="185"/>
+      <c r="AM19" s="185"/>
+      <c r="AN19" s="185"/>
+      <c r="AO19" s="185"/>
+      <c r="AP19" s="185"/>
+      <c r="AQ19" s="185"/>
+      <c r="AR19" s="185"/>
+      <c r="AS19" s="185"/>
+      <c r="AT19" s="185"/>
+      <c r="AU19" s="185"/>
+      <c r="AV19" s="185"/>
+      <c r="AW19" s="185"/>
+      <c r="AX19" s="185"/>
+      <c r="AY19" s="185"/>
+      <c r="AZ19" s="185"/>
+      <c r="BA19" s="185"/>
+      <c r="BB19" s="185"/>
+      <c r="BC19" s="185"/>
+      <c r="BD19" s="185"/>
+      <c r="BE19" s="185"/>
+      <c r="BF19" s="185"/>
+    </row>
+    <row r="20" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="146"/>
       <c r="B20" s="27" t="s">
         <v>221</v>
@@ -5045,8 +5961,40 @@
       <c r="X20" s="31" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="185"/>
+      <c r="AB20" s="185"/>
+      <c r="AC20" s="185"/>
+      <c r="AD20" s="185"/>
+      <c r="AE20" s="185"/>
+      <c r="AF20" s="185"/>
+      <c r="AG20" s="185"/>
+      <c r="AH20" s="185"/>
+      <c r="AI20" s="185"/>
+      <c r="AJ20" s="185"/>
+      <c r="AK20" s="185"/>
+      <c r="AL20" s="185"/>
+      <c r="AM20" s="185"/>
+      <c r="AN20" s="185"/>
+      <c r="AO20" s="185"/>
+      <c r="AP20" s="185"/>
+      <c r="AQ20" s="185"/>
+      <c r="AR20" s="185"/>
+      <c r="AS20" s="185"/>
+      <c r="AT20" s="185"/>
+      <c r="AU20" s="185"/>
+      <c r="AV20" s="185"/>
+      <c r="AW20" s="185"/>
+      <c r="AX20" s="185"/>
+      <c r="AY20" s="185"/>
+      <c r="AZ20" s="185"/>
+      <c r="BA20" s="185"/>
+      <c r="BB20" s="185"/>
+      <c r="BC20" s="185"/>
+      <c r="BD20" s="185"/>
+      <c r="BE20" s="185"/>
+      <c r="BF20" s="185"/>
+    </row>
+    <row r="21" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="146"/>
       <c r="B21" s="27" t="s">
         <v>228</v>
@@ -5102,8 +6050,40 @@
       <c r="X21" s="28" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="185"/>
+      <c r="AB21" s="185"/>
+      <c r="AC21" s="185"/>
+      <c r="AD21" s="185"/>
+      <c r="AE21" s="185"/>
+      <c r="AF21" s="185"/>
+      <c r="AG21" s="185"/>
+      <c r="AH21" s="185"/>
+      <c r="AI21" s="185"/>
+      <c r="AJ21" s="185"/>
+      <c r="AK21" s="185"/>
+      <c r="AL21" s="185"/>
+      <c r="AM21" s="185"/>
+      <c r="AN21" s="185"/>
+      <c r="AO21" s="185"/>
+      <c r="AP21" s="185"/>
+      <c r="AQ21" s="185"/>
+      <c r="AR21" s="185"/>
+      <c r="AS21" s="185"/>
+      <c r="AT21" s="185"/>
+      <c r="AU21" s="185"/>
+      <c r="AV21" s="185"/>
+      <c r="AW21" s="185"/>
+      <c r="AX21" s="185"/>
+      <c r="AY21" s="185"/>
+      <c r="AZ21" s="185"/>
+      <c r="BA21" s="185"/>
+      <c r="BB21" s="185"/>
+      <c r="BC21" s="185"/>
+      <c r="BD21" s="185"/>
+      <c r="BE21" s="185"/>
+      <c r="BF21" s="185"/>
+    </row>
+    <row r="22" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="146"/>
       <c r="B22" s="27" t="s">
         <v>236</v>
@@ -5157,8 +6137,40 @@
       <c r="X22" s="28" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="185"/>
+      <c r="AB22" s="185"/>
+      <c r="AC22" s="185"/>
+      <c r="AD22" s="185"/>
+      <c r="AE22" s="185"/>
+      <c r="AF22" s="185"/>
+      <c r="AG22" s="185"/>
+      <c r="AH22" s="185"/>
+      <c r="AI22" s="185"/>
+      <c r="AJ22" s="185"/>
+      <c r="AK22" s="185"/>
+      <c r="AL22" s="185"/>
+      <c r="AM22" s="185"/>
+      <c r="AN22" s="185"/>
+      <c r="AO22" s="185"/>
+      <c r="AP22" s="185"/>
+      <c r="AQ22" s="185"/>
+      <c r="AR22" s="185"/>
+      <c r="AS22" s="185"/>
+      <c r="AT22" s="185"/>
+      <c r="AU22" s="185"/>
+      <c r="AV22" s="185"/>
+      <c r="AW22" s="185"/>
+      <c r="AX22" s="185"/>
+      <c r="AY22" s="185"/>
+      <c r="AZ22" s="185"/>
+      <c r="BA22" s="185"/>
+      <c r="BB22" s="185"/>
+      <c r="BC22" s="185"/>
+      <c r="BD22" s="185"/>
+      <c r="BE22" s="185"/>
+      <c r="BF22" s="185"/>
+    </row>
+    <row r="23" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="146"/>
       <c r="B23" s="27" t="s">
         <v>247</v>
@@ -5212,8 +6224,40 @@
       <c r="X23" s="28" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="185"/>
+      <c r="AB23" s="185"/>
+      <c r="AC23" s="185"/>
+      <c r="AD23" s="185"/>
+      <c r="AE23" s="185"/>
+      <c r="AF23" s="185"/>
+      <c r="AG23" s="185"/>
+      <c r="AH23" s="185"/>
+      <c r="AI23" s="185"/>
+      <c r="AJ23" s="185"/>
+      <c r="AK23" s="185"/>
+      <c r="AL23" s="185"/>
+      <c r="AM23" s="185"/>
+      <c r="AN23" s="185"/>
+      <c r="AO23" s="185"/>
+      <c r="AP23" s="185"/>
+      <c r="AQ23" s="185"/>
+      <c r="AR23" s="185"/>
+      <c r="AS23" s="185"/>
+      <c r="AT23" s="185"/>
+      <c r="AU23" s="185"/>
+      <c r="AV23" s="185"/>
+      <c r="AW23" s="185"/>
+      <c r="AX23" s="185"/>
+      <c r="AY23" s="185"/>
+      <c r="AZ23" s="185"/>
+      <c r="BA23" s="185"/>
+      <c r="BB23" s="185"/>
+      <c r="BC23" s="185"/>
+      <c r="BD23" s="185"/>
+      <c r="BE23" s="185"/>
+      <c r="BF23" s="185"/>
+    </row>
+    <row r="24" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="146"/>
       <c r="B24" s="27" t="s">
         <v>259</v>
@@ -5267,8 +6311,40 @@
       <c r="X24" s="28" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="185"/>
+      <c r="AB24" s="185"/>
+      <c r="AC24" s="185"/>
+      <c r="AD24" s="185"/>
+      <c r="AE24" s="185"/>
+      <c r="AF24" s="185"/>
+      <c r="AG24" s="185"/>
+      <c r="AH24" s="185"/>
+      <c r="AI24" s="185"/>
+      <c r="AJ24" s="185"/>
+      <c r="AK24" s="185"/>
+      <c r="AL24" s="185"/>
+      <c r="AM24" s="185"/>
+      <c r="AN24" s="185"/>
+      <c r="AO24" s="185"/>
+      <c r="AP24" s="185"/>
+      <c r="AQ24" s="185"/>
+      <c r="AR24" s="185"/>
+      <c r="AS24" s="185"/>
+      <c r="AT24" s="185"/>
+      <c r="AU24" s="185"/>
+      <c r="AV24" s="185"/>
+      <c r="AW24" s="185"/>
+      <c r="AX24" s="185"/>
+      <c r="AY24" s="185"/>
+      <c r="AZ24" s="185"/>
+      <c r="BA24" s="185"/>
+      <c r="BB24" s="185"/>
+      <c r="BC24" s="185"/>
+      <c r="BD24" s="185"/>
+      <c r="BE24" s="185"/>
+      <c r="BF24" s="185"/>
+    </row>
+    <row r="25" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="146"/>
       <c r="B25" s="27" t="s">
         <v>270</v>
@@ -5320,8 +6396,40 @@
       <c r="X25" s="28" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA25" s="185"/>
+      <c r="AB25" s="185"/>
+      <c r="AC25" s="185"/>
+      <c r="AD25" s="185"/>
+      <c r="AE25" s="185"/>
+      <c r="AF25" s="185"/>
+      <c r="AG25" s="185"/>
+      <c r="AH25" s="185"/>
+      <c r="AI25" s="185"/>
+      <c r="AJ25" s="185"/>
+      <c r="AK25" s="185"/>
+      <c r="AL25" s="185"/>
+      <c r="AM25" s="185"/>
+      <c r="AN25" s="185"/>
+      <c r="AO25" s="185"/>
+      <c r="AP25" s="185"/>
+      <c r="AQ25" s="185"/>
+      <c r="AR25" s="185"/>
+      <c r="AS25" s="185"/>
+      <c r="AT25" s="185"/>
+      <c r="AU25" s="185"/>
+      <c r="AV25" s="185"/>
+      <c r="AW25" s="185"/>
+      <c r="AX25" s="185"/>
+      <c r="AY25" s="185"/>
+      <c r="AZ25" s="185"/>
+      <c r="BA25" s="185"/>
+      <c r="BB25" s="185"/>
+      <c r="BC25" s="185"/>
+      <c r="BD25" s="185"/>
+      <c r="BE25" s="185"/>
+      <c r="BF25" s="185"/>
+    </row>
+    <row r="26" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="146"/>
       <c r="B26" s="27" t="s">
         <v>281</v>
@@ -5373,8 +6481,40 @@
       <c r="X26" s="28" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA26" s="185"/>
+      <c r="AB26" s="185"/>
+      <c r="AC26" s="185"/>
+      <c r="AD26" s="185"/>
+      <c r="AE26" s="185"/>
+      <c r="AF26" s="185"/>
+      <c r="AG26" s="185"/>
+      <c r="AH26" s="185"/>
+      <c r="AI26" s="185"/>
+      <c r="AJ26" s="185"/>
+      <c r="AK26" s="185"/>
+      <c r="AL26" s="185"/>
+      <c r="AM26" s="185"/>
+      <c r="AN26" s="185"/>
+      <c r="AO26" s="185"/>
+      <c r="AP26" s="185"/>
+      <c r="AQ26" s="185"/>
+      <c r="AR26" s="185"/>
+      <c r="AS26" s="185"/>
+      <c r="AT26" s="185"/>
+      <c r="AU26" s="185"/>
+      <c r="AV26" s="185"/>
+      <c r="AW26" s="185"/>
+      <c r="AX26" s="185"/>
+      <c r="AY26" s="185"/>
+      <c r="AZ26" s="185"/>
+      <c r="BA26" s="185"/>
+      <c r="BB26" s="185"/>
+      <c r="BC26" s="185"/>
+      <c r="BD26" s="185"/>
+      <c r="BE26" s="185"/>
+      <c r="BF26" s="185"/>
+    </row>
+    <row r="27" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="146"/>
       <c r="B27" s="27" t="s">
         <v>292</v>
@@ -5426,8 +6566,40 @@
       <c r="X27" s="44" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA27" s="185"/>
+      <c r="AB27" s="185"/>
+      <c r="AC27" s="185"/>
+      <c r="AD27" s="185"/>
+      <c r="AE27" s="185"/>
+      <c r="AF27" s="185"/>
+      <c r="AG27" s="185"/>
+      <c r="AH27" s="185"/>
+      <c r="AI27" s="185"/>
+      <c r="AJ27" s="185"/>
+      <c r="AK27" s="185"/>
+      <c r="AL27" s="185"/>
+      <c r="AM27" s="185"/>
+      <c r="AN27" s="185"/>
+      <c r="AO27" s="185"/>
+      <c r="AP27" s="185"/>
+      <c r="AQ27" s="185"/>
+      <c r="AR27" s="185"/>
+      <c r="AS27" s="185"/>
+      <c r="AT27" s="185"/>
+      <c r="AU27" s="185"/>
+      <c r="AV27" s="185"/>
+      <c r="AW27" s="185"/>
+      <c r="AX27" s="185"/>
+      <c r="AY27" s="185"/>
+      <c r="AZ27" s="185"/>
+      <c r="BA27" s="185"/>
+      <c r="BB27" s="185"/>
+      <c r="BC27" s="185"/>
+      <c r="BD27" s="185"/>
+      <c r="BE27" s="185"/>
+      <c r="BF27" s="185"/>
+    </row>
+    <row r="28" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="144"/>
       <c r="B28" s="41" t="s">
         <v>303</v>
@@ -5467,8 +6639,40 @@
       <c r="W28" s="70" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA28" s="185"/>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="185"/>
+      <c r="AD28" s="185"/>
+      <c r="AE28" s="185"/>
+      <c r="AF28" s="185"/>
+      <c r="AG28" s="185"/>
+      <c r="AH28" s="185"/>
+      <c r="AI28" s="185"/>
+      <c r="AJ28" s="185"/>
+      <c r="AK28" s="185"/>
+      <c r="AL28" s="185"/>
+      <c r="AM28" s="185"/>
+      <c r="AN28" s="185"/>
+      <c r="AO28" s="185"/>
+      <c r="AP28" s="185"/>
+      <c r="AQ28" s="185"/>
+      <c r="AR28" s="185"/>
+      <c r="AS28" s="185"/>
+      <c r="AT28" s="185"/>
+      <c r="AU28" s="185"/>
+      <c r="AV28" s="185"/>
+      <c r="AW28" s="185"/>
+      <c r="AX28" s="185"/>
+      <c r="AY28" s="185"/>
+      <c r="AZ28" s="185"/>
+      <c r="BA28" s="185"/>
+      <c r="BB28" s="185"/>
+      <c r="BC28" s="185"/>
+      <c r="BD28" s="185"/>
+      <c r="BE28" s="185"/>
+      <c r="BF28" s="185"/>
+    </row>
+    <row r="29" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="142" t="s">
         <v>495</v>
       </c>
@@ -5476,10 +6680,10 @@
         <v>496</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E29" s="15">
         <v>1</v>
@@ -5488,7 +6692,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J29" s="49" t="s">
         <v>208</v>
@@ -5509,17 +6713,49 @@
         <v>312</v>
       </c>
       <c r="U29" s="63"/>
-    </row>
-    <row r="30" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA29" s="185"/>
+      <c r="AB29" s="185"/>
+      <c r="AC29" s="185"/>
+      <c r="AD29" s="185"/>
+      <c r="AE29" s="185"/>
+      <c r="AF29" s="185"/>
+      <c r="AG29" s="185"/>
+      <c r="AH29" s="185"/>
+      <c r="AI29" s="185"/>
+      <c r="AJ29" s="185"/>
+      <c r="AK29" s="185"/>
+      <c r="AL29" s="185"/>
+      <c r="AM29" s="185"/>
+      <c r="AN29" s="185"/>
+      <c r="AO29" s="185"/>
+      <c r="AP29" s="185"/>
+      <c r="AQ29" s="185"/>
+      <c r="AR29" s="185"/>
+      <c r="AS29" s="185"/>
+      <c r="AT29" s="185"/>
+      <c r="AU29" s="185"/>
+      <c r="AV29" s="185"/>
+      <c r="AW29" s="185"/>
+      <c r="AX29" s="185"/>
+      <c r="AY29" s="185"/>
+      <c r="AZ29" s="185"/>
+      <c r="BA29" s="185"/>
+      <c r="BB29" s="185"/>
+      <c r="BC29" s="185"/>
+      <c r="BD29" s="185"/>
+      <c r="BE29" s="185"/>
+      <c r="BF29" s="185"/>
+    </row>
+    <row r="30" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="180"/>
       <c r="B30" s="27" t="s">
         <v>497</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E30" s="27">
         <v>1</v>
@@ -5540,17 +6776,49 @@
         <v>314</v>
       </c>
       <c r="U30" s="63"/>
-    </row>
-    <row r="31" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA30" s="185"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="185"/>
+      <c r="AD30" s="185"/>
+      <c r="AE30" s="185"/>
+      <c r="AF30" s="185"/>
+      <c r="AG30" s="185"/>
+      <c r="AH30" s="185"/>
+      <c r="AI30" s="185"/>
+      <c r="AJ30" s="185"/>
+      <c r="AK30" s="185"/>
+      <c r="AL30" s="185"/>
+      <c r="AM30" s="185"/>
+      <c r="AN30" s="185"/>
+      <c r="AO30" s="185"/>
+      <c r="AP30" s="185"/>
+      <c r="AQ30" s="185"/>
+      <c r="AR30" s="185"/>
+      <c r="AS30" s="185"/>
+      <c r="AT30" s="185"/>
+      <c r="AU30" s="185"/>
+      <c r="AV30" s="185"/>
+      <c r="AW30" s="185"/>
+      <c r="AX30" s="185"/>
+      <c r="AY30" s="185"/>
+      <c r="AZ30" s="185"/>
+      <c r="BA30" s="185"/>
+      <c r="BB30" s="185"/>
+      <c r="BC30" s="185"/>
+      <c r="BD30" s="185"/>
+      <c r="BE30" s="185"/>
+      <c r="BF30" s="185"/>
+    </row>
+    <row r="31" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="180"/>
       <c r="B31" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E31" s="27">
         <v>1</v>
@@ -5562,7 +6830,7 @@
         <v>79</v>
       </c>
       <c r="I31" s="70" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>319</v>
@@ -5588,17 +6856,49 @@
         <v>322</v>
       </c>
       <c r="U31" s="63"/>
-    </row>
-    <row r="32" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA31" s="185"/>
+      <c r="AB31" s="185"/>
+      <c r="AC31" s="185"/>
+      <c r="AD31" s="185"/>
+      <c r="AE31" s="185"/>
+      <c r="AF31" s="185"/>
+      <c r="AG31" s="185"/>
+      <c r="AH31" s="185"/>
+      <c r="AI31" s="185"/>
+      <c r="AJ31" s="185"/>
+      <c r="AK31" s="185"/>
+      <c r="AL31" s="185"/>
+      <c r="AM31" s="185"/>
+      <c r="AN31" s="185"/>
+      <c r="AO31" s="185"/>
+      <c r="AP31" s="185"/>
+      <c r="AQ31" s="185"/>
+      <c r="AR31" s="185"/>
+      <c r="AS31" s="185"/>
+      <c r="AT31" s="185"/>
+      <c r="AU31" s="185"/>
+      <c r="AV31" s="185"/>
+      <c r="AW31" s="185"/>
+      <c r="AX31" s="185"/>
+      <c r="AY31" s="185"/>
+      <c r="AZ31" s="185"/>
+      <c r="BA31" s="185"/>
+      <c r="BB31" s="185"/>
+      <c r="BC31" s="185"/>
+      <c r="BD31" s="185"/>
+      <c r="BE31" s="185"/>
+      <c r="BF31" s="185"/>
+    </row>
+    <row r="32" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="180"/>
       <c r="B32" s="27" t="s">
         <v>499</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E32" s="27">
         <v>13</v>
@@ -5607,7 +6907,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J32" s="21" t="s">
         <v>217</v>
@@ -5629,17 +6929,49 @@
         <v>329</v>
       </c>
       <c r="U32" s="63"/>
-    </row>
-    <row r="33" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA32" s="185"/>
+      <c r="AB32" s="185"/>
+      <c r="AC32" s="185"/>
+      <c r="AD32" s="185"/>
+      <c r="AE32" s="185"/>
+      <c r="AF32" s="185"/>
+      <c r="AG32" s="185"/>
+      <c r="AH32" s="185"/>
+      <c r="AI32" s="185"/>
+      <c r="AJ32" s="185"/>
+      <c r="AK32" s="185"/>
+      <c r="AL32" s="185"/>
+      <c r="AM32" s="185"/>
+      <c r="AN32" s="185"/>
+      <c r="AO32" s="185"/>
+      <c r="AP32" s="185"/>
+      <c r="AQ32" s="185"/>
+      <c r="AR32" s="185"/>
+      <c r="AS32" s="185"/>
+      <c r="AT32" s="185"/>
+      <c r="AU32" s="185"/>
+      <c r="AV32" s="185"/>
+      <c r="AW32" s="185"/>
+      <c r="AX32" s="185"/>
+      <c r="AY32" s="185"/>
+      <c r="AZ32" s="185"/>
+      <c r="BA32" s="185"/>
+      <c r="BB32" s="185"/>
+      <c r="BC32" s="185"/>
+      <c r="BD32" s="185"/>
+      <c r="BE32" s="185"/>
+      <c r="BF32" s="185"/>
+    </row>
+    <row r="33" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="180"/>
       <c r="B33" s="27" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E33" s="27">
         <v>1</v>
@@ -5648,7 +6980,7 @@
         <v>37</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J33" s="34" t="s">
         <v>224</v>
@@ -5670,17 +7002,49 @@
         <v>334</v>
       </c>
       <c r="U33" s="63"/>
-    </row>
-    <row r="34" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA33" s="185"/>
+      <c r="AB33" s="185"/>
+      <c r="AC33" s="185"/>
+      <c r="AD33" s="185"/>
+      <c r="AE33" s="185"/>
+      <c r="AF33" s="185"/>
+      <c r="AG33" s="185"/>
+      <c r="AH33" s="185"/>
+      <c r="AI33" s="185"/>
+      <c r="AJ33" s="185"/>
+      <c r="AK33" s="185"/>
+      <c r="AL33" s="185"/>
+      <c r="AM33" s="185"/>
+      <c r="AN33" s="185"/>
+      <c r="AO33" s="185"/>
+      <c r="AP33" s="185"/>
+      <c r="AQ33" s="185"/>
+      <c r="AR33" s="185"/>
+      <c r="AS33" s="185"/>
+      <c r="AT33" s="185"/>
+      <c r="AU33" s="185"/>
+      <c r="AV33" s="185"/>
+      <c r="AW33" s="185"/>
+      <c r="AX33" s="185"/>
+      <c r="AY33" s="185"/>
+      <c r="AZ33" s="185"/>
+      <c r="BA33" s="185"/>
+      <c r="BB33" s="185"/>
+      <c r="BC33" s="185"/>
+      <c r="BD33" s="185"/>
+      <c r="BE33" s="185"/>
+      <c r="BF33" s="185"/>
+    </row>
+    <row r="34" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="180"/>
       <c r="B34" s="27" t="s">
         <v>500</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E34" s="27">
         <v>1</v>
@@ -5709,20 +7073,52 @@
         <v>339</v>
       </c>
       <c r="U34" s="63"/>
-    </row>
-    <row r="35" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA34" s="185"/>
+      <c r="AB34" s="185"/>
+      <c r="AC34" s="185"/>
+      <c r="AD34" s="185"/>
+      <c r="AE34" s="185"/>
+      <c r="AF34" s="185"/>
+      <c r="AG34" s="185"/>
+      <c r="AH34" s="185"/>
+      <c r="AI34" s="185"/>
+      <c r="AJ34" s="185"/>
+      <c r="AK34" s="185"/>
+      <c r="AL34" s="185"/>
+      <c r="AM34" s="185"/>
+      <c r="AN34" s="185"/>
+      <c r="AO34" s="185"/>
+      <c r="AP34" s="185"/>
+      <c r="AQ34" s="185"/>
+      <c r="AR34" s="185"/>
+      <c r="AS34" s="185"/>
+      <c r="AT34" s="185"/>
+      <c r="AU34" s="185"/>
+      <c r="AV34" s="185"/>
+      <c r="AW34" s="185"/>
+      <c r="AX34" s="185"/>
+      <c r="AY34" s="185"/>
+      <c r="AZ34" s="185"/>
+      <c r="BA34" s="185"/>
+      <c r="BB34" s="185"/>
+      <c r="BC34" s="185"/>
+      <c r="BD34" s="185"/>
+      <c r="BE34" s="185"/>
+      <c r="BF34" s="185"/>
+    </row>
+    <row r="35" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180"/>
       <c r="B35" s="27" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>294</v>
       </c>
       <c r="E35" s="27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>37</v>
@@ -5750,20 +7146,52 @@
         <v>345</v>
       </c>
       <c r="U35" s="63"/>
-    </row>
-    <row r="36" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA35" s="185"/>
+      <c r="AB35" s="185"/>
+      <c r="AC35" s="185"/>
+      <c r="AD35" s="185"/>
+      <c r="AE35" s="185"/>
+      <c r="AF35" s="185"/>
+      <c r="AG35" s="185"/>
+      <c r="AH35" s="185"/>
+      <c r="AI35" s="185"/>
+      <c r="AJ35" s="185"/>
+      <c r="AK35" s="185"/>
+      <c r="AL35" s="185"/>
+      <c r="AM35" s="185"/>
+      <c r="AN35" s="185"/>
+      <c r="AO35" s="185"/>
+      <c r="AP35" s="185"/>
+      <c r="AQ35" s="185"/>
+      <c r="AR35" s="185"/>
+      <c r="AS35" s="185"/>
+      <c r="AT35" s="185"/>
+      <c r="AU35" s="185"/>
+      <c r="AV35" s="185"/>
+      <c r="AW35" s="185"/>
+      <c r="AX35" s="185"/>
+      <c r="AY35" s="185"/>
+      <c r="AZ35" s="185"/>
+      <c r="BA35" s="185"/>
+      <c r="BB35" s="185"/>
+      <c r="BC35" s="185"/>
+      <c r="BD35" s="185"/>
+      <c r="BE35" s="185"/>
+      <c r="BF35" s="185"/>
+    </row>
+    <row r="36" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="181"/>
       <c r="B36" s="41" t="s">
-        <v>501</v>
+        <v>543</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="E36" s="41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" s="43" t="s">
         <v>24</v>
@@ -5789,8 +7217,40 @@
         <v>349</v>
       </c>
       <c r="U36" s="63"/>
-    </row>
-    <row r="37" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA36" s="185"/>
+      <c r="AB36" s="185"/>
+      <c r="AC36" s="185"/>
+      <c r="AD36" s="185"/>
+      <c r="AE36" s="185"/>
+      <c r="AF36" s="185"/>
+      <c r="AG36" s="185"/>
+      <c r="AH36" s="185"/>
+      <c r="AI36" s="185"/>
+      <c r="AJ36" s="185"/>
+      <c r="AK36" s="185"/>
+      <c r="AL36" s="185"/>
+      <c r="AM36" s="185"/>
+      <c r="AN36" s="185"/>
+      <c r="AO36" s="185"/>
+      <c r="AP36" s="185"/>
+      <c r="AQ36" s="185"/>
+      <c r="AR36" s="185"/>
+      <c r="AS36" s="185"/>
+      <c r="AT36" s="185"/>
+      <c r="AU36" s="185"/>
+      <c r="AV36" s="185"/>
+      <c r="AW36" s="185"/>
+      <c r="AX36" s="185"/>
+      <c r="AY36" s="185"/>
+      <c r="AZ36" s="185"/>
+      <c r="BA36" s="185"/>
+      <c r="BB36" s="185"/>
+      <c r="BC36" s="185"/>
+      <c r="BD36" s="185"/>
+      <c r="BE36" s="185"/>
+      <c r="BF36" s="185"/>
+    </row>
+    <row r="37" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G37" s="63"/>
       <c r="J37" s="34" t="s">
         <v>266</v>
@@ -5812,8 +7272,40 @@
         <v>355</v>
       </c>
       <c r="U37" s="63"/>
-    </row>
-    <row r="38" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA37" s="185"/>
+      <c r="AB37" s="185"/>
+      <c r="AC37" s="185"/>
+      <c r="AD37" s="185"/>
+      <c r="AE37" s="185"/>
+      <c r="AF37" s="185"/>
+      <c r="AG37" s="185"/>
+      <c r="AH37" s="185"/>
+      <c r="AI37" s="185"/>
+      <c r="AJ37" s="185"/>
+      <c r="AK37" s="185"/>
+      <c r="AL37" s="185"/>
+      <c r="AM37" s="185"/>
+      <c r="AN37" s="185"/>
+      <c r="AO37" s="185"/>
+      <c r="AP37" s="185"/>
+      <c r="AQ37" s="185"/>
+      <c r="AR37" s="185"/>
+      <c r="AS37" s="185"/>
+      <c r="AT37" s="185"/>
+      <c r="AU37" s="185"/>
+      <c r="AV37" s="185"/>
+      <c r="AW37" s="185"/>
+      <c r="AX37" s="185"/>
+      <c r="AY37" s="185"/>
+      <c r="AZ37" s="185"/>
+      <c r="BA37" s="185"/>
+      <c r="BB37" s="185"/>
+      <c r="BC37" s="185"/>
+      <c r="BD37" s="185"/>
+      <c r="BE37" s="185"/>
+      <c r="BF37" s="185"/>
+    </row>
+    <row r="38" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G38" s="63"/>
       <c r="J38" s="34" t="s">
         <v>277</v>
@@ -5835,8 +7327,40 @@
         <v>357</v>
       </c>
       <c r="U38" s="63"/>
-    </row>
-    <row r="39" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA38" s="185"/>
+      <c r="AB38" s="185"/>
+      <c r="AC38" s="185"/>
+      <c r="AD38" s="185"/>
+      <c r="AE38" s="185"/>
+      <c r="AF38" s="185"/>
+      <c r="AG38" s="185"/>
+      <c r="AH38" s="185"/>
+      <c r="AI38" s="185"/>
+      <c r="AJ38" s="185"/>
+      <c r="AK38" s="185"/>
+      <c r="AL38" s="185"/>
+      <c r="AM38" s="185"/>
+      <c r="AN38" s="185"/>
+      <c r="AO38" s="185"/>
+      <c r="AP38" s="185"/>
+      <c r="AQ38" s="185"/>
+      <c r="AR38" s="185"/>
+      <c r="AS38" s="185"/>
+      <c r="AT38" s="185"/>
+      <c r="AU38" s="185"/>
+      <c r="AV38" s="185"/>
+      <c r="AW38" s="185"/>
+      <c r="AX38" s="185"/>
+      <c r="AY38" s="185"/>
+      <c r="AZ38" s="185"/>
+      <c r="BA38" s="185"/>
+      <c r="BB38" s="185"/>
+      <c r="BC38" s="185"/>
+      <c r="BD38" s="185"/>
+      <c r="BE38" s="185"/>
+      <c r="BF38" s="185"/>
+    </row>
+    <row r="39" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G39" s="63"/>
       <c r="J39" s="34" t="s">
         <v>288</v>
@@ -5859,7 +7383,7 @@
       </c>
       <c r="U39" s="63"/>
     </row>
-    <row r="40" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G40" s="63"/>
       <c r="J40" s="34" t="s">
         <v>299</v>
@@ -5882,7 +7406,7 @@
       </c>
       <c r="U40" s="63"/>
     </row>
-    <row r="41" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G41" s="63"/>
       <c r="J41" s="34" t="s">
         <v>307</v>
@@ -5905,7 +7429,7 @@
       </c>
       <c r="U41" s="63"/>
     </row>
-    <row r="42" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G42" s="63"/>
       <c r="J42" s="34" t="s">
         <v>311</v>
@@ -5928,7 +7452,7 @@
       </c>
       <c r="U42" s="63"/>
     </row>
-    <row r="43" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J43" s="34" t="s">
         <v>313</v>
       </c>
@@ -5949,7 +7473,7 @@
       </c>
       <c r="U43" s="63"/>
     </row>
-    <row r="44" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J44" s="34" t="s">
         <v>321</v>
       </c>
@@ -5970,7 +7494,7 @@
       </c>
       <c r="U44" s="63"/>
     </row>
-    <row r="45" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="34" t="s">
         <v>328</v>
       </c>
@@ -5985,7 +7509,7 @@
       <c r="O45" s="9"/>
       <c r="U45" s="63"/>
     </row>
-    <row r="46" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="75" t="s">
         <v>333</v>
       </c>
@@ -5998,7 +7522,7 @@
       <c r="O46" s="9"/>
       <c r="U46" s="63"/>
     </row>
-    <row r="47" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J47" s="49" t="s">
         <v>338</v>
       </c>
@@ -6011,7 +7535,7 @@
       <c r="O47" s="9"/>
       <c r="U47" s="63"/>
     </row>
-    <row r="48" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O48" s="9"/>
       <c r="U48" s="63"/>
     </row>
@@ -6358,10 +7882,10 @@
         <v>495</v>
       </c>
       <c r="B79" s="171" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C79" s="171" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D79" s="171" t="s">
         <v>44</v>
@@ -6584,13 +8108,13 @@
     </row>
     <row r="100" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="143" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D100" s="81" t="s">
         <v>31</v>
@@ -6599,7 +8123,7 @@
     <row r="101" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="144"/>
       <c r="B101" s="41" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C101" s="41" t="s">
         <v>397</v>
@@ -6609,8 +8133,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
     <mergeCell ref="A100:A101"/>
+    <mergeCell ref="AA1:BF1"/>
+    <mergeCell ref="AH3:BF3"/>
+    <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="R1:R4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="J2:J5"/>

--- a/doc/tinyvm.xlsx
+++ b/doc/tinyvm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="591">
   <si>
     <t>Device</t>
   </si>
@@ -1712,9 +1712,6 @@
     <t>Fire iterrupt each time</t>
   </si>
   <si>
-    <t>TM_TIMER_R[0..9]</t>
-  </si>
-  <si>
     <t>Current time of each timer</t>
   </si>
   <si>
@@ -1746,6 +1743,60 @@
   </si>
   <si>
     <t>0xF0050000</t>
+  </si>
+  <si>
+    <t>TM_COUNTER[0..9]</t>
+  </si>
+  <si>
+    <t>BIOS</t>
+  </si>
+  <si>
+    <t>BIOS_CODE</t>
+  </si>
+  <si>
+    <t>BIOS_TYPE</t>
+  </si>
+  <si>
+    <t>BIOS_VERSION</t>
+  </si>
+  <si>
+    <t>BIOS_NAME</t>
+  </si>
+  <si>
+    <t>BIOS device name</t>
+  </si>
+  <si>
+    <t>BIOS device version</t>
+  </si>
+  <si>
+    <t>Start of BIOS code</t>
+  </si>
+  <si>
+    <t>(code)</t>
+  </si>
+  <si>
+    <t>0xF0060000</t>
+  </si>
+  <si>
+    <t>0xF0060001</t>
+  </si>
+  <si>
+    <t>0xF0060003</t>
+  </si>
+  <si>
+    <t>0xF0060010</t>
+  </si>
+  <si>
+    <t>DEV_TIMER (0x5)</t>
+  </si>
+  <si>
+    <t>DEV_BIOS (0x6)</t>
+  </si>
+  <si>
+    <t>TinyBIOS</t>
+  </si>
+  <si>
+    <t>TinyTimer</t>
   </si>
 </sst>
 </file>
@@ -2599,7 +2650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3044,32 +3095,89 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3077,63 +3185,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3143,19 +3194,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3180,11 +3231,17 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4265,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4342,7 +4399,7 @@
       <c r="P1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="188" t="s">
+      <c r="R1" s="179" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="14" t="s">
@@ -4360,43 +4417,43 @@
       <c r="X1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="180" t="s">
+      <c r="AA1" s="171" t="s">
         <v>545</v>
       </c>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="181"/>
-      <c r="AK1" s="181"/>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="181"/>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="181"/>
-      <c r="AS1" s="181"/>
-      <c r="AT1" s="181"/>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="181"/>
-      <c r="BA1" s="181"/>
-      <c r="BB1" s="181"/>
-      <c r="BC1" s="181"/>
-      <c r="BD1" s="181"/>
-      <c r="BE1" s="181"/>
-      <c r="BF1" s="182"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="172"/>
+      <c r="AK1" s="172"/>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="172"/>
+      <c r="AO1" s="172"/>
+      <c r="AP1" s="172"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="172"/>
+      <c r="AS1" s="172"/>
+      <c r="AT1" s="172"/>
+      <c r="AU1" s="172"/>
+      <c r="AV1" s="172"/>
+      <c r="AW1" s="172"/>
+      <c r="AX1" s="172"/>
+      <c r="AY1" s="172"/>
+      <c r="AZ1" s="172"/>
+      <c r="BA1" s="172"/>
+      <c r="BB1" s="172"/>
+      <c r="BC1" s="172"/>
+      <c r="BD1" s="172"/>
+      <c r="BE1" s="172"/>
+      <c r="BF1" s="173"/>
     </row>
     <row r="2" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="180" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -4416,7 +4473,7 @@
       </c>
       <c r="G2" s="15"/>
       <c r="I2" s="20"/>
-      <c r="J2" s="189" t="s">
+      <c r="J2" s="181" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="21" t="s">
@@ -4433,7 +4490,7 @@
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="25"/>
-      <c r="R2" s="188"/>
+      <c r="R2" s="179"/>
       <c r="S2" s="26" t="s">
         <v>29</v>
       </c>
@@ -4547,7 +4604,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175"/>
+      <c r="A3" s="180"/>
       <c r="B3" s="26" t="s">
         <v>34</v>
       </c>
@@ -4569,7 +4626,7 @@
       <c r="I3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="189"/>
+      <c r="J3" s="181"/>
       <c r="K3" s="34"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -4580,7 +4637,7 @@
       <c r="P3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="188"/>
+      <c r="R3" s="179"/>
       <c r="S3" s="26" t="s">
         <v>42</v>
       </c>
@@ -4593,7 +4650,7 @@
       <c r="W3" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="190" t="s">
+      <c r="X3" s="182" t="s">
         <v>45</v>
       </c>
       <c r="AA3" s="159" t="s">
@@ -4608,41 +4665,41 @@
       <c r="AD3" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="185" t="s">
+      <c r="AE3" s="176" t="s">
         <v>541</v>
       </c>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="187"/>
-      <c r="AH3" s="183" t="s">
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="178"/>
+      <c r="AH3" s="174" t="s">
         <v>536</v>
       </c>
-      <c r="AI3" s="183"/>
-      <c r="AJ3" s="183"/>
-      <c r="AK3" s="183"/>
-      <c r="AL3" s="183"/>
-      <c r="AM3" s="183"/>
-      <c r="AN3" s="183"/>
-      <c r="AO3" s="183"/>
-      <c r="AP3" s="183"/>
-      <c r="AQ3" s="183"/>
-      <c r="AR3" s="183"/>
-      <c r="AS3" s="183"/>
-      <c r="AT3" s="183"/>
-      <c r="AU3" s="183"/>
-      <c r="AV3" s="183"/>
-      <c r="AW3" s="183"/>
-      <c r="AX3" s="183"/>
-      <c r="AY3" s="183"/>
-      <c r="AZ3" s="183"/>
-      <c r="BA3" s="183"/>
-      <c r="BB3" s="183"/>
-      <c r="BC3" s="183"/>
-      <c r="BD3" s="183"/>
-      <c r="BE3" s="183"/>
-      <c r="BF3" s="184"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
+      <c r="AT3" s="174"/>
+      <c r="AU3" s="174"/>
+      <c r="AV3" s="174"/>
+      <c r="AW3" s="174"/>
+      <c r="AX3" s="174"/>
+      <c r="AY3" s="174"/>
+      <c r="AZ3" s="174"/>
+      <c r="BA3" s="174"/>
+      <c r="BB3" s="174"/>
+      <c r="BC3" s="174"/>
+      <c r="BD3" s="174"/>
+      <c r="BE3" s="174"/>
+      <c r="BF3" s="175"/>
     </row>
     <row r="4" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175"/>
+      <c r="A4" s="180"/>
       <c r="B4" s="40" t="s">
         <v>46</v>
       </c>
@@ -4664,7 +4721,7 @@
       <c r="I4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="189"/>
+      <c r="J4" s="181"/>
       <c r="K4" s="34"/>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -4675,7 +4732,7 @@
       <c r="P4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="188"/>
+      <c r="R4" s="179"/>
       <c r="S4" s="40" t="s">
         <v>53</v>
       </c>
@@ -4688,7 +4745,7 @@
       <c r="W4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="190"/>
+      <c r="X4" s="182"/>
       <c r="AA4" s="152" t="s">
         <v>80</v>
       </c>
@@ -4727,7 +4784,7 @@
       <c r="BF4" s="150"/>
     </row>
     <row r="5" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="180" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -4751,7 +4808,7 @@
       <c r="I5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="189"/>
+      <c r="J5" s="181"/>
       <c r="K5" s="34"/>
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
@@ -4762,7 +4819,7 @@
       <c r="P5" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="188" t="s">
+      <c r="R5" s="179" t="s">
         <v>65</v>
       </c>
       <c r="S5" s="14" t="s">
@@ -4777,7 +4834,7 @@
       <c r="W5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="190"/>
+      <c r="X5" s="182"/>
       <c r="AA5" s="153" t="s">
         <v>257</v>
       </c>
@@ -4816,7 +4873,7 @@
       <c r="BF5" s="150"/>
     </row>
     <row r="6" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="26" t="s">
         <v>69</v>
       </c>
@@ -4838,7 +4895,7 @@
       <c r="I6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="191" t="s">
+      <c r="J6" s="183" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="45" t="s">
@@ -4855,7 +4912,7 @@
       <c r="P6" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="188"/>
+      <c r="R6" s="179"/>
       <c r="S6" s="26" t="s">
         <v>77</v>
       </c>
@@ -4868,7 +4925,7 @@
       <c r="W6" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="X6" s="190"/>
+      <c r="X6" s="182"/>
       <c r="AA6" s="154" t="s">
         <v>56</v>
       </c>
@@ -4907,7 +4964,7 @@
       <c r="BF6" s="150"/>
     </row>
     <row r="7" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="26" t="s">
         <v>81</v>
       </c>
@@ -4929,7 +4986,7 @@
       <c r="I7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="191"/>
+      <c r="J7" s="183"/>
       <c r="K7" s="45" t="s">
         <v>84</v>
       </c>
@@ -4944,7 +5001,7 @@
       <c r="P7" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="188"/>
+      <c r="R7" s="179"/>
       <c r="S7" s="26" t="s">
         <v>88</v>
       </c>
@@ -4957,7 +5014,7 @@
       <c r="W7" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="X7" s="190"/>
+      <c r="X7" s="182"/>
       <c r="AA7" s="155" t="s">
         <v>32</v>
       </c>
@@ -4996,7 +5053,7 @@
       <c r="BF7" s="150"/>
     </row>
     <row r="8" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175"/>
+      <c r="A8" s="180"/>
       <c r="B8" s="26" t="s">
         <v>92</v>
       </c>
@@ -5018,7 +5075,7 @@
       <c r="I8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="191"/>
+      <c r="J8" s="183"/>
       <c r="K8" s="45" t="s">
         <v>96</v>
       </c>
@@ -5033,7 +5090,7 @@
       <c r="P8" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="188"/>
+      <c r="R8" s="179"/>
       <c r="S8" s="26" t="s">
         <v>100</v>
       </c>
@@ -5046,7 +5103,7 @@
       <c r="W8" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="X8" s="190"/>
+      <c r="X8" s="182"/>
       <c r="AA8" s="150"/>
       <c r="AB8" s="150"/>
       <c r="AC8" s="150"/>
@@ -5081,7 +5138,7 @@
       <c r="BF8" s="150"/>
     </row>
     <row r="9" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="26" t="s">
         <v>104</v>
       </c>
@@ -5101,7 +5158,7 @@
       <c r="I9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="192" t="s">
+      <c r="J9" s="184" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="45" t="s">
@@ -5118,7 +5175,7 @@
       <c r="P9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="R9" s="188"/>
+      <c r="R9" s="179"/>
       <c r="S9" s="26" t="s">
         <v>110</v>
       </c>
@@ -5131,7 +5188,7 @@
       <c r="W9" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="X9" s="190"/>
+      <c r="X9" s="182"/>
       <c r="AA9" s="150"/>
       <c r="AB9" s="150"/>
       <c r="AC9" s="150"/>
@@ -5166,7 +5223,7 @@
       <c r="BF9" s="150"/>
     </row>
     <row r="10" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="175"/>
+      <c r="A10" s="180"/>
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -5188,7 +5245,7 @@
       <c r="I10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="192"/>
+      <c r="J10" s="184"/>
       <c r="K10" s="45" t="s">
         <v>118</v>
       </c>
@@ -5203,7 +5260,7 @@
       <c r="P10" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="R10" s="188"/>
+      <c r="R10" s="179"/>
       <c r="S10" s="40" t="s">
         <v>121</v>
       </c>
@@ -5216,7 +5273,7 @@
       <c r="W10" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="X10" s="190"/>
+      <c r="X10" s="182"/>
       <c r="AA10" s="150"/>
       <c r="AB10" s="150"/>
       <c r="AC10" s="150"/>
@@ -5251,7 +5308,7 @@
       <c r="BF10" s="150"/>
     </row>
     <row r="11" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="175"/>
+      <c r="A11" s="180"/>
       <c r="B11" s="40" t="s">
         <v>125</v>
       </c>
@@ -5273,7 +5330,7 @@
       <c r="I11" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="192"/>
+      <c r="J11" s="184"/>
       <c r="K11" s="49" t="s">
         <v>128</v>
       </c>
@@ -5288,7 +5345,7 @@
       <c r="P11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="R11" s="188" t="s">
+      <c r="R11" s="179" t="s">
         <v>132</v>
       </c>
       <c r="S11" s="14" t="s">
@@ -5303,7 +5360,7 @@
       <c r="W11" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="X11" s="190"/>
+      <c r="X11" s="182"/>
       <c r="AA11" s="150"/>
       <c r="AB11" s="150"/>
       <c r="AC11" s="150"/>
@@ -5338,7 +5395,7 @@
       <c r="BF11" s="150"/>
     </row>
     <row r="12" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="180" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -5367,7 +5424,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="R12" s="188"/>
+      <c r="R12" s="179"/>
       <c r="S12" s="26" t="s">
         <v>142</v>
       </c>
@@ -5380,7 +5437,7 @@
       <c r="W12" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="X12" s="190"/>
+      <c r="X12" s="182"/>
       <c r="AA12" s="150"/>
       <c r="AB12" s="150"/>
       <c r="AC12" s="150"/>
@@ -5415,7 +5472,7 @@
       <c r="BF12" s="150"/>
     </row>
     <row r="13" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="175"/>
+      <c r="A13" s="180"/>
       <c r="B13" s="26" t="s">
         <v>146</v>
       </c>
@@ -5454,7 +5511,7 @@
         <v>152</v>
       </c>
       <c r="P13" s="8"/>
-      <c r="R13" s="188"/>
+      <c r="R13" s="179"/>
       <c r="S13" s="26" t="s">
         <v>153</v>
       </c>
@@ -5467,7 +5524,7 @@
       <c r="W13" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="X13" s="190"/>
+      <c r="X13" s="182"/>
       <c r="AA13" s="150"/>
       <c r="AB13" s="150"/>
       <c r="AC13" s="150"/>
@@ -5502,7 +5559,7 @@
       <c r="BF13" s="150"/>
     </row>
     <row r="14" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="175"/>
+      <c r="A14" s="180"/>
       <c r="B14" s="26" t="s">
         <v>157</v>
       </c>
@@ -5539,7 +5596,7 @@
         <v>163</v>
       </c>
       <c r="P14" s="8"/>
-      <c r="R14" s="188"/>
+      <c r="R14" s="179"/>
       <c r="S14" s="26" t="s">
         <v>164</v>
       </c>
@@ -5589,7 +5646,7 @@
       <c r="BF14" s="150"/>
     </row>
     <row r="15" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="175"/>
+      <c r="A15" s="180"/>
       <c r="B15" s="26" t="s">
         <v>169</v>
       </c>
@@ -5626,7 +5683,7 @@
         <v>175</v>
       </c>
       <c r="P15" s="8"/>
-      <c r="R15" s="188"/>
+      <c r="R15" s="179"/>
       <c r="S15" s="26" t="s">
         <v>176</v>
       </c>
@@ -5676,7 +5733,7 @@
       <c r="BF15" s="150"/>
     </row>
     <row r="16" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="175"/>
+      <c r="A16" s="180"/>
       <c r="B16" s="26" t="s">
         <v>181</v>
       </c>
@@ -5712,7 +5769,7 @@
         <v>187</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="R16" s="188"/>
+      <c r="R16" s="179"/>
       <c r="S16" s="26" t="s">
         <v>188</v>
       </c>
@@ -5762,7 +5819,7 @@
       <c r="BF16" s="150"/>
     </row>
     <row r="17" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="175"/>
+      <c r="A17" s="180"/>
       <c r="B17" s="26" t="s">
         <v>193</v>
       </c>
@@ -5794,7 +5851,7 @@
       <c r="N17" s="56"/>
       <c r="O17" s="57"/>
       <c r="P17" s="8"/>
-      <c r="R17" s="188"/>
+      <c r="R17" s="179"/>
       <c r="S17" s="26" t="s">
         <v>198</v>
       </c>
@@ -5844,7 +5901,7 @@
       <c r="BF17" s="150"/>
     </row>
     <row r="18" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="133" t="s">
         <v>203</v>
       </c>
@@ -5876,7 +5933,7 @@
       <c r="N18" s="59"/>
       <c r="O18" s="60"/>
       <c r="P18" s="8"/>
-      <c r="R18" s="188"/>
+      <c r="R18" s="179"/>
       <c r="S18" s="40" t="s">
         <v>208</v>
       </c>
@@ -5926,7 +5983,7 @@
       <c r="C19" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="18" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="14">
@@ -5949,7 +6006,7 @@
       <c r="N19" s="50"/>
       <c r="O19" s="61"/>
       <c r="P19" s="8"/>
-      <c r="R19" s="188" t="s">
+      <c r="R19" s="179" t="s">
         <v>216</v>
       </c>
       <c r="S19" s="14" t="s">
@@ -6002,14 +6059,14 @@
       <c r="BF19" s="150"/>
     </row>
     <row r="20" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="170"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="32" t="s">
         <v>223</v>
       </c>
       <c r="E20" s="26">
@@ -6022,7 +6079,7 @@
         <v>31</v>
       </c>
       <c r="P20" s="8"/>
-      <c r="R20" s="188"/>
+      <c r="R20" s="179"/>
       <c r="S20" s="26" t="s">
         <v>224</v>
       </c>
@@ -6073,14 +6130,14 @@
       <c r="BF20" s="150"/>
     </row>
     <row r="21" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="170"/>
-      <c r="B21" s="168" t="s">
+      <c r="A21" s="186"/>
+      <c r="B21" s="167" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="32" t="s">
         <v>230</v>
       </c>
       <c r="E21" s="26">
@@ -6111,7 +6168,7 @@
         <v>152</v>
       </c>
       <c r="P21" s="8"/>
-      <c r="R21" s="188"/>
+      <c r="R21" s="179"/>
       <c r="S21" s="26" t="s">
         <v>232</v>
       </c>
@@ -6162,14 +6219,14 @@
       <c r="BF21" s="150"/>
     </row>
     <row r="22" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="170"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="26" t="s">
         <v>236</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="32" t="s">
         <v>237</v>
       </c>
       <c r="E22" s="26">
@@ -6198,7 +6255,7 @@
         <v>242</v>
       </c>
       <c r="P22" s="8"/>
-      <c r="R22" s="188"/>
+      <c r="R22" s="179"/>
       <c r="S22" s="26" t="s">
         <v>243</v>
       </c>
@@ -6249,14 +6306,14 @@
       <c r="BF22" s="150"/>
     </row>
     <row r="23" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="26" t="s">
         <v>247</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="32" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="26">
@@ -6285,7 +6342,7 @@
         <v>254</v>
       </c>
       <c r="P23" s="8"/>
-      <c r="R23" s="188"/>
+      <c r="R23" s="179"/>
       <c r="S23" s="26" t="s">
         <v>255</v>
       </c>
@@ -6336,14 +6393,14 @@
       <c r="BF23" s="150"/>
     </row>
     <row r="24" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="170"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="26" t="s">
         <v>259</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="32" t="s">
         <v>261</v>
       </c>
       <c r="E24" s="26">
@@ -6372,7 +6429,7 @@
         <v>265</v>
       </c>
       <c r="P24" s="8"/>
-      <c r="R24" s="188"/>
+      <c r="R24" s="179"/>
       <c r="S24" s="26" t="s">
         <v>266</v>
       </c>
@@ -6423,14 +6480,14 @@
       <c r="BF24" s="150"/>
     </row>
     <row r="25" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="26" t="s">
         <v>270</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="32" t="s">
         <v>272</v>
       </c>
       <c r="E25" s="26">
@@ -6457,7 +6514,7 @@
         <v>276</v>
       </c>
       <c r="P25" s="8"/>
-      <c r="R25" s="188"/>
+      <c r="R25" s="179"/>
       <c r="S25" s="26" t="s">
         <v>277</v>
       </c>
@@ -6508,14 +6565,14 @@
       <c r="BF25" s="150"/>
     </row>
     <row r="26" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="170"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="26" t="s">
         <v>281</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="32" t="s">
         <v>283</v>
       </c>
       <c r="E26" s="26">
@@ -6542,7 +6599,7 @@
         <v>287</v>
       </c>
       <c r="P26" s="8"/>
-      <c r="R26" s="188"/>
+      <c r="R26" s="179"/>
       <c r="S26" s="26" t="s">
         <v>288</v>
       </c>
@@ -6593,14 +6650,14 @@
       <c r="BF26" s="150"/>
     </row>
     <row r="27" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="170"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="26" t="s">
         <v>292</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="32" t="s">
         <v>294</v>
       </c>
       <c r="E27" s="26">
@@ -6627,7 +6684,7 @@
         <v>298</v>
       </c>
       <c r="P27" s="8"/>
-      <c r="R27" s="188"/>
+      <c r="R27" s="179"/>
       <c r="S27" s="26" t="s">
         <v>299</v>
       </c>
@@ -6678,14 +6735,14 @@
       <c r="BF27" s="150"/>
     </row>
     <row r="28" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
+      <c r="A28" s="170"/>
       <c r="B28" s="40" t="s">
         <v>303</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="42" t="s">
         <v>305</v>
       </c>
       <c r="E28" s="40">
@@ -6706,7 +6763,7 @@
       <c r="N28" s="35"/>
       <c r="O28" s="60"/>
       <c r="P28" s="8"/>
-      <c r="R28" s="188"/>
+      <c r="R28" s="179"/>
       <c r="S28" s="26" t="s">
         <v>307</v>
       </c>
@@ -6751,7 +6808,7 @@
       <c r="BF28" s="150"/>
     </row>
     <row r="29" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="185" t="s">
         <v>495</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -6760,7 +6817,7 @@
       <c r="C29" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="18" t="s">
         <v>510</v>
       </c>
       <c r="E29" s="14">
@@ -6783,7 +6840,7 @@
       <c r="N29" s="50"/>
       <c r="O29" s="61"/>
       <c r="P29" s="8"/>
-      <c r="R29" s="188"/>
+      <c r="R29" s="179"/>
       <c r="S29" s="26" t="s">
         <v>311</v>
       </c>
@@ -6825,14 +6882,14 @@
       <c r="BF29" s="150"/>
     </row>
     <row r="30" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
+      <c r="A30" s="192"/>
       <c r="B30" s="26" t="s">
         <v>497</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="32" t="s">
         <v>511</v>
       </c>
       <c r="E30" s="26">
@@ -6846,7 +6903,7 @@
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="188"/>
+      <c r="R30" s="179"/>
       <c r="S30" s="26" t="s">
         <v>313</v>
       </c>
@@ -6888,14 +6945,14 @@
       <c r="BF30" s="150"/>
     </row>
     <row r="31" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
+      <c r="A31" s="192"/>
       <c r="B31" s="26" t="s">
         <v>498</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="32" t="s">
         <v>512</v>
       </c>
       <c r="E31" s="26">
@@ -6923,7 +6980,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="8"/>
-      <c r="R31" s="188"/>
+      <c r="R31" s="179"/>
       <c r="S31" s="70" t="s">
         <v>321</v>
       </c>
@@ -6965,14 +7022,14 @@
       <c r="BF31" s="150"/>
     </row>
     <row r="32" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
+      <c r="A32" s="192"/>
       <c r="B32" s="26" t="s">
         <v>499</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="32" t="s">
         <v>513</v>
       </c>
       <c r="E32" s="26">
@@ -6996,7 +7053,7 @@
         <v>327</v>
       </c>
       <c r="Q32" s="8"/>
-      <c r="R32" s="188"/>
+      <c r="R32" s="179"/>
       <c r="S32" s="26" t="s">
         <v>328</v>
       </c>
@@ -7038,14 +7095,14 @@
       <c r="BF32" s="150"/>
     </row>
     <row r="33" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
+      <c r="A33" s="192"/>
       <c r="B33" s="26" t="s">
         <v>505</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="32" t="s">
         <v>514</v>
       </c>
       <c r="E33" s="26">
@@ -7069,7 +7126,7 @@
         <v>332</v>
       </c>
       <c r="Q33" s="8"/>
-      <c r="R33" s="188"/>
+      <c r="R33" s="179"/>
       <c r="S33" s="71" t="s">
         <v>333</v>
       </c>
@@ -7111,14 +7168,14 @@
       <c r="BF33" s="150"/>
     </row>
     <row r="34" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
+      <c r="A34" s="192"/>
       <c r="B34" s="26" t="s">
         <v>542</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="32" t="s">
         <v>515</v>
       </c>
       <c r="E34" s="26">
@@ -7142,7 +7199,7 @@
         <v>337</v>
       </c>
       <c r="O34" s="8"/>
-      <c r="R34" s="188"/>
+      <c r="R34" s="179"/>
       <c r="S34" s="40" t="s">
         <v>338</v>
       </c>
@@ -7184,14 +7241,14 @@
       <c r="BF34" s="150"/>
     </row>
     <row r="35" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="210" t="s">
+      <c r="A35" s="192"/>
+      <c r="B35" s="168" t="s">
         <v>545</v>
       </c>
-      <c r="C35" s="210" t="s">
+      <c r="C35" s="168" t="s">
         <v>546</v>
       </c>
-      <c r="D35" s="133" t="s">
+      <c r="D35" s="135" t="s">
         <v>544</v>
       </c>
       <c r="E35" s="133">
@@ -7213,7 +7270,7 @@
         <v>342</v>
       </c>
       <c r="O35" s="8"/>
-      <c r="R35" s="178" t="s">
+      <c r="R35" s="190" t="s">
         <v>343</v>
       </c>
       <c r="S35" s="73" t="s">
@@ -7257,14 +7314,14 @@
       <c r="BF35" s="150"/>
     </row>
     <row r="36" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="174"/>
+      <c r="A36" s="193"/>
       <c r="B36" s="40" t="s">
         <v>547</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>548</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="42" t="s">
         <v>549</v>
       </c>
       <c r="E36" s="40">
@@ -7286,7 +7343,7 @@
         <v>347</v>
       </c>
       <c r="O36" s="8"/>
-      <c r="R36" s="178"/>
+      <c r="R36" s="190"/>
       <c r="S36" s="26" t="s">
         <v>348</v>
       </c>
@@ -7328,7 +7385,7 @@
       <c r="BF36" s="150"/>
     </row>
     <row r="37" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="185" t="s">
         <v>550</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -7337,8 +7394,8 @@
       <c r="C37" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>573</v>
+      <c r="D37" s="18" t="s">
+        <v>572</v>
       </c>
       <c r="E37" s="14">
         <v>1</v>
@@ -7347,7 +7404,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
       <c r="J37" s="33" t="s">
         <v>266</v>
@@ -7361,7 +7418,7 @@
         <v>353</v>
       </c>
       <c r="O37" s="8"/>
-      <c r="R37" s="178"/>
+      <c r="R37" s="190"/>
       <c r="S37" s="26" t="s">
         <v>354</v>
       </c>
@@ -7403,15 +7460,15 @@
       <c r="BF37" s="150"/>
     </row>
     <row r="38" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="173"/>
+      <c r="A38" s="192"/>
       <c r="B38" s="26" t="s">
         <v>552</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>572</v>
+      <c r="D38" s="32" t="s">
+        <v>571</v>
       </c>
       <c r="E38" s="26">
         <v>1</v>
@@ -7434,7 +7491,7 @@
         <v>69</v>
       </c>
       <c r="O38" s="8"/>
-      <c r="R38" s="178"/>
+      <c r="R38" s="190"/>
       <c r="S38" s="26" t="s">
         <v>356</v>
       </c>
@@ -7476,15 +7533,15 @@
       <c r="BF38" s="150"/>
     </row>
     <row r="39" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="173"/>
+      <c r="A39" s="192"/>
       <c r="B39" s="26" t="s">
         <v>553</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>571</v>
+      <c r="D39" s="32" t="s">
+        <v>570</v>
       </c>
       <c r="E39" s="26">
         <v>1</v>
@@ -7507,7 +7564,7 @@
         <v>359</v>
       </c>
       <c r="O39" s="8"/>
-      <c r="R39" s="178"/>
+      <c r="R39" s="190"/>
       <c r="S39" s="26" t="s">
         <v>360</v>
       </c>
@@ -7517,15 +7574,15 @@
       <c r="U39" s="62"/>
     </row>
     <row r="40" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="173"/>
+      <c r="A40" s="192"/>
       <c r="B40" s="26" t="s">
         <v>554</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>570</v>
+      <c r="D40" s="32" t="s">
+        <v>569</v>
       </c>
       <c r="E40" s="26">
         <v>13</v>
@@ -7533,8 +7590,8 @@
       <c r="F40" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>504</v>
+      <c r="G40" s="213" t="s">
+        <v>590</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>299</v>
@@ -7548,7 +7605,7 @@
         <v>363</v>
       </c>
       <c r="O40" s="8"/>
-      <c r="R40" s="178"/>
+      <c r="R40" s="190"/>
       <c r="S40" s="26" t="s">
         <v>364</v>
       </c>
@@ -7558,15 +7615,15 @@
       <c r="U40" s="62"/>
     </row>
     <row r="41" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="173"/>
+      <c r="A41" s="192"/>
       <c r="B41" s="26" t="s">
         <v>558</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="D41" s="164" t="s">
-        <v>569</v>
+      <c r="D41" s="32" t="s">
+        <v>568</v>
       </c>
       <c r="E41" s="26">
         <v>4</v>
@@ -7587,7 +7644,7 @@
         <v>367</v>
       </c>
       <c r="O41" s="8"/>
-      <c r="R41" s="178"/>
+      <c r="R41" s="190"/>
       <c r="S41" s="26" t="s">
         <v>368</v>
       </c>
@@ -7597,15 +7654,15 @@
       <c r="U41" s="62"/>
     </row>
     <row r="42" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="173"/>
+      <c r="A42" s="192"/>
       <c r="B42" s="26" t="s">
         <v>560</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="D42" s="164" t="s">
-        <v>568</v>
+      <c r="D42" s="32" t="s">
+        <v>567</v>
       </c>
       <c r="E42" s="26">
         <v>40</v>
@@ -7626,7 +7683,7 @@
         <v>71</v>
       </c>
       <c r="O42" s="8"/>
-      <c r="R42" s="178"/>
+      <c r="R42" s="190"/>
       <c r="S42" s="26" t="s">
         <v>372</v>
       </c>
@@ -7636,15 +7693,15 @@
       <c r="U42" s="62"/>
     </row>
     <row r="43" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="173"/>
+      <c r="A43" s="192"/>
       <c r="B43" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="D43" s="164" t="s">
-        <v>567</v>
+      <c r="D43" s="32" t="s">
+        <v>566</v>
       </c>
       <c r="E43" s="26">
         <v>40</v>
@@ -7664,7 +7721,7 @@
       <c r="N43" s="37">
         <v>73</v>
       </c>
-      <c r="R43" s="179"/>
+      <c r="R43" s="191"/>
       <c r="S43" s="133" t="s">
         <v>374</v>
       </c>
@@ -7674,15 +7731,15 @@
       <c r="U43" s="62"/>
     </row>
     <row r="44" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="174"/>
+      <c r="A44" s="193"/>
       <c r="B44" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="C44" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="D44" s="42" t="s">
         <v>565</v>
-      </c>
-      <c r="D44" s="211" t="s">
-        <v>566</v>
       </c>
       <c r="E44" s="40">
         <v>1</v>
@@ -7712,7 +7769,27 @@
       <c r="U44" s="62"/>
     </row>
     <row r="45" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="146"/>
+      <c r="A45" s="185" t="s">
+        <v>574</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="E45" s="14">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>588</v>
+      </c>
       <c r="J45" s="33" t="s">
         <v>328</v>
       </c>
@@ -7728,7 +7805,25 @@
       <c r="U45" s="62"/>
     </row>
     <row r="46" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="146"/>
+      <c r="A46" s="192"/>
+      <c r="B46" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="E46" s="26">
+        <v>1</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="J46" s="74" t="s">
         <v>333</v>
       </c>
@@ -7742,7 +7837,25 @@
       <c r="U46" s="62"/>
     </row>
     <row r="47" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="146"/>
+      <c r="A47" s="192"/>
+      <c r="B47" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="E47" s="26">
+        <v>13</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="213" t="s">
+        <v>589</v>
+      </c>
       <c r="J47" s="48" t="s">
         <v>338</v>
       </c>
@@ -7756,11 +7869,36 @@
       <c r="U47" s="62"/>
     </row>
     <row r="48" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="146"/>
+      <c r="A48" s="193"/>
+      <c r="B48" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="E48" s="210">
+        <v>65526</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>582</v>
+      </c>
       <c r="O48" s="8"/>
       <c r="U48" s="62"/>
     </row>
-    <row r="49" spans="10:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="165"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="211"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="212"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="165"/>
       <c r="J49" s="53" t="s">
         <v>376</v>
       </c>
@@ -7781,7 +7919,7 @@
       </c>
       <c r="U49" s="62"/>
     </row>
-    <row r="50" spans="10:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="79" t="s">
         <v>344</v>
       </c>
@@ -7796,7 +7934,7 @@
       <c r="O50" s="25"/>
       <c r="U50" s="62"/>
     </row>
-    <row r="51" spans="10:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="44" t="s">
         <v>348</v>
       </c>
@@ -7811,7 +7949,7 @@
       <c r="O51" s="60"/>
       <c r="U51" s="62"/>
     </row>
-    <row r="52" spans="10:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="44" t="s">
         <v>354</v>
       </c>
@@ -7826,7 +7964,7 @@
       </c>
       <c r="U52" s="62"/>
     </row>
-    <row r="53" spans="10:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="44" t="s">
         <v>356</v>
       </c>
@@ -7839,7 +7977,7 @@
       <c r="O53" s="60"/>
       <c r="U53" s="62"/>
     </row>
-    <row r="54" spans="10:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="44" t="s">
         <v>360</v>
       </c>
@@ -7852,7 +7990,7 @@
       <c r="O54" s="60"/>
       <c r="U54" s="62"/>
     </row>
-    <row r="55" spans="10:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="44" t="s">
         <v>364</v>
       </c>
@@ -7865,7 +8003,7 @@
       <c r="O55" s="60"/>
       <c r="U55" s="62"/>
     </row>
-    <row r="56" spans="10:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="44" t="s">
         <v>368</v>
       </c>
@@ -7878,7 +8016,7 @@
       <c r="O56" s="60"/>
       <c r="U56" s="62"/>
     </row>
-    <row r="57" spans="10:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="44" t="s">
         <v>372</v>
       </c>
@@ -7891,7 +8029,7 @@
       <c r="O57" s="60"/>
       <c r="U57" s="62"/>
     </row>
-    <row r="58" spans="10:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J58" s="47" t="s">
         <v>374</v>
       </c>
@@ -7908,8 +8046,8 @@
       <c r="O58" s="77"/>
       <c r="U58" s="62"/>
     </row>
-    <row r="59" spans="10:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="10:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J60" s="53" t="s">
         <v>491</v>
       </c>
@@ -7917,7 +8055,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="10:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="79" t="s">
         <v>492</v>
       </c>
@@ -7947,16 +8085,16 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="170" t="s">
+      <c r="A68" s="186" t="s">
         <v>210</v>
       </c>
-      <c r="B68" s="177" t="s">
+      <c r="B68" s="189" t="s">
         <v>323</v>
       </c>
-      <c r="C68" s="177" t="s">
+      <c r="C68" s="189" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="177" t="s">
+      <c r="D68" s="189" t="s">
         <v>44</v>
       </c>
       <c r="E68" s="26">
@@ -7967,10 +8105,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="170"/>
-      <c r="B69" s="177"/>
-      <c r="C69" s="177"/>
-      <c r="D69" s="177"/>
+      <c r="A69" s="186"/>
+      <c r="B69" s="189"/>
+      <c r="C69" s="189"/>
+      <c r="D69" s="189"/>
       <c r="E69" s="26">
         <v>1</v>
       </c>
@@ -7979,10 +8117,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="170"/>
-      <c r="B70" s="177"/>
-      <c r="C70" s="177"/>
-      <c r="D70" s="177"/>
+      <c r="A70" s="186"/>
+      <c r="B70" s="189"/>
+      <c r="C70" s="189"/>
+      <c r="D70" s="189"/>
       <c r="E70" s="26">
         <v>2</v>
       </c>
@@ -7991,10 +8129,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="170"/>
-      <c r="B71" s="177"/>
-      <c r="C71" s="177"/>
-      <c r="D71" s="177"/>
+      <c r="A71" s="186"/>
+      <c r="B71" s="189"/>
+      <c r="C71" s="189"/>
+      <c r="D71" s="189"/>
       <c r="E71" s="26">
         <v>3</v>
       </c>
@@ -8003,10 +8141,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="170"/>
-      <c r="B72" s="177"/>
-      <c r="C72" s="177"/>
-      <c r="D72" s="177"/>
+      <c r="A72" s="186"/>
+      <c r="B72" s="189"/>
+      <c r="C72" s="189"/>
+      <c r="D72" s="189"/>
       <c r="E72" s="26">
         <v>4</v>
       </c>
@@ -8015,14 +8153,14 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="170"/>
-      <c r="B73" s="177" t="s">
+      <c r="A73" s="186"/>
+      <c r="B73" s="189" t="s">
         <v>350</v>
       </c>
-      <c r="C73" s="177" t="s">
+      <c r="C73" s="189" t="s">
         <v>351</v>
       </c>
-      <c r="D73" s="177" t="s">
+      <c r="D73" s="189" t="s">
         <v>55</v>
       </c>
       <c r="E73" s="26">
@@ -8033,10 +8171,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="170"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="177"/>
-      <c r="D74" s="177"/>
+      <c r="A74" s="186"/>
+      <c r="B74" s="189"/>
+      <c r="C74" s="189"/>
+      <c r="D74" s="189"/>
       <c r="E74" s="26">
         <v>1</v>
       </c>
@@ -8045,10 +8183,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="170"/>
-      <c r="B75" s="177"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="177"/>
+      <c r="A75" s="186"/>
+      <c r="B75" s="189"/>
+      <c r="C75" s="189"/>
+      <c r="D75" s="189"/>
       <c r="E75" s="26">
         <v>2</v>
       </c>
@@ -8057,10 +8195,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="170"/>
-      <c r="B76" s="177"/>
-      <c r="C76" s="177"/>
-      <c r="D76" s="177"/>
+      <c r="A76" s="186"/>
+      <c r="B76" s="189"/>
+      <c r="C76" s="189"/>
+      <c r="D76" s="189"/>
       <c r="E76" s="26">
         <v>3</v>
       </c>
@@ -8069,10 +8207,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="170"/>
-      <c r="B77" s="177"/>
-      <c r="C77" s="177"/>
-      <c r="D77" s="177"/>
+      <c r="A77" s="186"/>
+      <c r="B77" s="189"/>
+      <c r="C77" s="189"/>
+      <c r="D77" s="189"/>
       <c r="E77" s="26">
         <v>4</v>
       </c>
@@ -8081,7 +8219,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="193"/>
+      <c r="A78" s="187"/>
       <c r="B78" s="133" t="s">
         <v>370</v>
       </c>
@@ -8099,12 +8237,12 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="165"/>
-      <c r="B79" s="166"/>
-      <c r="C79" s="166"/>
-      <c r="D79" s="166"/>
-      <c r="E79" s="166"/>
-      <c r="F79" s="167"/>
+      <c r="A79" s="164"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="165"/>
+      <c r="F79" s="166"/>
     </row>
     <row r="80" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="69"/>
@@ -8152,7 +8290,7 @@
       <c r="F86" s="146"/>
     </row>
     <row r="87" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="175" t="s">
+      <c r="A87" s="180" t="s">
         <v>34</v>
       </c>
       <c r="B87" s="14" t="s">
@@ -8167,7 +8305,7 @@
       <c r="F87" s="146"/>
     </row>
     <row r="88" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="175"/>
+      <c r="A88" s="180"/>
       <c r="B88" s="26" t="s">
         <v>382</v>
       </c>
@@ -8180,7 +8318,7 @@
       <c r="F88" s="146"/>
     </row>
     <row r="89" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="175"/>
+      <c r="A89" s="180"/>
       <c r="B89" s="40" t="s">
         <v>386</v>
       </c>
@@ -8193,7 +8331,7 @@
       <c r="F89" s="146"/>
     </row>
     <row r="90" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="175" t="s">
+      <c r="A90" s="180" t="s">
         <v>114</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -8208,7 +8346,7 @@
       <c r="F90" s="146"/>
     </row>
     <row r="91" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="175"/>
+      <c r="A91" s="180"/>
       <c r="B91" s="26" t="s">
         <v>391</v>
       </c>
@@ -8220,7 +8358,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="172"/>
+      <c r="A92" s="185"/>
       <c r="B92" s="133" t="s">
         <v>393</v>
       </c>
@@ -8246,7 +8384,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="171"/>
+      <c r="A94" s="170"/>
       <c r="B94" s="40" t="s">
         <v>396</v>
       </c>
@@ -8258,7 +8396,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="176" t="s">
+      <c r="A95" s="188" t="s">
         <v>259</v>
       </c>
       <c r="B95" s="73" t="s">
@@ -8272,7 +8410,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="170"/>
+      <c r="A96" s="186"/>
       <c r="B96" s="26" t="s">
         <v>399</v>
       </c>
@@ -8284,7 +8422,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="170"/>
+      <c r="A97" s="186"/>
       <c r="B97" s="26" t="s">
         <v>401</v>
       </c>
@@ -8296,7 +8434,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="170"/>
+      <c r="A98" s="186"/>
       <c r="B98" s="26" t="s">
         <v>403</v>
       </c>
@@ -8308,7 +8446,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="171"/>
+      <c r="A99" s="170"/>
       <c r="B99" s="40" t="s">
         <v>405</v>
       </c>
@@ -8334,7 +8472,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="171"/>
+      <c r="A101" s="170"/>
       <c r="B101" s="40" t="s">
         <v>508</v>
       </c>
@@ -8346,7 +8484,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A44"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="AA1:BF1"/>
     <mergeCell ref="AH3:BF3"/>
@@ -8363,20 +8516,6 @@
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="R19:R34"/>
     <mergeCell ref="A68:A78"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A94"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.23622047244094491" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -9282,18 +9421,18 @@
     <row r="6" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
-      <c r="D6" s="199" t="s">
+      <c r="D6" s="197" t="s">
         <v>413</v>
       </c>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="199"/>
-      <c r="M6" s="199"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
       <c r="N6" s="194" t="s">
         <v>414</v>
       </c>
@@ -9306,20 +9445,20 @@
       <c r="U6" s="194"/>
       <c r="V6" s="194"/>
       <c r="W6" s="194"/>
-      <c r="X6" s="200" t="s">
+      <c r="X6" s="198" t="s">
         <v>415</v>
       </c>
-      <c r="Y6" s="200"/>
-      <c r="Z6" s="200"/>
-      <c r="AA6" s="200"/>
-      <c r="AB6" s="200"/>
-      <c r="AC6" s="200"/>
-      <c r="AD6" s="200"/>
-      <c r="AE6" s="200"/>
-      <c r="AF6" s="200"/>
-      <c r="AG6" s="200"/>
-      <c r="AH6" s="200"/>
-      <c r="AI6" s="200"/>
+      <c r="Y6" s="198"/>
+      <c r="Z6" s="198"/>
+      <c r="AA6" s="198"/>
+      <c r="AB6" s="198"/>
+      <c r="AC6" s="198"/>
+      <c r="AD6" s="198"/>
+      <c r="AE6" s="198"/>
+      <c r="AF6" s="198"/>
+      <c r="AG6" s="198"/>
+      <c r="AH6" s="198"/>
+      <c r="AI6" s="198"/>
       <c r="AJ6" s="92"/>
       <c r="AK6" s="92"/>
       <c r="AL6" s="92"/>
@@ -9327,44 +9466,44 @@
     <row r="7" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B7" s="92"/>
       <c r="C7" s="92"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="199" t="s">
         <v>416</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201" t="s">
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199" t="s">
         <v>417</v>
       </c>
-      <c r="O7" s="201"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="201"/>
-      <c r="R7" s="201"/>
-      <c r="S7" s="201"/>
-      <c r="T7" s="201"/>
-      <c r="U7" s="201"/>
-      <c r="V7" s="201"/>
-      <c r="W7" s="201"/>
-      <c r="X7" s="201" t="s">
+      <c r="O7" s="199"/>
+      <c r="P7" s="199"/>
+      <c r="Q7" s="199"/>
+      <c r="R7" s="199"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
+      <c r="U7" s="199"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="199"/>
+      <c r="X7" s="199" t="s">
         <v>418</v>
       </c>
-      <c r="Y7" s="201"/>
-      <c r="Z7" s="201"/>
-      <c r="AA7" s="201"/>
-      <c r="AB7" s="201"/>
-      <c r="AC7" s="201"/>
-      <c r="AD7" s="201"/>
-      <c r="AE7" s="201"/>
-      <c r="AF7" s="201"/>
-      <c r="AG7" s="201"/>
-      <c r="AH7" s="201"/>
-      <c r="AI7" s="201"/>
+      <c r="Y7" s="199"/>
+      <c r="Z7" s="199"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="199"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="199"/>
       <c r="AJ7" s="92"/>
       <c r="AK7" s="92"/>
       <c r="AL7" s="92"/>
@@ -9453,11 +9592,11 @@
         <v>419</v>
       </c>
       <c r="D10" s="92"/>
-      <c r="E10" s="197" t="s">
+      <c r="E10" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
       <c r="H10" s="103"/>
       <c r="I10" s="92" t="s">
         <v>420</v>
@@ -9578,16 +9717,16 @@
       <c r="D13" s="92"/>
       <c r="E13" s="92"/>
       <c r="F13" s="92"/>
-      <c r="G13" s="198" t="s">
+      <c r="G13" s="201" t="s">
         <v>422</v>
       </c>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="197" t="s">
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
       <c r="M13" s="105" t="s">
         <v>424</v>
       </c>
@@ -9625,16 +9764,16 @@
       <c r="D14" s="92"/>
       <c r="E14" s="92"/>
       <c r="F14" s="92"/>
-      <c r="G14" s="198" t="s">
+      <c r="G14" s="201" t="s">
         <v>425</v>
       </c>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="197" t="s">
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="200" t="s">
         <v>426</v>
       </c>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
       <c r="M14" s="107">
         <v>1</v>
       </c>
@@ -9674,16 +9813,16 @@
       <c r="F15" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="G15" s="198" t="s">
+      <c r="G15" s="201" t="s">
         <v>416</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="197" t="s">
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="200" t="s">
         <v>428</v>
       </c>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
       <c r="M15" s="107">
         <v>1</v>
       </c>
@@ -9723,16 +9862,16 @@
       <c r="D16" s="92"/>
       <c r="E16" s="92"/>
       <c r="F16" s="92"/>
-      <c r="G16" s="198" t="s">
+      <c r="G16" s="201" t="s">
         <v>430</v>
       </c>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="197" t="s">
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
       <c r="M16" s="105" t="s">
         <v>424</v>
       </c>
@@ -9855,15 +9994,15 @@
       <c r="I19" s="92"/>
       <c r="J19" s="92"/>
       <c r="K19" s="92"/>
-      <c r="L19" s="198" t="s">
+      <c r="L19" s="201" t="s">
         <v>432</v>
       </c>
-      <c r="M19" s="198"/>
-      <c r="N19" s="197" t="s">
+      <c r="M19" s="201"/>
+      <c r="N19" s="200" t="s">
         <v>433</v>
       </c>
-      <c r="O19" s="197"/>
-      <c r="P19" s="197"/>
+      <c r="O19" s="200"/>
+      <c r="P19" s="200"/>
       <c r="Q19" s="107">
         <v>1</v>
       </c>
@@ -9906,15 +10045,15 @@
       <c r="K20" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="L20" s="198" t="s">
+      <c r="L20" s="201" t="s">
         <v>417</v>
       </c>
-      <c r="M20" s="198"/>
-      <c r="N20" s="197" t="s">
+      <c r="M20" s="201"/>
+      <c r="N20" s="200" t="s">
         <v>434</v>
       </c>
-      <c r="O20" s="197"/>
-      <c r="P20" s="197"/>
+      <c r="O20" s="200"/>
+      <c r="P20" s="200"/>
       <c r="Q20" s="107">
         <v>1</v>
       </c>
@@ -9957,15 +10096,15 @@
       <c r="I21" s="92"/>
       <c r="J21" s="92"/>
       <c r="K21" s="92"/>
-      <c r="L21" s="198" t="s">
+      <c r="L21" s="201" t="s">
         <v>436</v>
       </c>
-      <c r="M21" s="198"/>
-      <c r="N21" s="197" t="s">
+      <c r="M21" s="201"/>
+      <c r="N21" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="O21" s="197"/>
-      <c r="P21" s="197"/>
+      <c r="O21" s="200"/>
+      <c r="P21" s="200"/>
       <c r="Q21" s="105" t="s">
         <v>424</v>
       </c>
@@ -10077,27 +10216,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D6:M6"/>
     <mergeCell ref="N6:W6"/>
     <mergeCell ref="X6:AI6"/>
     <mergeCell ref="D7:M7"/>
     <mergeCell ref="N7:W7"/>
     <mergeCell ref="X7:AI7"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/doc/tinyvm.xlsx
+++ b/doc/tinyvm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="cheatsheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="640">
   <si>
     <t>Device</t>
   </si>
@@ -1848,12 +1848,6 @@
     <t>Video return data</t>
   </si>
   <si>
-    <t>VID_PALETTE</t>
-  </si>
-  <si>
-    <t>Palette (256 colors of 4 bytes each)</t>
-  </si>
-  <si>
     <t>VID_DATA</t>
   </si>
   <si>
@@ -1873,9 +1867,6 @@
   </si>
   <si>
     <t>0xF0070034</t>
-  </si>
-  <si>
-    <t>0xF0070100</t>
   </si>
   <si>
     <t>0xF0080000</t>
@@ -2849,7 +2840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3270,15 +3261,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3385,9 +3367,72 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3403,19 +3448,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3424,14 +3466,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3448,18 +3514,6 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3475,24 +3529,15 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3502,6 +3547,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3512,10 +3561,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3539,56 +3584,8 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4669,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4703,22 +4700,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="162" t="s">
+      <c r="E1" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="164" t="s">
+      <c r="F1" s="161" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -4746,7 +4743,7 @@
       <c r="P1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="195" t="s">
+      <c r="R1" s="205" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="12" t="s">
@@ -4766,27 +4763,27 @@
       </c>
     </row>
     <row r="2" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="172" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="176">
+      <c r="E2" s="173">
         <v>4096</v>
       </c>
       <c r="F2" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="177"/>
+      <c r="G2" s="174"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="197" t="s">
+      <c r="J2" s="215" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="17" t="s">
@@ -4803,7 +4800,7 @@
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="21"/>
-      <c r="R2" s="195"/>
+      <c r="R2" s="205"/>
       <c r="S2" s="22" t="s">
         <v>29</v>
       </c>
@@ -4821,20 +4818,20 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="196"/>
+      <c r="A3" s="214"/>
       <c r="B3" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="C3" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="151">
         <v>1</v>
       </c>
-      <c r="F3" s="165" t="s">
+      <c r="F3" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="155" t="s">
@@ -4843,7 +4840,7 @@
       <c r="I3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="197"/>
+      <c r="J3" s="215"/>
       <c r="K3" s="30"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
@@ -4854,7 +4851,7 @@
       <c r="P3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="195"/>
+      <c r="R3" s="205"/>
       <c r="S3" s="22" t="s">
         <v>42</v>
       </c>
@@ -4867,34 +4864,34 @@
       <c r="W3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="198" t="s">
+      <c r="X3" s="216" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="196"/>
-      <c r="B4" s="179" t="s">
+      <c r="A4" s="214"/>
+      <c r="B4" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="179">
+      <c r="E4" s="176">
         <v>4</v>
       </c>
-      <c r="F4" s="181" t="s">
+      <c r="F4" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="182" t="s">
+      <c r="G4" s="179" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="197"/>
+      <c r="J4" s="215"/>
       <c r="K4" s="30"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
@@ -4905,7 +4902,7 @@
       <c r="P4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="195"/>
+      <c r="R4" s="205"/>
       <c r="S4" s="36" t="s">
         <v>53</v>
       </c>
@@ -4918,34 +4915,34 @@
       <c r="W4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="198"/>
+      <c r="X4" s="216"/>
     </row>
     <row r="5" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="172" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="174">
+      <c r="E5" s="171">
         <v>1</v>
       </c>
       <c r="F5" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="177" t="s">
+      <c r="G5" s="174" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="197"/>
+      <c r="J5" s="215"/>
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
@@ -4956,7 +4953,7 @@
       <c r="P5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="195" t="s">
+      <c r="R5" s="205" t="s">
         <v>65</v>
       </c>
       <c r="S5" s="12" t="s">
@@ -4971,23 +4968,23 @@
       <c r="W5" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="198"/>
+      <c r="X5" s="216"/>
     </row>
     <row r="6" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196"/>
+      <c r="A6" s="214"/>
       <c r="B6" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="178" t="s">
+      <c r="C6" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="162" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="151">
         <v>1</v>
       </c>
-      <c r="F6" s="165" t="s">
+      <c r="F6" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="155" t="s">
@@ -4996,7 +4993,7 @@
       <c r="I6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="199" t="s">
+      <c r="J6" s="217" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="41" t="s">
@@ -5013,7 +5010,7 @@
       <c r="P6" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="195"/>
+      <c r="R6" s="205"/>
       <c r="S6" s="22" t="s">
         <v>76</v>
       </c>
@@ -5026,23 +5023,23 @@
       <c r="W6" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="X6" s="198"/>
+      <c r="X6" s="216"/>
     </row>
     <row r="7" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
+      <c r="A7" s="214"/>
       <c r="B7" s="151" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="162" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="151">
         <v>1</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="155" t="s">
@@ -5051,7 +5048,7 @@
       <c r="I7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="199"/>
+      <c r="J7" s="217"/>
       <c r="K7" s="41" t="s">
         <v>83</v>
       </c>
@@ -5066,7 +5063,7 @@
       <c r="P7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="195"/>
+      <c r="R7" s="205"/>
       <c r="S7" s="22" t="s">
         <v>87</v>
       </c>
@@ -5079,23 +5076,23 @@
       <c r="W7" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="X7" s="198"/>
+      <c r="X7" s="216"/>
     </row>
     <row r="8" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
+      <c r="A8" s="214"/>
       <c r="B8" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="162" t="s">
         <v>93</v>
       </c>
       <c r="E8" s="151">
         <v>13</v>
       </c>
-      <c r="F8" s="165" t="s">
+      <c r="F8" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="155" t="s">
@@ -5104,7 +5101,7 @@
       <c r="I8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="199"/>
+      <c r="J8" s="217"/>
       <c r="K8" s="41" t="s">
         <v>95</v>
       </c>
@@ -5119,7 +5116,7 @@
       <c r="P8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="R8" s="195"/>
+      <c r="R8" s="205"/>
       <c r="S8" s="22" t="s">
         <v>99</v>
       </c>
@@ -5132,30 +5129,30 @@
       <c r="W8" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="X8" s="198"/>
+      <c r="X8" s="216"/>
     </row>
     <row r="9" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
+      <c r="A9" s="214"/>
       <c r="B9" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="178" t="s">
+      <c r="C9" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="162" t="s">
         <v>105</v>
       </c>
       <c r="E9" s="151">
         <v>4</v>
       </c>
-      <c r="F9" s="165" t="s">
+      <c r="F9" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="155"/>
       <c r="I9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="200" t="s">
+      <c r="J9" s="218" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="41" t="s">
@@ -5172,7 +5169,7 @@
       <c r="P9" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="195"/>
+      <c r="R9" s="205"/>
       <c r="S9" s="22" t="s">
         <v>109</v>
       </c>
@@ -5185,7 +5182,7 @@
       <c r="W9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="X9" s="198"/>
+      <c r="X9" s="216"/>
       <c r="AA9" s="137"/>
       <c r="AB9" s="137"/>
       <c r="AC9" s="137"/>
@@ -5220,20 +5217,20 @@
       <c r="BF9" s="137"/>
     </row>
     <row r="10" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="178" t="s">
+      <c r="C10" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="162" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="151">
         <v>4</v>
       </c>
-      <c r="F10" s="165" t="s">
+      <c r="F10" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="155" t="s">
@@ -5242,7 +5239,7 @@
       <c r="I10" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="200"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="41" t="s">
         <v>117</v>
       </c>
@@ -5257,7 +5254,7 @@
       <c r="P10" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="195"/>
+      <c r="R10" s="205"/>
       <c r="S10" s="36" t="s">
         <v>120</v>
       </c>
@@ -5270,7 +5267,7 @@
       <c r="W10" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="X10" s="198"/>
+      <c r="X10" s="216"/>
       <c r="AA10" s="137"/>
       <c r="AB10" s="137"/>
       <c r="AC10" s="137"/>
@@ -5305,29 +5302,29 @@
       <c r="BF10" s="137"/>
     </row>
     <row r="11" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
-      <c r="B11" s="179" t="s">
+      <c r="A11" s="214"/>
+      <c r="B11" s="176" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="180" t="s">
+      <c r="C11" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="179">
+      <c r="E11" s="176">
         <v>4</v>
       </c>
-      <c r="F11" s="181" t="s">
+      <c r="F11" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="182" t="s">
+      <c r="G11" s="179" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="200"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="45" t="s">
         <v>127</v>
       </c>
@@ -5342,7 +5339,7 @@
       <c r="P11" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="R11" s="195" t="s">
+      <c r="R11" s="205" t="s">
         <v>131</v>
       </c>
       <c r="S11" s="12" t="s">
@@ -5357,7 +5354,7 @@
       <c r="W11" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="X11" s="198"/>
+      <c r="X11" s="216"/>
       <c r="AA11" s="137"/>
       <c r="AB11" s="137"/>
       <c r="AC11" s="137"/>
@@ -5392,25 +5389,25 @@
       <c r="BF11" s="137"/>
     </row>
     <row r="12" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="196" t="s">
+      <c r="A12" s="214" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="172" t="s">
         <v>138</v>
       </c>
       <c r="D12" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="174">
+      <c r="E12" s="171">
         <v>1</v>
       </c>
       <c r="F12" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="177" t="s">
+      <c r="G12" s="174" t="s">
         <v>140</v>
       </c>
       <c r="I12" s="6"/>
@@ -5421,7 +5418,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="R12" s="195"/>
+      <c r="R12" s="205"/>
       <c r="S12" s="22" t="s">
         <v>141</v>
       </c>
@@ -5434,7 +5431,7 @@
       <c r="W12" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="X12" s="198"/>
+      <c r="X12" s="216"/>
       <c r="AA12" s="137"/>
       <c r="AB12" s="137"/>
       <c r="AC12" s="137"/>
@@ -5469,20 +5466,20 @@
       <c r="BF12" s="137"/>
     </row>
     <row r="13" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="162" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="151">
         <v>1</v>
       </c>
-      <c r="F13" s="165" t="s">
+      <c r="F13" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="155" t="s">
@@ -5508,7 +5505,7 @@
         <v>151</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="R13" s="195"/>
+      <c r="R13" s="205"/>
       <c r="S13" s="22" t="s">
         <v>152</v>
       </c>
@@ -5521,7 +5518,7 @@
       <c r="W13" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="X13" s="198"/>
+      <c r="X13" s="216"/>
       <c r="AA13" s="137"/>
       <c r="AB13" s="137"/>
       <c r="AC13" s="137"/>
@@ -5556,20 +5553,20 @@
       <c r="BF13" s="137"/>
     </row>
     <row r="14" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="196"/>
+      <c r="A14" s="214"/>
       <c r="B14" s="151" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="165" t="s">
+      <c r="D14" s="162" t="s">
         <v>158</v>
       </c>
       <c r="E14" s="151">
         <v>1</v>
       </c>
-      <c r="F14" s="165" t="s">
+      <c r="F14" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="155" t="s">
@@ -5593,7 +5590,7 @@
         <v>162</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="R14" s="195"/>
+      <c r="R14" s="205"/>
       <c r="S14" s="22" t="s">
         <v>163</v>
       </c>
@@ -5643,20 +5640,20 @@
       <c r="BF14" s="137"/>
     </row>
     <row r="15" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="196"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="151" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="175" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="165" t="s">
+      <c r="D15" s="162" t="s">
         <v>170</v>
       </c>
       <c r="E15" s="151">
         <v>13</v>
       </c>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="155" t="s">
@@ -5680,7 +5677,7 @@
         <v>174</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="R15" s="195"/>
+      <c r="R15" s="205"/>
       <c r="S15" s="22" t="s">
         <v>175</v>
       </c>
@@ -5730,20 +5727,20 @@
       <c r="BF15" s="137"/>
     </row>
     <row r="16" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="196"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="151" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="165" t="s">
+      <c r="D16" s="162" t="s">
         <v>182</v>
       </c>
       <c r="E16" s="151">
         <v>128</v>
       </c>
-      <c r="F16" s="165" t="s">
+      <c r="F16" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="155" t="s">
@@ -5766,7 +5763,7 @@
         <v>186</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="R16" s="195"/>
+      <c r="R16" s="205"/>
       <c r="S16" s="22" t="s">
         <v>187</v>
       </c>
@@ -5816,20 +5813,20 @@
       <c r="BF16" s="137"/>
     </row>
     <row r="17" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="196"/>
+      <c r="A17" s="214"/>
       <c r="B17" s="151" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="165" t="s">
+      <c r="D17" s="162" t="s">
         <v>194</v>
       </c>
       <c r="E17" s="151">
         <v>1024</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="155" t="s">
@@ -5848,7 +5845,7 @@
       <c r="N17" s="52"/>
       <c r="O17" s="53"/>
       <c r="P17" s="6"/>
-      <c r="R17" s="195"/>
+      <c r="R17" s="205"/>
       <c r="S17" s="22" t="s">
         <v>197</v>
       </c>
@@ -5898,23 +5895,23 @@
       <c r="BF17" s="137"/>
     </row>
     <row r="18" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="201"/>
+      <c r="A18" s="208"/>
       <c r="B18" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="183" t="s">
+      <c r="C18" s="180" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="184" t="s">
+      <c r="D18" s="181" t="s">
         <v>204</v>
       </c>
       <c r="E18" s="152">
         <v>1024</v>
       </c>
-      <c r="F18" s="184" t="s">
+      <c r="F18" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="185" t="s">
+      <c r="G18" s="182" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="29" t="s">
@@ -5930,7 +5927,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
       <c r="P18" s="6"/>
-      <c r="R18" s="195"/>
+      <c r="R18" s="205"/>
       <c r="S18" s="36" t="s">
         <v>207</v>
       </c>
@@ -5971,25 +5968,25 @@
       <c r="BF18" s="137"/>
     </row>
     <row r="19" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="208" t="s">
+      <c r="A19" s="211" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="174" t="s">
+      <c r="C19" s="171" t="s">
         <v>211</v>
       </c>
       <c r="D19" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="174">
+      <c r="E19" s="171">
         <v>1</v>
       </c>
       <c r="F19" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="177" t="s">
+      <c r="G19" s="174" t="s">
         <v>213</v>
       </c>
       <c r="J19" s="44" t="s">
@@ -6003,7 +6000,7 @@
       <c r="N19" s="46"/>
       <c r="O19" s="57"/>
       <c r="P19" s="6"/>
-      <c r="R19" s="195" t="s">
+      <c r="R19" s="205" t="s">
         <v>215</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -6056,27 +6053,27 @@
       <c r="BF19" s="137"/>
     </row>
     <row r="20" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="209"/>
+      <c r="A20" s="212"/>
       <c r="B20" s="151" t="s">
         <v>220</v>
       </c>
       <c r="C20" s="151" t="s">
         <v>221</v>
       </c>
-      <c r="D20" s="165" t="s">
+      <c r="D20" s="162" t="s">
         <v>222</v>
       </c>
       <c r="E20" s="151">
         <v>1</v>
       </c>
-      <c r="F20" s="165" t="s">
+      <c r="F20" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="155" t="s">
         <v>31</v>
       </c>
       <c r="P20" s="6"/>
-      <c r="R20" s="195"/>
+      <c r="R20" s="205"/>
       <c r="S20" s="22" t="s">
         <v>223</v>
       </c>
@@ -6127,20 +6124,20 @@
       <c r="BF20" s="137"/>
     </row>
     <row r="21" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="209"/>
+      <c r="A21" s="212"/>
       <c r="B21" s="151" t="s">
         <v>227</v>
       </c>
       <c r="C21" s="151" t="s">
         <v>228</v>
       </c>
-      <c r="D21" s="165" t="s">
+      <c r="D21" s="162" t="s">
         <v>229</v>
       </c>
       <c r="E21" s="151">
         <v>1</v>
       </c>
-      <c r="F21" s="165" t="s">
+      <c r="F21" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="155" t="s">
@@ -6165,7 +6162,7 @@
         <v>151</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="R21" s="195"/>
+      <c r="R21" s="205"/>
       <c r="S21" s="22" t="s">
         <v>231</v>
       </c>
@@ -6216,20 +6213,20 @@
       <c r="BF21" s="137"/>
     </row>
     <row r="22" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="209"/>
+      <c r="A22" s="212"/>
       <c r="B22" s="151" t="s">
         <v>235</v>
       </c>
       <c r="C22" s="151" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="165" t="s">
+      <c r="D22" s="162" t="s">
         <v>236</v>
       </c>
       <c r="E22" s="151">
         <v>13</v>
       </c>
-      <c r="F22" s="165" t="s">
+      <c r="F22" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="155" t="s">
@@ -6252,7 +6249,7 @@
         <v>241</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="R22" s="195"/>
+      <c r="R22" s="205"/>
       <c r="S22" s="22" t="s">
         <v>242</v>
       </c>
@@ -6303,20 +6300,20 @@
       <c r="BF22" s="137"/>
     </row>
     <row r="23" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="209"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="151" t="s">
         <v>246</v>
       </c>
       <c r="C23" s="151" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="165" t="s">
+      <c r="D23" s="162" t="s">
         <v>248</v>
       </c>
       <c r="E23" s="151">
         <v>1</v>
       </c>
-      <c r="F23" s="165" t="s">
+      <c r="F23" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="155" t="s">
@@ -6339,7 +6336,7 @@
         <v>253</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="R23" s="195"/>
+      <c r="R23" s="205"/>
       <c r="S23" s="22" t="s">
         <v>254</v>
       </c>
@@ -6390,23 +6387,23 @@
       <c r="BF23" s="137"/>
     </row>
     <row r="24" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="209"/>
+      <c r="A24" s="212"/>
       <c r="B24" s="151" t="s">
         <v>258</v>
       </c>
       <c r="C24" s="151" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="165" t="s">
+      <c r="D24" s="162" t="s">
         <v>260</v>
       </c>
       <c r="E24" s="151">
         <v>1</v>
       </c>
-      <c r="F24" s="165" t="s">
+      <c r="F24" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="167" t="s">
+      <c r="G24" s="164" t="s">
         <v>490</v>
       </c>
       <c r="J24" s="29" t="s">
@@ -6426,7 +6423,7 @@
         <v>264</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="R24" s="195"/>
+      <c r="R24" s="205"/>
       <c r="S24" s="22" t="s">
         <v>265</v>
       </c>
@@ -6477,20 +6474,20 @@
       <c r="BF24" s="137"/>
     </row>
     <row r="25" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="209"/>
+      <c r="A25" s="212"/>
       <c r="B25" s="151" t="s">
         <v>269</v>
       </c>
       <c r="C25" s="151" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="165" t="s">
+      <c r="D25" s="162" t="s">
         <v>271</v>
       </c>
       <c r="E25" s="151">
         <v>1</v>
       </c>
-      <c r="F25" s="165" t="s">
+      <c r="F25" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G25" s="155"/>
@@ -6511,7 +6508,7 @@
         <v>275</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="R25" s="195"/>
+      <c r="R25" s="205"/>
       <c r="S25" s="22" t="s">
         <v>276</v>
       </c>
@@ -6562,20 +6559,20 @@
       <c r="BF25" s="137"/>
     </row>
     <row r="26" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="209"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="151" t="s">
         <v>280</v>
       </c>
       <c r="C26" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="165" t="s">
+      <c r="D26" s="162" t="s">
         <v>282</v>
       </c>
       <c r="E26" s="151">
         <v>1</v>
       </c>
-      <c r="F26" s="165" t="s">
+      <c r="F26" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="155"/>
@@ -6596,7 +6593,7 @@
         <v>286</v>
       </c>
       <c r="P26" s="6"/>
-      <c r="R26" s="195"/>
+      <c r="R26" s="205"/>
       <c r="S26" s="22" t="s">
         <v>287</v>
       </c>
@@ -6647,20 +6644,20 @@
       <c r="BF26" s="137"/>
     </row>
     <row r="27" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="209"/>
+      <c r="A27" s="212"/>
       <c r="B27" s="151" t="s">
         <v>291</v>
       </c>
       <c r="C27" s="151" t="s">
         <v>292</v>
       </c>
-      <c r="D27" s="165" t="s">
+      <c r="D27" s="162" t="s">
         <v>293</v>
       </c>
       <c r="E27" s="151">
         <v>32</v>
       </c>
-      <c r="F27" s="165" t="s">
+      <c r="F27" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G27" s="155"/>
@@ -6681,7 +6678,7 @@
         <v>297</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="R27" s="195"/>
+      <c r="R27" s="205"/>
       <c r="S27" s="22" t="s">
         <v>298</v>
       </c>
@@ -6732,23 +6729,23 @@
       <c r="BF27" s="137"/>
     </row>
     <row r="28" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="210"/>
-      <c r="B28" s="179" t="s">
+      <c r="A28" s="213"/>
+      <c r="B28" s="176" t="s">
         <v>302</v>
       </c>
-      <c r="C28" s="179" t="s">
+      <c r="C28" s="176" t="s">
         <v>303</v>
       </c>
-      <c r="D28" s="181" t="s">
+      <c r="D28" s="178" t="s">
         <v>304</v>
       </c>
-      <c r="E28" s="179">
+      <c r="E28" s="176">
         <v>8</v>
       </c>
-      <c r="F28" s="181" t="s">
+      <c r="F28" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="182"/>
+      <c r="G28" s="179"/>
       <c r="J28" s="29" t="s">
         <v>197</v>
       </c>
@@ -6760,7 +6757,7 @@
       <c r="N28" s="31"/>
       <c r="O28" s="56"/>
       <c r="P28" s="6"/>
-      <c r="R28" s="195"/>
+      <c r="R28" s="205"/>
       <c r="S28" s="22" t="s">
         <v>306</v>
       </c>
@@ -6805,25 +6802,25 @@
       <c r="BF28" s="137"/>
     </row>
     <row r="29" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="201" t="s">
+      <c r="A29" s="208" t="s">
         <v>491</v>
       </c>
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="171" t="s">
         <v>492</v>
       </c>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="171" t="s">
         <v>496</v>
       </c>
       <c r="D29" s="153" t="s">
         <v>506</v>
       </c>
-      <c r="E29" s="174">
+      <c r="E29" s="171">
         <v>1</v>
       </c>
       <c r="F29" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="177" t="s">
+      <c r="G29" s="174" t="s">
         <v>499</v>
       </c>
       <c r="J29" s="44" t="s">
@@ -6837,7 +6834,7 @@
       <c r="N29" s="46"/>
       <c r="O29" s="57"/>
       <c r="P29" s="6"/>
-      <c r="R29" s="195"/>
+      <c r="R29" s="205"/>
       <c r="S29" s="22" t="s">
         <v>310</v>
       </c>
@@ -6879,20 +6876,20 @@
       <c r="BF29" s="137"/>
     </row>
     <row r="30" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="204"/>
+      <c r="A30" s="209"/>
       <c r="B30" s="151" t="s">
         <v>493</v>
       </c>
       <c r="C30" s="151" t="s">
         <v>497</v>
       </c>
-      <c r="D30" s="165" t="s">
+      <c r="D30" s="162" t="s">
         <v>507</v>
       </c>
       <c r="E30" s="151">
         <v>1</v>
       </c>
-      <c r="F30" s="165" t="s">
+      <c r="F30" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="155" t="s">
@@ -6900,7 +6897,7 @@
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="195"/>
+      <c r="R30" s="205"/>
       <c r="S30" s="22" t="s">
         <v>312</v>
       </c>
@@ -6942,20 +6939,20 @@
       <c r="BF30" s="137"/>
     </row>
     <row r="31" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="204"/>
+      <c r="A31" s="209"/>
       <c r="B31" s="151" t="s">
         <v>494</v>
       </c>
       <c r="C31" s="151" t="s">
         <v>498</v>
       </c>
-      <c r="D31" s="165" t="s">
+      <c r="D31" s="162" t="s">
         <v>508</v>
       </c>
       <c r="E31" s="151">
         <v>1</v>
       </c>
-      <c r="F31" s="165" t="s">
+      <c r="F31" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="155" t="s">
@@ -6977,7 +6974,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="6"/>
-      <c r="R31" s="195"/>
+      <c r="R31" s="205"/>
       <c r="S31" s="66" t="s">
         <v>319</v>
       </c>
@@ -7019,20 +7016,20 @@
       <c r="BF31" s="137"/>
     </row>
     <row r="32" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="204"/>
+      <c r="A32" s="209"/>
       <c r="B32" s="151" t="s">
         <v>495</v>
       </c>
       <c r="C32" s="151" t="s">
         <v>496</v>
       </c>
-      <c r="D32" s="165" t="s">
+      <c r="D32" s="162" t="s">
         <v>509</v>
       </c>
       <c r="E32" s="151">
         <v>13</v>
       </c>
-      <c r="F32" s="165" t="s">
+      <c r="F32" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="155" t="s">
@@ -7050,7 +7047,7 @@
         <v>325</v>
       </c>
       <c r="Q32" s="6"/>
-      <c r="R32" s="195"/>
+      <c r="R32" s="205"/>
       <c r="S32" s="22" t="s">
         <v>326</v>
       </c>
@@ -7092,20 +7089,20 @@
       <c r="BF32" s="137"/>
     </row>
     <row r="33" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="204"/>
+      <c r="A33" s="209"/>
       <c r="B33" s="151" t="s">
         <v>501</v>
       </c>
       <c r="C33" s="151" t="s">
         <v>502</v>
       </c>
-      <c r="D33" s="165" t="s">
+      <c r="D33" s="162" t="s">
         <v>510</v>
       </c>
       <c r="E33" s="151">
         <v>1</v>
       </c>
-      <c r="F33" s="165" t="s">
+      <c r="F33" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G33" s="155" t="s">
@@ -7123,7 +7120,7 @@
         <v>329</v>
       </c>
       <c r="Q33" s="6"/>
-      <c r="R33" s="195"/>
+      <c r="R33" s="205"/>
       <c r="S33" s="67" t="s">
         <v>330</v>
       </c>
@@ -7165,20 +7162,20 @@
       <c r="BF33" s="137"/>
     </row>
     <row r="34" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="204"/>
+      <c r="A34" s="209"/>
       <c r="B34" s="151" t="s">
         <v>538</v>
       </c>
       <c r="C34" s="151" t="s">
         <v>539</v>
       </c>
-      <c r="D34" s="165" t="s">
+      <c r="D34" s="162" t="s">
         <v>511</v>
       </c>
       <c r="E34" s="151">
         <v>1</v>
       </c>
-      <c r="F34" s="165" t="s">
+      <c r="F34" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G34" s="155" t="s">
@@ -7196,7 +7193,7 @@
         <v>333</v>
       </c>
       <c r="O34" s="6"/>
-      <c r="R34" s="195"/>
+      <c r="R34" s="205"/>
       <c r="S34" s="36" t="s">
         <v>334</v>
       </c>
@@ -7238,23 +7235,23 @@
       <c r="BF34" s="137"/>
     </row>
     <row r="35" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="204"/>
+      <c r="A35" s="209"/>
       <c r="B35" s="152" t="s">
         <v>541</v>
       </c>
       <c r="C35" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="D35" s="184" t="s">
+      <c r="D35" s="181" t="s">
         <v>540</v>
       </c>
       <c r="E35" s="152">
         <v>1</v>
       </c>
-      <c r="F35" s="184" t="s">
+      <c r="F35" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="185"/>
+      <c r="G35" s="182"/>
       <c r="J35" s="29" t="s">
         <v>242</v>
       </c>
@@ -7267,7 +7264,7 @@
         <v>338</v>
       </c>
       <c r="O35" s="6"/>
-      <c r="R35" s="202" t="s">
+      <c r="R35" s="206" t="s">
         <v>339</v>
       </c>
       <c r="S35" s="69" t="s">
@@ -7311,23 +7308,23 @@
       <c r="BF35" s="137"/>
     </row>
     <row r="36" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="205"/>
-      <c r="B36" s="179" t="s">
+      <c r="A36" s="210"/>
+      <c r="B36" s="176" t="s">
         <v>543</v>
       </c>
-      <c r="C36" s="179" t="s">
+      <c r="C36" s="176" t="s">
         <v>544</v>
       </c>
-      <c r="D36" s="181" t="s">
+      <c r="D36" s="178" t="s">
         <v>545</v>
       </c>
-      <c r="E36" s="179">
+      <c r="E36" s="176">
         <v>4</v>
       </c>
-      <c r="F36" s="181" t="s">
+      <c r="F36" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="182"/>
+      <c r="G36" s="179"/>
       <c r="J36" s="29" t="s">
         <v>254</v>
       </c>
@@ -7340,7 +7337,7 @@
         <v>343</v>
       </c>
       <c r="O36" s="6"/>
-      <c r="R36" s="202"/>
+      <c r="R36" s="206"/>
       <c r="S36" s="22" t="s">
         <v>344</v>
       </c>
@@ -7382,25 +7379,25 @@
       <c r="BF36" s="137"/>
     </row>
     <row r="37" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="201" t="s">
+      <c r="A37" s="208" t="s">
         <v>546</v>
       </c>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="171" t="s">
         <v>547</v>
       </c>
-      <c r="C37" s="174" t="s">
+      <c r="C37" s="171" t="s">
         <v>551</v>
       </c>
       <c r="D37" s="153" t="s">
         <v>568</v>
       </c>
-      <c r="E37" s="174">
+      <c r="E37" s="171">
         <v>1</v>
       </c>
       <c r="F37" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="177" t="s">
+      <c r="G37" s="174" t="s">
         <v>583</v>
       </c>
       <c r="J37" s="29" t="s">
@@ -7415,7 +7412,7 @@
         <v>349</v>
       </c>
       <c r="O37" s="6"/>
-      <c r="R37" s="202"/>
+      <c r="R37" s="206"/>
       <c r="S37" s="22" t="s">
         <v>350</v>
       </c>
@@ -7457,20 +7454,20 @@
       <c r="BF37" s="137"/>
     </row>
     <row r="38" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="204"/>
+      <c r="A38" s="209"/>
       <c r="B38" s="151" t="s">
         <v>548</v>
       </c>
       <c r="C38" s="151" t="s">
         <v>552</v>
       </c>
-      <c r="D38" s="165" t="s">
+      <c r="D38" s="162" t="s">
         <v>567</v>
       </c>
       <c r="E38" s="151">
         <v>1</v>
       </c>
-      <c r="F38" s="165" t="s">
+      <c r="F38" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="155" t="s">
@@ -7488,7 +7485,7 @@
         <v>69</v>
       </c>
       <c r="O38" s="6"/>
-      <c r="R38" s="202"/>
+      <c r="R38" s="206"/>
       <c r="S38" s="22" t="s">
         <v>352</v>
       </c>
@@ -7530,20 +7527,20 @@
       <c r="BF38" s="137"/>
     </row>
     <row r="39" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="204"/>
+      <c r="A39" s="209"/>
       <c r="B39" s="151" t="s">
         <v>549</v>
       </c>
       <c r="C39" s="151" t="s">
         <v>553</v>
       </c>
-      <c r="D39" s="165" t="s">
+      <c r="D39" s="162" t="s">
         <v>566</v>
       </c>
       <c r="E39" s="151">
         <v>1</v>
       </c>
-      <c r="F39" s="165" t="s">
+      <c r="F39" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="155" t="s">
@@ -7561,7 +7558,7 @@
         <v>355</v>
       </c>
       <c r="O39" s="6"/>
-      <c r="R39" s="202"/>
+      <c r="R39" s="206"/>
       <c r="S39" s="22" t="s">
         <v>356</v>
       </c>
@@ -7571,20 +7568,20 @@
       <c r="U39" s="58"/>
     </row>
     <row r="40" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="204"/>
+      <c r="A40" s="209"/>
       <c r="B40" s="151" t="s">
         <v>550</v>
       </c>
       <c r="C40" s="151" t="s">
         <v>551</v>
       </c>
-      <c r="D40" s="165" t="s">
+      <c r="D40" s="162" t="s">
         <v>565</v>
       </c>
       <c r="E40" s="151">
         <v>13</v>
       </c>
-      <c r="F40" s="165" t="s">
+      <c r="F40" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G40" s="155" t="s">
@@ -7602,7 +7599,7 @@
         <v>359</v>
       </c>
       <c r="O40" s="6"/>
-      <c r="R40" s="202"/>
+      <c r="R40" s="206"/>
       <c r="S40" s="22" t="s">
         <v>360</v>
       </c>
@@ -7612,20 +7609,20 @@
       <c r="U40" s="58"/>
     </row>
     <row r="41" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="204"/>
+      <c r="A41" s="209"/>
       <c r="B41" s="151" t="s">
         <v>554</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="175" t="s">
         <v>555</v>
       </c>
-      <c r="D41" s="165" t="s">
+      <c r="D41" s="162" t="s">
         <v>564</v>
       </c>
       <c r="E41" s="151">
         <v>4</v>
       </c>
-      <c r="F41" s="165" t="s">
+      <c r="F41" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G41" s="155"/>
@@ -7641,7 +7638,7 @@
         <v>363</v>
       </c>
       <c r="O41" s="6"/>
-      <c r="R41" s="202"/>
+      <c r="R41" s="206"/>
       <c r="S41" s="22" t="s">
         <v>364</v>
       </c>
@@ -7651,20 +7648,20 @@
       <c r="U41" s="58"/>
     </row>
     <row r="42" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="204"/>
+      <c r="A42" s="209"/>
       <c r="B42" s="151" t="s">
         <v>556</v>
       </c>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="175" t="s">
         <v>557</v>
       </c>
-      <c r="D42" s="165" t="s">
+      <c r="D42" s="162" t="s">
         <v>563</v>
       </c>
       <c r="E42" s="151">
         <v>40</v>
       </c>
-      <c r="F42" s="165" t="s">
+      <c r="F42" s="162" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="155"/>
@@ -7680,7 +7677,7 @@
         <v>71</v>
       </c>
       <c r="O42" s="6"/>
-      <c r="R42" s="202"/>
+      <c r="R42" s="206"/>
       <c r="S42" s="22" t="s">
         <v>368</v>
       </c>
@@ -7690,20 +7687,20 @@
       <c r="U42" s="58"/>
     </row>
     <row r="43" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="204"/>
+      <c r="A43" s="209"/>
       <c r="B43" s="151" t="s">
         <v>569</v>
       </c>
-      <c r="C43" s="178" t="s">
+      <c r="C43" s="175" t="s">
         <v>558</v>
       </c>
-      <c r="D43" s="165" t="s">
+      <c r="D43" s="162" t="s">
         <v>562</v>
       </c>
       <c r="E43" s="151">
         <v>40</v>
       </c>
-      <c r="F43" s="165" t="s">
+      <c r="F43" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="155"/>
@@ -7718,7 +7715,7 @@
       <c r="N43" s="33">
         <v>73</v>
       </c>
-      <c r="R43" s="203"/>
+      <c r="R43" s="207"/>
       <c r="S43" s="126" t="s">
         <v>370</v>
       </c>
@@ -7728,23 +7725,23 @@
       <c r="U43" s="58"/>
     </row>
     <row r="44" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="205"/>
-      <c r="B44" s="179" t="s">
+      <c r="A44" s="210"/>
+      <c r="B44" s="176" t="s">
         <v>559</v>
       </c>
-      <c r="C44" s="180" t="s">
+      <c r="C44" s="177" t="s">
         <v>560</v>
       </c>
-      <c r="D44" s="181" t="s">
+      <c r="D44" s="178" t="s">
         <v>561</v>
       </c>
-      <c r="E44" s="179">
+      <c r="E44" s="176">
         <v>1</v>
       </c>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="182"/>
+      <c r="G44" s="179"/>
       <c r="J44" s="29" t="s">
         <v>319</v>
       </c>
@@ -7766,25 +7763,25 @@
       <c r="U44" s="58"/>
     </row>
     <row r="45" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="201" t="s">
+      <c r="A45" s="208" t="s">
         <v>570</v>
       </c>
-      <c r="B45" s="174" t="s">
+      <c r="B45" s="171" t="s">
         <v>572</v>
       </c>
-      <c r="C45" s="174" t="s">
+      <c r="C45" s="171" t="s">
         <v>575</v>
       </c>
       <c r="D45" s="153" t="s">
         <v>579</v>
       </c>
-      <c r="E45" s="174">
+      <c r="E45" s="171">
         <v>1</v>
       </c>
       <c r="F45" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="177" t="s">
+      <c r="G45" s="174" t="s">
         <v>584</v>
       </c>
       <c r="J45" s="29" t="s">
@@ -7802,20 +7799,20 @@
       <c r="U45" s="58"/>
     </row>
     <row r="46" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="204"/>
+      <c r="A46" s="209"/>
       <c r="B46" s="151" t="s">
         <v>573</v>
       </c>
       <c r="C46" s="151" t="s">
         <v>576</v>
       </c>
-      <c r="D46" s="165" t="s">
+      <c r="D46" s="162" t="s">
         <v>580</v>
       </c>
       <c r="E46" s="151">
         <v>1</v>
       </c>
-      <c r="F46" s="165" t="s">
+      <c r="F46" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="155" t="s">
@@ -7834,20 +7831,20 @@
       <c r="U46" s="58"/>
     </row>
     <row r="47" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="204"/>
+      <c r="A47" s="209"/>
       <c r="B47" s="151" t="s">
         <v>574</v>
       </c>
       <c r="C47" s="151" t="s">
         <v>575</v>
       </c>
-      <c r="D47" s="165" t="s">
+      <c r="D47" s="162" t="s">
         <v>581</v>
       </c>
       <c r="E47" s="151">
         <v>13</v>
       </c>
-      <c r="F47" s="165" t="s">
+      <c r="F47" s="162" t="s">
         <v>24</v>
       </c>
       <c r="G47" s="155" t="s">
@@ -7866,45 +7863,45 @@
       <c r="U47" s="58"/>
     </row>
     <row r="48" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="205"/>
-      <c r="B48" s="179" t="s">
+      <c r="A48" s="210"/>
+      <c r="B48" s="176" t="s">
         <v>571</v>
       </c>
-      <c r="C48" s="180" t="s">
+      <c r="C48" s="177" t="s">
         <v>577</v>
       </c>
-      <c r="D48" s="181" t="s">
+      <c r="D48" s="178" t="s">
         <v>582</v>
       </c>
-      <c r="E48" s="186">
+      <c r="E48" s="183">
         <v>65526</v>
       </c>
-      <c r="F48" s="181" t="s">
+      <c r="F48" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="182" t="s">
+      <c r="G48" s="179" t="s">
         <v>578</v>
       </c>
       <c r="O48" s="6"/>
       <c r="U48" s="58"/>
     </row>
     <row r="49" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="201" t="s">
+      <c r="A49" s="208" t="s">
         <v>587</v>
       </c>
-      <c r="B49" s="174" t="s">
+      <c r="B49" s="171" t="s">
         <v>588</v>
       </c>
-      <c r="C49" s="174" t="s">
+      <c r="C49" s="171" t="s">
         <v>591</v>
       </c>
-      <c r="D49" s="156" t="s">
+      <c r="D49" s="193" t="s">
         <v>595</v>
       </c>
       <c r="E49" s="12">
         <v>1</v>
       </c>
-      <c r="F49" s="172" t="s">
+      <c r="F49" s="194" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="13" t="s">
@@ -7931,20 +7928,20 @@
       <c r="U49" s="58"/>
     </row>
     <row r="50" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="204"/>
+      <c r="A50" s="209"/>
       <c r="B50" s="151" t="s">
         <v>589</v>
       </c>
       <c r="C50" s="151" t="s">
         <v>592</v>
       </c>
-      <c r="D50" s="166" t="s">
+      <c r="D50" s="163" t="s">
         <v>596</v>
       </c>
       <c r="E50" s="22">
         <v>1</v>
       </c>
-      <c r="F50" s="158" t="s">
+      <c r="F50" s="195" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="23" t="s">
@@ -7965,20 +7962,20 @@
       <c r="U50" s="58"/>
     </row>
     <row r="51" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="204"/>
+      <c r="A51" s="209"/>
       <c r="B51" s="151" t="s">
         <v>590</v>
       </c>
       <c r="C51" s="151" t="s">
         <v>591</v>
       </c>
-      <c r="D51" s="166" t="s">
+      <c r="D51" s="163" t="s">
         <v>597</v>
       </c>
       <c r="E51" s="22">
         <v>13</v>
       </c>
-      <c r="F51" s="158" t="s">
+      <c r="F51" s="195" t="s">
         <v>24</v>
       </c>
       <c r="G51" s="155" t="s">
@@ -7999,23 +7996,23 @@
       <c r="U51" s="58"/>
     </row>
     <row r="52" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="204"/>
-      <c r="B52" s="187" t="s">
+      <c r="A52" s="209"/>
+      <c r="B52" s="184" t="s">
         <v>598</v>
       </c>
-      <c r="C52" s="187" t="s">
+      <c r="C52" s="184" t="s">
         <v>600</v>
       </c>
-      <c r="D52" s="188" t="s">
-        <v>636</v>
+      <c r="D52" s="185" t="s">
+        <v>633</v>
       </c>
       <c r="E52" s="22">
         <v>1</v>
       </c>
-      <c r="F52" s="158" t="s">
+      <c r="F52" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="157">
+      <c r="G52" s="192">
         <v>500</v>
       </c>
       <c r="J52" s="40" t="s">
@@ -8033,23 +8030,23 @@
       <c r="U52" s="58"/>
     </row>
     <row r="53" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="204"/>
+      <c r="A53" s="209"/>
       <c r="B53" s="22" t="s">
         <v>599</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>601</v>
       </c>
-      <c r="D53" s="158" t="s">
-        <v>612</v>
+      <c r="D53" s="195" t="s">
+        <v>610</v>
       </c>
       <c r="E53" s="22">
         <v>1</v>
       </c>
-      <c r="F53" s="158" t="s">
+      <c r="F53" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="157">
+      <c r="G53" s="192">
         <v>560</v>
       </c>
       <c r="J53" s="40" t="s">
@@ -8065,23 +8062,23 @@
       <c r="U53" s="58"/>
     </row>
     <row r="54" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="204"/>
-      <c r="B54" s="189" t="s">
+      <c r="A54" s="209"/>
+      <c r="B54" s="186" t="s">
         <v>602</v>
       </c>
-      <c r="C54" s="190" t="s">
+      <c r="C54" s="187" t="s">
         <v>604</v>
       </c>
-      <c r="D54" s="191" t="s">
-        <v>613</v>
-      </c>
-      <c r="E54" s="189">
+      <c r="D54" s="188" t="s">
+        <v>611</v>
+      </c>
+      <c r="E54" s="186">
         <v>1</v>
       </c>
-      <c r="F54" s="191" t="s">
+      <c r="F54" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="G54" s="192"/>
+      <c r="G54" s="189"/>
       <c r="J54" s="40" t="s">
         <v>356</v>
       </c>
@@ -8095,23 +8092,23 @@
       <c r="U54" s="58"/>
     </row>
     <row r="55" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="204"/>
-      <c r="B55" s="189" t="s">
+      <c r="A55" s="209"/>
+      <c r="B55" s="186" t="s">
         <v>603</v>
       </c>
-      <c r="C55" s="190" t="s">
+      <c r="C55" s="187" t="s">
         <v>605</v>
       </c>
-      <c r="D55" s="191" t="s">
-        <v>614</v>
-      </c>
-      <c r="E55" s="189">
+      <c r="D55" s="188" t="s">
+        <v>612</v>
+      </c>
+      <c r="E55" s="186">
         <v>32</v>
       </c>
-      <c r="F55" s="191" t="s">
+      <c r="F55" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="192"/>
+      <c r="G55" s="189"/>
       <c r="J55" s="40" t="s">
         <v>360</v>
       </c>
@@ -8125,23 +8122,23 @@
       <c r="U55" s="58"/>
     </row>
     <row r="56" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="204"/>
-      <c r="B56" s="189" t="s">
-        <v>637</v>
-      </c>
-      <c r="C56" s="190" t="s">
+      <c r="A56" s="209"/>
+      <c r="B56" s="186" t="s">
+        <v>634</v>
+      </c>
+      <c r="C56" s="187" t="s">
         <v>606</v>
       </c>
-      <c r="D56" s="191" t="s">
-        <v>615</v>
-      </c>
-      <c r="E56" s="189">
+      <c r="D56" s="188" t="s">
+        <v>613</v>
+      </c>
+      <c r="E56" s="186">
         <v>8</v>
       </c>
-      <c r="F56" s="191" t="s">
+      <c r="F56" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="192"/>
+      <c r="G56" s="189"/>
       <c r="J56" s="40" t="s">
         <v>364</v>
       </c>
@@ -8154,24 +8151,24 @@
       <c r="O56" s="56"/>
       <c r="U56" s="58"/>
     </row>
-    <row r="57" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="204"/>
-      <c r="B57" s="22" t="s">
+    <row r="57" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="210"/>
+      <c r="B57" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="37" t="s">
         <v>608</v>
       </c>
-      <c r="D57" s="158" t="s">
-        <v>616</v>
-      </c>
-      <c r="E57" s="22">
-        <v>1024</v>
-      </c>
-      <c r="F57" s="158" t="s">
+      <c r="D57" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="E57" s="156" t="s">
+        <v>609</v>
+      </c>
+      <c r="F57" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="23"/>
+      <c r="G57" s="39"/>
       <c r="J57" s="40" t="s">
         <v>368</v>
       </c>
@@ -8185,23 +8182,7 @@
       <c r="U57" s="58"/>
     </row>
     <row r="58" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="205"/>
-      <c r="B58" s="36" t="s">
-        <v>609</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="E58" s="159" t="s">
-        <v>611</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="39"/>
+      <c r="A58" s="265"/>
       <c r="J58" s="43" t="s">
         <v>370</v>
       </c>
@@ -8221,10 +8202,10 @@
     <row r="59" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
-      <c r="C59" s="247"/>
-      <c r="D59" s="248"/>
-      <c r="E59" s="249"/>
-      <c r="F59" s="248"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="197"/>
       <c r="G59" s="58"/>
     </row>
     <row r="60" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8245,16 +8226,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="R19:R34"/>
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="A49:A57"/>
     <mergeCell ref="X3:X13"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="R5:R10"/>
@@ -8262,6 +8234,15 @@
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="R11:R18"/>
     <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="R19:R34"/>
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A19:A28"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -8272,7 +8253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -8281,78 +8262,78 @@
     <col min="1" max="1" width="6.3984375" customWidth="1"/>
     <col min="2" max="2" width="10.3984375" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="2.69921875" style="160" customWidth="1"/>
+    <col min="4" max="4" width="2.69921875" style="157" customWidth="1"/>
     <col min="5" max="5" width="1.5" customWidth="1"/>
     <col min="6" max="6" width="8.796875" customWidth="1"/>
     <col min="7" max="7" width="0.796875" customWidth="1"/>
-    <col min="8" max="44" width="1" style="193"/>
+    <col min="8" max="44" width="1" style="190"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="167" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="250" t="s">
+      <c r="D1" s="199" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="170" t="s">
-        <v>618</v>
-      </c>
-      <c r="F1" s="171" t="s">
+      <c r="E1" s="167" t="s">
+        <v>615</v>
+      </c>
+      <c r="F1" s="168" t="s">
         <v>316</v>
       </c>
-      <c r="H1" s="208" t="s">
-        <v>634</v>
-      </c>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
-      <c r="AH1" s="211"/>
-      <c r="AI1" s="211"/>
-      <c r="AJ1" s="211"/>
-      <c r="AK1" s="211"/>
-      <c r="AL1" s="211"/>
-      <c r="AM1" s="212"/>
+      <c r="H1" s="211" t="s">
+        <v>631</v>
+      </c>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="236"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="237"/>
     </row>
     <row r="2" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="225" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="229" t="s">
+      <c r="D2" s="246" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="12">
@@ -8459,78 +8440,78 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="225"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="230"/>
+      <c r="A3" s="227"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="22">
         <v>1</v>
       </c>
       <c r="F3" s="154" t="s">
-        <v>619</v>
-      </c>
-      <c r="H3" s="194" t="s">
+        <v>616</v>
+      </c>
+      <c r="H3" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="215" t="s">
+      <c r="I3" s="240" t="s">
         <v>537</v>
       </c>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="215"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215"/>
-      <c r="R3" s="213" t="s">
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="238" t="s">
         <v>406</v>
       </c>
-      <c r="S3" s="213"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="213"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="213"/>
-      <c r="AB3" s="213"/>
-      <c r="AC3" s="213"/>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="213"/>
-      <c r="AG3" s="213"/>
-      <c r="AH3" s="213"/>
-      <c r="AI3" s="213"/>
-      <c r="AJ3" s="213"/>
-      <c r="AK3" s="213"/>
-      <c r="AL3" s="213"/>
-      <c r="AM3" s="214"/>
+      <c r="S3" s="238"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="238"/>
+      <c r="AB3" s="238"/>
+      <c r="AC3" s="238"/>
+      <c r="AD3" s="238"/>
+      <c r="AE3" s="238"/>
+      <c r="AF3" s="238"/>
+      <c r="AG3" s="238"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="238"/>
+      <c r="AJ3" s="238"/>
+      <c r="AK3" s="238"/>
+      <c r="AL3" s="238"/>
+      <c r="AM3" s="239"/>
     </row>
     <row r="4" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="225"/>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="230"/>
+      <c r="A4" s="227"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="247"/>
       <c r="E4" s="22">
         <v>2</v>
       </c>
       <c r="F4" s="154" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H4" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="193" t="s">
-        <v>635</v>
+      <c r="I4" s="190" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="225"/>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="230"/>
+      <c r="A5" s="227"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="247"/>
       <c r="E5" s="22">
         <v>3</v>
       </c>
@@ -8539,10 +8520,10 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="225"/>
-      <c r="B6" s="228"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="230"/>
+      <c r="A6" s="227"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="247"/>
       <c r="E6" s="22">
         <v>4</v>
       </c>
@@ -8551,14 +8532,14 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="225"/>
-      <c r="B7" s="228" t="s">
+      <c r="A7" s="227"/>
+      <c r="B7" s="230" t="s">
         <v>346</v>
       </c>
-      <c r="C7" s="228" t="s">
+      <c r="C7" s="230" t="s">
         <v>347</v>
       </c>
-      <c r="D7" s="230" t="s">
+      <c r="D7" s="247" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="22">
@@ -8567,46 +8548,46 @@
       <c r="F7" s="154" t="s">
         <v>323</v>
       </c>
-      <c r="H7" s="208" t="s">
+      <c r="H7" s="211" t="s">
         <v>541</v>
       </c>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
-      <c r="S7" s="211"/>
-      <c r="T7" s="211"/>
-      <c r="U7" s="211"/>
-      <c r="V7" s="211"/>
-      <c r="W7" s="211"/>
-      <c r="X7" s="211"/>
-      <c r="Y7" s="211"/>
-      <c r="Z7" s="211"/>
-      <c r="AA7" s="211"/>
-      <c r="AB7" s="211"/>
-      <c r="AC7" s="211"/>
-      <c r="AD7" s="211"/>
-      <c r="AE7" s="211"/>
-      <c r="AF7" s="211"/>
-      <c r="AG7" s="211"/>
-      <c r="AH7" s="211"/>
-      <c r="AI7" s="211"/>
-      <c r="AJ7" s="211"/>
-      <c r="AK7" s="211"/>
-      <c r="AL7" s="211"/>
-      <c r="AM7" s="212"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
+      <c r="O7" s="236"/>
+      <c r="P7" s="236"/>
+      <c r="Q7" s="236"/>
+      <c r="R7" s="236"/>
+      <c r="S7" s="236"/>
+      <c r="T7" s="236"/>
+      <c r="U7" s="236"/>
+      <c r="V7" s="236"/>
+      <c r="W7" s="236"/>
+      <c r="X7" s="236"/>
+      <c r="Y7" s="236"/>
+      <c r="Z7" s="236"/>
+      <c r="AA7" s="236"/>
+      <c r="AB7" s="236"/>
+      <c r="AC7" s="236"/>
+      <c r="AD7" s="236"/>
+      <c r="AE7" s="236"/>
+      <c r="AF7" s="236"/>
+      <c r="AG7" s="236"/>
+      <c r="AH7" s="236"/>
+      <c r="AI7" s="236"/>
+      <c r="AJ7" s="236"/>
+      <c r="AK7" s="236"/>
+      <c r="AL7" s="236"/>
+      <c r="AM7" s="237"/>
     </row>
     <row r="8" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="225"/>
-      <c r="B8" s="228"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="230"/>
+      <c r="A8" s="227"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="22">
         <v>1</v>
       </c>
@@ -8711,15 +8692,15 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="225"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="230"/>
+      <c r="A9" s="227"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="247"/>
       <c r="E9" s="22">
         <v>2</v>
       </c>
       <c r="F9" s="154" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H9" s="146" t="s">
         <v>79</v>
@@ -8733,49 +8714,49 @@
       <c r="K9" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="222" t="s">
+      <c r="L9" s="243" t="s">
         <v>537</v>
       </c>
-      <c r="M9" s="223"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="220" t="s">
+      <c r="M9" s="244"/>
+      <c r="N9" s="245"/>
+      <c r="O9" s="241" t="s">
         <v>532</v>
       </c>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="220"/>
-      <c r="T9" s="220"/>
-      <c r="U9" s="220"/>
-      <c r="V9" s="220"/>
-      <c r="W9" s="220"/>
-      <c r="X9" s="220"/>
-      <c r="Y9" s="220"/>
-      <c r="Z9" s="220"/>
-      <c r="AA9" s="220"/>
-      <c r="AB9" s="220"/>
-      <c r="AC9" s="220"/>
-      <c r="AD9" s="220"/>
-      <c r="AE9" s="220"/>
-      <c r="AF9" s="220"/>
-      <c r="AG9" s="220"/>
-      <c r="AH9" s="220"/>
-      <c r="AI9" s="220"/>
-      <c r="AJ9" s="220"/>
-      <c r="AK9" s="220"/>
-      <c r="AL9" s="220"/>
-      <c r="AM9" s="221"/>
+      <c r="P9" s="241"/>
+      <c r="Q9" s="241"/>
+      <c r="R9" s="241"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
+      <c r="U9" s="241"/>
+      <c r="V9" s="241"/>
+      <c r="W9" s="241"/>
+      <c r="X9" s="241"/>
+      <c r="Y9" s="241"/>
+      <c r="Z9" s="241"/>
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="241"/>
+      <c r="AC9" s="241"/>
+      <c r="AD9" s="241"/>
+      <c r="AE9" s="241"/>
+      <c r="AF9" s="241"/>
+      <c r="AG9" s="241"/>
+      <c r="AH9" s="241"/>
+      <c r="AI9" s="241"/>
+      <c r="AJ9" s="241"/>
+      <c r="AK9" s="241"/>
+      <c r="AL9" s="241"/>
+      <c r="AM9" s="242"/>
     </row>
     <row r="10" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="225"/>
-      <c r="B10" s="228"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="230"/>
+      <c r="A10" s="227"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="247"/>
       <c r="E10" s="22">
         <v>3</v>
       </c>
       <c r="F10" s="154" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H10" s="139" t="s">
         <v>79</v>
@@ -8815,10 +8796,10 @@
       <c r="AM10" s="137"/>
     </row>
     <row r="11" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="225"/>
-      <c r="B11" s="228"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="230"/>
+      <c r="A11" s="227"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="247"/>
       <c r="E11" s="22">
         <v>4</v>
       </c>
@@ -8863,7 +8844,7 @@
       <c r="AM11" s="137"/>
     </row>
     <row r="12" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="219"/>
+      <c r="A12" s="226"/>
       <c r="B12" s="36" t="s">
         <v>366</v>
       </c>
@@ -8876,7 +8857,7 @@
       <c r="E12" s="36">
         <v>0</v>
       </c>
-      <c r="F12" s="173" t="s">
+      <c r="F12" s="170" t="s">
         <v>323</v>
       </c>
       <c r="H12" s="141" t="s">
@@ -8917,16 +8898,16 @@
       <c r="AM12" s="137"/>
     </row>
     <row r="13" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="217" t="s">
+      <c r="A13" s="222" t="s">
         <v>587</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="D13" s="172" t="s">
+        <v>619</v>
+      </c>
+      <c r="D13" s="169" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="12"/>
@@ -8969,183 +8950,183 @@
       <c r="AM13" s="137"/>
     </row>
     <row r="14" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="206"/>
+      <c r="A14" s="223"/>
       <c r="B14" s="151" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C14" s="151" t="s">
-        <v>624</v>
-      </c>
-      <c r="D14" s="166" t="s">
+        <v>621</v>
+      </c>
+      <c r="D14" s="163" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
       </c>
-      <c r="F14" s="167" t="s">
-        <v>625</v>
+      <c r="F14" s="164" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="206"/>
-      <c r="B15" s="259" t="s">
-        <v>638</v>
-      </c>
-      <c r="C15" s="259" t="s">
-        <v>639</v>
-      </c>
-      <c r="D15" s="256" t="s">
+      <c r="A15" s="223"/>
+      <c r="B15" s="232" t="s">
+        <v>635</v>
+      </c>
+      <c r="C15" s="232" t="s">
+        <v>636</v>
+      </c>
+      <c r="D15" s="219" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="22">
         <v>0</v>
       </c>
-      <c r="F15" s="167" t="s">
-        <v>629</v>
+      <c r="F15" s="164" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="206"/>
-      <c r="B16" s="260"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="257"/>
+      <c r="A16" s="223"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="F16" s="167" t="s">
-        <v>630</v>
+      <c r="F16" s="164" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="206"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="258"/>
+      <c r="A17" s="223"/>
+      <c r="B17" s="234"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="248"/>
       <c r="E17" s="22">
         <v>2</v>
       </c>
-      <c r="F17" s="167" t="s">
-        <v>640</v>
+      <c r="F17" s="164" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="206"/>
-      <c r="B18" s="259" t="s">
-        <v>641</v>
-      </c>
-      <c r="C18" s="259" t="s">
-        <v>642</v>
-      </c>
-      <c r="D18" s="256" t="s">
+      <c r="A18" s="223"/>
+      <c r="B18" s="232" t="s">
+        <v>638</v>
+      </c>
+      <c r="C18" s="232" t="s">
+        <v>639</v>
+      </c>
+      <c r="D18" s="219" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="22">
         <v>0</v>
       </c>
-      <c r="F18" s="167" t="s">
-        <v>629</v>
+      <c r="F18" s="164" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="206"/>
-      <c r="B19" s="261"/>
-      <c r="C19" s="261"/>
-      <c r="D19" s="258"/>
+      <c r="A19" s="223"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="234"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="167" t="s">
-        <v>630</v>
+      <c r="F19" s="164" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="206"/>
-      <c r="B20" s="259" t="s">
-        <v>626</v>
-      </c>
-      <c r="C20" s="259" t="s">
-        <v>627</v>
-      </c>
-      <c r="D20" s="256" t="s">
+      <c r="A20" s="223"/>
+      <c r="B20" s="232" t="s">
+        <v>623</v>
+      </c>
+      <c r="C20" s="232" t="s">
+        <v>624</v>
+      </c>
+      <c r="D20" s="219" t="s">
         <v>89</v>
       </c>
       <c r="E20" s="22">
         <v>0</v>
       </c>
-      <c r="F20" s="167" t="s">
-        <v>628</v>
+      <c r="F20" s="164" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="206"/>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="257"/>
+      <c r="A21" s="223"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="22">
         <v>1</v>
       </c>
-      <c r="F21" s="167" t="s">
-        <v>629</v>
+      <c r="F21" s="164" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="206"/>
-      <c r="B22" s="260"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="257"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="233"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="22">
         <v>2</v>
       </c>
-      <c r="F22" s="167" t="s">
-        <v>630</v>
+      <c r="F22" s="164" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="206"/>
-      <c r="B23" s="260"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="257"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="22">
         <v>3</v>
       </c>
-      <c r="F23" s="167" t="s">
-        <v>625</v>
+      <c r="F23" s="164" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="206"/>
-      <c r="B24" s="260"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="257"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="220"/>
       <c r="E24" s="22">
         <v>4</v>
       </c>
-      <c r="F24" s="167" t="s">
-        <v>631</v>
+      <c r="F24" s="164" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="206"/>
-      <c r="B25" s="260"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="257"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="220"/>
       <c r="E25" s="22">
         <v>5</v>
       </c>
-      <c r="F25" s="167" t="s">
-        <v>632</v>
+      <c r="F25" s="164" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="207"/>
-      <c r="B26" s="263"/>
-      <c r="C26" s="263"/>
-      <c r="D26" s="262"/>
+      <c r="A26" s="224"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="221"/>
       <c r="E26" s="36">
         <v>6</v>
       </c>
-      <c r="F26" s="168" t="s">
-        <v>633</v>
+      <c r="F26" s="165" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -9188,7 +9169,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="216" t="s">
+      <c r="A38" s="231" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -9197,36 +9178,36 @@
       <c r="C38" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="D38" s="251" t="s">
+      <c r="D38" s="200" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="216"/>
+      <c r="A39" s="231"/>
       <c r="B39" s="22" t="s">
         <v>378</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="D39" s="252" t="s">
+      <c r="D39" s="201" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="216"/>
+      <c r="A40" s="231"/>
       <c r="B40" s="36" t="s">
         <v>382</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="D40" s="253" t="s">
+      <c r="D40" s="202" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="216" t="s">
+      <c r="A41" s="231" t="s">
         <v>113</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -9235,36 +9216,36 @@
       <c r="C41" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="D41" s="251" t="s">
+      <c r="D41" s="200" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="216"/>
+      <c r="A42" s="231"/>
       <c r="B42" s="22" t="s">
         <v>387</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="D42" s="252" t="s">
+      <c r="D42" s="201" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="217"/>
+      <c r="A43" s="222"/>
       <c r="B43" s="126" t="s">
         <v>389</v>
       </c>
       <c r="C43" s="127" t="s">
         <v>390</v>
       </c>
-      <c r="D43" s="254" t="s">
+      <c r="D43" s="203" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="218" t="s">
+      <c r="A44" s="225" t="s">
         <v>246</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -9273,24 +9254,24 @@
       <c r="C44" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D44" s="251" t="s">
+      <c r="D44" s="200" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="219"/>
+      <c r="A45" s="226"/>
       <c r="B45" s="36" t="s">
         <v>392</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="D45" s="253" t="s">
+      <c r="D45" s="202" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="226" t="s">
+      <c r="A46" s="228" t="s">
         <v>258</v>
       </c>
       <c r="B46" s="69" t="s">
@@ -9299,60 +9280,60 @@
       <c r="C46" s="69" t="s">
         <v>394</v>
       </c>
-      <c r="D46" s="255" t="s">
+      <c r="D46" s="204" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="225"/>
+      <c r="A47" s="227"/>
       <c r="B47" s="22" t="s">
         <v>395</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="D47" s="252" t="s">
+      <c r="D47" s="201" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="225"/>
+      <c r="A48" s="227"/>
       <c r="B48" s="22" t="s">
         <v>397</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D48" s="252" t="s">
+      <c r="D48" s="201" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="225"/>
+      <c r="A49" s="227"/>
       <c r="B49" s="22" t="s">
         <v>399</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="D49" s="252" t="s">
+      <c r="D49" s="201" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="219"/>
+      <c r="A50" s="226"/>
       <c r="B50" s="36" t="s">
         <v>401</v>
       </c>
       <c r="C50" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="D50" s="253" t="s">
+      <c r="D50" s="202" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="218" t="s">
+      <c r="A51" s="225" t="s">
         <v>501</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -9361,24 +9342,36 @@
       <c r="C51" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="D51" s="251" t="s">
+      <c r="D51" s="200" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="219"/>
+      <c r="A52" s="226"/>
       <c r="B52" s="36" t="s">
         <v>504</v>
       </c>
       <c r="C52" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="D52" s="253" t="s">
+      <c r="D52" s="202" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="H1:AM1"/>
+    <mergeCell ref="R3:AM3"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="H7:AM7"/>
+    <mergeCell ref="O9:AM9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D26"/>
     <mergeCell ref="A13:A26"/>
     <mergeCell ref="A51:A52"/>
@@ -9395,18 +9388,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="C20:C26"/>
-    <mergeCell ref="H1:AM1"/>
-    <mergeCell ref="R3:AM3"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="H7:AM7"/>
-    <mergeCell ref="O9:AM9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9452,13 +9433,13 @@
       <c r="AA1"/>
     </row>
     <row r="2" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="233" t="s">
+      <c r="E2" s="251" t="s">
         <v>403</v>
       </c>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -9581,20 +9562,20 @@
     <row r="7" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
-      <c r="G7" s="232" t="s">
+      <c r="G7" s="250" t="s">
         <v>404</v>
       </c>
-      <c r="H7" s="232"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="232"/>
-      <c r="L7" s="232"/>
-      <c r="M7" s="232"/>
-      <c r="N7" s="232"/>
-      <c r="O7" s="232"/>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="232"/>
-      <c r="R7" s="232"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="250"/>
+      <c r="L7" s="250"/>
+      <c r="M7" s="250"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="250"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
       <c r="S7" s="78"/>
       <c r="T7" s="78"/>
       <c r="U7" s="78"/>
@@ -9657,12 +9638,12 @@
     </row>
     <row r="10" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="78"/>
-      <c r="F10" s="231" t="s">
+      <c r="F10" s="249" t="s">
         <v>405</v>
       </c>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78"/>
       <c r="L10" s="78"/>
@@ -9696,12 +9677,12 @@
       <c r="O11" s="78"/>
       <c r="P11" s="78"/>
       <c r="Q11" s="78"/>
-      <c r="R11" s="231" t="s">
+      <c r="R11" s="249" t="s">
         <v>405</v>
       </c>
-      <c r="S11" s="231"/>
-      <c r="T11" s="231"/>
-      <c r="U11" s="231"/>
+      <c r="S11" s="249"/>
+      <c r="T11" s="249"/>
+      <c r="U11" s="249"/>
       <c r="V11" s="78"/>
       <c r="W11" s="78"/>
       <c r="X11" s="78"/>
@@ -9738,12 +9719,12 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
-      <c r="H13" s="231" t="s">
+      <c r="H13" s="249" t="s">
         <v>405</v>
       </c>
-      <c r="I13" s="231"/>
-      <c r="J13" s="231"/>
-      <c r="K13" s="231"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249"/>
+      <c r="K13" s="249"/>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
       <c r="N13" s="78"/>
@@ -9771,12 +9752,12 @@
       <c r="K14" s="78"/>
       <c r="L14" s="78"/>
       <c r="M14" s="78"/>
-      <c r="N14" s="231" t="s">
+      <c r="N14" s="249" t="s">
         <v>405</v>
       </c>
-      <c r="O14" s="231"/>
-      <c r="P14" s="231"/>
-      <c r="Q14" s="231"/>
+      <c r="O14" s="249"/>
+      <c r="P14" s="249"/>
+      <c r="Q14" s="249"/>
       <c r="R14" s="78"/>
       <c r="S14" s="78"/>
       <c r="T14" s="78"/>
@@ -9847,12 +9828,12 @@
       <c r="J17" s="79"/>
       <c r="K17" s="78"/>
       <c r="L17" s="78"/>
-      <c r="M17" s="231" t="s">
+      <c r="M17" s="249" t="s">
         <v>405</v>
       </c>
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="231"/>
+      <c r="N17" s="249"/>
+      <c r="O17" s="249"/>
+      <c r="P17" s="249"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="78"/>
       <c r="S17" s="78"/>
@@ -9894,20 +9875,20 @@
     </row>
     <row r="19" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="78"/>
-      <c r="F19" s="232" t="s">
+      <c r="F19" s="250" t="s">
         <v>404</v>
       </c>
-      <c r="G19" s="232"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="232"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="232"/>
-      <c r="Q19" s="232"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="250"/>
+      <c r="N19" s="250"/>
+      <c r="O19" s="250"/>
+      <c r="P19" s="250"/>
+      <c r="Q19" s="250"/>
       <c r="R19" s="78"/>
       <c r="S19" s="78"/>
       <c r="T19" s="78"/>
@@ -9935,12 +9916,12 @@
       <c r="Q20" s="78"/>
       <c r="R20" s="78"/>
       <c r="S20" s="78"/>
-      <c r="T20" s="231" t="s">
+      <c r="T20" s="249" t="s">
         <v>405</v>
       </c>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231"/>
+      <c r="U20" s="249"/>
+      <c r="V20" s="249"/>
+      <c r="W20" s="249"/>
       <c r="X20" s="78"/>
       <c r="Y20" s="78"/>
       <c r="Z20" s="78"/>
@@ -10312,44 +10293,44 @@
     <row r="6" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="234" t="s">
+      <c r="D6" s="254" t="s">
         <v>409</v>
       </c>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="231" t="s">
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="254"/>
+      <c r="N6" s="249" t="s">
         <v>410</v>
       </c>
-      <c r="O6" s="231"/>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="231"/>
-      <c r="U6" s="231"/>
-      <c r="V6" s="231"/>
-      <c r="W6" s="231"/>
-      <c r="X6" s="235" t="s">
+      <c r="O6" s="249"/>
+      <c r="P6" s="249"/>
+      <c r="Q6" s="249"/>
+      <c r="R6" s="249"/>
+      <c r="S6" s="249"/>
+      <c r="T6" s="249"/>
+      <c r="U6" s="249"/>
+      <c r="V6" s="249"/>
+      <c r="W6" s="249"/>
+      <c r="X6" s="255" t="s">
         <v>411</v>
       </c>
-      <c r="Y6" s="235"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="235"/>
-      <c r="AB6" s="235"/>
-      <c r="AC6" s="235"/>
-      <c r="AD6" s="235"/>
-      <c r="AE6" s="235"/>
-      <c r="AF6" s="235"/>
-      <c r="AG6" s="235"/>
-      <c r="AH6" s="235"/>
-      <c r="AI6" s="235"/>
+      <c r="Y6" s="255"/>
+      <c r="Z6" s="255"/>
+      <c r="AA6" s="255"/>
+      <c r="AB6" s="255"/>
+      <c r="AC6" s="255"/>
+      <c r="AD6" s="255"/>
+      <c r="AE6" s="255"/>
+      <c r="AF6" s="255"/>
+      <c r="AG6" s="255"/>
+      <c r="AH6" s="255"/>
+      <c r="AI6" s="255"/>
       <c r="AJ6" s="85"/>
       <c r="AK6" s="85"/>
       <c r="AL6" s="85"/>
@@ -10357,44 +10338,44 @@
     <row r="7" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="236" t="s">
+      <c r="D7" s="256" t="s">
         <v>412</v>
       </c>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="236"/>
-      <c r="I7" s="236"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236" t="s">
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="256"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="256" t="s">
         <v>413</v>
       </c>
-      <c r="O7" s="236"/>
-      <c r="P7" s="236"/>
-      <c r="Q7" s="236"/>
-      <c r="R7" s="236"/>
-      <c r="S7" s="236"/>
-      <c r="T7" s="236"/>
-      <c r="U7" s="236"/>
-      <c r="V7" s="236"/>
-      <c r="W7" s="236"/>
-      <c r="X7" s="236" t="s">
+      <c r="O7" s="256"/>
+      <c r="P7" s="256"/>
+      <c r="Q7" s="256"/>
+      <c r="R7" s="256"/>
+      <c r="S7" s="256"/>
+      <c r="T7" s="256"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="256"/>
+      <c r="W7" s="256"/>
+      <c r="X7" s="256" t="s">
         <v>414</v>
       </c>
-      <c r="Y7" s="236"/>
-      <c r="Z7" s="236"/>
-      <c r="AA7" s="236"/>
-      <c r="AB7" s="236"/>
-      <c r="AC7" s="236"/>
-      <c r="AD7" s="236"/>
-      <c r="AE7" s="236"/>
-      <c r="AF7" s="236"/>
-      <c r="AG7" s="236"/>
-      <c r="AH7" s="236"/>
-      <c r="AI7" s="236"/>
+      <c r="Y7" s="256"/>
+      <c r="Z7" s="256"/>
+      <c r="AA7" s="256"/>
+      <c r="AB7" s="256"/>
+      <c r="AC7" s="256"/>
+      <c r="AD7" s="256"/>
+      <c r="AE7" s="256"/>
+      <c r="AF7" s="256"/>
+      <c r="AG7" s="256"/>
+      <c r="AH7" s="256"/>
+      <c r="AI7" s="256"/>
       <c r="AJ7" s="85"/>
       <c r="AK7" s="85"/>
       <c r="AL7" s="85"/>
@@ -10483,11 +10464,11 @@
         <v>415</v>
       </c>
       <c r="D10" s="85"/>
-      <c r="E10" s="237" t="s">
+      <c r="E10" s="252" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
       <c r="H10" s="96"/>
       <c r="I10" s="85" t="s">
         <v>416</v>
@@ -10608,16 +10589,16 @@
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
-      <c r="G13" s="238" t="s">
+      <c r="G13" s="253" t="s">
         <v>418</v>
       </c>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="237" t="s">
+      <c r="H13" s="253"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="252" t="s">
         <v>419</v>
       </c>
-      <c r="K13" s="237"/>
-      <c r="L13" s="237"/>
+      <c r="K13" s="252"/>
+      <c r="L13" s="252"/>
       <c r="M13" s="98" t="s">
         <v>420</v>
       </c>
@@ -10655,16 +10636,16 @@
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="85"/>
-      <c r="G14" s="238" t="s">
+      <c r="G14" s="253" t="s">
         <v>421</v>
       </c>
-      <c r="H14" s="238"/>
-      <c r="I14" s="238"/>
-      <c r="J14" s="237" t="s">
+      <c r="H14" s="253"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="252" t="s">
         <v>422</v>
       </c>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
+      <c r="K14" s="252"/>
+      <c r="L14" s="252"/>
       <c r="M14" s="100">
         <v>1</v>
       </c>
@@ -10704,16 +10685,16 @@
       <c r="F15" s="85" t="s">
         <v>423</v>
       </c>
-      <c r="G15" s="238" t="s">
+      <c r="G15" s="253" t="s">
         <v>412</v>
       </c>
-      <c r="H15" s="238"/>
-      <c r="I15" s="238"/>
-      <c r="J15" s="237" t="s">
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="252" t="s">
         <v>424</v>
       </c>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="100">
         <v>1</v>
       </c>
@@ -10753,16 +10734,16 @@
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
       <c r="F16" s="85"/>
-      <c r="G16" s="238" t="s">
+      <c r="G16" s="253" t="s">
         <v>426</v>
       </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="237" t="s">
+      <c r="H16" s="253"/>
+      <c r="I16" s="253"/>
+      <c r="J16" s="252" t="s">
         <v>419</v>
       </c>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="98" t="s">
         <v>420</v>
       </c>
@@ -10885,15 +10866,15 @@
       <c r="I19" s="85"/>
       <c r="J19" s="85"/>
       <c r="K19" s="85"/>
-      <c r="L19" s="238" t="s">
+      <c r="L19" s="253" t="s">
         <v>428</v>
       </c>
-      <c r="M19" s="238"/>
-      <c r="N19" s="237" t="s">
+      <c r="M19" s="253"/>
+      <c r="N19" s="252" t="s">
         <v>429</v>
       </c>
-      <c r="O19" s="237"/>
-      <c r="P19" s="237"/>
+      <c r="O19" s="252"/>
+      <c r="P19" s="252"/>
       <c r="Q19" s="100">
         <v>1</v>
       </c>
@@ -10936,15 +10917,15 @@
       <c r="K20" s="85" t="s">
         <v>423</v>
       </c>
-      <c r="L20" s="238" t="s">
+      <c r="L20" s="253" t="s">
         <v>413</v>
       </c>
-      <c r="M20" s="238"/>
-      <c r="N20" s="237" t="s">
+      <c r="M20" s="253"/>
+      <c r="N20" s="252" t="s">
         <v>430</v>
       </c>
-      <c r="O20" s="237"/>
-      <c r="P20" s="237"/>
+      <c r="O20" s="252"/>
+      <c r="P20" s="252"/>
       <c r="Q20" s="100">
         <v>1</v>
       </c>
@@ -10987,15 +10968,15 @@
       <c r="I21" s="85"/>
       <c r="J21" s="85"/>
       <c r="K21" s="85"/>
-      <c r="L21" s="238" t="s">
+      <c r="L21" s="253" t="s">
         <v>432</v>
       </c>
-      <c r="M21" s="238"/>
-      <c r="N21" s="237" t="s">
+      <c r="M21" s="253"/>
+      <c r="N21" s="252" t="s">
         <v>419</v>
       </c>
-      <c r="O21" s="237"/>
-      <c r="P21" s="237"/>
+      <c r="O21" s="252"/>
+      <c r="P21" s="252"/>
       <c r="Q21" s="98" t="s">
         <v>420</v>
       </c>
@@ -11107,27 +11088,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D6:M6"/>
     <mergeCell ref="N6:W6"/>
     <mergeCell ref="X6:AI6"/>
     <mergeCell ref="D7:M7"/>
     <mergeCell ref="N7:W7"/>
     <mergeCell ref="X7:AI7"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11267,30 +11248,30 @@
       <c r="L2" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="239" t="s">
+      <c r="M2" s="257" t="s">
         <v>435</v>
       </c>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="239"/>
-      <c r="U2" s="239"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="239"/>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="239"/>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="239"/>
-      <c r="AH2" s="239"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="257"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="257"/>
+      <c r="AA2" s="257"/>
+      <c r="AB2" s="257"/>
+      <c r="AC2" s="257"/>
+      <c r="AD2" s="257"/>
+      <c r="AE2" s="257"/>
+      <c r="AF2" s="257"/>
+      <c r="AG2" s="257"/>
+      <c r="AH2" s="257"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
@@ -11525,30 +11506,30 @@
       <c r="L7" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="239" t="s">
+      <c r="M7" s="257" t="s">
         <v>439</v>
       </c>
-      <c r="N7" s="239"/>
-      <c r="O7" s="239"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="239"/>
-      <c r="U7" s="239"/>
-      <c r="V7" s="239"/>
-      <c r="W7" s="239"/>
-      <c r="X7" s="239"/>
-      <c r="Y7" s="239"/>
-      <c r="Z7" s="239"/>
-      <c r="AA7" s="239"/>
-      <c r="AB7" s="239"/>
-      <c r="AC7" s="239"/>
-      <c r="AD7" s="239"/>
-      <c r="AE7" s="239"/>
-      <c r="AF7" s="239"/>
-      <c r="AG7" s="239"/>
-      <c r="AH7" s="239"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="257"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="257"/>
+      <c r="R7" s="257"/>
+      <c r="S7" s="257"/>
+      <c r="T7" s="257"/>
+      <c r="U7" s="257"/>
+      <c r="V7" s="257"/>
+      <c r="W7" s="257"/>
+      <c r="X7" s="257"/>
+      <c r="Y7" s="257"/>
+      <c r="Z7" s="257"/>
+      <c r="AA7" s="257"/>
+      <c r="AB7" s="257"/>
+      <c r="AC7" s="257"/>
+      <c r="AD7" s="257"/>
+      <c r="AE7" s="257"/>
+      <c r="AF7" s="257"/>
+      <c r="AG7" s="257"/>
+      <c r="AH7" s="257"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="85" t="s">
@@ -11825,30 +11806,30 @@
       <c r="L13" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="239" t="s">
+      <c r="M13" s="257" t="s">
         <v>406</v>
       </c>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="239"/>
-      <c r="R13" s="239"/>
-      <c r="S13" s="239"/>
-      <c r="T13" s="239"/>
-      <c r="U13" s="239"/>
-      <c r="V13" s="239"/>
-      <c r="W13" s="239"/>
-      <c r="X13" s="239"/>
-      <c r="Y13" s="239"/>
-      <c r="Z13" s="239"/>
-      <c r="AA13" s="239"/>
-      <c r="AB13" s="239"/>
-      <c r="AC13" s="239"/>
-      <c r="AD13" s="239"/>
-      <c r="AE13" s="239"/>
-      <c r="AF13" s="239"/>
-      <c r="AG13" s="239"/>
-      <c r="AH13" s="239"/>
+      <c r="N13" s="257"/>
+      <c r="O13" s="257"/>
+      <c r="P13" s="257"/>
+      <c r="Q13" s="257"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="257"/>
+      <c r="T13" s="257"/>
+      <c r="U13" s="257"/>
+      <c r="V13" s="257"/>
+      <c r="W13" s="257"/>
+      <c r="X13" s="257"/>
+      <c r="Y13" s="257"/>
+      <c r="Z13" s="257"/>
+      <c r="AA13" s="257"/>
+      <c r="AB13" s="257"/>
+      <c r="AC13" s="257"/>
+      <c r="AD13" s="257"/>
+      <c r="AE13" s="257"/>
+      <c r="AF13" s="257"/>
+      <c r="AG13" s="257"/>
+      <c r="AH13" s="257"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="85" t="s">
@@ -12735,44 +12716,44 @@
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
-      <c r="E11" s="240" t="s">
+      <c r="E11" s="258" t="s">
         <v>454</v>
       </c>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="240"/>
-      <c r="M11" s="240"/>
-      <c r="N11" s="240"/>
-      <c r="O11" s="240"/>
-      <c r="P11" s="240"/>
-      <c r="Q11" s="240"/>
-      <c r="R11" s="240"/>
-      <c r="S11" s="240"/>
-      <c r="T11" s="240"/>
-      <c r="U11" s="240"/>
-      <c r="V11" s="240"/>
-      <c r="W11" s="240"/>
-      <c r="X11" s="240"/>
-      <c r="Y11" s="241" t="s">
+      <c r="F11" s="258"/>
+      <c r="G11" s="258"/>
+      <c r="H11" s="258"/>
+      <c r="I11" s="258"/>
+      <c r="J11" s="258"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="258"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="258"/>
+      <c r="R11" s="258"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="258"/>
+      <c r="V11" s="258"/>
+      <c r="W11" s="258"/>
+      <c r="X11" s="258"/>
+      <c r="Y11" s="259" t="s">
         <v>455</v>
       </c>
-      <c r="Z11" s="241"/>
-      <c r="AA11" s="241"/>
-      <c r="AB11" s="241"/>
-      <c r="AC11" s="241"/>
-      <c r="AD11" s="241"/>
-      <c r="AE11" s="241"/>
-      <c r="AF11" s="241"/>
-      <c r="AG11" s="241"/>
-      <c r="AH11" s="241"/>
-      <c r="AI11" s="242" t="s">
+      <c r="Z11" s="259"/>
+      <c r="AA11" s="259"/>
+      <c r="AB11" s="259"/>
+      <c r="AC11" s="259"/>
+      <c r="AD11" s="259"/>
+      <c r="AE11" s="259"/>
+      <c r="AF11" s="259"/>
+      <c r="AG11" s="259"/>
+      <c r="AH11" s="259"/>
+      <c r="AI11" s="260" t="s">
         <v>456</v>
       </c>
-      <c r="AJ11" s="242"/>
+      <c r="AJ11" s="260"/>
       <c r="AK11" s="85"/>
       <c r="AL11" s="85"/>
       <c r="AM11" s="85"/>
@@ -13445,50 +13426,50 @@
       <c r="F21" s="124" t="s">
         <v>464</v>
       </c>
-      <c r="G21" s="243" t="s">
+      <c r="G21" s="261" t="s">
         <v>465</v>
       </c>
-      <c r="H21" s="243"/>
-      <c r="I21" s="244" t="s">
+      <c r="H21" s="261"/>
+      <c r="I21" s="262" t="s">
         <v>200</v>
       </c>
-      <c r="J21" s="244"/>
-      <c r="K21" s="232" t="s">
+      <c r="J21" s="262"/>
+      <c r="K21" s="250" t="s">
         <v>466</v>
       </c>
-      <c r="L21" s="232"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="232"/>
-      <c r="O21" s="245" t="s">
+      <c r="L21" s="250"/>
+      <c r="M21" s="250"/>
+      <c r="N21" s="250"/>
+      <c r="O21" s="263" t="s">
         <v>467</v>
       </c>
-      <c r="P21" s="245"/>
-      <c r="Q21" s="245"/>
-      <c r="R21" s="245"/>
-      <c r="S21" s="245"/>
-      <c r="T21" s="245"/>
-      <c r="U21" s="245"/>
-      <c r="V21" s="245"/>
-      <c r="W21" s="240" t="s">
+      <c r="P21" s="263"/>
+      <c r="Q21" s="263"/>
+      <c r="R21" s="263"/>
+      <c r="S21" s="263"/>
+      <c r="T21" s="263"/>
+      <c r="U21" s="263"/>
+      <c r="V21" s="263"/>
+      <c r="W21" s="258" t="s">
         <v>468</v>
       </c>
-      <c r="X21" s="240"/>
-      <c r="Y21" s="240"/>
-      <c r="Z21" s="240"/>
-      <c r="AA21" s="240"/>
-      <c r="AB21" s="240"/>
-      <c r="AC21" s="240"/>
-      <c r="AD21" s="240"/>
-      <c r="AE21" s="246" t="s">
+      <c r="X21" s="258"/>
+      <c r="Y21" s="258"/>
+      <c r="Z21" s="258"/>
+      <c r="AA21" s="258"/>
+      <c r="AB21" s="258"/>
+      <c r="AC21" s="258"/>
+      <c r="AD21" s="258"/>
+      <c r="AE21" s="264" t="s">
         <v>469</v>
       </c>
-      <c r="AF21" s="246"/>
-      <c r="AG21" s="246"/>
-      <c r="AH21" s="246"/>
-      <c r="AI21" s="246"/>
-      <c r="AJ21" s="246"/>
-      <c r="AK21" s="246"/>
-      <c r="AL21" s="246"/>
+      <c r="AF21" s="264"/>
+      <c r="AG21" s="264"/>
+      <c r="AH21" s="264"/>
+      <c r="AI21" s="264"/>
+      <c r="AJ21" s="264"/>
+      <c r="AK21" s="264"/>
+      <c r="AL21" s="264"/>
       <c r="AM21" s="122" t="s">
         <v>470</v>
       </c>

--- a/doc/tinyvm.xlsx
+++ b/doc/tinyvm.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="638">
   <si>
     <t>Device</t>
   </si>
@@ -207,9 +207,6 @@
     <t>MMU device type</t>
   </si>
   <si>
-    <t>0xF0010000</t>
-  </si>
-  <si>
     <t>DEV_MMU (0x1)</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>MMU device version</t>
   </si>
   <si>
-    <t>0xF0010001</t>
-  </si>
-  <si>
     <t>0B</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>MMU device interrupt</t>
   </si>
   <si>
-    <t>0xF0010002</t>
-  </si>
-  <si>
     <t>0F</t>
   </si>
   <si>
@@ -306,9 +297,6 @@
     <t>MMU device name</t>
   </si>
   <si>
-    <t>0xF0010003</t>
-  </si>
-  <si>
     <t>TinyMMU</t>
   </si>
   <si>
@@ -342,9 +330,6 @@
     <t>RAM size in bytes</t>
   </si>
   <si>
-    <t>0xF0010010</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -372,9 +357,6 @@
     <t>Last memory access error</t>
   </si>
   <si>
-    <t>0xF0010014</t>
-  </si>
-  <si>
     <t>MMU_ERR_NONE (0x0)</t>
   </si>
   <si>
@@ -405,9 +387,6 @@
     <t>Virtual memory (bits 0-15: page, bit 31: active)</t>
   </si>
   <si>
-    <t>0xF0010018</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -444,9 +423,6 @@
     <t>CPU device type</t>
   </si>
   <si>
-    <t>0xF0020000</t>
-  </si>
-  <si>
     <t>DEV_CPU (0x2)</t>
   </si>
   <si>
@@ -468,9 +444,6 @@
     <t>CPU device version</t>
   </si>
   <si>
-    <t>0xF0020001</t>
-  </si>
-  <si>
     <t>reg,reg</t>
   </si>
   <si>
@@ -501,9 +474,6 @@
     <t>CPU device interrupt</t>
   </si>
   <si>
-    <t>0xF0020002</t>
-  </si>
-  <si>
     <t>2D</t>
   </si>
   <si>
@@ -537,9 +507,6 @@
     <t>CPU device name</t>
   </si>
   <si>
-    <t>0xF0020003</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -573,9 +540,6 @@
     <t>CPU registers (32 registers, 4 bytes each)</t>
   </si>
   <si>
-    <t>0xF0020010</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -609,9 +573,6 @@
     <t>CPU interrupt vector (256 interrupts, 4 bytes each)</t>
   </si>
   <si>
-    <t>0xF0020100</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
@@ -639,9 +600,6 @@
     <t>CPU system call vector (256 system calls, 4 byte each)</t>
   </si>
   <si>
-    <t>0xF0020500</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
@@ -663,9 +621,6 @@
     <t>Storage device name</t>
   </si>
   <si>
-    <t>0xF0030000</t>
-  </si>
-  <si>
     <t>DEV_STORAGE (0x3)</t>
   </si>
   <si>
@@ -693,9 +648,6 @@
     <t>Storage device version</t>
   </si>
   <si>
-    <t>0xF0030001</t>
-  </si>
-  <si>
     <t>bnz/bneq</t>
   </si>
   <si>
@@ -714,9 +666,6 @@
     <t>Storage device interrupt</t>
   </si>
   <si>
-    <t>0xF0030002</t>
-  </si>
-  <si>
     <t>Math</t>
   </si>
   <si>
@@ -735,9 +684,6 @@
     <t>STG_NAME</t>
   </si>
   <si>
-    <t>0xF0030003</t>
-  </si>
-  <si>
     <t>TinyStorage</t>
   </si>
   <si>
@@ -771,9 +717,6 @@
     <t>Storage mode of operation</t>
   </si>
   <si>
-    <t>0xF0030010</t>
-  </si>
-  <si>
     <t>STG_MODE_POLL</t>
   </si>
   <si>
@@ -807,9 +750,6 @@
     <t>Status of operation (see domain)</t>
   </si>
   <si>
-    <t>0xF0030011</t>
-  </si>
-  <si>
     <t>4A</t>
   </si>
   <si>
@@ -840,9 +780,6 @@
     <t>List of units (one for each bit, max=0b1111)</t>
   </si>
   <si>
-    <t>0xF0030012</t>
-  </si>
-  <si>
     <t>4E</t>
   </si>
   <si>
@@ -873,9 +810,6 @@
     <t>Storage operation</t>
   </si>
   <si>
-    <t>0xF0030013</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
@@ -906,9 +840,6 @@
     <t>Storage operation parameter (4 bytes each)</t>
   </si>
   <si>
-    <t>0xF0030014</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
@@ -939,9 +870,6 @@
     <t>Storage operation return</t>
   </si>
   <si>
-    <t>0xF0030034</t>
-  </si>
-  <si>
     <t>5A</t>
   </si>
   <si>
@@ -1545,24 +1473,6 @@
     <t>Don't call interrupts</t>
   </si>
   <si>
-    <t>0xF0040000</t>
-  </si>
-  <si>
-    <t>0xF0040001</t>
-  </si>
-  <si>
-    <t>0xF0040002</t>
-  </si>
-  <si>
-    <t>0xF0040003</t>
-  </si>
-  <si>
-    <t>0xF0040010</t>
-  </si>
-  <si>
-    <t>0xF0040011</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -1647,9 +1557,6 @@
     <t>True when keyboard queue is full</t>
   </si>
   <si>
-    <t>0xF0040012</t>
-  </si>
-  <si>
     <t>KBD_DEQUEUE</t>
   </si>
   <si>
@@ -1662,9 +1569,6 @@
     <t>Return the element in the front of the queue</t>
   </si>
   <si>
-    <t>0xF0040014</t>
-  </si>
-  <si>
     <t>Timer</t>
   </si>
   <si>
@@ -1710,30 +1614,6 @@
     <t>Current timer being interrupted</t>
   </si>
   <si>
-    <t>0xF0050064</t>
-  </si>
-  <si>
-    <t>0xF005003C</t>
-  </si>
-  <si>
-    <t>0xF0050014</t>
-  </si>
-  <si>
-    <t>0xF0050010</t>
-  </si>
-  <si>
-    <t>0xF0050003</t>
-  </si>
-  <si>
-    <t>0xF0050002</t>
-  </si>
-  <si>
-    <t>0xF0050001</t>
-  </si>
-  <si>
-    <t>0xF0050000</t>
-  </si>
-  <si>
     <t>TM_COUNTER[0..9]</t>
   </si>
   <si>
@@ -1764,18 +1644,6 @@
     <t>(code)</t>
   </si>
   <si>
-    <t>0xF0060000</t>
-  </si>
-  <si>
-    <t>0xF0060001</t>
-  </si>
-  <si>
-    <t>0xF0060003</t>
-  </si>
-  <si>
-    <t>0xF0060010</t>
-  </si>
-  <si>
     <t>DEV_TIMER (0x5)</t>
   </si>
   <si>
@@ -1812,15 +1680,6 @@
     <t>TinyVideo</t>
   </si>
   <si>
-    <t>0xF0070000</t>
-  </si>
-  <si>
-    <t>0xF0070001</t>
-  </si>
-  <si>
-    <t>0xF0070003</t>
-  </si>
-  <si>
     <t>VID_WIDTH</t>
   </si>
   <si>
@@ -1857,21 +1716,6 @@
     <t>64 Mb</t>
   </si>
   <si>
-    <t>0xF0070011</t>
-  </si>
-  <si>
-    <t>0xF0070012</t>
-  </si>
-  <si>
-    <t>0xF0070014</t>
-  </si>
-  <si>
-    <t>0xF0070034</t>
-  </si>
-  <si>
-    <t>0xF0080000</t>
-  </si>
-  <si>
     <t>Par</t>
   </si>
   <si>
@@ -1881,12 +1725,6 @@
     <t>Unit location (high)</t>
   </si>
   <si>
-    <t>VID_OP_UPDATE</t>
-  </si>
-  <si>
-    <t>Update screen</t>
-  </si>
-  <si>
     <t>VID_OP_CLRSCR</t>
   </si>
   <si>
@@ -1926,9 +1764,6 @@
     <t>A = active</t>
   </si>
   <si>
-    <t>0xF0070010</t>
-  </si>
-  <si>
     <t>VID_R[0..1]</t>
   </si>
   <si>
@@ -1945,6 +1780,165 @@
   </si>
   <si>
     <t>Get pixel from screen</t>
+  </si>
+  <si>
+    <t>0xF0001000</t>
+  </si>
+  <si>
+    <t>0xF0001001</t>
+  </si>
+  <si>
+    <t>0xF0001002</t>
+  </si>
+  <si>
+    <t>0xF0001003</t>
+  </si>
+  <si>
+    <t>0xF0001010</t>
+  </si>
+  <si>
+    <t>0xF0001014</t>
+  </si>
+  <si>
+    <t>0xF0001018</t>
+  </si>
+  <si>
+    <t>0xF0002000</t>
+  </si>
+  <si>
+    <t>0xF0002001</t>
+  </si>
+  <si>
+    <t>0xF0002002</t>
+  </si>
+  <si>
+    <t>0xF0002003</t>
+  </si>
+  <si>
+    <t>0xF0002010</t>
+  </si>
+  <si>
+    <t>0xF0002100</t>
+  </si>
+  <si>
+    <t>0xF0002500</t>
+  </si>
+  <si>
+    <t>0xF0003000</t>
+  </si>
+  <si>
+    <t>0xF0003001</t>
+  </si>
+  <si>
+    <t>0xF0003002</t>
+  </si>
+  <si>
+    <t>0xF0003003</t>
+  </si>
+  <si>
+    <t>0xF0003010</t>
+  </si>
+  <si>
+    <t>0xF0003011</t>
+  </si>
+  <si>
+    <t>0xF0003012</t>
+  </si>
+  <si>
+    <t>0xF0003013</t>
+  </si>
+  <si>
+    <t>0xF0003014</t>
+  </si>
+  <si>
+    <t>0xF0003034</t>
+  </si>
+  <si>
+    <t>0xF0004000</t>
+  </si>
+  <si>
+    <t>0xF0004001</t>
+  </si>
+  <si>
+    <t>0xF0004002</t>
+  </si>
+  <si>
+    <t>0xF0004003</t>
+  </si>
+  <si>
+    <t>0xF0004010</t>
+  </si>
+  <si>
+    <t>0xF0004011</t>
+  </si>
+  <si>
+    <t>0xF0004012</t>
+  </si>
+  <si>
+    <t>0xF0004014</t>
+  </si>
+  <si>
+    <t>0xF0005000</t>
+  </si>
+  <si>
+    <t>0xF0005001</t>
+  </si>
+  <si>
+    <t>0xF0005002</t>
+  </si>
+  <si>
+    <t>0xF0005003</t>
+  </si>
+  <si>
+    <t>0xF0005010</t>
+  </si>
+  <si>
+    <t>0xF0005014</t>
+  </si>
+  <si>
+    <t>0xF000503C</t>
+  </si>
+  <si>
+    <t>0xF0005064</t>
+  </si>
+  <si>
+    <t>0xF0006000</t>
+  </si>
+  <si>
+    <t>0xF0006001</t>
+  </si>
+  <si>
+    <t>0xF0006003</t>
+  </si>
+  <si>
+    <t>0xF0006010</t>
+  </si>
+  <si>
+    <t>0xF0016000</t>
+  </si>
+  <si>
+    <t>0xF0016001</t>
+  </si>
+  <si>
+    <t>0xF0016003</t>
+  </si>
+  <si>
+    <t>0xF0016010</t>
+  </si>
+  <si>
+    <t>0xF0016011</t>
+  </si>
+  <si>
+    <t>0xF0016012</t>
+  </si>
+  <si>
+    <t>0xF0016014</t>
+  </si>
+  <si>
+    <t>0xF0016034</t>
+  </si>
+  <si>
+    <t>0xF0026000</t>
   </si>
 </sst>
 </file>
@@ -2840,7 +2834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3300,9 +3294,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3406,47 +3397,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3457,13 +3478,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3487,18 +3502,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3533,9 +3539,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3583,9 +3586,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4667,7 +4667,7 @@
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4743,7 +4743,7 @@
       <c r="P1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="205" t="s">
+      <c r="R1" s="216" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="12" t="s">
@@ -4763,27 +4763,27 @@
       </c>
     </row>
     <row r="2" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="171" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="173">
+      <c r="E2" s="172">
         <v>4096</v>
       </c>
       <c r="F2" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="174"/>
+      <c r="G2" s="173"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="215" t="s">
+      <c r="J2" s="219" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="17" t="s">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="21"/>
-      <c r="R2" s="205"/>
+      <c r="R2" s="216"/>
       <c r="S2" s="22" t="s">
         <v>29</v>
       </c>
@@ -4818,11 +4818,11 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="214"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="174" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="162" t="s">
@@ -4840,7 +4840,7 @@
       <c r="I3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="215"/>
+      <c r="J3" s="219"/>
       <c r="K3" s="30"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
@@ -4851,7 +4851,7 @@
       <c r="P3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="205"/>
+      <c r="R3" s="216"/>
       <c r="S3" s="22" t="s">
         <v>42</v>
       </c>
@@ -4864,34 +4864,34 @@
       <c r="W3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="216" t="s">
+      <c r="X3" s="214" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="214"/>
-      <c r="B4" s="176" t="s">
+      <c r="A4" s="215"/>
+      <c r="B4" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="178" t="s">
+      <c r="D4" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="176">
+      <c r="E4" s="175">
         <v>4</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="179" t="s">
+      <c r="G4" s="178" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="215"/>
+      <c r="J4" s="219"/>
       <c r="K4" s="30"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
@@ -4902,7 +4902,7 @@
       <c r="P4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="205"/>
+      <c r="R4" s="216"/>
       <c r="S4" s="36" t="s">
         <v>53</v>
       </c>
@@ -4915,71 +4915,71 @@
       <c r="W4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="216"/>
+      <c r="X4" s="214"/>
     </row>
     <row r="5" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="171" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="153" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="171">
+        <v>585</v>
+      </c>
+      <c r="E5" s="170">
         <v>1</v>
       </c>
       <c r="F5" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="174" t="s">
+      <c r="G5" s="173" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="215"/>
+      <c r="J5" s="219"/>
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
       <c r="O5" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="R5" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="205" t="s">
+      <c r="S5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="T5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="V5" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="V5" s="34" t="s">
+      <c r="W5" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="214"/>
+    </row>
+    <row r="6" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="215"/>
+      <c r="B6" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="W5" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="X5" s="216"/>
-    </row>
-    <row r="6" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="214"/>
-      <c r="B6" s="151" t="s">
+      <c r="C6" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="175" t="s">
-        <v>70</v>
-      </c>
       <c r="D6" s="162" t="s">
-        <v>71</v>
+        <v>586</v>
       </c>
       <c r="E6" s="151">
         <v>1</v>
@@ -4997,44 +4997,44 @@
         <v>12</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
       <c r="O6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="216"/>
+      <c r="S6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="T6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="205"/>
-      <c r="S6" s="22" t="s">
+      <c r="V6" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="W6" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="X6" s="214"/>
+    </row>
+    <row r="7" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="215"/>
+      <c r="B7" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="C7" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="X6" s="216"/>
-    </row>
-    <row r="7" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="214"/>
-      <c r="B7" s="151" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="151" t="s">
-        <v>81</v>
-      </c>
       <c r="D7" s="162" t="s">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="E7" s="151">
         <v>1</v>
@@ -5050,44 +5050,44 @@
       </c>
       <c r="J7" s="217"/>
       <c r="K7" s="41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L7" s="31"/>
       <c r="M7" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="216"/>
+      <c r="S7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="V7" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="205"/>
-      <c r="S7" s="22" t="s">
+      <c r="W7" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="X7" s="214"/>
+    </row>
+    <row r="8" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="215"/>
+      <c r="B8" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="34" t="s">
+      <c r="C8" s="174" t="s">
         <v>89</v>
       </c>
-      <c r="W7" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="X7" s="216"/>
-    </row>
-    <row r="8" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="214"/>
-      <c r="B8" s="151" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="175" t="s">
-        <v>92</v>
-      </c>
       <c r="D8" s="162" t="s">
-        <v>93</v>
+        <v>588</v>
       </c>
       <c r="E8" s="151">
         <v>13</v>
@@ -5096,51 +5096,51 @@
         <v>24</v>
       </c>
       <c r="G8" s="155" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="217"/>
       <c r="K8" s="41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="216"/>
+      <c r="S8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="V8" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="W8" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="R8" s="205"/>
-      <c r="S8" s="22" t="s">
+      <c r="X8" s="214"/>
+    </row>
+    <row r="9" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="215"/>
+      <c r="B9" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="23" t="s">
+      <c r="C9" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="V8" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="W8" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" s="216"/>
-    </row>
-    <row r="9" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="214"/>
-      <c r="B9" s="151" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="175" t="s">
-        <v>104</v>
-      </c>
       <c r="D9" s="162" t="s">
-        <v>105</v>
+        <v>589</v>
       </c>
       <c r="E9" s="151">
         <v>4</v>
@@ -5156,7 +5156,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L9" s="42">
         <v>22</v>
@@ -5164,25 +5164,25 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="216"/>
+      <c r="S9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="W9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="P9" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="R9" s="205"/>
-      <c r="S9" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="T9" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="W9" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="X9" s="216"/>
+      <c r="X9" s="214"/>
       <c r="AA9" s="137"/>
       <c r="AB9" s="137"/>
       <c r="AC9" s="137"/>
@@ -5217,15 +5217,15 @@
       <c r="BF9" s="137"/>
     </row>
     <row r="10" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="214"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="151" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="175" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="C10" s="174" t="s">
+        <v>109</v>
       </c>
       <c r="D10" s="162" t="s">
-        <v>115</v>
+        <v>590</v>
       </c>
       <c r="E10" s="151">
         <v>4</v>
@@ -5234,14 +5234,14 @@
         <v>37</v>
       </c>
       <c r="G10" s="155" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>50</v>
       </c>
       <c r="J10" s="218"/>
       <c r="K10" s="41" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="32">
@@ -5249,25 +5249,25 @@
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="R10" s="205"/>
+        <v>113</v>
+      </c>
+      <c r="R10" s="216"/>
       <c r="S10" s="36" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="T10" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="X10" s="216"/>
+        <v>117</v>
+      </c>
+      <c r="X10" s="214"/>
       <c r="AA10" s="137"/>
       <c r="AB10" s="137"/>
       <c r="AC10" s="137"/>
@@ -5302,59 +5302,59 @@
       <c r="BF10" s="137"/>
     </row>
     <row r="11" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="214"/>
-      <c r="B11" s="176" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="177" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="178" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="176">
+      <c r="A11" s="215"/>
+      <c r="B11" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="176" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="177" t="s">
+        <v>591</v>
+      </c>
+      <c r="E11" s="175">
         <v>4</v>
       </c>
-      <c r="F11" s="178" t="s">
+      <c r="F11" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="179" t="s">
+      <c r="G11" s="178" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" s="218"/>
       <c r="K11" s="45" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
       <c r="N11" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="216" t="s">
+        <v>124</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="W11" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="P11" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="R11" s="205" t="s">
-        <v>131</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="V11" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="W11" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="X11" s="216"/>
+      <c r="X11" s="214"/>
       <c r="AA11" s="137"/>
       <c r="AB11" s="137"/>
       <c r="AC11" s="137"/>
@@ -5389,26 +5389,26 @@
       <c r="BF11" s="137"/>
     </row>
     <row r="12" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="214" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="171" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="172" t="s">
-        <v>138</v>
+      <c r="A12" s="215" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="170" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="171" t="s">
+        <v>131</v>
       </c>
       <c r="D12" s="153" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="171">
+        <v>592</v>
+      </c>
+      <c r="E12" s="170">
         <v>1</v>
       </c>
       <c r="F12" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="174" t="s">
-        <v>140</v>
+      <c r="G12" s="173" t="s">
+        <v>132</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -5418,20 +5418,20 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="R12" s="205"/>
+      <c r="R12" s="216"/>
       <c r="S12" s="22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="T12" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="V12" s="34" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="W12" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="X12" s="216"/>
+        <v>136</v>
+      </c>
+      <c r="X12" s="214"/>
       <c r="AA12" s="137"/>
       <c r="AB12" s="137"/>
       <c r="AC12" s="137"/>
@@ -5466,15 +5466,15 @@
       <c r="BF12" s="137"/>
     </row>
     <row r="13" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="214"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="175" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="C13" s="174" t="s">
+        <v>138</v>
       </c>
       <c r="D13" s="162" t="s">
-        <v>147</v>
+        <v>593</v>
       </c>
       <c r="E13" s="151">
         <v>1</v>
@@ -5487,38 +5487,38 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="R13" s="205"/>
+      <c r="R13" s="216"/>
       <c r="S13" s="22" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="V13" s="34" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="W13" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="X13" s="216"/>
+        <v>146</v>
+      </c>
+      <c r="X13" s="214"/>
       <c r="AA13" s="137"/>
       <c r="AB13" s="137"/>
       <c r="AC13" s="137"/>
@@ -5553,15 +5553,15 @@
       <c r="BF13" s="137"/>
     </row>
     <row r="14" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="214"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="151" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C14" s="151" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D14" s="162" t="s">
-        <v>158</v>
+        <v>594</v>
       </c>
       <c r="E14" s="151">
         <v>1</v>
@@ -5570,41 +5570,41 @@
         <v>24</v>
       </c>
       <c r="G14" s="155" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="50"/>
       <c r="L14" s="19" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="R14" s="205"/>
+      <c r="R14" s="216"/>
       <c r="S14" s="22" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="V14" s="34" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="X14" s="23" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AA14" s="137"/>
       <c r="AB14" s="137"/>
@@ -5640,15 +5640,15 @@
       <c r="BF14" s="137"/>
     </row>
     <row r="15" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="214"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>169</v>
+        <v>158</v>
+      </c>
+      <c r="C15" s="174" t="s">
+        <v>159</v>
       </c>
       <c r="D15" s="162" t="s">
-        <v>170</v>
+        <v>595</v>
       </c>
       <c r="E15" s="151">
         <v>13</v>
@@ -5657,41 +5657,41 @@
         <v>24</v>
       </c>
       <c r="G15" s="155" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="32" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="R15" s="205"/>
+      <c r="R15" s="216"/>
       <c r="S15" s="22" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="V15" s="34" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AA15" s="137"/>
       <c r="AB15" s="137"/>
@@ -5727,15 +5727,15 @@
       <c r="BF15" s="137"/>
     </row>
     <row r="16" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="214"/>
+      <c r="A16" s="215"/>
       <c r="B16" s="151" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="175" t="s">
-        <v>181</v>
+        <v>169</v>
+      </c>
+      <c r="C16" s="174" t="s">
+        <v>170</v>
       </c>
       <c r="D16" s="162" t="s">
-        <v>182</v>
+        <v>596</v>
       </c>
       <c r="E16" s="151">
         <v>128</v>
@@ -5747,37 +5747,37 @@
         <v>31</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="32" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="R16" s="205"/>
+      <c r="R16" s="216"/>
       <c r="S16" s="22" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="V16" s="34" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="AA16" s="137"/>
       <c r="AB16" s="137"/>
@@ -5813,15 +5813,15 @@
       <c r="BF16" s="137"/>
     </row>
     <row r="17" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="214"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="151" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="175" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="C17" s="174" t="s">
+        <v>181</v>
       </c>
       <c r="D17" s="162" t="s">
-        <v>194</v>
+        <v>597</v>
       </c>
       <c r="E17" s="151">
         <v>1024</v>
@@ -5833,33 +5833,33 @@
         <v>31</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="32" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N17" s="52"/>
       <c r="O17" s="53"/>
       <c r="P17" s="6"/>
-      <c r="R17" s="205"/>
+      <c r="R17" s="216"/>
       <c r="S17" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="V17" s="54" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="W17" s="38" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="X17" s="39" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AA17" s="137"/>
       <c r="AB17" s="137"/>
@@ -5895,44 +5895,44 @@
       <c r="BF17" s="137"/>
     </row>
     <row r="18" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="208"/>
+      <c r="A18" s="211"/>
       <c r="B18" s="152" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="180" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="181" t="s">
-        <v>204</v>
+        <v>189</v>
+      </c>
+      <c r="C18" s="179" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="180" t="s">
+        <v>598</v>
       </c>
       <c r="E18" s="152">
         <v>1024</v>
       </c>
-      <c r="F18" s="181" t="s">
+      <c r="F18" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="182" t="s">
+      <c r="G18" s="181" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="32" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
       <c r="P18" s="6"/>
-      <c r="R18" s="205"/>
+      <c r="R18" s="216"/>
       <c r="S18" s="36" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="AA18" s="137"/>
       <c r="AB18" s="137"/>
@@ -5968,53 +5968,53 @@
       <c r="BF18" s="137"/>
     </row>
     <row r="19" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="211" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="171" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="171" t="s">
-        <v>211</v>
+      <c r="A19" s="208" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="170" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="170" t="s">
+        <v>197</v>
       </c>
       <c r="D19" s="153" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="171">
+        <v>599</v>
+      </c>
+      <c r="E19" s="170">
         <v>1</v>
       </c>
       <c r="F19" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="174" t="s">
-        <v>213</v>
+      <c r="G19" s="173" t="s">
+        <v>198</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="46"/>
       <c r="N19" s="46"/>
       <c r="O19" s="57"/>
       <c r="P19" s="6"/>
-      <c r="R19" s="205" t="s">
-        <v>215</v>
+      <c r="R19" s="216" t="s">
+        <v>200</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="U19" s="58"/>
       <c r="V19" s="59" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="W19" s="60" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>2</v>
@@ -6053,15 +6053,15 @@
       <c r="BF19" s="137"/>
     </row>
     <row r="20" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="212"/>
+      <c r="A20" s="209"/>
       <c r="B20" s="151" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C20" s="151" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D20" s="162" t="s">
-        <v>222</v>
+        <v>600</v>
       </c>
       <c r="E20" s="151">
         <v>1</v>
@@ -6073,22 +6073,22 @@
         <v>31</v>
       </c>
       <c r="P20" s="6"/>
-      <c r="R20" s="205"/>
+      <c r="R20" s="216"/>
       <c r="S20" s="22" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="T20" s="23" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="U20" s="58"/>
       <c r="V20" s="130">
         <v>0</v>
       </c>
       <c r="W20" s="61" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="X20" s="26" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="AA20" s="137"/>
       <c r="AB20" s="137"/>
@@ -6124,15 +6124,15 @@
       <c r="BF20" s="137"/>
     </row>
     <row r="21" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="212"/>
+      <c r="A21" s="209"/>
       <c r="B21" s="151" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C21" s="151" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D21" s="162" t="s">
-        <v>229</v>
+        <v>601</v>
       </c>
       <c r="E21" s="151">
         <v>1</v>
@@ -6141,43 +6141,43 @@
         <v>24</v>
       </c>
       <c r="G21" s="155" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="R21" s="205"/>
+      <c r="R21" s="216"/>
       <c r="S21" s="22" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="T21" s="23" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="U21" s="58"/>
       <c r="V21" s="128">
         <v>1</v>
       </c>
       <c r="W21" s="63" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="X21" s="23" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="AA21" s="137"/>
       <c r="AB21" s="137"/>
@@ -6213,15 +6213,15 @@
       <c r="BF21" s="137"/>
     </row>
     <row r="22" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="212"/>
+      <c r="A22" s="209"/>
       <c r="B22" s="151" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C22" s="151" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D22" s="162" t="s">
-        <v>236</v>
+        <v>602</v>
       </c>
       <c r="E22" s="151">
         <v>13</v>
@@ -6230,41 +6230,41 @@
         <v>24</v>
       </c>
       <c r="G22" s="155" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K22" s="50"/>
       <c r="L22" s="19" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="R22" s="205"/>
+      <c r="R22" s="216"/>
       <c r="S22" s="22" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="T22" s="23" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="U22" s="58"/>
       <c r="V22" s="128">
         <v>2</v>
       </c>
       <c r="W22" s="63" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="X22" s="23" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="AA22" s="137"/>
       <c r="AB22" s="137"/>
@@ -6300,15 +6300,15 @@
       <c r="BF22" s="137"/>
     </row>
     <row r="23" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="212"/>
+      <c r="A23" s="209"/>
       <c r="B23" s="151" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C23" s="151" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D23" s="162" t="s">
-        <v>248</v>
+        <v>603</v>
       </c>
       <c r="E23" s="151">
         <v>1</v>
@@ -6317,41 +6317,41 @@
         <v>37</v>
       </c>
       <c r="G23" s="155" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="32" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="R23" s="205"/>
+      <c r="R23" s="216"/>
       <c r="S23" s="22" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="T23" s="23" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="U23" s="58"/>
       <c r="V23" s="128">
         <v>3</v>
       </c>
       <c r="W23" s="63" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="X23" s="23" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AA23" s="137"/>
       <c r="AB23" s="137"/>
@@ -6387,15 +6387,15 @@
       <c r="BF23" s="137"/>
     </row>
     <row r="24" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="212"/>
+      <c r="A24" s="209"/>
       <c r="B24" s="151" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C24" s="151" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D24" s="162" t="s">
-        <v>260</v>
+        <v>604</v>
       </c>
       <c r="E24" s="151">
         <v>1</v>
@@ -6404,41 +6404,41 @@
         <v>24</v>
       </c>
       <c r="G24" s="164" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K24" s="30"/>
       <c r="L24" s="32" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="N24" s="32" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="R24" s="205"/>
+      <c r="R24" s="216"/>
       <c r="S24" s="22" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="T24" s="23" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="U24" s="58"/>
       <c r="V24" s="128">
         <v>4</v>
       </c>
       <c r="W24" s="63" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="X24" s="23" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="AA24" s="137"/>
       <c r="AB24" s="137"/>
@@ -6474,15 +6474,15 @@
       <c r="BF24" s="137"/>
     </row>
     <row r="25" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="212"/>
+      <c r="A25" s="209"/>
       <c r="B25" s="151" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C25" s="151" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D25" s="162" t="s">
-        <v>271</v>
+        <v>605</v>
       </c>
       <c r="E25" s="151">
         <v>1</v>
@@ -6492,38 +6492,38 @@
       </c>
       <c r="G25" s="155"/>
       <c r="J25" s="29" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="32" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="R25" s="205"/>
+      <c r="R25" s="216"/>
       <c r="S25" s="22" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="T25" s="23" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="U25" s="58"/>
       <c r="V25" s="128">
         <v>5</v>
       </c>
       <c r="W25" s="63" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="X25" s="23" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="AA25" s="137"/>
       <c r="AB25" s="137"/>
@@ -6559,15 +6559,15 @@
       <c r="BF25" s="137"/>
     </row>
     <row r="26" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="212"/>
+      <c r="A26" s="209"/>
       <c r="B26" s="151" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C26" s="151" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D26" s="162" t="s">
-        <v>282</v>
+        <v>606</v>
       </c>
       <c r="E26" s="151">
         <v>1</v>
@@ -6577,38 +6577,38 @@
       </c>
       <c r="G26" s="155"/>
       <c r="J26" s="29" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="32" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="P26" s="6"/>
-      <c r="R26" s="205"/>
+      <c r="R26" s="216"/>
       <c r="S26" s="22" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="T26" s="23" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="U26" s="58"/>
       <c r="V26" s="128">
         <v>6</v>
       </c>
       <c r="W26" s="63" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="X26" s="23" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="AA26" s="137"/>
       <c r="AB26" s="137"/>
@@ -6644,15 +6644,15 @@
       <c r="BF26" s="137"/>
     </row>
     <row r="27" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="212"/>
+      <c r="A27" s="209"/>
       <c r="B27" s="151" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C27" s="151" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D27" s="162" t="s">
-        <v>293</v>
+        <v>607</v>
       </c>
       <c r="E27" s="151">
         <v>32</v>
@@ -6662,38 +6662,38 @@
       </c>
       <c r="G27" s="155"/>
       <c r="J27" s="29" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="R27" s="205"/>
+      <c r="R27" s="216"/>
       <c r="S27" s="22" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="T27" s="23" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="U27" s="58"/>
       <c r="V27" s="129">
         <v>7</v>
       </c>
       <c r="W27" s="64" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="X27" s="39" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="AA27" s="137"/>
       <c r="AB27" s="137"/>
@@ -6729,44 +6729,44 @@
       <c r="BF27" s="137"/>
     </row>
     <row r="28" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="213"/>
-      <c r="B28" s="176" t="s">
-        <v>302</v>
-      </c>
-      <c r="C28" s="176" t="s">
-        <v>303</v>
-      </c>
-      <c r="D28" s="178" t="s">
-        <v>304</v>
-      </c>
-      <c r="E28" s="176">
+      <c r="A28" s="210"/>
+      <c r="B28" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="175" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" s="177" t="s">
+        <v>608</v>
+      </c>
+      <c r="E28" s="175">
         <v>8</v>
       </c>
-      <c r="F28" s="178" t="s">
+      <c r="F28" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="179"/>
+      <c r="G28" s="178"/>
       <c r="J28" s="29" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
       <c r="O28" s="56"/>
       <c r="P28" s="6"/>
-      <c r="R28" s="205"/>
+      <c r="R28" s="216"/>
       <c r="S28" s="22" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T28" s="23" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="U28" s="58"/>
       <c r="W28" s="65" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="AA28" s="137"/>
       <c r="AB28" s="137"/>
@@ -6802,44 +6802,44 @@
       <c r="BF28" s="137"/>
     </row>
     <row r="29" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="208" t="s">
-        <v>491</v>
-      </c>
-      <c r="B29" s="171" t="s">
-        <v>492</v>
-      </c>
-      <c r="C29" s="171" t="s">
-        <v>496</v>
+      <c r="A29" s="211" t="s">
+        <v>467</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="170" t="s">
+        <v>472</v>
       </c>
       <c r="D29" s="153" t="s">
-        <v>506</v>
-      </c>
-      <c r="E29" s="171">
+        <v>609</v>
+      </c>
+      <c r="E29" s="170">
         <v>1</v>
       </c>
       <c r="F29" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="174" t="s">
-        <v>499</v>
+      <c r="G29" s="173" t="s">
+        <v>475</v>
       </c>
       <c r="J29" s="44" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="L29" s="46"/>
       <c r="M29" s="46"/>
       <c r="N29" s="46"/>
       <c r="O29" s="57"/>
       <c r="P29" s="6"/>
-      <c r="R29" s="205"/>
+      <c r="R29" s="216"/>
       <c r="S29" s="22" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="T29" s="23" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="U29" s="58"/>
       <c r="AA29" s="137"/>
@@ -6876,15 +6876,15 @@
       <c r="BF29" s="137"/>
     </row>
     <row r="30" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="209"/>
+      <c r="A30" s="212"/>
       <c r="B30" s="151" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="C30" s="151" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="D30" s="162" t="s">
-        <v>507</v>
+        <v>610</v>
       </c>
       <c r="E30" s="151">
         <v>1</v>
@@ -6897,12 +6897,12 @@
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="205"/>
+      <c r="R30" s="216"/>
       <c r="S30" s="22" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="T30" s="23" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="U30" s="58"/>
       <c r="AA30" s="137"/>
@@ -6939,15 +6939,15 @@
       <c r="BF30" s="137"/>
     </row>
     <row r="31" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="209"/>
+      <c r="A31" s="212"/>
       <c r="B31" s="151" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="C31" s="151" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="D31" s="162" t="s">
-        <v>508</v>
+        <v>611</v>
       </c>
       <c r="E31" s="151">
         <v>1</v>
@@ -6956,13 +6956,13 @@
         <v>24</v>
       </c>
       <c r="G31" s="155" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>8</v>
@@ -6974,12 +6974,12 @@
         <v>11</v>
       </c>
       <c r="P31" s="6"/>
-      <c r="R31" s="205"/>
+      <c r="R31" s="216"/>
       <c r="S31" s="66" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="T31" s="23" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="U31" s="58"/>
       <c r="AA31" s="137"/>
@@ -7016,15 +7016,15 @@
       <c r="BF31" s="137"/>
     </row>
     <row r="32" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="209"/>
+      <c r="A32" s="212"/>
       <c r="B32" s="151" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C32" s="151" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="D32" s="162" t="s">
-        <v>509</v>
+        <v>612</v>
       </c>
       <c r="E32" s="151">
         <v>13</v>
@@ -7033,26 +7033,26 @@
         <v>24</v>
       </c>
       <c r="G32" s="155" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="K32" s="50"/>
       <c r="L32" s="19" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="M32" s="20"/>
       <c r="N32" s="51" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="Q32" s="6"/>
-      <c r="R32" s="205"/>
+      <c r="R32" s="216"/>
       <c r="S32" s="22" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="T32" s="23" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="U32" s="58"/>
       <c r="AA32" s="137"/>
@@ -7089,15 +7089,15 @@
       <c r="BF32" s="137"/>
     </row>
     <row r="33" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="209"/>
+      <c r="A33" s="212"/>
       <c r="B33" s="151" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C33" s="151" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="D33" s="162" t="s">
-        <v>510</v>
+        <v>613</v>
       </c>
       <c r="E33" s="151">
         <v>1</v>
@@ -7106,26 +7106,26 @@
         <v>37</v>
       </c>
       <c r="G33" s="155" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="32" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="M33" s="31"/>
       <c r="N33" s="33" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="Q33" s="6"/>
-      <c r="R33" s="205"/>
+      <c r="R33" s="216"/>
       <c r="S33" s="67" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="T33" s="68" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="U33" s="58"/>
       <c r="AA33" s="137"/>
@@ -7162,15 +7162,15 @@
       <c r="BF33" s="137"/>
     </row>
     <row r="34" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="209"/>
+      <c r="A34" s="212"/>
       <c r="B34" s="151" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="C34" s="151" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="D34" s="162" t="s">
-        <v>511</v>
+        <v>614</v>
       </c>
       <c r="E34" s="151">
         <v>1</v>
@@ -7182,23 +7182,23 @@
         <v>31</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="K34" s="30"/>
       <c r="L34" s="32" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="M34" s="31"/>
       <c r="N34" s="33" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="O34" s="6"/>
-      <c r="R34" s="205"/>
+      <c r="R34" s="216"/>
       <c r="S34" s="36" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="T34" s="39" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="U34" s="58"/>
       <c r="AA34" s="137"/>
@@ -7235,43 +7235,43 @@
       <c r="BF34" s="137"/>
     </row>
     <row r="35" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="209"/>
+      <c r="A35" s="212"/>
       <c r="B35" s="152" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="C35" s="152" t="s">
-        <v>542</v>
-      </c>
-      <c r="D35" s="181" t="s">
-        <v>540</v>
+        <v>511</v>
+      </c>
+      <c r="D35" s="180" t="s">
+        <v>615</v>
       </c>
       <c r="E35" s="152">
         <v>1</v>
       </c>
-      <c r="F35" s="181" t="s">
+      <c r="F35" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="182"/>
+      <c r="G35" s="181"/>
       <c r="J35" s="29" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K35" s="30"/>
       <c r="L35" s="32" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="M35" s="31"/>
       <c r="N35" s="33" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="O35" s="6"/>
-      <c r="R35" s="206" t="s">
-        <v>339</v>
+      <c r="R35" s="220" t="s">
+        <v>315</v>
       </c>
       <c r="S35" s="69" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="T35" s="26" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="U35" s="58"/>
       <c r="AA35" s="137"/>
@@ -7308,41 +7308,41 @@
       <c r="BF35" s="137"/>
     </row>
     <row r="36" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="210"/>
-      <c r="B36" s="176" t="s">
-        <v>543</v>
-      </c>
-      <c r="C36" s="176" t="s">
-        <v>544</v>
-      </c>
-      <c r="D36" s="178" t="s">
-        <v>545</v>
-      </c>
-      <c r="E36" s="176">
+      <c r="A36" s="213"/>
+      <c r="B36" s="175" t="s">
+        <v>512</v>
+      </c>
+      <c r="C36" s="175" t="s">
+        <v>513</v>
+      </c>
+      <c r="D36" s="177" t="s">
+        <v>616</v>
+      </c>
+      <c r="E36" s="175">
         <v>4</v>
       </c>
-      <c r="F36" s="178" t="s">
+      <c r="F36" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="179"/>
+      <c r="G36" s="178"/>
       <c r="J36" s="29" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="K36" s="30"/>
       <c r="L36" s="32" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="M36" s="31"/>
       <c r="N36" s="33" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="O36" s="6"/>
-      <c r="R36" s="206"/>
+      <c r="R36" s="220"/>
       <c r="S36" s="22" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="T36" s="23" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="U36" s="58"/>
       <c r="AA36" s="137"/>
@@ -7379,45 +7379,45 @@
       <c r="BF36" s="137"/>
     </row>
     <row r="37" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="208" t="s">
-        <v>546</v>
-      </c>
-      <c r="B37" s="171" t="s">
-        <v>547</v>
-      </c>
-      <c r="C37" s="171" t="s">
-        <v>551</v>
+      <c r="A37" s="211" t="s">
+        <v>514</v>
+      </c>
+      <c r="B37" s="170" t="s">
+        <v>515</v>
+      </c>
+      <c r="C37" s="170" t="s">
+        <v>519</v>
       </c>
       <c r="D37" s="153" t="s">
-        <v>568</v>
-      </c>
-      <c r="E37" s="171">
+        <v>617</v>
+      </c>
+      <c r="E37" s="170">
         <v>1</v>
       </c>
       <c r="F37" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="174" t="s">
-        <v>583</v>
+      <c r="G37" s="173" t="s">
+        <v>539</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="K37" s="30"/>
       <c r="L37" s="32" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="M37" s="31"/>
       <c r="N37" s="33" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="O37" s="6"/>
-      <c r="R37" s="206"/>
+      <c r="R37" s="220"/>
       <c r="S37" s="22" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="T37" s="23" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="U37" s="58"/>
       <c r="AA37" s="137"/>
@@ -7454,15 +7454,15 @@
       <c r="BF37" s="137"/>
     </row>
     <row r="38" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="209"/>
+      <c r="A38" s="212"/>
       <c r="B38" s="151" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="C38" s="151" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="D38" s="162" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="E38" s="151">
         <v>1</v>
@@ -7474,7 +7474,7 @@
         <v>31</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K38" s="30"/>
       <c r="L38" s="32">
@@ -7485,12 +7485,12 @@
         <v>69</v>
       </c>
       <c r="O38" s="6"/>
-      <c r="R38" s="206"/>
+      <c r="R38" s="220"/>
       <c r="S38" s="22" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="T38" s="23" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="U38" s="58"/>
       <c r="AA38" s="137"/>
@@ -7527,15 +7527,15 @@
       <c r="BF38" s="137"/>
     </row>
     <row r="39" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="209"/>
+      <c r="A39" s="212"/>
       <c r="B39" s="151" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C39" s="151" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="D39" s="162" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="E39" s="151">
         <v>1</v>
@@ -7544,39 +7544,39 @@
         <v>24</v>
       </c>
       <c r="G39" s="155" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="K39" s="30"/>
       <c r="L39" s="32" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="M39" s="31"/>
       <c r="N39" s="33" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="O39" s="6"/>
-      <c r="R39" s="206"/>
+      <c r="R39" s="220"/>
       <c r="S39" s="22" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="T39" s="23" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="U39" s="58"/>
     </row>
     <row r="40" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="209"/>
+      <c r="A40" s="212"/>
       <c r="B40" s="151" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="C40" s="151" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="D40" s="162" t="s">
-        <v>565</v>
+        <v>620</v>
       </c>
       <c r="E40" s="151">
         <v>13</v>
@@ -7585,39 +7585,39 @@
         <v>24</v>
       </c>
       <c r="G40" s="155" t="s">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="K40" s="30"/>
       <c r="L40" s="32" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M40" s="31"/>
       <c r="N40" s="33" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="O40" s="6"/>
-      <c r="R40" s="206"/>
+      <c r="R40" s="220"/>
       <c r="S40" s="22" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="T40" s="23" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="U40" s="58"/>
     </row>
     <row r="41" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="209"/>
+      <c r="A41" s="212"/>
       <c r="B41" s="151" t="s">
-        <v>554</v>
-      </c>
-      <c r="C41" s="175" t="s">
-        <v>555</v>
+        <v>522</v>
+      </c>
+      <c r="C41" s="174" t="s">
+        <v>523</v>
       </c>
       <c r="D41" s="162" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="E41" s="151">
         <v>4</v>
@@ -7627,36 +7627,36 @@
       </c>
       <c r="G41" s="155"/>
       <c r="J41" s="29" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="K41" s="30"/>
       <c r="L41" s="32" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="M41" s="31"/>
       <c r="N41" s="33" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="O41" s="6"/>
-      <c r="R41" s="206"/>
+      <c r="R41" s="220"/>
       <c r="S41" s="22" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="T41" s="23" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="U41" s="58"/>
     </row>
     <row r="42" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="209"/>
+      <c r="A42" s="212"/>
       <c r="B42" s="151" t="s">
-        <v>556</v>
-      </c>
-      <c r="C42" s="175" t="s">
-        <v>557</v>
+        <v>524</v>
+      </c>
+      <c r="C42" s="174" t="s">
+        <v>525</v>
       </c>
       <c r="D42" s="162" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
       <c r="E42" s="151">
         <v>40</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="G42" s="155"/>
       <c r="J42" s="29" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="K42" s="30"/>
       <c r="L42" s="32">
@@ -7677,25 +7677,25 @@
         <v>71</v>
       </c>
       <c r="O42" s="6"/>
-      <c r="R42" s="206"/>
+      <c r="R42" s="220"/>
       <c r="S42" s="22" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="U42" s="58"/>
     </row>
     <row r="43" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="209"/>
+      <c r="A43" s="212"/>
       <c r="B43" s="151" t="s">
-        <v>569</v>
-      </c>
-      <c r="C43" s="175" t="s">
-        <v>558</v>
+        <v>529</v>
+      </c>
+      <c r="C43" s="174" t="s">
+        <v>526</v>
       </c>
       <c r="D43" s="162" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="E43" s="151">
         <v>40</v>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="G43" s="155"/>
       <c r="J43" s="29" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="K43" s="30"/>
       <c r="L43" s="32">
@@ -7715,35 +7715,35 @@
       <c r="N43" s="33">
         <v>73</v>
       </c>
-      <c r="R43" s="207"/>
+      <c r="R43" s="221"/>
       <c r="S43" s="126" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="T43" s="68" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="U43" s="58"/>
     </row>
     <row r="44" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="210"/>
-      <c r="B44" s="176" t="s">
-        <v>559</v>
-      </c>
-      <c r="C44" s="177" t="s">
-        <v>560</v>
-      </c>
-      <c r="D44" s="178" t="s">
-        <v>561</v>
-      </c>
-      <c r="E44" s="176">
+      <c r="A44" s="213"/>
+      <c r="B44" s="175" t="s">
+        <v>527</v>
+      </c>
+      <c r="C44" s="176" t="s">
+        <v>528</v>
+      </c>
+      <c r="D44" s="177" t="s">
+        <v>624</v>
+      </c>
+      <c r="E44" s="175">
         <v>1</v>
       </c>
-      <c r="F44" s="178" t="s">
+      <c r="F44" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="179"/>
+      <c r="G44" s="178"/>
       <c r="J44" s="29" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="K44" s="41">
         <v>74</v>
@@ -7752,40 +7752,40 @@
       <c r="M44" s="31"/>
       <c r="N44" s="56"/>
       <c r="R44" s="1" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="S44" s="131" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="T44" s="132" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="U44" s="58"/>
     </row>
     <row r="45" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="208" t="s">
-        <v>570</v>
-      </c>
-      <c r="B45" s="171" t="s">
-        <v>572</v>
-      </c>
-      <c r="C45" s="171" t="s">
-        <v>575</v>
+      <c r="A45" s="211" t="s">
+        <v>530</v>
+      </c>
+      <c r="B45" s="170" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" s="170" t="s">
+        <v>535</v>
       </c>
       <c r="D45" s="153" t="s">
-        <v>579</v>
-      </c>
-      <c r="E45" s="171">
+        <v>625</v>
+      </c>
+      <c r="E45" s="170">
         <v>1</v>
       </c>
       <c r="F45" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="174" t="s">
-        <v>584</v>
+      <c r="G45" s="173" t="s">
+        <v>540</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="K45" s="30"/>
       <c r="L45" s="32">
@@ -7799,15 +7799,15 @@
       <c r="U45" s="58"/>
     </row>
     <row r="46" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="209"/>
+      <c r="A46" s="212"/>
       <c r="B46" s="151" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C46" s="151" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="D46" s="162" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="E46" s="151">
         <v>1</v>
@@ -7819,7 +7819,7 @@
         <v>31</v>
       </c>
       <c r="J46" s="70" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="K46" s="71">
         <v>77</v>
@@ -7831,15 +7831,15 @@
       <c r="U46" s="58"/>
     </row>
     <row r="47" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="209"/>
+      <c r="A47" s="212"/>
       <c r="B47" s="151" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C47" s="151" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="D47" s="162" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="E47" s="151">
         <v>13</v>
@@ -7848,10 +7848,10 @@
         <v>24</v>
       </c>
       <c r="G47" s="155" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="K47" s="45">
         <v>86</v>
@@ -7863,55 +7863,55 @@
       <c r="U47" s="58"/>
     </row>
     <row r="48" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="210"/>
-      <c r="B48" s="176" t="s">
-        <v>571</v>
-      </c>
-      <c r="C48" s="177" t="s">
-        <v>577</v>
-      </c>
-      <c r="D48" s="178" t="s">
-        <v>582</v>
-      </c>
-      <c r="E48" s="183">
+      <c r="A48" s="213"/>
+      <c r="B48" s="175" t="s">
+        <v>531</v>
+      </c>
+      <c r="C48" s="176" t="s">
+        <v>537</v>
+      </c>
+      <c r="D48" s="177" t="s">
+        <v>628</v>
+      </c>
+      <c r="E48" s="182">
         <v>65526</v>
       </c>
-      <c r="F48" s="178" t="s">
+      <c r="F48" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="179" t="s">
-        <v>578</v>
+      <c r="G48" s="178" t="s">
+        <v>538</v>
       </c>
       <c r="O48" s="6"/>
       <c r="U48" s="58"/>
     </row>
     <row r="49" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="208" t="s">
-        <v>587</v>
-      </c>
-      <c r="B49" s="171" t="s">
-        <v>588</v>
-      </c>
-      <c r="C49" s="171" t="s">
-        <v>591</v>
-      </c>
-      <c r="D49" s="193" t="s">
-        <v>595</v>
+      <c r="A49" s="211" t="s">
+        <v>543</v>
+      </c>
+      <c r="B49" s="170" t="s">
+        <v>544</v>
+      </c>
+      <c r="C49" s="170" t="s">
+        <v>547</v>
+      </c>
+      <c r="D49" s="192" t="s">
+        <v>629</v>
       </c>
       <c r="E49" s="12">
         <v>1</v>
       </c>
-      <c r="F49" s="194" t="s">
+      <c r="F49" s="193" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="J49" s="49" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>8</v>
@@ -7928,27 +7928,27 @@
       <c r="U49" s="58"/>
     </row>
     <row r="50" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="209"/>
+      <c r="A50" s="212"/>
       <c r="B50" s="151" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="C50" s="151" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="D50" s="163" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="E50" s="22">
         <v>1</v>
       </c>
-      <c r="F50" s="195" t="s">
+      <c r="F50" s="194" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>31</v>
       </c>
       <c r="J50" s="75" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="19">
@@ -7962,98 +7962,98 @@
       <c r="U50" s="58"/>
     </row>
     <row r="51" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="209"/>
+      <c r="A51" s="212"/>
       <c r="B51" s="151" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="C51" s="151" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="D51" s="163" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="E51" s="22">
         <v>13</v>
       </c>
-      <c r="F51" s="195" t="s">
+      <c r="F51" s="194" t="s">
         <v>24</v>
       </c>
       <c r="G51" s="155" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="K51" s="31"/>
       <c r="L51" s="32" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="M51" s="31"/>
       <c r="N51" s="32" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="O51" s="56"/>
       <c r="U51" s="58"/>
     </row>
     <row r="52" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="209"/>
-      <c r="B52" s="184" t="s">
-        <v>598</v>
-      </c>
-      <c r="C52" s="184" t="s">
-        <v>600</v>
-      </c>
-      <c r="D52" s="185" t="s">
-        <v>633</v>
+      <c r="A52" s="212"/>
+      <c r="B52" s="183" t="s">
+        <v>551</v>
+      </c>
+      <c r="C52" s="183" t="s">
+        <v>553</v>
+      </c>
+      <c r="D52" s="184" t="s">
+        <v>632</v>
       </c>
       <c r="E52" s="22">
         <v>1</v>
       </c>
-      <c r="F52" s="195" t="s">
+      <c r="F52" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="192">
+      <c r="G52" s="191">
         <v>500</v>
       </c>
       <c r="J52" s="40" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="K52" s="31"/>
       <c r="L52" s="32" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
       <c r="O52" s="33" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="U52" s="58"/>
     </row>
     <row r="53" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="209"/>
+      <c r="A53" s="212"/>
       <c r="B53" s="22" t="s">
-        <v>599</v>
+        <v>552</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="D53" s="195" t="s">
-        <v>610</v>
+        <v>554</v>
+      </c>
+      <c r="D53" s="194" t="s">
+        <v>633</v>
       </c>
       <c r="E53" s="22">
         <v>1</v>
       </c>
-      <c r="F53" s="195" t="s">
+      <c r="F53" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="192">
+      <c r="G53" s="191">
         <v>560</v>
       </c>
       <c r="J53" s="40" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="K53" s="42" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
@@ -8062,29 +8062,29 @@
       <c r="U53" s="58"/>
     </row>
     <row r="54" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="209"/>
-      <c r="B54" s="186" t="s">
-        <v>602</v>
-      </c>
-      <c r="C54" s="187" t="s">
-        <v>604</v>
-      </c>
-      <c r="D54" s="188" t="s">
-        <v>611</v>
-      </c>
-      <c r="E54" s="186">
+      <c r="A54" s="212"/>
+      <c r="B54" s="185" t="s">
+        <v>555</v>
+      </c>
+      <c r="C54" s="186" t="s">
+        <v>557</v>
+      </c>
+      <c r="D54" s="187" t="s">
+        <v>634</v>
+      </c>
+      <c r="E54" s="185">
         <v>1</v>
       </c>
-      <c r="F54" s="188" t="s">
+      <c r="F54" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="G54" s="189"/>
+      <c r="G54" s="188"/>
       <c r="J54" s="40" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="K54" s="31"/>
       <c r="L54" s="32" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="31"/>
@@ -8092,25 +8092,25 @@
       <c r="U54" s="58"/>
     </row>
     <row r="55" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="209"/>
-      <c r="B55" s="186" t="s">
-        <v>603</v>
-      </c>
-      <c r="C55" s="187" t="s">
-        <v>605</v>
-      </c>
-      <c r="D55" s="188" t="s">
-        <v>612</v>
-      </c>
-      <c r="E55" s="186">
+      <c r="A55" s="212"/>
+      <c r="B55" s="185" t="s">
+        <v>556</v>
+      </c>
+      <c r="C55" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="D55" s="187" t="s">
+        <v>635</v>
+      </c>
+      <c r="E55" s="185">
         <v>32</v>
       </c>
-      <c r="F55" s="188" t="s">
+      <c r="F55" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="189"/>
+      <c r="G55" s="188"/>
       <c r="J55" s="40" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="K55" s="31"/>
       <c r="L55" s="32">
@@ -8122,25 +8122,25 @@
       <c r="U55" s="58"/>
     </row>
     <row r="56" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="209"/>
-      <c r="B56" s="186" t="s">
-        <v>634</v>
-      </c>
-      <c r="C56" s="187" t="s">
-        <v>606</v>
-      </c>
-      <c r="D56" s="188" t="s">
-        <v>613</v>
-      </c>
-      <c r="E56" s="186">
+      <c r="A56" s="212"/>
+      <c r="B56" s="185" t="s">
+        <v>579</v>
+      </c>
+      <c r="C56" s="186" t="s">
+        <v>559</v>
+      </c>
+      <c r="D56" s="187" t="s">
+        <v>636</v>
+      </c>
+      <c r="E56" s="185">
         <v>8</v>
       </c>
-      <c r="F56" s="188" t="s">
+      <c r="F56" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="189"/>
+      <c r="G56" s="188"/>
       <c r="J56" s="40" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="K56" s="31"/>
       <c r="L56" s="32">
@@ -8152,25 +8152,25 @@
       <c r="U56" s="58"/>
     </row>
     <row r="57" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="210"/>
+      <c r="A57" s="213"/>
       <c r="B57" s="36" t="s">
-        <v>607</v>
+        <v>560</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="E57" s="156" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="F57" s="38" t="s">
         <v>37</v>
       </c>
       <c r="G57" s="39"/>
       <c r="J57" s="40" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="K57" s="42">
         <v>82</v>
@@ -8182,9 +8182,9 @@
       <c r="U57" s="58"/>
     </row>
     <row r="58" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="265"/>
+      <c r="A58" s="205"/>
       <c r="J58" s="43" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="K58" s="72"/>
       <c r="L58" s="47">
@@ -8202,23 +8202,23 @@
     <row r="59" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
-      <c r="C59" s="196"/>
-      <c r="D59" s="197"/>
-      <c r="E59" s="198"/>
-      <c r="F59" s="197"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="197"/>
+      <c r="F59" s="196"/>
       <c r="G59" s="58"/>
     </row>
     <row r="60" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J60" s="49" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="75" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="K61" s="17">
         <v>87</v>
@@ -8226,6 +8226,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A19:A28"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="X3:X13"/>
     <mergeCell ref="A5:A11"/>
@@ -8241,8 +8243,6 @@
     <mergeCell ref="R19:R34"/>
     <mergeCell ref="R35:R43"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A19:A28"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -8254,7 +8254,7 @@
   <dimension ref="A1:AR52"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C33" sqref="C33:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8266,7 +8266,7 @@
     <col min="5" max="5" width="1.5" customWidth="1"/>
     <col min="6" max="6" width="8.796875" customWidth="1"/>
     <col min="7" max="7" width="0.796875" customWidth="1"/>
-    <col min="8" max="44" width="1" style="190"/>
+    <col min="8" max="44" width="1" style="189"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8274,130 +8274,130 @@
         <v>0</v>
       </c>
       <c r="B1" s="167" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="C1" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="199" t="s">
-        <v>315</v>
+      <c r="D1" s="198" t="s">
+        <v>291</v>
       </c>
       <c r="E1" s="167" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="F1" s="168" t="s">
-        <v>316</v>
-      </c>
-      <c r="H1" s="211" t="s">
-        <v>631</v>
-      </c>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="236"/>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="236"/>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="236"/>
-      <c r="AJ1" s="236"/>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="237"/>
+        <v>292</v>
+      </c>
+      <c r="H1" s="208" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="240"/>
+      <c r="T1" s="240"/>
+      <c r="U1" s="240"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="240"/>
+      <c r="AA1" s="240"/>
+      <c r="AB1" s="240"/>
+      <c r="AC1" s="240"/>
+      <c r="AD1" s="240"/>
+      <c r="AE1" s="240"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="240"/>
+      <c r="AH1" s="240"/>
+      <c r="AI1" s="240"/>
+      <c r="AJ1" s="240"/>
+      <c r="AK1" s="240"/>
+      <c r="AL1" s="240"/>
+      <c r="AM1" s="241"/>
     </row>
     <row r="2" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="225" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="229" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="D2" s="246" t="s">
+      <c r="A2" s="232" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="236" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="236" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="250" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="135" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="H2" s="144" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I2" s="143" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J2" s="143" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K2" s="143" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L2" s="143" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M2" s="143" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N2" s="143" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="O2" s="143" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="P2" s="143" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="Q2" s="143" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="R2" s="143" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="S2" s="143" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="T2" s="143" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="U2" s="143" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="V2" s="143" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="W2" s="143" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="X2" s="143" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="143" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="143" t="s">
         <v>56</v>
@@ -8409,121 +8409,121 @@
         <v>32</v>
       </c>
       <c r="AD2" s="143" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="AE2" s="143" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="AF2" s="143" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="AG2" s="143" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="AH2" s="143" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="AI2" s="143" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="AJ2" s="143" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="AK2" s="143" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="AL2" s="143" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="AM2" s="145" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="227"/>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="247"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="251"/>
       <c r="E3" s="22">
         <v>1</v>
       </c>
       <c r="F3" s="154" t="s">
-        <v>616</v>
-      </c>
-      <c r="H3" s="191" t="s">
+        <v>564</v>
+      </c>
+      <c r="H3" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="240" t="s">
-        <v>537</v>
-      </c>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="238" t="s">
-        <v>406</v>
-      </c>
-      <c r="S3" s="238"/>
-      <c r="T3" s="238"/>
-      <c r="U3" s="238"/>
-      <c r="V3" s="238"/>
-      <c r="W3" s="238"/>
-      <c r="X3" s="238"/>
-      <c r="Y3" s="238"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="238"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="238"/>
-      <c r="AG3" s="238"/>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="238"/>
-      <c r="AL3" s="238"/>
-      <c r="AM3" s="239"/>
+      <c r="I3" s="244" t="s">
+        <v>507</v>
+      </c>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="242" t="s">
+        <v>382</v>
+      </c>
+      <c r="S3" s="242"/>
+      <c r="T3" s="242"/>
+      <c r="U3" s="242"/>
+      <c r="V3" s="242"/>
+      <c r="W3" s="242"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="242"/>
+      <c r="AB3" s="242"/>
+      <c r="AC3" s="242"/>
+      <c r="AD3" s="242"/>
+      <c r="AE3" s="242"/>
+      <c r="AF3" s="242"/>
+      <c r="AG3" s="242"/>
+      <c r="AH3" s="242"/>
+      <c r="AI3" s="242"/>
+      <c r="AJ3" s="242"/>
+      <c r="AK3" s="242"/>
+      <c r="AL3" s="242"/>
+      <c r="AM3" s="243"/>
     </row>
     <row r="4" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="227"/>
-      <c r="B4" s="230"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="247"/>
+      <c r="A4" s="234"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="251"/>
       <c r="E4" s="22">
         <v>2</v>
       </c>
       <c r="F4" s="154" t="s">
-        <v>617</v>
+        <v>565</v>
       </c>
       <c r="H4" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="190" t="s">
-        <v>632</v>
+      <c r="I4" s="189" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="227"/>
-      <c r="B5" s="230"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="247"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="251"/>
       <c r="E5" s="22">
         <v>3</v>
       </c>
       <c r="F5" s="154" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="227"/>
-      <c r="B6" s="230"/>
-      <c r="C6" s="230"/>
-      <c r="D6" s="247"/>
+      <c r="A6" s="234"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="251"/>
       <c r="E6" s="22">
         <v>4</v>
       </c>
@@ -8532,124 +8532,124 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="227"/>
-      <c r="B7" s="230" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="230" t="s">
-        <v>347</v>
-      </c>
-      <c r="D7" s="247" t="s">
+      <c r="A7" s="234"/>
+      <c r="B7" s="237" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="237" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="251" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="22">
         <v>0</v>
       </c>
       <c r="F7" s="154" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="211" t="s">
-        <v>541</v>
-      </c>
-      <c r="I7" s="236"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
-      <c r="O7" s="236"/>
-      <c r="P7" s="236"/>
-      <c r="Q7" s="236"/>
-      <c r="R7" s="236"/>
-      <c r="S7" s="236"/>
-      <c r="T7" s="236"/>
-      <c r="U7" s="236"/>
-      <c r="V7" s="236"/>
-      <c r="W7" s="236"/>
-      <c r="X7" s="236"/>
-      <c r="Y7" s="236"/>
-      <c r="Z7" s="236"/>
-      <c r="AA7" s="236"/>
-      <c r="AB7" s="236"/>
-      <c r="AC7" s="236"/>
-      <c r="AD7" s="236"/>
-      <c r="AE7" s="236"/>
-      <c r="AF7" s="236"/>
-      <c r="AG7" s="236"/>
-      <c r="AH7" s="236"/>
-      <c r="AI7" s="236"/>
-      <c r="AJ7" s="236"/>
-      <c r="AK7" s="236"/>
-      <c r="AL7" s="236"/>
-      <c r="AM7" s="237"/>
+        <v>299</v>
+      </c>
+      <c r="H7" s="208" t="s">
+        <v>510</v>
+      </c>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="240"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="240"/>
+      <c r="Q7" s="240"/>
+      <c r="R7" s="240"/>
+      <c r="S7" s="240"/>
+      <c r="T7" s="240"/>
+      <c r="U7" s="240"/>
+      <c r="V7" s="240"/>
+      <c r="W7" s="240"/>
+      <c r="X7" s="240"/>
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="240"/>
+      <c r="AA7" s="240"/>
+      <c r="AB7" s="240"/>
+      <c r="AC7" s="240"/>
+      <c r="AD7" s="240"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="240"/>
+      <c r="AG7" s="240"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="240"/>
+      <c r="AJ7" s="240"/>
+      <c r="AK7" s="240"/>
+      <c r="AL7" s="240"/>
+      <c r="AM7" s="241"/>
     </row>
     <row r="8" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="227"/>
-      <c r="B8" s="230"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="247"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="251"/>
       <c r="E8" s="22">
         <v>1</v>
       </c>
       <c r="F8" s="154" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="H8" s="144" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I8" s="143" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J8" s="143" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K8" s="143" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L8" s="143" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M8" s="143" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N8" s="143" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="O8" s="143" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="P8" s="143" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="Q8" s="143" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="R8" s="143" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="S8" s="143" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="T8" s="143" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="U8" s="143" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="V8" s="143" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="W8" s="143" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="X8" s="143" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y8" s="143" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z8" s="143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA8" s="143" t="s">
         <v>56</v>
@@ -8661,52 +8661,52 @@
         <v>32</v>
       </c>
       <c r="AD8" s="143" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="AE8" s="143" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="AF8" s="143" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="AG8" s="143" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="AH8" s="143" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="AI8" s="143" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="AJ8" s="143" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="AK8" s="143" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="AL8" s="143" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="AM8" s="145" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="227"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="230"/>
-      <c r="D9" s="247"/>
+      <c r="A9" s="234"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="251"/>
       <c r="E9" s="22">
         <v>2</v>
       </c>
       <c r="F9" s="154" t="s">
-        <v>616</v>
+        <v>564</v>
       </c>
       <c r="H9" s="146" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I9" s="147" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="J9" s="148" t="s">
         <v>56</v>
@@ -8714,55 +8714,55 @@
       <c r="K9" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="243" t="s">
-        <v>537</v>
-      </c>
-      <c r="M9" s="244"/>
-      <c r="N9" s="245"/>
-      <c r="O9" s="241" t="s">
-        <v>532</v>
-      </c>
-      <c r="P9" s="241"/>
-      <c r="Q9" s="241"/>
-      <c r="R9" s="241"/>
-      <c r="S9" s="241"/>
-      <c r="T9" s="241"/>
-      <c r="U9" s="241"/>
-      <c r="V9" s="241"/>
-      <c r="W9" s="241"/>
-      <c r="X9" s="241"/>
-      <c r="Y9" s="241"/>
-      <c r="Z9" s="241"/>
-      <c r="AA9" s="241"/>
-      <c r="AB9" s="241"/>
-      <c r="AC9" s="241"/>
-      <c r="AD9" s="241"/>
-      <c r="AE9" s="241"/>
-      <c r="AF9" s="241"/>
-      <c r="AG9" s="241"/>
-      <c r="AH9" s="241"/>
-      <c r="AI9" s="241"/>
-      <c r="AJ9" s="241"/>
-      <c r="AK9" s="241"/>
-      <c r="AL9" s="241"/>
-      <c r="AM9" s="242"/>
+      <c r="L9" s="247" t="s">
+        <v>507</v>
+      </c>
+      <c r="M9" s="248"/>
+      <c r="N9" s="249"/>
+      <c r="O9" s="245" t="s">
+        <v>502</v>
+      </c>
+      <c r="P9" s="245"/>
+      <c r="Q9" s="245"/>
+      <c r="R9" s="245"/>
+      <c r="S9" s="245"/>
+      <c r="T9" s="245"/>
+      <c r="U9" s="245"/>
+      <c r="V9" s="245"/>
+      <c r="W9" s="245"/>
+      <c r="X9" s="245"/>
+      <c r="Y9" s="245"/>
+      <c r="Z9" s="245"/>
+      <c r="AA9" s="245"/>
+      <c r="AB9" s="245"/>
+      <c r="AC9" s="245"/>
+      <c r="AD9" s="245"/>
+      <c r="AE9" s="245"/>
+      <c r="AF9" s="245"/>
+      <c r="AG9" s="245"/>
+      <c r="AH9" s="245"/>
+      <c r="AI9" s="245"/>
+      <c r="AJ9" s="245"/>
+      <c r="AK9" s="245"/>
+      <c r="AL9" s="245"/>
+      <c r="AM9" s="246"/>
     </row>
     <row r="10" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="227"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="247"/>
+      <c r="A10" s="234"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="251"/>
       <c r="E10" s="22">
         <v>3</v>
       </c>
       <c r="F10" s="154" t="s">
-        <v>617</v>
+        <v>565</v>
       </c>
       <c r="H10" s="139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I10" s="150" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="J10" s="137"/>
       <c r="K10" s="137"/>
@@ -8796,10 +8796,10 @@
       <c r="AM10" s="137"/>
     </row>
     <row r="11" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="227"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="247"/>
+      <c r="A11" s="234"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="251"/>
       <c r="E11" s="22">
         <v>4</v>
       </c>
@@ -8807,10 +8807,10 @@
         <v>4</v>
       </c>
       <c r="H11" s="140" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="I11" s="150" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="J11" s="137"/>
       <c r="K11" s="137"/>
@@ -8844,27 +8844,27 @@
       <c r="AM11" s="137"/>
     </row>
     <row r="12" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="226"/>
+      <c r="A12" s="233"/>
       <c r="B12" s="36" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="36">
         <v>0</v>
       </c>
-      <c r="F12" s="170" t="s">
-        <v>323</v>
+      <c r="F12" s="169" t="s">
+        <v>299</v>
       </c>
       <c r="H12" s="141" t="s">
         <v>56</v>
       </c>
       <c r="I12" s="150" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="J12" s="137"/>
       <c r="K12" s="137"/>
@@ -8899,24 +8899,28 @@
     </row>
     <row r="13" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="222" t="s">
-        <v>587</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="D13" s="169" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="135"/>
+        <v>543</v>
+      </c>
+      <c r="B13" s="170" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" s="170" t="s">
+        <v>567</v>
+      </c>
+      <c r="D13" s="204" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="206" t="s">
+        <v>568</v>
+      </c>
       <c r="H13" s="142" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="150" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="J13" s="137"/>
       <c r="K13" s="137"/>
@@ -8951,183 +8955,168 @@
     </row>
     <row r="14" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="223"/>
-      <c r="B14" s="151" t="s">
-        <v>620</v>
-      </c>
-      <c r="C14" s="151" t="s">
-        <v>621</v>
-      </c>
-      <c r="D14" s="163" t="s">
-        <v>55</v>
+      <c r="B14" s="225" t="s">
+        <v>580</v>
+      </c>
+      <c r="C14" s="225" t="s">
+        <v>581</v>
+      </c>
+      <c r="D14" s="228" t="s">
+        <v>67</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
       </c>
       <c r="F14" s="164" t="s">
-        <v>622</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="223"/>
-      <c r="B15" s="232" t="s">
-        <v>635</v>
-      </c>
-      <c r="C15" s="232" t="s">
-        <v>636</v>
-      </c>
-      <c r="D15" s="219" t="s">
-        <v>68</v>
-      </c>
+      <c r="B15" s="226"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="229"/>
       <c r="E15" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="164" t="s">
-        <v>626</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="223"/>
-      <c r="B16" s="233"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="220"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="231"/>
       <c r="E16" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="164" t="s">
-        <v>627</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="223"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="248"/>
+      <c r="B17" s="225" t="s">
+        <v>583</v>
+      </c>
+      <c r="C17" s="225" t="s">
+        <v>584</v>
+      </c>
+      <c r="D17" s="228" t="s">
+        <v>76</v>
+      </c>
       <c r="E17" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="164" t="s">
-        <v>637</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="223"/>
-      <c r="B18" s="232" t="s">
-        <v>638</v>
-      </c>
-      <c r="C18" s="232" t="s">
-        <v>639</v>
-      </c>
-      <c r="D18" s="219" t="s">
-        <v>78</v>
-      </c>
+      <c r="B18" s="239"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="231"/>
       <c r="E18" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="164" t="s">
-        <v>626</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="223"/>
-      <c r="B19" s="234"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="248"/>
+      <c r="B19" s="225" t="s">
+        <v>569</v>
+      </c>
+      <c r="C19" s="225" t="s">
+        <v>570</v>
+      </c>
+      <c r="D19" s="228" t="s">
+        <v>86</v>
+      </c>
       <c r="E19" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="164" t="s">
-        <v>627</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="223"/>
-      <c r="B20" s="232" t="s">
-        <v>623</v>
-      </c>
-      <c r="C20" s="232" t="s">
-        <v>624</v>
-      </c>
-      <c r="D20" s="219" t="s">
-        <v>89</v>
-      </c>
+      <c r="B20" s="226"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="229"/>
       <c r="E20" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="164" t="s">
-        <v>625</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="223"/>
-      <c r="B21" s="233"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="220"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="229"/>
       <c r="E21" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="164" t="s">
-        <v>626</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="223"/>
-      <c r="B22" s="233"/>
-      <c r="C22" s="233"/>
-      <c r="D22" s="220"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="229"/>
       <c r="E22" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="164" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="223"/>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="220"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="229"/>
       <c r="E23" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="164" t="s">
-        <v>622</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="223"/>
-      <c r="B24" s="233"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="220"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="229"/>
       <c r="E24" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="164" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="223"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="22">
-        <v>5</v>
-      </c>
-      <c r="F25" s="164" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="224"/>
-      <c r="B26" s="235"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="36">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="224"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="36">
         <v>6</v>
       </c>
-      <c r="F26" s="165" t="s">
-        <v>630</v>
-      </c>
+      <c r="F25" s="165" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="207"/>
     </row>
     <row r="30" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="65"/>
@@ -9156,7 +9145,7 @@
     <row r="36" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
@@ -9169,192 +9158,192 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="231" t="s">
+      <c r="A38" s="238" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="D38" s="200" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" s="199" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="231"/>
+      <c r="A39" s="238"/>
       <c r="B39" s="22" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D39" s="201" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" s="200" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="231"/>
+      <c r="A40" s="238"/>
       <c r="B40" s="36" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="D40" s="202" t="s">
+        <v>359</v>
+      </c>
+      <c r="D40" s="201" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="231" t="s">
-        <v>113</v>
+      <c r="A41" s="238" t="s">
+        <v>108</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="D41" s="200" t="s">
+        <v>351</v>
+      </c>
+      <c r="D41" s="199" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="231"/>
+      <c r="A42" s="238"/>
       <c r="B42" s="22" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="D42" s="201" t="s">
+        <v>364</v>
+      </c>
+      <c r="D42" s="200" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="222"/>
       <c r="B43" s="126" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C43" s="127" t="s">
-        <v>390</v>
-      </c>
-      <c r="D43" s="203" t="s">
+        <v>366</v>
+      </c>
+      <c r="D43" s="202" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="225" t="s">
-        <v>246</v>
+      <c r="A44" s="232" t="s">
+        <v>228</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D44" s="200" t="s">
+        <v>367</v>
+      </c>
+      <c r="D44" s="199" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="226"/>
+      <c r="A45" s="233"/>
       <c r="B45" s="36" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D45" s="202" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" s="201" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="228" t="s">
-        <v>258</v>
+      <c r="A46" s="235" t="s">
+        <v>239</v>
       </c>
       <c r="B46" s="69" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="D46" s="204" t="s">
+        <v>370</v>
+      </c>
+      <c r="D46" s="203" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="227"/>
+      <c r="A47" s="234"/>
       <c r="B47" s="22" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D47" s="201" t="s">
+        <v>372</v>
+      </c>
+      <c r="D47" s="200" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="227"/>
+      <c r="A48" s="234"/>
       <c r="B48" s="22" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="D48" s="201" t="s">
+        <v>374</v>
+      </c>
+      <c r="D48" s="200" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="227"/>
+      <c r="A49" s="234"/>
       <c r="B49" s="22" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="D49" s="201" t="s">
-        <v>68</v>
+        <v>376</v>
+      </c>
+      <c r="D49" s="200" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="226"/>
+      <c r="A50" s="233"/>
       <c r="B50" s="36" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="D50" s="202" t="s">
-        <v>78</v>
+        <v>378</v>
+      </c>
+      <c r="D50" s="201" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="225" t="s">
-        <v>501</v>
+      <c r="A51" s="232" t="s">
+        <v>477</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="D51" s="200" t="s">
+        <v>481</v>
+      </c>
+      <c r="D51" s="199" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="226"/>
+      <c r="A52" s="233"/>
       <c r="B52" s="36" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D52" s="202" t="s">
+        <v>369</v>
+      </c>
+      <c r="D52" s="201" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9370,10 +9359,8 @@
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="A13:A26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A46:A50"/>
@@ -9382,12 +9369,14 @@
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9433,13 +9422,13 @@
       <c r="AA1"/>
     </row>
     <row r="2" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="251" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
+      <c r="E2" s="254" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -9562,20 +9551,20 @@
     <row r="7" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
-      <c r="G7" s="250" t="s">
-        <v>404</v>
-      </c>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="250"/>
-      <c r="N7" s="250"/>
-      <c r="O7" s="250"/>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="250"/>
+      <c r="G7" s="253" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
       <c r="S7" s="78"/>
       <c r="T7" s="78"/>
       <c r="U7" s="78"/>
@@ -9638,12 +9627,12 @@
     </row>
     <row r="10" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="78"/>
-      <c r="F10" s="249" t="s">
-        <v>405</v>
-      </c>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
+      <c r="F10" s="252" t="s">
+        <v>381</v>
+      </c>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="252"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78"/>
       <c r="L10" s="78"/>
@@ -9677,12 +9666,12 @@
       <c r="O11" s="78"/>
       <c r="P11" s="78"/>
       <c r="Q11" s="78"/>
-      <c r="R11" s="249" t="s">
-        <v>405</v>
-      </c>
-      <c r="S11" s="249"/>
-      <c r="T11" s="249"/>
-      <c r="U11" s="249"/>
+      <c r="R11" s="252" t="s">
+        <v>381</v>
+      </c>
+      <c r="S11" s="252"/>
+      <c r="T11" s="252"/>
+      <c r="U11" s="252"/>
       <c r="V11" s="78"/>
       <c r="W11" s="78"/>
       <c r="X11" s="78"/>
@@ -9719,12 +9708,12 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
-      <c r="H13" s="249" t="s">
-        <v>405</v>
-      </c>
-      <c r="I13" s="249"/>
-      <c r="J13" s="249"/>
-      <c r="K13" s="249"/>
+      <c r="H13" s="252" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" s="252"/>
+      <c r="J13" s="252"/>
+      <c r="K13" s="252"/>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
       <c r="N13" s="78"/>
@@ -9752,12 +9741,12 @@
       <c r="K14" s="78"/>
       <c r="L14" s="78"/>
       <c r="M14" s="78"/>
-      <c r="N14" s="249" t="s">
-        <v>405</v>
-      </c>
-      <c r="O14" s="249"/>
-      <c r="P14" s="249"/>
-      <c r="Q14" s="249"/>
+      <c r="N14" s="252" t="s">
+        <v>381</v>
+      </c>
+      <c r="O14" s="252"/>
+      <c r="P14" s="252"/>
+      <c r="Q14" s="252"/>
       <c r="R14" s="78"/>
       <c r="S14" s="78"/>
       <c r="T14" s="78"/>
@@ -9828,12 +9817,12 @@
       <c r="J17" s="79"/>
       <c r="K17" s="78"/>
       <c r="L17" s="78"/>
-      <c r="M17" s="249" t="s">
-        <v>405</v>
-      </c>
-      <c r="N17" s="249"/>
-      <c r="O17" s="249"/>
-      <c r="P17" s="249"/>
+      <c r="M17" s="252" t="s">
+        <v>381</v>
+      </c>
+      <c r="N17" s="252"/>
+      <c r="O17" s="252"/>
+      <c r="P17" s="252"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="78"/>
       <c r="S17" s="78"/>
@@ -9865,7 +9854,7 @@
       <c r="T18" s="78"/>
       <c r="U18" s="80"/>
       <c r="V18" s="80" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="W18" s="80"/>
       <c r="X18" s="81"/>
@@ -9875,20 +9864,20 @@
     </row>
     <row r="19" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="78"/>
-      <c r="F19" s="250" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="250"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="250"/>
-      <c r="N19" s="250"/>
-      <c r="O19" s="250"/>
-      <c r="P19" s="250"/>
-      <c r="Q19" s="250"/>
+      <c r="F19" s="253" t="s">
+        <v>380</v>
+      </c>
+      <c r="G19" s="253"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="253"/>
+      <c r="M19" s="253"/>
+      <c r="N19" s="253"/>
+      <c r="O19" s="253"/>
+      <c r="P19" s="253"/>
+      <c r="Q19" s="253"/>
       <c r="R19" s="78"/>
       <c r="S19" s="78"/>
       <c r="T19" s="78"/>
@@ -9916,12 +9905,12 @@
       <c r="Q20" s="78"/>
       <c r="R20" s="78"/>
       <c r="S20" s="78"/>
-      <c r="T20" s="249" t="s">
-        <v>405</v>
-      </c>
-      <c r="U20" s="249"/>
-      <c r="V20" s="249"/>
-      <c r="W20" s="249"/>
+      <c r="T20" s="252" t="s">
+        <v>381</v>
+      </c>
+      <c r="U20" s="252"/>
+      <c r="V20" s="252"/>
+      <c r="W20" s="252"/>
       <c r="X20" s="78"/>
       <c r="Y20" s="78"/>
       <c r="Z20" s="78"/>
@@ -9929,7 +9918,7 @@
     </row>
     <row r="21" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA21" s="82" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -10006,7 +9995,7 @@
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B2" s="84" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -10088,22 +10077,22 @@
       <c r="B4" s="85"/>
       <c r="C4" s="85"/>
       <c r="D4" s="86" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E4" s="86" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" s="86" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I4" s="86" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J4" s="86">
         <v>19</v>
@@ -10136,13 +10125,13 @@
         <v>10</v>
       </c>
       <c r="T4" s="86" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="U4" s="86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V4" s="86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W4" s="86" t="s">
         <v>56</v>
@@ -10293,44 +10282,44 @@
     <row r="6" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="254" t="s">
-        <v>409</v>
-      </c>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="249" t="s">
-        <v>410</v>
-      </c>
-      <c r="O6" s="249"/>
-      <c r="P6" s="249"/>
-      <c r="Q6" s="249"/>
-      <c r="R6" s="249"/>
-      <c r="S6" s="249"/>
-      <c r="T6" s="249"/>
-      <c r="U6" s="249"/>
-      <c r="V6" s="249"/>
-      <c r="W6" s="249"/>
-      <c r="X6" s="255" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y6" s="255"/>
-      <c r="Z6" s="255"/>
-      <c r="AA6" s="255"/>
-      <c r="AB6" s="255"/>
-      <c r="AC6" s="255"/>
-      <c r="AD6" s="255"/>
-      <c r="AE6" s="255"/>
-      <c r="AF6" s="255"/>
-      <c r="AG6" s="255"/>
-      <c r="AH6" s="255"/>
-      <c r="AI6" s="255"/>
+      <c r="D6" s="257" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="252" t="s">
+        <v>386</v>
+      </c>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="252"/>
+      <c r="W6" s="252"/>
+      <c r="X6" s="258" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y6" s="258"/>
+      <c r="Z6" s="258"/>
+      <c r="AA6" s="258"/>
+      <c r="AB6" s="258"/>
+      <c r="AC6" s="258"/>
+      <c r="AD6" s="258"/>
+      <c r="AE6" s="258"/>
+      <c r="AF6" s="258"/>
+      <c r="AG6" s="258"/>
+      <c r="AH6" s="258"/>
+      <c r="AI6" s="258"/>
       <c r="AJ6" s="85"/>
       <c r="AK6" s="85"/>
       <c r="AL6" s="85"/>
@@ -10338,44 +10327,44 @@
     <row r="7" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="256" t="s">
-        <v>412</v>
-      </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="256"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="256" t="s">
-        <v>413</v>
-      </c>
-      <c r="O7" s="256"/>
-      <c r="P7" s="256"/>
-      <c r="Q7" s="256"/>
-      <c r="R7" s="256"/>
-      <c r="S7" s="256"/>
-      <c r="T7" s="256"/>
-      <c r="U7" s="256"/>
-      <c r="V7" s="256"/>
-      <c r="W7" s="256"/>
-      <c r="X7" s="256" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="256"/>
-      <c r="AA7" s="256"/>
-      <c r="AB7" s="256"/>
-      <c r="AC7" s="256"/>
-      <c r="AD7" s="256"/>
-      <c r="AE7" s="256"/>
-      <c r="AF7" s="256"/>
-      <c r="AG7" s="256"/>
-      <c r="AH7" s="256"/>
-      <c r="AI7" s="256"/>
+      <c r="D7" s="259" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="259"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="259"/>
+      <c r="I7" s="259"/>
+      <c r="J7" s="259"/>
+      <c r="K7" s="259"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="259"/>
+      <c r="N7" s="259" t="s">
+        <v>389</v>
+      </c>
+      <c r="O7" s="259"/>
+      <c r="P7" s="259"/>
+      <c r="Q7" s="259"/>
+      <c r="R7" s="259"/>
+      <c r="S7" s="259"/>
+      <c r="T7" s="259"/>
+      <c r="U7" s="259"/>
+      <c r="V7" s="259"/>
+      <c r="W7" s="259"/>
+      <c r="X7" s="259" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y7" s="259"/>
+      <c r="Z7" s="259"/>
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="259"/>
+      <c r="AC7" s="259"/>
+      <c r="AD7" s="259"/>
+      <c r="AE7" s="259"/>
+      <c r="AF7" s="259"/>
+      <c r="AG7" s="259"/>
+      <c r="AH7" s="259"/>
+      <c r="AI7" s="259"/>
       <c r="AJ7" s="85"/>
       <c r="AK7" s="85"/>
       <c r="AL7" s="85"/>
@@ -10461,17 +10450,17 @@
     <row r="10" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B10" s="85"/>
       <c r="C10" s="85" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="D10" s="85"/>
-      <c r="E10" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
+      <c r="E10" s="255" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
       <c r="H10" s="96"/>
       <c r="I10" s="85" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="J10" s="97"/>
       <c r="K10" s="85"/>
@@ -10545,7 +10534,7 @@
     <row r="12" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B12" s="85"/>
       <c r="C12" s="85" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
@@ -10589,21 +10578,21 @@
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
-      <c r="G13" s="253" t="s">
-        <v>418</v>
-      </c>
-      <c r="H13" s="253"/>
-      <c r="I13" s="253"/>
-      <c r="J13" s="252" t="s">
-        <v>419</v>
-      </c>
-      <c r="K13" s="252"/>
-      <c r="L13" s="252"/>
+      <c r="G13" s="256" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="255" t="s">
+        <v>395</v>
+      </c>
+      <c r="K13" s="255"/>
+      <c r="L13" s="255"/>
       <c r="M13" s="98" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="N13" s="99" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
@@ -10636,16 +10625,16 @@
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="85"/>
-      <c r="G14" s="253" t="s">
-        <v>421</v>
-      </c>
-      <c r="H14" s="253"/>
-      <c r="I14" s="253"/>
-      <c r="J14" s="252" t="s">
-        <v>422</v>
-      </c>
-      <c r="K14" s="252"/>
-      <c r="L14" s="252"/>
+      <c r="G14" s="256" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="255" t="s">
+        <v>398</v>
+      </c>
+      <c r="K14" s="255"/>
+      <c r="L14" s="255"/>
       <c r="M14" s="100">
         <v>1</v>
       </c>
@@ -10683,18 +10672,18 @@
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
       <c r="F15" s="85" t="s">
-        <v>423</v>
-      </c>
-      <c r="G15" s="253" t="s">
-        <v>412</v>
-      </c>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="252" t="s">
-        <v>424</v>
-      </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
+        <v>399</v>
+      </c>
+      <c r="G15" s="256" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="255" t="s">
+        <v>400</v>
+      </c>
+      <c r="K15" s="255"/>
+      <c r="L15" s="255"/>
       <c r="M15" s="100">
         <v>1</v>
       </c>
@@ -10702,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="85" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="P15" s="85"/>
       <c r="Q15" s="85"/>
@@ -10734,21 +10723,21 @@
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
       <c r="F16" s="85"/>
-      <c r="G16" s="253" t="s">
-        <v>426</v>
-      </c>
-      <c r="H16" s="253"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="252" t="s">
-        <v>419</v>
-      </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
+      <c r="G16" s="256" t="s">
+        <v>402</v>
+      </c>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="255" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="255"/>
+      <c r="L16" s="255"/>
       <c r="M16" s="98" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="N16" s="99" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="O16" s="85"/>
       <c r="P16" s="85"/>
@@ -10817,7 +10806,7 @@
     <row r="18" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B18" s="85"/>
       <c r="C18" s="85" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
@@ -10866,15 +10855,15 @@
       <c r="I19" s="85"/>
       <c r="J19" s="85"/>
       <c r="K19" s="85"/>
-      <c r="L19" s="253" t="s">
-        <v>428</v>
-      </c>
-      <c r="M19" s="253"/>
-      <c r="N19" s="252" t="s">
-        <v>429</v>
-      </c>
-      <c r="O19" s="252"/>
-      <c r="P19" s="252"/>
+      <c r="L19" s="256" t="s">
+        <v>404</v>
+      </c>
+      <c r="M19" s="256"/>
+      <c r="N19" s="255" t="s">
+        <v>405</v>
+      </c>
+      <c r="O19" s="255"/>
+      <c r="P19" s="255"/>
       <c r="Q19" s="100">
         <v>1</v>
       </c>
@@ -10915,17 +10904,17 @@
       <c r="I20" s="85"/>
       <c r="J20" s="85"/>
       <c r="K20" s="85" t="s">
-        <v>423</v>
-      </c>
-      <c r="L20" s="253" t="s">
-        <v>413</v>
-      </c>
-      <c r="M20" s="253"/>
-      <c r="N20" s="252" t="s">
-        <v>430</v>
-      </c>
-      <c r="O20" s="252"/>
-      <c r="P20" s="252"/>
+        <v>399</v>
+      </c>
+      <c r="L20" s="256" t="s">
+        <v>389</v>
+      </c>
+      <c r="M20" s="256"/>
+      <c r="N20" s="255" t="s">
+        <v>406</v>
+      </c>
+      <c r="O20" s="255"/>
+      <c r="P20" s="255"/>
       <c r="Q20" s="100">
         <v>1</v>
       </c>
@@ -10936,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="85" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="U20" s="85"/>
       <c r="V20" s="85"/>
@@ -10968,23 +10957,23 @@
       <c r="I21" s="85"/>
       <c r="J21" s="85"/>
       <c r="K21" s="85"/>
-      <c r="L21" s="253" t="s">
-        <v>432</v>
-      </c>
-      <c r="M21" s="253"/>
-      <c r="N21" s="252" t="s">
-        <v>419</v>
-      </c>
-      <c r="O21" s="252"/>
-      <c r="P21" s="252"/>
+      <c r="L21" s="256" t="s">
+        <v>408</v>
+      </c>
+      <c r="M21" s="256"/>
+      <c r="N21" s="255" t="s">
+        <v>395</v>
+      </c>
+      <c r="O21" s="255"/>
+      <c r="P21" s="255"/>
       <c r="Q21" s="98" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="R21" s="104" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="S21" s="105" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="T21" s="97"/>
       <c r="U21" s="85"/>
@@ -11047,7 +11036,7 @@
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B23" s="84" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="C23" s="85"/>
       <c r="D23" s="85"/>
@@ -11131,26 +11120,26 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="87" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" s="87" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E1" s="87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="87" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G1" s="87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H1" s="87" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I1" s="87">
         <v>19</v>
@@ -11183,13 +11172,13 @@
         <v>10</v>
       </c>
       <c r="S1" s="87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V1" s="87" t="s">
         <v>56</v>
@@ -11233,7 +11222,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="85" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B2" s="85"/>
       <c r="C2" s="96"/>
@@ -11248,34 +11237,34 @@
       <c r="L2" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="257" t="s">
-        <v>435</v>
-      </c>
-      <c r="N2" s="257"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="257"/>
-      <c r="V2" s="257"/>
-      <c r="W2" s="257"/>
-      <c r="X2" s="257"/>
-      <c r="Y2" s="257"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="257"/>
-      <c r="AB2" s="257"/>
-      <c r="AC2" s="257"/>
-      <c r="AD2" s="257"/>
-      <c r="AE2" s="257"/>
-      <c r="AF2" s="257"/>
-      <c r="AG2" s="257"/>
-      <c r="AH2" s="257"/>
+      <c r="M2" s="260" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="260"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="260"/>
+      <c r="AB2" s="260"/>
+      <c r="AC2" s="260"/>
+      <c r="AD2" s="260"/>
+      <c r="AE2" s="260"/>
+      <c r="AF2" s="260"/>
+      <c r="AG2" s="260"/>
+      <c r="AH2" s="260"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="96"/>
@@ -11313,7 +11302,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="85" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="B4" s="85"/>
       <c r="C4" s="96"/>
@@ -11387,26 +11376,26 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="84" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B6" s="85"/>
       <c r="C6" s="87" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F6" s="87" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H6" s="87" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I6" s="87">
         <v>19</v>
@@ -11439,13 +11428,13 @@
         <v>10</v>
       </c>
       <c r="S6" s="87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T6" s="87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U6" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V6" s="87" t="s">
         <v>56</v>
@@ -11489,7 +11478,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="85" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B7" s="85"/>
       <c r="C7" s="96"/>
@@ -11501,39 +11490,39 @@
       <c r="I7" s="96"/>
       <c r="J7" s="96"/>
       <c r="K7" s="107" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="L7" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="257" t="s">
-        <v>439</v>
-      </c>
-      <c r="N7" s="257"/>
-      <c r="O7" s="257"/>
-      <c r="P7" s="257"/>
-      <c r="Q7" s="257"/>
-      <c r="R7" s="257"/>
-      <c r="S7" s="257"/>
-      <c r="T7" s="257"/>
-      <c r="U7" s="257"/>
-      <c r="V7" s="257"/>
-      <c r="W7" s="257"/>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="257"/>
-      <c r="Z7" s="257"/>
-      <c r="AA7" s="257"/>
-      <c r="AB7" s="257"/>
-      <c r="AC7" s="257"/>
-      <c r="AD7" s="257"/>
-      <c r="AE7" s="257"/>
-      <c r="AF7" s="257"/>
-      <c r="AG7" s="257"/>
-      <c r="AH7" s="257"/>
+      <c r="M7" s="260" t="s">
+        <v>415</v>
+      </c>
+      <c r="N7" s="260"/>
+      <c r="O7" s="260"/>
+      <c r="P7" s="260"/>
+      <c r="Q7" s="260"/>
+      <c r="R7" s="260"/>
+      <c r="S7" s="260"/>
+      <c r="T7" s="260"/>
+      <c r="U7" s="260"/>
+      <c r="V7" s="260"/>
+      <c r="W7" s="260"/>
+      <c r="X7" s="260"/>
+      <c r="Y7" s="260"/>
+      <c r="Z7" s="260"/>
+      <c r="AA7" s="260"/>
+      <c r="AB7" s="260"/>
+      <c r="AC7" s="260"/>
+      <c r="AD7" s="260"/>
+      <c r="AE7" s="260"/>
+      <c r="AF7" s="260"/>
+      <c r="AG7" s="260"/>
+      <c r="AH7" s="260"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="85" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="96"/>
@@ -11571,7 +11560,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="85" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="96"/>
@@ -11595,7 +11584,7 @@
       <c r="U9" s="96"/>
       <c r="V9" s="96"/>
       <c r="W9" s="96" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="X9" s="96"/>
       <c r="Y9" s="96"/>
@@ -11633,7 +11622,7 @@
       <c r="U10" s="96"/>
       <c r="V10" s="96"/>
       <c r="W10" s="96" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="X10" s="96"/>
       <c r="Y10" s="96"/>
@@ -11685,26 +11674,26 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="84" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="B12" s="85"/>
       <c r="C12" s="87" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H12" s="87" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I12" s="87">
         <v>19</v>
@@ -11737,13 +11726,13 @@
         <v>10</v>
       </c>
       <c r="S12" s="87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T12" s="87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U12" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V12" s="87" t="s">
         <v>56</v>
@@ -11787,7 +11776,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="85" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B13" s="85"/>
       <c r="C13" s="96"/>
@@ -11797,7 +11786,7 @@
       <c r="G13" s="96"/>
       <c r="H13" s="97"/>
       <c r="I13" s="108" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="J13" s="109" t="s">
         <v>50</v>
@@ -11806,34 +11795,34 @@
       <c r="L13" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="257" t="s">
-        <v>406</v>
-      </c>
-      <c r="N13" s="257"/>
-      <c r="O13" s="257"/>
-      <c r="P13" s="257"/>
-      <c r="Q13" s="257"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="257"/>
-      <c r="T13" s="257"/>
-      <c r="U13" s="257"/>
-      <c r="V13" s="257"/>
-      <c r="W13" s="257"/>
-      <c r="X13" s="257"/>
-      <c r="Y13" s="257"/>
-      <c r="Z13" s="257"/>
-      <c r="AA13" s="257"/>
-      <c r="AB13" s="257"/>
-      <c r="AC13" s="257"/>
-      <c r="AD13" s="257"/>
-      <c r="AE13" s="257"/>
-      <c r="AF13" s="257"/>
-      <c r="AG13" s="257"/>
-      <c r="AH13" s="257"/>
+      <c r="M13" s="260" t="s">
+        <v>382</v>
+      </c>
+      <c r="N13" s="260"/>
+      <c r="O13" s="260"/>
+      <c r="P13" s="260"/>
+      <c r="Q13" s="260"/>
+      <c r="R13" s="260"/>
+      <c r="S13" s="260"/>
+      <c r="T13" s="260"/>
+      <c r="U13" s="260"/>
+      <c r="V13" s="260"/>
+      <c r="W13" s="260"/>
+      <c r="X13" s="260"/>
+      <c r="Y13" s="260"/>
+      <c r="Z13" s="260"/>
+      <c r="AA13" s="260"/>
+      <c r="AB13" s="260"/>
+      <c r="AC13" s="260"/>
+      <c r="AD13" s="260"/>
+      <c r="AE13" s="260"/>
+      <c r="AF13" s="260"/>
+      <c r="AG13" s="260"/>
+      <c r="AH13" s="260"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="85" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="B14" s="85"/>
       <c r="C14" s="96"/>
@@ -11871,7 +11860,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="85" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -11895,7 +11884,7 @@
       <c r="U15" s="85"/>
       <c r="V15" s="85"/>
       <c r="W15" s="85" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="X15" s="85"/>
       <c r="Y15" s="85"/>
@@ -11933,7 +11922,7 @@
       <c r="U16" s="85"/>
       <c r="V16" s="85"/>
       <c r="W16" s="85" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="X16" s="85"/>
       <c r="Y16" s="85"/>
@@ -11971,7 +11960,7 @@
       <c r="U17" s="85"/>
       <c r="V17" s="85"/>
       <c r="W17" s="85" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="X17" s="85"/>
       <c r="Y17" s="85"/>
@@ -12011,7 +12000,7 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="85" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -12138,7 +12127,7 @@
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="85"/>
       <c r="B3" s="84" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
@@ -12218,7 +12207,7 @@
       <c r="P4" s="111"/>
       <c r="Q4" s="111"/>
       <c r="R4" s="85" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="S4" s="85"/>
       <c r="T4" s="85"/>
@@ -12226,7 +12215,7 @@
       <c r="V4" s="85"/>
       <c r="W4" s="85"/>
       <c r="X4" s="85" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="Y4" s="85"/>
       <c r="Z4" s="85"/>
@@ -12290,7 +12279,7 @@
       <c r="V5" s="85"/>
       <c r="W5" s="85"/>
       <c r="X5" s="85" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="Y5" s="85"/>
       <c r="Z5" s="85"/>
@@ -12334,7 +12323,7 @@
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
       <c r="D6" s="84" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="E6" s="85"/>
       <c r="F6" s="85"/>
@@ -12356,7 +12345,7 @@
       <c r="V6" s="85"/>
       <c r="W6" s="85"/>
       <c r="X6" s="85" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="Y6" s="85"/>
       <c r="Z6" s="85"/>
@@ -12416,7 +12405,7 @@
       <c r="R7" s="113"/>
       <c r="S7" s="113"/>
       <c r="T7" s="85" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="U7" s="85"/>
       <c r="V7" s="85"/>
@@ -12527,7 +12516,7 @@
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
       <c r="E9" s="114" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="F9" s="115"/>
       <c r="G9" s="115"/>
@@ -12591,22 +12580,22 @@
       <c r="C10" s="85"/>
       <c r="D10" s="85"/>
       <c r="E10" s="116" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F10" s="117" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H10" s="117" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J10" s="117" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K10" s="117">
         <v>19</v>
@@ -12639,13 +12628,13 @@
         <v>10</v>
       </c>
       <c r="U10" s="116" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V10" s="117" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W10" s="117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X10" s="117" t="s">
         <v>56</v>
@@ -12716,44 +12705,44 @@
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
-      <c r="E11" s="258" t="s">
-        <v>454</v>
-      </c>
-      <c r="F11" s="258"/>
-      <c r="G11" s="258"/>
-      <c r="H11" s="258"/>
-      <c r="I11" s="258"/>
-      <c r="J11" s="258"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="258"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="258"/>
-      <c r="Q11" s="258"/>
-      <c r="R11" s="258"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="258"/>
-      <c r="U11" s="258"/>
-      <c r="V11" s="258"/>
-      <c r="W11" s="258"/>
-      <c r="X11" s="258"/>
-      <c r="Y11" s="259" t="s">
-        <v>455</v>
-      </c>
-      <c r="Z11" s="259"/>
-      <c r="AA11" s="259"/>
-      <c r="AB11" s="259"/>
-      <c r="AC11" s="259"/>
-      <c r="AD11" s="259"/>
-      <c r="AE11" s="259"/>
-      <c r="AF11" s="259"/>
-      <c r="AG11" s="259"/>
-      <c r="AH11" s="259"/>
-      <c r="AI11" s="260" t="s">
-        <v>456</v>
-      </c>
-      <c r="AJ11" s="260"/>
+      <c r="E11" s="261" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11" s="261"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="261"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="261"/>
+      <c r="M11" s="261"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="261"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="261"/>
+      <c r="S11" s="261"/>
+      <c r="T11" s="261"/>
+      <c r="U11" s="261"/>
+      <c r="V11" s="261"/>
+      <c r="W11" s="261"/>
+      <c r="X11" s="261"/>
+      <c r="Y11" s="262" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z11" s="262"/>
+      <c r="AA11" s="262"/>
+      <c r="AB11" s="262"/>
+      <c r="AC11" s="262"/>
+      <c r="AD11" s="262"/>
+      <c r="AE11" s="262"/>
+      <c r="AF11" s="262"/>
+      <c r="AG11" s="262"/>
+      <c r="AH11" s="262"/>
+      <c r="AI11" s="263" t="s">
+        <v>432</v>
+      </c>
+      <c r="AJ11" s="263"/>
       <c r="AK11" s="85"/>
       <c r="AL11" s="85"/>
       <c r="AM11" s="85"/>
@@ -12848,7 +12837,7 @@
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="119" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="G13" s="119"/>
       <c r="H13" s="119"/>
@@ -12860,7 +12849,7 @@
       <c r="N13" s="85"/>
       <c r="O13" s="85"/>
       <c r="P13" s="120" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="120"/>
       <c r="R13" s="85"/>
@@ -12914,7 +12903,7 @@
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="85" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
@@ -12978,7 +12967,7 @@
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
       <c r="F15" s="85" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="G15" s="85"/>
       <c r="H15" s="85"/>
@@ -13042,7 +13031,7 @@
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
       <c r="F16" s="85" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G16" s="85"/>
       <c r="H16" s="85"/>
@@ -13168,7 +13157,7 @@
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="84" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
@@ -13233,7 +13222,7 @@
       <c r="E19" s="85"/>
       <c r="F19" s="85"/>
       <c r="G19" s="85" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="H19" s="85"/>
       <c r="I19" s="85"/>
@@ -13393,7 +13382,7 @@
         <v>31</v>
       </c>
       <c r="AM20" s="122" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="AN20" s="123"/>
       <c r="AO20" s="123"/>
@@ -13424,54 +13413,54 @@
       <c r="D21" s="85"/>
       <c r="E21" s="85"/>
       <c r="F21" s="124" t="s">
-        <v>464</v>
-      </c>
-      <c r="G21" s="261" t="s">
-        <v>465</v>
-      </c>
-      <c r="H21" s="261"/>
-      <c r="I21" s="262" t="s">
-        <v>200</v>
-      </c>
-      <c r="J21" s="262"/>
-      <c r="K21" s="250" t="s">
-        <v>466</v>
-      </c>
-      <c r="L21" s="250"/>
-      <c r="M21" s="250"/>
-      <c r="N21" s="250"/>
-      <c r="O21" s="263" t="s">
-        <v>467</v>
-      </c>
-      <c r="P21" s="263"/>
-      <c r="Q21" s="263"/>
-      <c r="R21" s="263"/>
-      <c r="S21" s="263"/>
-      <c r="T21" s="263"/>
-      <c r="U21" s="263"/>
-      <c r="V21" s="263"/>
-      <c r="W21" s="258" t="s">
-        <v>468</v>
-      </c>
-      <c r="X21" s="258"/>
-      <c r="Y21" s="258"/>
-      <c r="Z21" s="258"/>
-      <c r="AA21" s="258"/>
-      <c r="AB21" s="258"/>
-      <c r="AC21" s="258"/>
-      <c r="AD21" s="258"/>
-      <c r="AE21" s="264" t="s">
-        <v>469</v>
-      </c>
-      <c r="AF21" s="264"/>
-      <c r="AG21" s="264"/>
-      <c r="AH21" s="264"/>
-      <c r="AI21" s="264"/>
-      <c r="AJ21" s="264"/>
-      <c r="AK21" s="264"/>
-      <c r="AL21" s="264"/>
+        <v>440</v>
+      </c>
+      <c r="G21" s="264" t="s">
+        <v>441</v>
+      </c>
+      <c r="H21" s="264"/>
+      <c r="I21" s="265" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="265"/>
+      <c r="K21" s="253" t="s">
+        <v>442</v>
+      </c>
+      <c r="L21" s="253"/>
+      <c r="M21" s="253"/>
+      <c r="N21" s="253"/>
+      <c r="O21" s="266" t="s">
+        <v>443</v>
+      </c>
+      <c r="P21" s="266"/>
+      <c r="Q21" s="266"/>
+      <c r="R21" s="266"/>
+      <c r="S21" s="266"/>
+      <c r="T21" s="266"/>
+      <c r="U21" s="266"/>
+      <c r="V21" s="266"/>
+      <c r="W21" s="261" t="s">
+        <v>444</v>
+      </c>
+      <c r="X21" s="261"/>
+      <c r="Y21" s="261"/>
+      <c r="Z21" s="261"/>
+      <c r="AA21" s="261"/>
+      <c r="AB21" s="261"/>
+      <c r="AC21" s="261"/>
+      <c r="AD21" s="261"/>
+      <c r="AE21" s="267" t="s">
+        <v>445</v>
+      </c>
+      <c r="AF21" s="267"/>
+      <c r="AG21" s="267"/>
+      <c r="AH21" s="267"/>
+      <c r="AI21" s="267"/>
+      <c r="AJ21" s="267"/>
+      <c r="AK21" s="267"/>
+      <c r="AL21" s="267"/>
       <c r="AM21" s="122" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="AN21" s="123"/>
       <c r="AO21" s="123"/>
@@ -13503,11 +13492,11 @@
       <c r="E22" s="85"/>
       <c r="F22" s="85"/>
       <c r="G22" s="85" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="H22" s="85"/>
       <c r="I22" s="85" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="J22" s="85"/>
       <c r="K22" s="85"/>
@@ -13569,13 +13558,13 @@
       <c r="E23" s="85"/>
       <c r="F23" s="85"/>
       <c r="G23" s="116" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H23" s="117" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I23" s="117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="117" t="s">
         <v>56</v>
@@ -13676,13 +13665,13 @@
       <c r="R24" s="97"/>
       <c r="S24" s="97"/>
       <c r="T24" s="125" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="U24" s="125" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="V24" s="85" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="W24" s="97"/>
       <c r="X24" s="85"/>
@@ -13746,7 +13735,7 @@
       <c r="T25" s="97"/>
       <c r="U25" s="97"/>
       <c r="V25" s="85" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="W25" s="85"/>
       <c r="X25" s="85"/>
@@ -13856,7 +13845,7 @@
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
       <c r="F27" s="84" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
@@ -13923,13 +13912,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="85" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="H28" s="85">
         <v>3</v>
       </c>
       <c r="I28" s="85" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="J28" s="85"/>
       <c r="K28" s="85"/>
@@ -13993,13 +13982,13 @@
         <v>4</v>
       </c>
       <c r="G29" s="85" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="H29" s="85">
         <v>7</v>
       </c>
       <c r="I29" s="85" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J29" s="85"/>
       <c r="K29" s="85"/>
@@ -14063,13 +14052,13 @@
         <v>8</v>
       </c>
       <c r="G30" s="85" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J30" s="85"/>
       <c r="K30" s="85"/>
@@ -14133,13 +14122,13 @@
         <v>10</v>
       </c>
       <c r="G31" s="85" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="H31" s="85">
         <v>17</v>
       </c>
       <c r="I31" s="85" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="J31" s="85"/>
       <c r="K31" s="85"/>
@@ -14203,13 +14192,13 @@
         <v>18</v>
       </c>
       <c r="G32" s="85" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="H32" s="85" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I32" s="85" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="J32" s="85"/>
       <c r="K32" s="85"/>
@@ -14273,13 +14262,13 @@
         <v>30</v>
       </c>
       <c r="G33" s="85" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="H33" s="85">
         <v>33</v>
       </c>
       <c r="I33" s="85" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="J33" s="85"/>
       <c r="K33" s="85"/>
@@ -14343,13 +14332,13 @@
         <v>34</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="H34" s="85">
         <v>37</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="J34" s="85"/>
       <c r="K34" s="85"/>
@@ -14413,13 +14402,13 @@
         <v>38</v>
       </c>
       <c r="G35" s="85" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="H35" s="85" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="I35" s="85" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="J35" s="85"/>
       <c r="K35" s="85"/>

--- a/doc/tinyvm.xlsx
+++ b/doc/tinyvm.xlsx
@@ -9,23 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="cheatsheet" sheetId="1" r:id="rId1"/>
-    <sheet name="cheatsheet2" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
+    <sheet name="variables+cpu" sheetId="1" r:id="rId1"/>
+    <sheet name="commands" sheetId="7" r:id="rId2"/>
+    <sheet name="tinyos" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="829">
   <si>
     <t>Device</t>
   </si>
@@ -1939,13 +1939,597 @@
   </si>
   <si>
     <t>0xF0026000</t>
+  </si>
+  <si>
+    <t>TRF Format</t>
+  </si>
+  <si>
+    <t>00..03</t>
+  </si>
+  <si>
+    <t>0x7F T R F</t>
+  </si>
+  <si>
+    <t>TRF version</t>
+  </si>
+  <si>
+    <t>CPU version</t>
+  </si>
+  <si>
+    <t>File type (0 = object, 1 = executable, 2 = kernel, 3 = library)</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>08..0B</t>
+  </si>
+  <si>
+    <t>Entry point</t>
+  </si>
+  <si>
+    <t>0C..0F</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Section list (for each one of the 16 entries)</t>
+  </si>
+  <si>
+    <t>Section position (0 = non-existent)</t>
+  </si>
+  <si>
+    <t>04..07</t>
+  </si>
+  <si>
+    <t>Section size</t>
+  </si>
+  <si>
+    <t>Section index</t>
+  </si>
+  <si>
+    <t>9..F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.text </t>
+  </si>
+  <si>
+    <t>Executable code</t>
+  </si>
+  <si>
+    <t>.bss</t>
+  </si>
+  <si>
+    <t>.data</t>
+  </si>
+  <si>
+    <t>.rodata</t>
+  </si>
+  <si>
+    <t>.comment</t>
+  </si>
+  <si>
+    <t>.strtab</t>
+  </si>
+  <si>
+    <t>.symtab</t>
+  </si>
+  <si>
+    <t>.reloc</t>
+  </si>
+  <si>
+    <t>.debug</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>Statically alocated variables</t>
+  </si>
+  <si>
+    <t>Global initialized variables</t>
+  </si>
+  <si>
+    <t>Global constants</t>
+  </si>
+  <si>
+    <t>Symbol names</t>
+  </si>
+  <si>
+    <t>Symbol table</t>
+  </si>
+  <si>
+    <t>Rellocatable sysmbols</t>
+  </si>
+  <si>
+    <t>Debugging information</t>
+  </si>
+  <si>
+    <t>.symtab (each record)</t>
+  </si>
+  <si>
+    <t>Special sections</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Symbol type (0 = global, 1 = local, 2 = extern, 3 = pending)</t>
+  </si>
+  <si>
+    <t>Section (0 = .text, 1 = .bss, 2 = .data, 3 = .rodata)</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>String index</t>
+  </si>
+  <si>
+    <t>String length</t>
+  </si>
+  <si>
+    <t>02..03</t>
+  </si>
+  <si>
+    <t>.relloc</t>
+  </si>
+  <si>
+    <t>Offset in .text</t>
+  </si>
+  <si>
+    <t>Index in symbol table</t>
+  </si>
+  <si>
+    <t>Free text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .entry    main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .section  TEXT</t>
+  </si>
+  <si>
+    <t>main:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    movd      [MMU_MCPY_ORIG], hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    movd      [MMU_MCPY_DEST], [VD_TEXT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    movw      [MMU_MCPY_SZ], 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    movb      [MMU_CPY], 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .section  DATA</t>
+  </si>
+  <si>
+    <t>hello:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .ascii    "Hello!"</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>7F 54 52 46</t>
+  </si>
+  <si>
+    <t>01 01</t>
+  </si>
+  <si>
+    <t>TRF and CPU version</t>
+  </si>
+  <si>
+    <t>Executable</t>
+  </si>
+  <si>
+    <t>00 00 00 00</t>
+  </si>
+  <si>
+    <t>000C</t>
+  </si>
+  <si>
+    <t>90 00 00 00</t>
+  </si>
+  <si>
+    <t>1F 00 00 00</t>
+  </si>
+  <si>
+    <t>001C</t>
+  </si>
+  <si>
+    <t>AF 00 00 00</t>
+  </si>
+  <si>
+    <t>002C</t>
+  </si>
+  <si>
+    <t>06 00 00 00</t>
+  </si>
+  <si>
+    <t>B5 00 00 00</t>
+  </si>
+  <si>
+    <t>16 00 00 00</t>
+  </si>
+  <si>
+    <t>CB 00 00 00</t>
+  </si>
+  <si>
+    <t>003C</t>
+  </si>
+  <si>
+    <t>05 00 00 00</t>
+  </si>
+  <si>
+    <t>D0 00 00 00</t>
+  </si>
+  <si>
+    <t>0C 00 00 00</t>
+  </si>
+  <si>
+    <t>DC 00 00 00</t>
+  </si>
+  <si>
+    <t>004C</t>
+  </si>
+  <si>
+    <t>08 00 00 00</t>
+  </si>
+  <si>
+    <t>00 00 00 00 ...</t>
+  </si>
+  <si>
+    <t>2A 10 00 00 F0 00 00 00 00</t>
+  </si>
+  <si>
+    <t>007D</t>
+  </si>
+  <si>
+    <t>2C 14 00 00 F0 00 00 02 F0</t>
+  </si>
+  <si>
+    <t>2A 18 00 00 F0 06 00</t>
+  </si>
+  <si>
+    <t>22 1A 00 00 F0 01</t>
+  </si>
+  <si>
+    <t>48 65 6C 6C 6F 21</t>
+  </si>
+  <si>
+    <t>00AE</t>
+  </si>
+  <si>
+    <t>68 65 6C 6C 6F</t>
+  </si>
+  <si>
+    <t>00B3</t>
+  </si>
+  <si>
+    <t>00B4</t>
+  </si>
+  <si>
+    <t>00B5</t>
+  </si>
+  <si>
+    <t>00 00</t>
+  </si>
+  <si>
+    <t>00B7</t>
+  </si>
+  <si>
+    <t>00BB</t>
+  </si>
+  <si>
+    <t>00BF</t>
+  </si>
+  <si>
+    <t>00C3</t>
+  </si>
+  <si>
+    <t>.text position</t>
+  </si>
+  <si>
+    <t>.text size</t>
+  </si>
+  <si>
+    <t>.bss position</t>
+  </si>
+  <si>
+    <t>.bss size</t>
+  </si>
+  <si>
+    <t>.data position</t>
+  </si>
+  <si>
+    <t>.data size</t>
+  </si>
+  <si>
+    <t>.rodata position</t>
+  </si>
+  <si>
+    <t>.rodata size</t>
+  </si>
+  <si>
+    <t>.comment position</t>
+  </si>
+  <si>
+    <t>.comment size</t>
+  </si>
+  <si>
+    <t>.strtab position</t>
+  </si>
+  <si>
+    <t>.strtab size</t>
+  </si>
+  <si>
+    <t>.symtab position</t>
+  </si>
+  <si>
+    <t>.symtab size</t>
+  </si>
+  <si>
+    <t>.reloc position</t>
+  </si>
+  <si>
+    <t>.reloc size</t>
+  </si>
+  <si>
+    <t>.debug position</t>
+  </si>
+  <si>
+    <t>.debug size</t>
+  </si>
+  <si>
+    <t>.text: movd [MMU_MCPY_ORIG], hello</t>
+  </si>
+  <si>
+    <t>.text: movd [MMU_MCPY_DEST], [VD_TEXT]</t>
+  </si>
+  <si>
+    <t>.text: movw [MMU_MCPY_SZ], 6</t>
+  </si>
+  <si>
+    <t>.text: movb [MMU_MCPY], 1</t>
+  </si>
+  <si>
+    <t>.rodata: h e l l o !</t>
+  </si>
+  <si>
+    <t>.comment: Generated by tas 1.0.0</t>
+  </si>
+  <si>
+    <t>.strtab: hello</t>
+  </si>
+  <si>
+    <t>.symtab: symbol hello is local</t>
+  </si>
+  <si>
+    <t>.symtab: section .rodata</t>
+  </si>
+  <si>
+    <t>.symtab: unused</t>
+  </si>
+  <si>
+    <t>.symtab: index for string hello is 0x00</t>
+  </si>
+  <si>
+    <t>.symtab: string length hello is 5</t>
+  </si>
+  <si>
+    <t>.relloc: index 0 in symbol table</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>008D</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <r>
+      <t>Example application</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Sudo"/>
+      </rPr>
+      <t xml:space="preserve"> (outdated)</t>
+    </r>
+  </si>
+  <si>
+    <t>.relloc: offset for reference to hello in .text is 0x05</t>
+  </si>
+  <si>
+    <t>Assembler</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>[label:] [operator operands] [; comment]</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>my_label:</t>
+  </si>
+  <si>
+    <t>@my_label:</t>
+  </si>
+  <si>
+    <t>Global label</t>
+  </si>
+  <si>
+    <t>Local label</t>
+  </si>
+  <si>
+    <t>Static label</t>
+  </si>
+  <si>
+    <t>.my_label:</t>
+  </si>
+  <si>
+    <t>Operands</t>
+  </si>
+  <si>
+    <t>Comma separated</t>
+  </si>
+  <si>
+    <t>A, 0x74</t>
+  </si>
+  <si>
+    <t>Decimal numbers</t>
+  </si>
+  <si>
+    <t>Hexadecimal numbers</t>
+  </si>
+  <si>
+    <t>0x4D</t>
+  </si>
+  <si>
+    <t>Binary numbers</t>
+  </si>
+  <si>
+    <t>0b100_1101</t>
+  </si>
+  <si>
+    <t>Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Directives</t>
+  </si>
+  <si>
+    <t>.section</t>
+  </si>
+  <si>
+    <t>Define section (text, data, ...)</t>
+  </si>
+  <si>
+    <t>.db, .dw, .dd</t>
+  </si>
+  <si>
+    <t>.ascii</t>
+  </si>
+  <si>
+    <t>ASCII text (data), non-delimited</t>
+  </si>
+  <si>
+    <t>.asciz</t>
+  </si>
+  <si>
+    <t>ASCII text (data), zero delimited</t>
+  </si>
+  <si>
+    <t>.resb, .resw, .resd</t>
+  </si>
+  <si>
+    <t>Reserve data (.bss section)</t>
+  </si>
+  <si>
+    <t>.entry</t>
+  </si>
+  <si>
+    <t>Define entry point</t>
+  </si>
+  <si>
+    <t>symbol @= value</t>
+  </si>
+  <si>
+    <t>Define local symbol</t>
+  </si>
+  <si>
+    <t>symbol = value</t>
+  </si>
+  <si>
+    <t>Define global symbol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2001,6 +2585,24 @@
       <b/>
       <sz val="6"/>
       <color indexed="55"/>
+      <name val="Sudo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Sudo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Sudo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Sudo"/>
     </font>
   </fonts>
@@ -2150,7 +2752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2829,12 +3431,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3409,6 +4053,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3418,15 +4104,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3451,6 +4128,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3460,15 +4167,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3481,65 +4218,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3586,6 +4269,37 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4666,8 +5380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4743,7 +5457,7 @@
       <c r="P1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="216" t="s">
+      <c r="R1" s="227" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="12" t="s">
@@ -4763,7 +5477,7 @@
       </c>
     </row>
     <row r="2" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="226" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="170" t="s">
@@ -4783,7 +5497,7 @@
       </c>
       <c r="G2" s="173"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="219" t="s">
+      <c r="J2" s="230" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="17" t="s">
@@ -4800,7 +5514,7 @@
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="21"/>
-      <c r="R2" s="216"/>
+      <c r="R2" s="227"/>
       <c r="S2" s="22" t="s">
         <v>29</v>
       </c>
@@ -4818,7 +5532,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="215"/>
+      <c r="A3" s="226"/>
       <c r="B3" s="151" t="s">
         <v>34</v>
       </c>
@@ -4840,7 +5554,7 @@
       <c r="I3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="219"/>
+      <c r="J3" s="230"/>
       <c r="K3" s="30"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
@@ -4851,7 +5565,7 @@
       <c r="P3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="216"/>
+      <c r="R3" s="227"/>
       <c r="S3" s="22" t="s">
         <v>42</v>
       </c>
@@ -4864,12 +5578,12 @@
       <c r="W3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="214" t="s">
+      <c r="X3" s="225" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="215"/>
+      <c r="A4" s="226"/>
       <c r="B4" s="175" t="s">
         <v>46</v>
       </c>
@@ -4891,7 +5605,7 @@
       <c r="I4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="219"/>
+      <c r="J4" s="230"/>
       <c r="K4" s="30"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
@@ -4902,7 +5616,7 @@
       <c r="P4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="216"/>
+      <c r="R4" s="227"/>
       <c r="S4" s="36" t="s">
         <v>53</v>
       </c>
@@ -4915,10 +5629,10 @@
       <c r="W4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="214"/>
+      <c r="X4" s="225"/>
     </row>
     <row r="5" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="226" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="170" t="s">
@@ -4942,7 +5656,7 @@
       <c r="I5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="219"/>
+      <c r="J5" s="230"/>
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
@@ -4953,7 +5667,7 @@
       <c r="P5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="216" t="s">
+      <c r="R5" s="227" t="s">
         <v>64</v>
       </c>
       <c r="S5" s="12" t="s">
@@ -4968,10 +5682,10 @@
       <c r="W5" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="X5" s="214"/>
+      <c r="X5" s="225"/>
     </row>
     <row r="6" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
+      <c r="A6" s="226"/>
       <c r="B6" s="151" t="s">
         <v>68</v>
       </c>
@@ -4993,7 +5707,7 @@
       <c r="I6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="217" t="s">
+      <c r="J6" s="228" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="41" t="s">
@@ -5010,7 +5724,7 @@
       <c r="P6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="216"/>
+      <c r="R6" s="227"/>
       <c r="S6" s="22" t="s">
         <v>74</v>
       </c>
@@ -5023,10 +5737,10 @@
       <c r="W6" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="214"/>
+      <c r="X6" s="225"/>
     </row>
     <row r="7" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="215"/>
+      <c r="A7" s="226"/>
       <c r="B7" s="151" t="s">
         <v>78</v>
       </c>
@@ -5048,7 +5762,7 @@
       <c r="I7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="217"/>
+      <c r="J7" s="228"/>
       <c r="K7" s="41" t="s">
         <v>80</v>
       </c>
@@ -5063,7 +5777,7 @@
       <c r="P7" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="R7" s="216"/>
+      <c r="R7" s="227"/>
       <c r="S7" s="22" t="s">
         <v>84</v>
       </c>
@@ -5076,10 +5790,10 @@
       <c r="W7" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="214"/>
+      <c r="X7" s="225"/>
     </row>
     <row r="8" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="215"/>
+      <c r="A8" s="226"/>
       <c r="B8" s="151" t="s">
         <v>88</v>
       </c>
@@ -5101,7 +5815,7 @@
       <c r="I8" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="217"/>
+      <c r="J8" s="228"/>
       <c r="K8" s="41" t="s">
         <v>91</v>
       </c>
@@ -5116,7 +5830,7 @@
       <c r="P8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="216"/>
+      <c r="R8" s="227"/>
       <c r="S8" s="22" t="s">
         <v>95</v>
       </c>
@@ -5129,10 +5843,10 @@
       <c r="W8" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="X8" s="214"/>
+      <c r="X8" s="225"/>
     </row>
     <row r="9" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="215"/>
+      <c r="A9" s="226"/>
       <c r="B9" s="151" t="s">
         <v>99</v>
       </c>
@@ -5152,7 +5866,7 @@
       <c r="I9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="218" t="s">
+      <c r="J9" s="229" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="41" t="s">
@@ -5169,7 +5883,7 @@
       <c r="P9" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="216"/>
+      <c r="R9" s="227"/>
       <c r="S9" s="22" t="s">
         <v>104</v>
       </c>
@@ -5182,7 +5896,7 @@
       <c r="W9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="X9" s="214"/>
+      <c r="X9" s="225"/>
       <c r="AA9" s="137"/>
       <c r="AB9" s="137"/>
       <c r="AC9" s="137"/>
@@ -5217,7 +5931,7 @@
       <c r="BF9" s="137"/>
     </row>
     <row r="10" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="215"/>
+      <c r="A10" s="226"/>
       <c r="B10" s="151" t="s">
         <v>108</v>
       </c>
@@ -5239,7 +5953,7 @@
       <c r="I10" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="229"/>
       <c r="K10" s="41" t="s">
         <v>111</v>
       </c>
@@ -5254,7 +5968,7 @@
       <c r="P10" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="R10" s="216"/>
+      <c r="R10" s="227"/>
       <c r="S10" s="36" t="s">
         <v>114</v>
       </c>
@@ -5267,7 +5981,7 @@
       <c r="W10" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="X10" s="214"/>
+      <c r="X10" s="225"/>
       <c r="AA10" s="137"/>
       <c r="AB10" s="137"/>
       <c r="AC10" s="137"/>
@@ -5302,7 +6016,7 @@
       <c r="BF10" s="137"/>
     </row>
     <row r="11" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="215"/>
+      <c r="A11" s="226"/>
       <c r="B11" s="175" t="s">
         <v>118</v>
       </c>
@@ -5324,7 +6038,7 @@
       <c r="I11" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="229"/>
       <c r="K11" s="45" t="s">
         <v>120</v>
       </c>
@@ -5339,7 +6053,7 @@
       <c r="P11" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="R11" s="216" t="s">
+      <c r="R11" s="227" t="s">
         <v>124</v>
       </c>
       <c r="S11" s="12" t="s">
@@ -5354,7 +6068,7 @@
       <c r="W11" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="X11" s="214"/>
+      <c r="X11" s="225"/>
       <c r="AA11" s="137"/>
       <c r="AB11" s="137"/>
       <c r="AC11" s="137"/>
@@ -5389,7 +6103,7 @@
       <c r="BF11" s="137"/>
     </row>
     <row r="12" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="226" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="170" t="s">
@@ -5418,7 +6132,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="R12" s="216"/>
+      <c r="R12" s="227"/>
       <c r="S12" s="22" t="s">
         <v>133</v>
       </c>
@@ -5431,7 +6145,7 @@
       <c r="W12" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="X12" s="214"/>
+      <c r="X12" s="225"/>
       <c r="AA12" s="137"/>
       <c r="AB12" s="137"/>
       <c r="AC12" s="137"/>
@@ -5466,7 +6180,7 @@
       <c r="BF12" s="137"/>
     </row>
     <row r="13" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="215"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="151" t="s">
         <v>137</v>
       </c>
@@ -5505,7 +6219,7 @@
         <v>142</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="R13" s="216"/>
+      <c r="R13" s="227"/>
       <c r="S13" s="22" t="s">
         <v>143</v>
       </c>
@@ -5518,7 +6232,7 @@
       <c r="W13" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="X13" s="214"/>
+      <c r="X13" s="225"/>
       <c r="AA13" s="137"/>
       <c r="AB13" s="137"/>
       <c r="AC13" s="137"/>
@@ -5553,7 +6267,7 @@
       <c r="BF13" s="137"/>
     </row>
     <row r="14" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="215"/>
+      <c r="A14" s="226"/>
       <c r="B14" s="151" t="s">
         <v>147</v>
       </c>
@@ -5590,7 +6304,7 @@
         <v>152</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="R14" s="216"/>
+      <c r="R14" s="227"/>
       <c r="S14" s="22" t="s">
         <v>153</v>
       </c>
@@ -5640,7 +6354,7 @@
       <c r="BF14" s="137"/>
     </row>
     <row r="15" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="215"/>
+      <c r="A15" s="226"/>
       <c r="B15" s="151" t="s">
         <v>158</v>
       </c>
@@ -5677,7 +6391,7 @@
         <v>163</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="R15" s="216"/>
+      <c r="R15" s="227"/>
       <c r="S15" s="22" t="s">
         <v>164</v>
       </c>
@@ -5727,7 +6441,7 @@
       <c r="BF15" s="137"/>
     </row>
     <row r="16" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="215"/>
+      <c r="A16" s="226"/>
       <c r="B16" s="151" t="s">
         <v>169</v>
       </c>
@@ -5763,7 +6477,7 @@
         <v>174</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="R16" s="216"/>
+      <c r="R16" s="227"/>
       <c r="S16" s="22" t="s">
         <v>175</v>
       </c>
@@ -5813,7 +6527,7 @@
       <c r="BF16" s="137"/>
     </row>
     <row r="17" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="215"/>
+      <c r="A17" s="226"/>
       <c r="B17" s="151" t="s">
         <v>180</v>
       </c>
@@ -5845,7 +6559,7 @@
       <c r="N17" s="52"/>
       <c r="O17" s="53"/>
       <c r="P17" s="6"/>
-      <c r="R17" s="216"/>
+      <c r="R17" s="227"/>
       <c r="S17" s="22" t="s">
         <v>184</v>
       </c>
@@ -5895,7 +6609,7 @@
       <c r="BF17" s="137"/>
     </row>
     <row r="18" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="211"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="152" t="s">
         <v>189</v>
       </c>
@@ -5927,7 +6641,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
       <c r="P18" s="6"/>
-      <c r="R18" s="216"/>
+      <c r="R18" s="227"/>
       <c r="S18" s="36" t="s">
         <v>193</v>
       </c>
@@ -5968,7 +6682,7 @@
       <c r="BF18" s="137"/>
     </row>
     <row r="19" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="208" t="s">
+      <c r="A19" s="222" t="s">
         <v>195</v>
       </c>
       <c r="B19" s="170" t="s">
@@ -6000,7 +6714,7 @@
       <c r="N19" s="46"/>
       <c r="O19" s="57"/>
       <c r="P19" s="6"/>
-      <c r="R19" s="216" t="s">
+      <c r="R19" s="227" t="s">
         <v>200</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -6053,7 +6767,7 @@
       <c r="BF19" s="137"/>
     </row>
     <row r="20" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="209"/>
+      <c r="A20" s="223"/>
       <c r="B20" s="151" t="s">
         <v>205</v>
       </c>
@@ -6073,7 +6787,7 @@
         <v>31</v>
       </c>
       <c r="P20" s="6"/>
-      <c r="R20" s="216"/>
+      <c r="R20" s="227"/>
       <c r="S20" s="22" t="s">
         <v>207</v>
       </c>
@@ -6124,7 +6838,7 @@
       <c r="BF20" s="137"/>
     </row>
     <row r="21" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="209"/>
+      <c r="A21" s="223"/>
       <c r="B21" s="151" t="s">
         <v>211</v>
       </c>
@@ -6162,7 +6876,7 @@
         <v>142</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="R21" s="216"/>
+      <c r="R21" s="227"/>
       <c r="S21" s="22" t="s">
         <v>214</v>
       </c>
@@ -6213,7 +6927,7 @@
       <c r="BF21" s="137"/>
     </row>
     <row r="22" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="209"/>
+      <c r="A22" s="223"/>
       <c r="B22" s="151" t="s">
         <v>218</v>
       </c>
@@ -6249,7 +6963,7 @@
         <v>223</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="R22" s="216"/>
+      <c r="R22" s="227"/>
       <c r="S22" s="22" t="s">
         <v>224</v>
       </c>
@@ -6300,7 +7014,7 @@
       <c r="BF22" s="137"/>
     </row>
     <row r="23" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="209"/>
+      <c r="A23" s="223"/>
       <c r="B23" s="151" t="s">
         <v>228</v>
       </c>
@@ -6336,7 +7050,7 @@
         <v>234</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="R23" s="216"/>
+      <c r="R23" s="227"/>
       <c r="S23" s="22" t="s">
         <v>235</v>
       </c>
@@ -6387,7 +7101,7 @@
       <c r="BF23" s="137"/>
     </row>
     <row r="24" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="209"/>
+      <c r="A24" s="223"/>
       <c r="B24" s="151" t="s">
         <v>239</v>
       </c>
@@ -6423,7 +7137,7 @@
         <v>244</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="R24" s="216"/>
+      <c r="R24" s="227"/>
       <c r="S24" s="22" t="s">
         <v>245</v>
       </c>
@@ -6474,7 +7188,7 @@
       <c r="BF24" s="137"/>
     </row>
     <row r="25" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="209"/>
+      <c r="A25" s="223"/>
       <c r="B25" s="151" t="s">
         <v>249</v>
       </c>
@@ -6508,7 +7222,7 @@
         <v>254</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="R25" s="216"/>
+      <c r="R25" s="227"/>
       <c r="S25" s="22" t="s">
         <v>255</v>
       </c>
@@ -6559,7 +7273,7 @@
       <c r="BF25" s="137"/>
     </row>
     <row r="26" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="209"/>
+      <c r="A26" s="223"/>
       <c r="B26" s="151" t="s">
         <v>259</v>
       </c>
@@ -6593,7 +7307,7 @@
         <v>264</v>
       </c>
       <c r="P26" s="6"/>
-      <c r="R26" s="216"/>
+      <c r="R26" s="227"/>
       <c r="S26" s="22" t="s">
         <v>265</v>
       </c>
@@ -6644,7 +7358,7 @@
       <c r="BF26" s="137"/>
     </row>
     <row r="27" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="209"/>
+      <c r="A27" s="223"/>
       <c r="B27" s="151" t="s">
         <v>269</v>
       </c>
@@ -6678,7 +7392,7 @@
         <v>274</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="R27" s="216"/>
+      <c r="R27" s="227"/>
       <c r="S27" s="22" t="s">
         <v>275</v>
       </c>
@@ -6729,7 +7443,7 @@
       <c r="BF27" s="137"/>
     </row>
     <row r="28" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="210"/>
+      <c r="A28" s="224"/>
       <c r="B28" s="175" t="s">
         <v>279</v>
       </c>
@@ -6757,7 +7471,7 @@
       <c r="N28" s="31"/>
       <c r="O28" s="56"/>
       <c r="P28" s="6"/>
-      <c r="R28" s="216"/>
+      <c r="R28" s="227"/>
       <c r="S28" s="22" t="s">
         <v>282</v>
       </c>
@@ -6802,7 +7516,7 @@
       <c r="BF28" s="137"/>
     </row>
     <row r="29" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="211" t="s">
+      <c r="A29" s="219" t="s">
         <v>467</v>
       </c>
       <c r="B29" s="170" t="s">
@@ -6834,7 +7548,7 @@
       <c r="N29" s="46"/>
       <c r="O29" s="57"/>
       <c r="P29" s="6"/>
-      <c r="R29" s="216"/>
+      <c r="R29" s="227"/>
       <c r="S29" s="22" t="s">
         <v>286</v>
       </c>
@@ -6876,7 +7590,7 @@
       <c r="BF29" s="137"/>
     </row>
     <row r="30" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="212"/>
+      <c r="A30" s="220"/>
       <c r="B30" s="151" t="s">
         <v>469</v>
       </c>
@@ -6897,7 +7611,7 @@
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="216"/>
+      <c r="R30" s="227"/>
       <c r="S30" s="22" t="s">
         <v>288</v>
       </c>
@@ -6939,7 +7653,7 @@
       <c r="BF30" s="137"/>
     </row>
     <row r="31" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="212"/>
+      <c r="A31" s="220"/>
       <c r="B31" s="151" t="s">
         <v>470</v>
       </c>
@@ -6974,7 +7688,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="6"/>
-      <c r="R31" s="216"/>
+      <c r="R31" s="227"/>
       <c r="S31" s="66" t="s">
         <v>295</v>
       </c>
@@ -7016,7 +7730,7 @@
       <c r="BF31" s="137"/>
     </row>
     <row r="32" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="212"/>
+      <c r="A32" s="220"/>
       <c r="B32" s="151" t="s">
         <v>471</v>
       </c>
@@ -7047,7 +7761,7 @@
         <v>301</v>
       </c>
       <c r="Q32" s="6"/>
-      <c r="R32" s="216"/>
+      <c r="R32" s="227"/>
       <c r="S32" s="22" t="s">
         <v>302</v>
       </c>
@@ -7089,7 +7803,7 @@
       <c r="BF32" s="137"/>
     </row>
     <row r="33" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="212"/>
+      <c r="A33" s="220"/>
       <c r="B33" s="151" t="s">
         <v>477</v>
       </c>
@@ -7120,7 +7834,7 @@
         <v>305</v>
       </c>
       <c r="Q33" s="6"/>
-      <c r="R33" s="216"/>
+      <c r="R33" s="227"/>
       <c r="S33" s="67" t="s">
         <v>306</v>
       </c>
@@ -7162,7 +7876,7 @@
       <c r="BF33" s="137"/>
     </row>
     <row r="34" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="212"/>
+      <c r="A34" s="220"/>
       <c r="B34" s="151" t="s">
         <v>508</v>
       </c>
@@ -7193,7 +7907,7 @@
         <v>309</v>
       </c>
       <c r="O34" s="6"/>
-      <c r="R34" s="216"/>
+      <c r="R34" s="227"/>
       <c r="S34" s="36" t="s">
         <v>310</v>
       </c>
@@ -7235,7 +7949,7 @@
       <c r="BF34" s="137"/>
     </row>
     <row r="35" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="212"/>
+      <c r="A35" s="220"/>
       <c r="B35" s="152" t="s">
         <v>510</v>
       </c>
@@ -7264,7 +7978,7 @@
         <v>314</v>
       </c>
       <c r="O35" s="6"/>
-      <c r="R35" s="220" t="s">
+      <c r="R35" s="231" t="s">
         <v>315</v>
       </c>
       <c r="S35" s="69" t="s">
@@ -7308,7 +8022,7 @@
       <c r="BF35" s="137"/>
     </row>
     <row r="36" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
+      <c r="A36" s="221"/>
       <c r="B36" s="175" t="s">
         <v>512</v>
       </c>
@@ -7337,7 +8051,7 @@
         <v>319</v>
       </c>
       <c r="O36" s="6"/>
-      <c r="R36" s="220"/>
+      <c r="R36" s="231"/>
       <c r="S36" s="22" t="s">
         <v>320</v>
       </c>
@@ -7379,7 +8093,7 @@
       <c r="BF36" s="137"/>
     </row>
     <row r="37" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="211" t="s">
+      <c r="A37" s="219" t="s">
         <v>514</v>
       </c>
       <c r="B37" s="170" t="s">
@@ -7412,7 +8126,7 @@
         <v>325</v>
       </c>
       <c r="O37" s="6"/>
-      <c r="R37" s="220"/>
+      <c r="R37" s="231"/>
       <c r="S37" s="22" t="s">
         <v>326</v>
       </c>
@@ -7454,7 +8168,7 @@
       <c r="BF37" s="137"/>
     </row>
     <row r="38" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="212"/>
+      <c r="A38" s="220"/>
       <c r="B38" s="151" t="s">
         <v>516</v>
       </c>
@@ -7485,7 +8199,7 @@
         <v>69</v>
       </c>
       <c r="O38" s="6"/>
-      <c r="R38" s="220"/>
+      <c r="R38" s="231"/>
       <c r="S38" s="22" t="s">
         <v>328</v>
       </c>
@@ -7527,7 +8241,7 @@
       <c r="BF38" s="137"/>
     </row>
     <row r="39" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="212"/>
+      <c r="A39" s="220"/>
       <c r="B39" s="151" t="s">
         <v>517</v>
       </c>
@@ -7558,7 +8272,7 @@
         <v>331</v>
       </c>
       <c r="O39" s="6"/>
-      <c r="R39" s="220"/>
+      <c r="R39" s="231"/>
       <c r="S39" s="22" t="s">
         <v>332</v>
       </c>
@@ -7568,7 +8282,7 @@
       <c r="U39" s="58"/>
     </row>
     <row r="40" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="212"/>
+      <c r="A40" s="220"/>
       <c r="B40" s="151" t="s">
         <v>518</v>
       </c>
@@ -7599,7 +8313,7 @@
         <v>335</v>
       </c>
       <c r="O40" s="6"/>
-      <c r="R40" s="220"/>
+      <c r="R40" s="231"/>
       <c r="S40" s="22" t="s">
         <v>336</v>
       </c>
@@ -7609,7 +8323,7 @@
       <c r="U40" s="58"/>
     </row>
     <row r="41" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="212"/>
+      <c r="A41" s="220"/>
       <c r="B41" s="151" t="s">
         <v>522</v>
       </c>
@@ -7638,7 +8352,7 @@
         <v>339</v>
       </c>
       <c r="O41" s="6"/>
-      <c r="R41" s="220"/>
+      <c r="R41" s="231"/>
       <c r="S41" s="22" t="s">
         <v>340</v>
       </c>
@@ -7648,7 +8362,7 @@
       <c r="U41" s="58"/>
     </row>
     <row r="42" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="212"/>
+      <c r="A42" s="220"/>
       <c r="B42" s="151" t="s">
         <v>524</v>
       </c>
@@ -7677,7 +8391,7 @@
         <v>71</v>
       </c>
       <c r="O42" s="6"/>
-      <c r="R42" s="220"/>
+      <c r="R42" s="231"/>
       <c r="S42" s="22" t="s">
         <v>344</v>
       </c>
@@ -7687,7 +8401,7 @@
       <c r="U42" s="58"/>
     </row>
     <row r="43" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="212"/>
+      <c r="A43" s="220"/>
       <c r="B43" s="151" t="s">
         <v>529</v>
       </c>
@@ -7715,7 +8429,7 @@
       <c r="N43" s="33">
         <v>73</v>
       </c>
-      <c r="R43" s="221"/>
+      <c r="R43" s="232"/>
       <c r="S43" s="126" t="s">
         <v>346</v>
       </c>
@@ -7725,7 +8439,7 @@
       <c r="U43" s="58"/>
     </row>
     <row r="44" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="213"/>
+      <c r="A44" s="221"/>
       <c r="B44" s="175" t="s">
         <v>527</v>
       </c>
@@ -7763,7 +8477,7 @@
       <c r="U44" s="58"/>
     </row>
     <row r="45" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="211" t="s">
+      <c r="A45" s="219" t="s">
         <v>530</v>
       </c>
       <c r="B45" s="170" t="s">
@@ -7799,7 +8513,7 @@
       <c r="U45" s="58"/>
     </row>
     <row r="46" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="212"/>
+      <c r="A46" s="220"/>
       <c r="B46" s="151" t="s">
         <v>533</v>
       </c>
@@ -7831,7 +8545,7 @@
       <c r="U46" s="58"/>
     </row>
     <row r="47" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="212"/>
+      <c r="A47" s="220"/>
       <c r="B47" s="151" t="s">
         <v>534</v>
       </c>
@@ -7863,7 +8577,7 @@
       <c r="U47" s="58"/>
     </row>
     <row r="48" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="213"/>
+      <c r="A48" s="221"/>
       <c r="B48" s="175" t="s">
         <v>531</v>
       </c>
@@ -7886,7 +8600,7 @@
       <c r="U48" s="58"/>
     </row>
     <row r="49" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="211" t="s">
+      <c r="A49" s="219" t="s">
         <v>543</v>
       </c>
       <c r="B49" s="170" t="s">
@@ -7928,7 +8642,7 @@
       <c r="U49" s="58"/>
     </row>
     <row r="50" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="212"/>
+      <c r="A50" s="220"/>
       <c r="B50" s="151" t="s">
         <v>545</v>
       </c>
@@ -7962,7 +8676,7 @@
       <c r="U50" s="58"/>
     </row>
     <row r="51" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="212"/>
+      <c r="A51" s="220"/>
       <c r="B51" s="151" t="s">
         <v>546</v>
       </c>
@@ -7996,7 +8710,7 @@
       <c r="U51" s="58"/>
     </row>
     <row r="52" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="212"/>
+      <c r="A52" s="220"/>
       <c r="B52" s="183" t="s">
         <v>551</v>
       </c>
@@ -8030,7 +8744,7 @@
       <c r="U52" s="58"/>
     </row>
     <row r="53" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="212"/>
+      <c r="A53" s="220"/>
       <c r="B53" s="22" t="s">
         <v>552</v>
       </c>
@@ -8062,7 +8776,7 @@
       <c r="U53" s="58"/>
     </row>
     <row r="54" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="212"/>
+      <c r="A54" s="220"/>
       <c r="B54" s="185" t="s">
         <v>555</v>
       </c>
@@ -8092,7 +8806,7 @@
       <c r="U54" s="58"/>
     </row>
     <row r="55" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="212"/>
+      <c r="A55" s="220"/>
       <c r="B55" s="185" t="s">
         <v>556</v>
       </c>
@@ -8122,7 +8836,7 @@
       <c r="U55" s="58"/>
     </row>
     <row r="56" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="212"/>
+      <c r="A56" s="220"/>
       <c r="B56" s="185" t="s">
         <v>579</v>
       </c>
@@ -8152,7 +8866,7 @@
       <c r="U56" s="58"/>
     </row>
     <row r="57" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="213"/>
+      <c r="A57" s="221"/>
       <c r="B57" s="36" t="s">
         <v>560</v>
       </c>
@@ -8226,6 +8940,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="A29:A36"/>
     <mergeCell ref="A37:A44"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="A49:A57"/>
@@ -8241,8 +8957,6 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="R19:R34"/>
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="A29:A36"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -8253,9 +8967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C37"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8288,52 +9000,52 @@
       <c r="F1" s="168" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="208" t="s">
+      <c r="H1" s="222" t="s">
         <v>577</v>
       </c>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="240"/>
-      <c r="T1" s="240"/>
-      <c r="U1" s="240"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="240"/>
-      <c r="AB1" s="240"/>
-      <c r="AC1" s="240"/>
-      <c r="AD1" s="240"/>
-      <c r="AE1" s="240"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="240"/>
-      <c r="AH1" s="240"/>
-      <c r="AI1" s="240"/>
-      <c r="AJ1" s="240"/>
-      <c r="AK1" s="240"/>
-      <c r="AL1" s="240"/>
-      <c r="AM1" s="241"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="247"/>
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="247"/>
+      <c r="AD1" s="247"/>
+      <c r="AE1" s="247"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="247"/>
+      <c r="AH1" s="247"/>
+      <c r="AI1" s="247"/>
+      <c r="AJ1" s="247"/>
+      <c r="AK1" s="247"/>
+      <c r="AL1" s="247"/>
+      <c r="AM1" s="248"/>
     </row>
     <row r="2" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="233" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="237" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="236" t="s">
+      <c r="C2" s="237" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="250" t="s">
+      <c r="D2" s="257" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="12">
@@ -8440,10 +9152,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="234"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="251"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="258"/>
       <c r="E3" s="22">
         <v>1</v>
       </c>
@@ -8453,47 +9165,47 @@
       <c r="H3" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="244" t="s">
+      <c r="I3" s="251" t="s">
         <v>507</v>
       </c>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="242" t="s">
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="249" t="s">
         <v>382</v>
       </c>
-      <c r="S3" s="242"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="242"/>
-      <c r="AC3" s="242"/>
-      <c r="AD3" s="242"/>
-      <c r="AE3" s="242"/>
-      <c r="AF3" s="242"/>
-      <c r="AG3" s="242"/>
-      <c r="AH3" s="242"/>
-      <c r="AI3" s="242"/>
-      <c r="AJ3" s="242"/>
-      <c r="AK3" s="242"/>
-      <c r="AL3" s="242"/>
-      <c r="AM3" s="243"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="249"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="249"/>
+      <c r="AD3" s="249"/>
+      <c r="AE3" s="249"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="249"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="249"/>
+      <c r="AJ3" s="249"/>
+      <c r="AK3" s="249"/>
+      <c r="AL3" s="249"/>
+      <c r="AM3" s="250"/>
     </row>
     <row r="4" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="234"/>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="251"/>
+      <c r="A4" s="235"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="258"/>
       <c r="E4" s="22">
         <v>2</v>
       </c>
@@ -8508,10 +9220,10 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="234"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="251"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="258"/>
       <c r="E5" s="22">
         <v>3</v>
       </c>
@@ -8520,10 +9232,10 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="234"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="251"/>
+      <c r="A6" s="235"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="258"/>
       <c r="E6" s="22">
         <v>4</v>
       </c>
@@ -8532,14 +9244,14 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="234"/>
-      <c r="B7" s="237" t="s">
+      <c r="A7" s="235"/>
+      <c r="B7" s="238" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="237" t="s">
+      <c r="C7" s="238" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="251" t="s">
+      <c r="D7" s="258" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="22">
@@ -8548,46 +9260,46 @@
       <c r="F7" s="154" t="s">
         <v>299</v>
       </c>
-      <c r="H7" s="208" t="s">
+      <c r="H7" s="222" t="s">
         <v>510</v>
       </c>
-      <c r="I7" s="240"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="240"/>
-      <c r="N7" s="240"/>
-      <c r="O7" s="240"/>
-      <c r="P7" s="240"/>
-      <c r="Q7" s="240"/>
-      <c r="R7" s="240"/>
-      <c r="S7" s="240"/>
-      <c r="T7" s="240"/>
-      <c r="U7" s="240"/>
-      <c r="V7" s="240"/>
-      <c r="W7" s="240"/>
-      <c r="X7" s="240"/>
-      <c r="Y7" s="240"/>
-      <c r="Z7" s="240"/>
-      <c r="AA7" s="240"/>
-      <c r="AB7" s="240"/>
-      <c r="AC7" s="240"/>
-      <c r="AD7" s="240"/>
-      <c r="AE7" s="240"/>
-      <c r="AF7" s="240"/>
-      <c r="AG7" s="240"/>
-      <c r="AH7" s="240"/>
-      <c r="AI7" s="240"/>
-      <c r="AJ7" s="240"/>
-      <c r="AK7" s="240"/>
-      <c r="AL7" s="240"/>
-      <c r="AM7" s="241"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="247"/>
+      <c r="N7" s="247"/>
+      <c r="O7" s="247"/>
+      <c r="P7" s="247"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="247"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="247"/>
+      <c r="X7" s="247"/>
+      <c r="Y7" s="247"/>
+      <c r="Z7" s="247"/>
+      <c r="AA7" s="247"/>
+      <c r="AB7" s="247"/>
+      <c r="AC7" s="247"/>
+      <c r="AD7" s="247"/>
+      <c r="AE7" s="247"/>
+      <c r="AF7" s="247"/>
+      <c r="AG7" s="247"/>
+      <c r="AH7" s="247"/>
+      <c r="AI7" s="247"/>
+      <c r="AJ7" s="247"/>
+      <c r="AK7" s="247"/>
+      <c r="AL7" s="247"/>
+      <c r="AM7" s="248"/>
     </row>
     <row r="8" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="234"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="251"/>
+      <c r="A8" s="235"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="258"/>
       <c r="E8" s="22">
         <v>1</v>
       </c>
@@ -8692,10 +9404,10 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="234"/>
-      <c r="B9" s="237"/>
-      <c r="C9" s="237"/>
-      <c r="D9" s="251"/>
+      <c r="A9" s="235"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="258"/>
       <c r="E9" s="22">
         <v>2</v>
       </c>
@@ -8714,44 +9426,44 @@
       <c r="K9" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="247" t="s">
+      <c r="L9" s="254" t="s">
         <v>507</v>
       </c>
-      <c r="M9" s="248"/>
-      <c r="N9" s="249"/>
-      <c r="O9" s="245" t="s">
+      <c r="M9" s="255"/>
+      <c r="N9" s="256"/>
+      <c r="O9" s="252" t="s">
         <v>502</v>
       </c>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="245"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="245"/>
-      <c r="U9" s="245"/>
-      <c r="V9" s="245"/>
-      <c r="W9" s="245"/>
-      <c r="X9" s="245"/>
-      <c r="Y9" s="245"/>
-      <c r="Z9" s="245"/>
-      <c r="AA9" s="245"/>
-      <c r="AB9" s="245"/>
-      <c r="AC9" s="245"/>
-      <c r="AD9" s="245"/>
-      <c r="AE9" s="245"/>
-      <c r="AF9" s="245"/>
-      <c r="AG9" s="245"/>
-      <c r="AH9" s="245"/>
-      <c r="AI9" s="245"/>
-      <c r="AJ9" s="245"/>
-      <c r="AK9" s="245"/>
-      <c r="AL9" s="245"/>
-      <c r="AM9" s="246"/>
+      <c r="P9" s="252"/>
+      <c r="Q9" s="252"/>
+      <c r="R9" s="252"/>
+      <c r="S9" s="252"/>
+      <c r="T9" s="252"/>
+      <c r="U9" s="252"/>
+      <c r="V9" s="252"/>
+      <c r="W9" s="252"/>
+      <c r="X9" s="252"/>
+      <c r="Y9" s="252"/>
+      <c r="Z9" s="252"/>
+      <c r="AA9" s="252"/>
+      <c r="AB9" s="252"/>
+      <c r="AC9" s="252"/>
+      <c r="AD9" s="252"/>
+      <c r="AE9" s="252"/>
+      <c r="AF9" s="252"/>
+      <c r="AG9" s="252"/>
+      <c r="AH9" s="252"/>
+      <c r="AI9" s="252"/>
+      <c r="AJ9" s="252"/>
+      <c r="AK9" s="252"/>
+      <c r="AL9" s="252"/>
+      <c r="AM9" s="253"/>
     </row>
     <row r="10" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="234"/>
-      <c r="B10" s="237"/>
-      <c r="C10" s="237"/>
-      <c r="D10" s="251"/>
+      <c r="A10" s="235"/>
+      <c r="B10" s="238"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="258"/>
       <c r="E10" s="22">
         <v>3</v>
       </c>
@@ -8796,10 +9508,10 @@
       <c r="AM10" s="137"/>
     </row>
     <row r="11" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="234"/>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="251"/>
+      <c r="A11" s="235"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="258"/>
       <c r="E11" s="22">
         <v>4</v>
       </c>
@@ -8844,7 +9556,7 @@
       <c r="AM11" s="137"/>
     </row>
     <row r="12" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="233"/>
+      <c r="A12" s="234"/>
       <c r="B12" s="36" t="s">
         <v>342</v>
       </c>
@@ -8898,7 +9610,7 @@
       <c r="AM12" s="137"/>
     </row>
     <row r="13" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="243" t="s">
         <v>543</v>
       </c>
       <c r="B13" s="170" t="s">
@@ -8954,14 +9666,14 @@
       <c r="AM13" s="137"/>
     </row>
     <row r="14" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="223"/>
-      <c r="B14" s="225" t="s">
+      <c r="A14" s="244"/>
+      <c r="B14" s="240" t="s">
         <v>580</v>
       </c>
-      <c r="C14" s="225" t="s">
+      <c r="C14" s="240" t="s">
         <v>581</v>
       </c>
-      <c r="D14" s="228" t="s">
+      <c r="D14" s="259" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="22">
@@ -8972,10 +9684,10 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="223"/>
-      <c r="B15" s="226"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="229"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="260"/>
       <c r="E15" s="22">
         <v>1</v>
       </c>
@@ -8984,10 +9696,10 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="223"/>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="231"/>
+      <c r="A16" s="244"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="262"/>
       <c r="E16" s="22">
         <v>2</v>
       </c>
@@ -8996,14 +9708,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="223"/>
-      <c r="B17" s="225" t="s">
+      <c r="A17" s="244"/>
+      <c r="B17" s="240" t="s">
         <v>583</v>
       </c>
-      <c r="C17" s="225" t="s">
+      <c r="C17" s="240" t="s">
         <v>584</v>
       </c>
-      <c r="D17" s="228" t="s">
+      <c r="D17" s="259" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="22">
@@ -9014,10 +9726,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="223"/>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="231"/>
+      <c r="A18" s="244"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="262"/>
       <c r="E18" s="22">
         <v>1</v>
       </c>
@@ -9026,14 +9738,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="223"/>
-      <c r="B19" s="225" t="s">
+      <c r="A19" s="244"/>
+      <c r="B19" s="240" t="s">
         <v>569</v>
       </c>
-      <c r="C19" s="225" t="s">
+      <c r="C19" s="240" t="s">
         <v>570</v>
       </c>
-      <c r="D19" s="228" t="s">
+      <c r="D19" s="259" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="22">
@@ -9044,10 +9756,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="223"/>
-      <c r="B20" s="226"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="229"/>
+      <c r="A20" s="244"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="260"/>
       <c r="E20" s="22">
         <v>1</v>
       </c>
@@ -9056,10 +9768,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="223"/>
-      <c r="B21" s="226"/>
-      <c r="C21" s="226"/>
-      <c r="D21" s="229"/>
+      <c r="A21" s="244"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="260"/>
       <c r="E21" s="22">
         <v>2</v>
       </c>
@@ -9068,10 +9780,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="223"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="229"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="260"/>
       <c r="E22" s="22">
         <v>3</v>
       </c>
@@ -9080,10 +9792,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="223"/>
-      <c r="B23" s="226"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="229"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="260"/>
       <c r="E23" s="22">
         <v>4</v>
       </c>
@@ -9092,10 +9804,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="223"/>
-      <c r="B24" s="226"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="229"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="260"/>
       <c r="E24" s="22">
         <v>5</v>
       </c>
@@ -9104,10 +9816,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="224"/>
-      <c r="B25" s="227"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="230"/>
+      <c r="A25" s="245"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="261"/>
       <c r="E25" s="36">
         <v>6</v>
       </c>
@@ -9158,7 +9870,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="238" t="s">
+      <c r="A38" s="239" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -9172,7 +9884,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="238"/>
+      <c r="A39" s="239"/>
       <c r="B39" s="22" t="s">
         <v>354</v>
       </c>
@@ -9184,7 +9896,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="238"/>
+      <c r="A40" s="239"/>
       <c r="B40" s="36" t="s">
         <v>358</v>
       </c>
@@ -9196,7 +9908,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="238" t="s">
+      <c r="A41" s="239" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -9210,7 +9922,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="238"/>
+      <c r="A42" s="239"/>
       <c r="B42" s="22" t="s">
         <v>363</v>
       </c>
@@ -9222,7 +9934,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="222"/>
+      <c r="A43" s="243"/>
       <c r="B43" s="126" t="s">
         <v>365</v>
       </c>
@@ -9234,7 +9946,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="232" t="s">
+      <c r="A44" s="233" t="s">
         <v>228</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -9248,7 +9960,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="233"/>
+      <c r="A45" s="234"/>
       <c r="B45" s="36" t="s">
         <v>368</v>
       </c>
@@ -9260,7 +9972,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="235" t="s">
+      <c r="A46" s="236" t="s">
         <v>239</v>
       </c>
       <c r="B46" s="69" t="s">
@@ -9274,7 +9986,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="234"/>
+      <c r="A47" s="235"/>
       <c r="B47" s="22" t="s">
         <v>371</v>
       </c>
@@ -9286,7 +9998,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="234"/>
+      <c r="A48" s="235"/>
       <c r="B48" s="22" t="s">
         <v>373</v>
       </c>
@@ -9298,7 +10010,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="234"/>
+      <c r="A49" s="235"/>
       <c r="B49" s="22" t="s">
         <v>375</v>
       </c>
@@ -9310,7 +10022,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="233"/>
+      <c r="A50" s="234"/>
       <c r="B50" s="36" t="s">
         <v>377</v>
       </c>
@@ -9322,7 +10034,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="232" t="s">
+      <c r="A51" s="233" t="s">
         <v>477</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -9336,7 +10048,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="233"/>
+      <c r="A52" s="234"/>
       <c r="B52" s="36" t="s">
         <v>480</v>
       </c>
@@ -9361,6 +10073,9 @@
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A46:A50"/>
@@ -9374,9 +10089,6 @@
     <mergeCell ref="A13:A25"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9384,6 +10096,961 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.19921875" style="138" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="138" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" style="138" customWidth="1"/>
+    <col min="4" max="4" width="1.69921875" style="138" customWidth="1"/>
+    <col min="5" max="5" width="3" style="138" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" style="138" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" style="138" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="138"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="208" t="s">
+        <v>638</v>
+      </c>
+      <c r="E1" s="208" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="263" t="s">
+        <v>648</v>
+      </c>
+      <c r="B2" s="212" t="s">
+        <v>639</v>
+      </c>
+      <c r="C2" s="151" t="s">
+        <v>640</v>
+      </c>
+      <c r="E2" s="213" t="s">
+        <v>686</v>
+      </c>
+      <c r="F2" s="214"/>
+    </row>
+    <row r="3" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="263"/>
+      <c r="B3" s="212" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="151" t="s">
+        <v>641</v>
+      </c>
+      <c r="E3" s="215" t="s">
+        <v>687</v>
+      </c>
+      <c r="F3" s="216"/>
+    </row>
+    <row r="4" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="263"/>
+      <c r="B4" s="212" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="151" t="s">
+        <v>642</v>
+      </c>
+      <c r="E4" s="215" t="s">
+        <v>688</v>
+      </c>
+      <c r="F4" s="216"/>
+    </row>
+    <row r="5" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="263"/>
+      <c r="B5" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="151" t="s">
+        <v>643</v>
+      </c>
+      <c r="E5" s="215" t="s">
+        <v>689</v>
+      </c>
+      <c r="F5" s="216"/>
+    </row>
+    <row r="6" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="263"/>
+      <c r="B6" s="212" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="151" t="s">
+        <v>644</v>
+      </c>
+      <c r="E6" s="215" t="s">
+        <v>690</v>
+      </c>
+      <c r="F6" s="216"/>
+    </row>
+    <row r="7" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="263"/>
+      <c r="B7" s="163" t="s">
+        <v>645</v>
+      </c>
+      <c r="C7" s="151" t="s">
+        <v>646</v>
+      </c>
+      <c r="E7" s="215" t="s">
+        <v>691</v>
+      </c>
+      <c r="F7" s="216"/>
+    </row>
+    <row r="8" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="263"/>
+      <c r="B8" s="212" t="s">
+        <v>647</v>
+      </c>
+      <c r="C8" s="151" t="s">
+        <v>644</v>
+      </c>
+      <c r="E8" s="215" t="s">
+        <v>692</v>
+      </c>
+      <c r="F8" s="216"/>
+    </row>
+    <row r="9" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="263" t="s">
+        <v>649</v>
+      </c>
+      <c r="B9" s="163" t="s">
+        <v>639</v>
+      </c>
+      <c r="C9" s="151" t="s">
+        <v>650</v>
+      </c>
+      <c r="E9" s="215"/>
+      <c r="F9" s="216"/>
+    </row>
+    <row r="10" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="263"/>
+      <c r="B10" s="163" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>652</v>
+      </c>
+      <c r="E10" s="215" t="s">
+        <v>693</v>
+      </c>
+      <c r="F10" s="216"/>
+    </row>
+    <row r="11" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="209"/>
+      <c r="B11" s="137"/>
+      <c r="E11" s="215" t="s">
+        <v>694</v>
+      </c>
+      <c r="F11" s="216"/>
+    </row>
+    <row r="12" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="210" t="s">
+        <v>674</v>
+      </c>
+      <c r="B12" s="137"/>
+      <c r="E12" s="217" t="s">
+        <v>695</v>
+      </c>
+      <c r="F12" s="218"/>
+    </row>
+    <row r="13" spans="1:7" ht="8.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="264" t="s">
+        <v>673</v>
+      </c>
+      <c r="B13" s="212" t="s">
+        <v>675</v>
+      </c>
+      <c r="C13" s="151" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="264"/>
+      <c r="B14" s="212" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="151" t="s">
+        <v>677</v>
+      </c>
+      <c r="E14" s="151" t="s">
+        <v>696</v>
+      </c>
+      <c r="F14" s="151" t="s">
+        <v>434</v>
+      </c>
+      <c r="G14" s="151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="264"/>
+      <c r="B15" s="163" t="s">
+        <v>681</v>
+      </c>
+      <c r="C15" s="151" t="s">
+        <v>678</v>
+      </c>
+      <c r="E15" s="211" t="s">
+        <v>767</v>
+      </c>
+      <c r="F15" s="151" t="s">
+        <v>697</v>
+      </c>
+      <c r="G15" s="151" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="264"/>
+      <c r="B16" s="163" t="s">
+        <v>651</v>
+      </c>
+      <c r="C16" s="151" t="s">
+        <v>679</v>
+      </c>
+      <c r="E16" s="211" t="s">
+        <v>768</v>
+      </c>
+      <c r="F16" s="151" t="s">
+        <v>698</v>
+      </c>
+      <c r="G16" s="151" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="264"/>
+      <c r="B17" s="163" t="s">
+        <v>645</v>
+      </c>
+      <c r="C17" s="151" t="s">
+        <v>680</v>
+      </c>
+      <c r="E17" s="211" t="s">
+        <v>769</v>
+      </c>
+      <c r="F17" s="211" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="151" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="264" t="s">
+        <v>682</v>
+      </c>
+      <c r="B18" s="163" t="s">
+        <v>639</v>
+      </c>
+      <c r="C18" s="151" t="s">
+        <v>683</v>
+      </c>
+      <c r="E18" s="211" t="s">
+        <v>770</v>
+      </c>
+      <c r="F18" s="211" t="s">
+        <v>675</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="264"/>
+      <c r="B19" s="163" t="s">
+        <v>651</v>
+      </c>
+      <c r="C19" s="151" t="s">
+        <v>684</v>
+      </c>
+      <c r="E19" s="211" t="s">
+        <v>771</v>
+      </c>
+      <c r="F19" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G19" s="151" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="137"/>
+      <c r="E20" s="151" t="s">
+        <v>702</v>
+      </c>
+      <c r="F20" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G20" s="151" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="210" t="s">
+        <v>653</v>
+      </c>
+      <c r="B21" s="137"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+    </row>
+    <row r="22" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="151" t="s">
+        <v>655</v>
+      </c>
+      <c r="B22" s="163">
+        <v>0</v>
+      </c>
+      <c r="C22" s="151" t="s">
+        <v>656</v>
+      </c>
+      <c r="E22" s="211" t="s">
+        <v>772</v>
+      </c>
+      <c r="F22" s="151" t="s">
+        <v>703</v>
+      </c>
+      <c r="G22" s="151" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="151" t="s">
+        <v>657</v>
+      </c>
+      <c r="B23" s="163">
+        <v>1</v>
+      </c>
+      <c r="C23" s="151" t="s">
+        <v>666</v>
+      </c>
+      <c r="E23" s="211" t="s">
+        <v>773</v>
+      </c>
+      <c r="F23" s="151" t="s">
+        <v>704</v>
+      </c>
+      <c r="G23" s="151" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="151" t="s">
+        <v>658</v>
+      </c>
+      <c r="B24" s="163">
+        <v>2</v>
+      </c>
+      <c r="C24" s="151" t="s">
+        <v>667</v>
+      </c>
+      <c r="E24" s="211" t="s">
+        <v>774</v>
+      </c>
+      <c r="F24" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G24" s="151" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="151" t="s">
+        <v>659</v>
+      </c>
+      <c r="B25" s="163">
+        <v>3</v>
+      </c>
+      <c r="C25" s="151" t="s">
+        <v>668</v>
+      </c>
+      <c r="E25" s="151" t="s">
+        <v>705</v>
+      </c>
+      <c r="F25" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G25" s="151" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="151" t="s">
+        <v>660</v>
+      </c>
+      <c r="B26" s="163">
+        <v>4</v>
+      </c>
+      <c r="C26" s="151" t="s">
+        <v>685</v>
+      </c>
+      <c r="E26" s="211" t="s">
+        <v>775</v>
+      </c>
+      <c r="F26" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G26" s="151" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="151" t="s">
+        <v>661</v>
+      </c>
+      <c r="B27" s="163">
+        <v>5</v>
+      </c>
+      <c r="C27" s="151" t="s">
+        <v>669</v>
+      </c>
+      <c r="E27" s="211" t="s">
+        <v>776</v>
+      </c>
+      <c r="F27" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G27" s="151" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="151" t="s">
+        <v>662</v>
+      </c>
+      <c r="B28" s="163">
+        <v>6</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>670</v>
+      </c>
+      <c r="E28" s="211" t="s">
+        <v>777</v>
+      </c>
+      <c r="F28" s="151" t="s">
+        <v>706</v>
+      </c>
+      <c r="G28" s="151" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="151" t="s">
+        <v>663</v>
+      </c>
+      <c r="B29" s="163">
+        <v>7</v>
+      </c>
+      <c r="C29" s="151" t="s">
+        <v>671</v>
+      </c>
+      <c r="E29" s="151" t="s">
+        <v>707</v>
+      </c>
+      <c r="F29" s="151" t="s">
+        <v>708</v>
+      </c>
+      <c r="G29" s="151" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="151" t="s">
+        <v>664</v>
+      </c>
+      <c r="B30" s="163">
+        <v>8</v>
+      </c>
+      <c r="C30" s="151" t="s">
+        <v>672</v>
+      </c>
+      <c r="E30" s="211" t="s">
+        <v>778</v>
+      </c>
+      <c r="F30" s="151" t="s">
+        <v>709</v>
+      </c>
+      <c r="G30" s="151" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="151" t="s">
+        <v>665</v>
+      </c>
+      <c r="B31" s="163" t="s">
+        <v>654</v>
+      </c>
+      <c r="C31" s="151"/>
+      <c r="E31" s="211" t="s">
+        <v>779</v>
+      </c>
+      <c r="F31" s="151" t="s">
+        <v>710</v>
+      </c>
+      <c r="G31" s="151" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="211" t="s">
+        <v>780</v>
+      </c>
+      <c r="F32" s="151" t="s">
+        <v>711</v>
+      </c>
+      <c r="G32" s="151" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="A33" s="281" t="s">
+        <v>794</v>
+      </c>
+      <c r="B33" s="282"/>
+      <c r="C33" s="283"/>
+      <c r="E33" s="151" t="s">
+        <v>712</v>
+      </c>
+      <c r="F33" s="151" t="s">
+        <v>713</v>
+      </c>
+      <c r="G33" s="151" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="284"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="285"/>
+      <c r="E34" s="211" t="s">
+        <v>781</v>
+      </c>
+      <c r="F34" s="151" t="s">
+        <v>714</v>
+      </c>
+      <c r="G34" s="151" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="286" t="s">
+        <v>795</v>
+      </c>
+      <c r="B35" s="205"/>
+      <c r="C35" s="285"/>
+      <c r="E35" s="211" t="s">
+        <v>782</v>
+      </c>
+      <c r="F35" s="151" t="s">
+        <v>715</v>
+      </c>
+      <c r="G35" s="151" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="284" t="s">
+        <v>796</v>
+      </c>
+      <c r="B36" s="205"/>
+      <c r="C36" s="285"/>
+      <c r="E36" s="211" t="s">
+        <v>783</v>
+      </c>
+      <c r="F36" s="151" t="s">
+        <v>716</v>
+      </c>
+      <c r="G36" s="151" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="284"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="285"/>
+      <c r="E37" s="151" t="s">
+        <v>717</v>
+      </c>
+      <c r="F37" s="151" t="s">
+        <v>718</v>
+      </c>
+      <c r="G37" s="151" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="286" t="s">
+        <v>797</v>
+      </c>
+      <c r="B38" s="205"/>
+      <c r="C38" s="285"/>
+      <c r="E38" s="211" t="s">
+        <v>784</v>
+      </c>
+      <c r="F38" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G38" s="151" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="284" t="s">
+        <v>800</v>
+      </c>
+      <c r="B39" s="287" t="s">
+        <v>799</v>
+      </c>
+      <c r="C39" s="285"/>
+      <c r="E39" s="211" t="s">
+        <v>785</v>
+      </c>
+      <c r="F39" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G39" s="151" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="284" t="s">
+        <v>802</v>
+      </c>
+      <c r="B40" s="205" t="s">
+        <v>798</v>
+      </c>
+      <c r="C40" s="285"/>
+      <c r="E40" s="211" t="s">
+        <v>786</v>
+      </c>
+      <c r="F40" s="151" t="s">
+        <v>719</v>
+      </c>
+      <c r="G40" s="151" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="284" t="s">
+        <v>801</v>
+      </c>
+      <c r="B41" s="205" t="s">
+        <v>803</v>
+      </c>
+      <c r="C41" s="285"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+    </row>
+    <row r="42" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="284"/>
+      <c r="B42" s="205"/>
+      <c r="C42" s="285"/>
+      <c r="E42" s="211" t="s">
+        <v>787</v>
+      </c>
+      <c r="F42" s="151" t="s">
+        <v>720</v>
+      </c>
+      <c r="G42" s="151" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="286" t="s">
+        <v>804</v>
+      </c>
+      <c r="B43" s="205"/>
+      <c r="C43" s="285"/>
+      <c r="E43" s="151" t="s">
+        <v>721</v>
+      </c>
+      <c r="F43" s="151" t="s">
+        <v>722</v>
+      </c>
+      <c r="G43" s="151" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="284" t="s">
+        <v>805</v>
+      </c>
+      <c r="B44" s="205" t="s">
+        <v>806</v>
+      </c>
+      <c r="C44" s="285"/>
+      <c r="E44" s="211" t="s">
+        <v>788</v>
+      </c>
+      <c r="F44" s="151" t="s">
+        <v>723</v>
+      </c>
+      <c r="G44" s="151" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="284" t="s">
+        <v>807</v>
+      </c>
+      <c r="B45" s="288">
+        <v>77</v>
+      </c>
+      <c r="C45" s="285"/>
+      <c r="E45" s="151" t="s">
+        <v>789</v>
+      </c>
+      <c r="F45" s="151" t="s">
+        <v>724</v>
+      </c>
+      <c r="G45" s="151" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="284" t="s">
+        <v>808</v>
+      </c>
+      <c r="B46" s="205" t="s">
+        <v>809</v>
+      </c>
+      <c r="C46" s="285"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+    </row>
+    <row r="47" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="284" t="s">
+        <v>810</v>
+      </c>
+      <c r="B47" s="205" t="s">
+        <v>811</v>
+      </c>
+      <c r="C47" s="285"/>
+      <c r="E47" s="211" t="s">
+        <v>790</v>
+      </c>
+      <c r="F47" s="151" t="s">
+        <v>725</v>
+      </c>
+      <c r="G47" s="151" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="284" t="s">
+        <v>812</v>
+      </c>
+      <c r="B48" s="205"/>
+      <c r="C48" s="285"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+    </row>
+    <row r="49" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="284"/>
+      <c r="B49" s="205"/>
+      <c r="C49" s="285"/>
+      <c r="E49" s="211" t="s">
+        <v>791</v>
+      </c>
+      <c r="F49" s="151" t="s">
+        <v>395</v>
+      </c>
+      <c r="G49" s="151" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="284" t="s">
+        <v>813</v>
+      </c>
+      <c r="B50" s="205"/>
+      <c r="C50" s="285"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+    </row>
+    <row r="51" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="284" t="s">
+        <v>814</v>
+      </c>
+      <c r="B51" s="205" t="s">
+        <v>815</v>
+      </c>
+      <c r="C51" s="285"/>
+      <c r="E51" s="151" t="s">
+        <v>726</v>
+      </c>
+      <c r="F51" s="151" t="s">
+        <v>727</v>
+      </c>
+      <c r="G51" s="151" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="284" t="s">
+        <v>816</v>
+      </c>
+      <c r="B52" s="205" t="s">
+        <v>434</v>
+      </c>
+      <c r="C52" s="285"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="151"/>
+    </row>
+    <row r="53" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="284" t="s">
+        <v>817</v>
+      </c>
+      <c r="B53" s="205" t="s">
+        <v>818</v>
+      </c>
+      <c r="C53" s="285"/>
+      <c r="E53" s="151" t="s">
+        <v>728</v>
+      </c>
+      <c r="F53" s="211" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="151" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="284" t="s">
+        <v>819</v>
+      </c>
+      <c r="B54" s="205" t="s">
+        <v>820</v>
+      </c>
+      <c r="C54" s="285"/>
+      <c r="E54" s="151" t="s">
+        <v>729</v>
+      </c>
+      <c r="F54" s="211" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="151" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="284" t="s">
+        <v>821</v>
+      </c>
+      <c r="B55" s="205" t="s">
+        <v>822</v>
+      </c>
+      <c r="C55" s="285"/>
+      <c r="E55" s="151" t="s">
+        <v>730</v>
+      </c>
+      <c r="F55" s="151" t="s">
+        <v>731</v>
+      </c>
+      <c r="G55" s="151" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="284" t="s">
+        <v>823</v>
+      </c>
+      <c r="B56" s="205" t="s">
+        <v>824</v>
+      </c>
+      <c r="C56" s="285"/>
+      <c r="E56" s="151" t="s">
+        <v>732</v>
+      </c>
+      <c r="F56" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G56" s="151" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="284" t="s">
+        <v>825</v>
+      </c>
+      <c r="B57" s="205" t="s">
+        <v>828</v>
+      </c>
+      <c r="C57" s="285"/>
+      <c r="E57" s="151" t="s">
+        <v>733</v>
+      </c>
+      <c r="F57" s="151" t="s">
+        <v>713</v>
+      </c>
+      <c r="G57" s="151" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="284" t="s">
+        <v>827</v>
+      </c>
+      <c r="B58" s="205" t="s">
+        <v>826</v>
+      </c>
+      <c r="C58" s="285"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="151"/>
+      <c r="G58" s="151"/>
+    </row>
+    <row r="59" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="289"/>
+      <c r="B59" s="290"/>
+      <c r="C59" s="291"/>
+      <c r="E59" s="151" t="s">
+        <v>734</v>
+      </c>
+      <c r="F59" s="151" t="s">
+        <v>713</v>
+      </c>
+      <c r="G59" s="151" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="151" t="s">
+        <v>735</v>
+      </c>
+      <c r="F60" s="151" t="s">
+        <v>701</v>
+      </c>
+      <c r="G60" s="151" t="s">
+        <v>766</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
@@ -9422,13 +11089,13 @@
       <c r="AA1"/>
     </row>
     <row r="2" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="254" t="s">
+      <c r="E2" s="267" t="s">
         <v>379</v>
       </c>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -9551,20 +11218,20 @@
     <row r="7" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
-      <c r="G7" s="253" t="s">
+      <c r="G7" s="266" t="s">
         <v>380</v>
       </c>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
+      <c r="H7" s="266"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="266"/>
+      <c r="K7" s="266"/>
+      <c r="L7" s="266"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="266"/>
+      <c r="O7" s="266"/>
+      <c r="P7" s="266"/>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="266"/>
       <c r="S7" s="78"/>
       <c r="T7" s="78"/>
       <c r="U7" s="78"/>
@@ -9627,12 +11294,12 @@
     </row>
     <row r="10" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="78"/>
-      <c r="F10" s="252" t="s">
+      <c r="F10" s="265" t="s">
         <v>381</v>
       </c>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="252"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="265"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78"/>
       <c r="L10" s="78"/>
@@ -9666,12 +11333,12 @@
       <c r="O11" s="78"/>
       <c r="P11" s="78"/>
       <c r="Q11" s="78"/>
-      <c r="R11" s="252" t="s">
+      <c r="R11" s="265" t="s">
         <v>381</v>
       </c>
-      <c r="S11" s="252"/>
-      <c r="T11" s="252"/>
-      <c r="U11" s="252"/>
+      <c r="S11" s="265"/>
+      <c r="T11" s="265"/>
+      <c r="U11" s="265"/>
       <c r="V11" s="78"/>
       <c r="W11" s="78"/>
       <c r="X11" s="78"/>
@@ -9708,12 +11375,12 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
-      <c r="H13" s="252" t="s">
+      <c r="H13" s="265" t="s">
         <v>381</v>
       </c>
-      <c r="I13" s="252"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="252"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="265"/>
+      <c r="K13" s="265"/>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
       <c r="N13" s="78"/>
@@ -9741,12 +11408,12 @@
       <c r="K14" s="78"/>
       <c r="L14" s="78"/>
       <c r="M14" s="78"/>
-      <c r="N14" s="252" t="s">
+      <c r="N14" s="265" t="s">
         <v>381</v>
       </c>
-      <c r="O14" s="252"/>
-      <c r="P14" s="252"/>
-      <c r="Q14" s="252"/>
+      <c r="O14" s="265"/>
+      <c r="P14" s="265"/>
+      <c r="Q14" s="265"/>
       <c r="R14" s="78"/>
       <c r="S14" s="78"/>
       <c r="T14" s="78"/>
@@ -9817,12 +11484,12 @@
       <c r="J17" s="79"/>
       <c r="K17" s="78"/>
       <c r="L17" s="78"/>
-      <c r="M17" s="252" t="s">
+      <c r="M17" s="265" t="s">
         <v>381</v>
       </c>
-      <c r="N17" s="252"/>
-      <c r="O17" s="252"/>
-      <c r="P17" s="252"/>
+      <c r="N17" s="265"/>
+      <c r="O17" s="265"/>
+      <c r="P17" s="265"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="78"/>
       <c r="S17" s="78"/>
@@ -9864,20 +11531,20 @@
     </row>
     <row r="19" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="78"/>
-      <c r="F19" s="253" t="s">
+      <c r="F19" s="266" t="s">
         <v>380</v>
       </c>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="253"/>
-      <c r="M19" s="253"/>
-      <c r="N19" s="253"/>
-      <c r="O19" s="253"/>
-      <c r="P19" s="253"/>
-      <c r="Q19" s="253"/>
+      <c r="G19" s="266"/>
+      <c r="H19" s="266"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="266"/>
+      <c r="K19" s="266"/>
+      <c r="L19" s="266"/>
+      <c r="M19" s="266"/>
+      <c r="N19" s="266"/>
+      <c r="O19" s="266"/>
+      <c r="P19" s="266"/>
+      <c r="Q19" s="266"/>
       <c r="R19" s="78"/>
       <c r="S19" s="78"/>
       <c r="T19" s="78"/>
@@ -9905,12 +11572,12 @@
       <c r="Q20" s="78"/>
       <c r="R20" s="78"/>
       <c r="S20" s="78"/>
-      <c r="T20" s="252" t="s">
+      <c r="T20" s="265" t="s">
         <v>381</v>
       </c>
-      <c r="U20" s="252"/>
-      <c r="V20" s="252"/>
-      <c r="W20" s="252"/>
+      <c r="U20" s="265"/>
+      <c r="V20" s="265"/>
+      <c r="W20" s="265"/>
       <c r="X20" s="78"/>
       <c r="Y20" s="78"/>
       <c r="Z20" s="78"/>
@@ -9939,11 +11606,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -10282,44 +11949,44 @@
     <row r="6" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="257" t="s">
+      <c r="D6" s="270" t="s">
         <v>385</v>
       </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="257"/>
-      <c r="J6" s="257"/>
-      <c r="K6" s="257"/>
-      <c r="L6" s="257"/>
-      <c r="M6" s="257"/>
-      <c r="N6" s="252" t="s">
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="270"/>
+      <c r="K6" s="270"/>
+      <c r="L6" s="270"/>
+      <c r="M6" s="270"/>
+      <c r="N6" s="265" t="s">
         <v>386</v>
       </c>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="258" t="s">
+      <c r="O6" s="265"/>
+      <c r="P6" s="265"/>
+      <c r="Q6" s="265"/>
+      <c r="R6" s="265"/>
+      <c r="S6" s="265"/>
+      <c r="T6" s="265"/>
+      <c r="U6" s="265"/>
+      <c r="V6" s="265"/>
+      <c r="W6" s="265"/>
+      <c r="X6" s="271" t="s">
         <v>387</v>
       </c>
-      <c r="Y6" s="258"/>
-      <c r="Z6" s="258"/>
-      <c r="AA6" s="258"/>
-      <c r="AB6" s="258"/>
-      <c r="AC6" s="258"/>
-      <c r="AD6" s="258"/>
-      <c r="AE6" s="258"/>
-      <c r="AF6" s="258"/>
-      <c r="AG6" s="258"/>
-      <c r="AH6" s="258"/>
-      <c r="AI6" s="258"/>
+      <c r="Y6" s="271"/>
+      <c r="Z6" s="271"/>
+      <c r="AA6" s="271"/>
+      <c r="AB6" s="271"/>
+      <c r="AC6" s="271"/>
+      <c r="AD6" s="271"/>
+      <c r="AE6" s="271"/>
+      <c r="AF6" s="271"/>
+      <c r="AG6" s="271"/>
+      <c r="AH6" s="271"/>
+      <c r="AI6" s="271"/>
       <c r="AJ6" s="85"/>
       <c r="AK6" s="85"/>
       <c r="AL6" s="85"/>
@@ -10327,44 +11994,44 @@
     <row r="7" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="259" t="s">
+      <c r="D7" s="272" t="s">
         <v>388</v>
       </c>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="259"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="259"/>
-      <c r="K7" s="259"/>
-      <c r="L7" s="259"/>
-      <c r="M7" s="259"/>
-      <c r="N7" s="259" t="s">
+      <c r="E7" s="272"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="272"/>
+      <c r="H7" s="272"/>
+      <c r="I7" s="272"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="272"/>
+      <c r="N7" s="272" t="s">
         <v>389</v>
       </c>
-      <c r="O7" s="259"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="259"/>
-      <c r="S7" s="259"/>
-      <c r="T7" s="259"/>
-      <c r="U7" s="259"/>
-      <c r="V7" s="259"/>
-      <c r="W7" s="259"/>
-      <c r="X7" s="259" t="s">
+      <c r="O7" s="272"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="272"/>
+      <c r="R7" s="272"/>
+      <c r="S7" s="272"/>
+      <c r="T7" s="272"/>
+      <c r="U7" s="272"/>
+      <c r="V7" s="272"/>
+      <c r="W7" s="272"/>
+      <c r="X7" s="272" t="s">
         <v>390</v>
       </c>
-      <c r="Y7" s="259"/>
-      <c r="Z7" s="259"/>
-      <c r="AA7" s="259"/>
-      <c r="AB7" s="259"/>
-      <c r="AC7" s="259"/>
-      <c r="AD7" s="259"/>
-      <c r="AE7" s="259"/>
-      <c r="AF7" s="259"/>
-      <c r="AG7" s="259"/>
-      <c r="AH7" s="259"/>
-      <c r="AI7" s="259"/>
+      <c r="Y7" s="272"/>
+      <c r="Z7" s="272"/>
+      <c r="AA7" s="272"/>
+      <c r="AB7" s="272"/>
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="272"/>
+      <c r="AE7" s="272"/>
+      <c r="AF7" s="272"/>
+      <c r="AG7" s="272"/>
+      <c r="AH7" s="272"/>
+      <c r="AI7" s="272"/>
       <c r="AJ7" s="85"/>
       <c r="AK7" s="85"/>
       <c r="AL7" s="85"/>
@@ -10453,11 +12120,11 @@
         <v>391</v>
       </c>
       <c r="D10" s="85"/>
-      <c r="E10" s="255" t="s">
+      <c r="E10" s="268" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="255"/>
-      <c r="G10" s="255"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="268"/>
       <c r="H10" s="96"/>
       <c r="I10" s="85" t="s">
         <v>392</v>
@@ -10578,16 +12245,16 @@
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
-      <c r="G13" s="256" t="s">
+      <c r="G13" s="269" t="s">
         <v>394</v>
       </c>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="255" t="s">
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="268" t="s">
         <v>395</v>
       </c>
-      <c r="K13" s="255"/>
-      <c r="L13" s="255"/>
+      <c r="K13" s="268"/>
+      <c r="L13" s="268"/>
       <c r="M13" s="98" t="s">
         <v>396</v>
       </c>
@@ -10625,16 +12292,16 @@
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="85"/>
-      <c r="G14" s="256" t="s">
+      <c r="G14" s="269" t="s">
         <v>397</v>
       </c>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="255" t="s">
+      <c r="H14" s="269"/>
+      <c r="I14" s="269"/>
+      <c r="J14" s="268" t="s">
         <v>398</v>
       </c>
-      <c r="K14" s="255"/>
-      <c r="L14" s="255"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="268"/>
       <c r="M14" s="100">
         <v>1</v>
       </c>
@@ -10674,16 +12341,16 @@
       <c r="F15" s="85" t="s">
         <v>399</v>
       </c>
-      <c r="G15" s="256" t="s">
+      <c r="G15" s="269" t="s">
         <v>388</v>
       </c>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="255" t="s">
+      <c r="H15" s="269"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="268" t="s">
         <v>400</v>
       </c>
-      <c r="K15" s="255"/>
-      <c r="L15" s="255"/>
+      <c r="K15" s="268"/>
+      <c r="L15" s="268"/>
       <c r="M15" s="100">
         <v>1</v>
       </c>
@@ -10723,16 +12390,16 @@
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
       <c r="F16" s="85"/>
-      <c r="G16" s="256" t="s">
+      <c r="G16" s="269" t="s">
         <v>402</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="255" t="s">
+      <c r="H16" s="269"/>
+      <c r="I16" s="269"/>
+      <c r="J16" s="268" t="s">
         <v>395</v>
       </c>
-      <c r="K16" s="255"/>
-      <c r="L16" s="255"/>
+      <c r="K16" s="268"/>
+      <c r="L16" s="268"/>
       <c r="M16" s="98" t="s">
         <v>396</v>
       </c>
@@ -10855,15 +12522,15 @@
       <c r="I19" s="85"/>
       <c r="J19" s="85"/>
       <c r="K19" s="85"/>
-      <c r="L19" s="256" t="s">
+      <c r="L19" s="269" t="s">
         <v>404</v>
       </c>
-      <c r="M19" s="256"/>
-      <c r="N19" s="255" t="s">
+      <c r="M19" s="269"/>
+      <c r="N19" s="268" t="s">
         <v>405</v>
       </c>
-      <c r="O19" s="255"/>
-      <c r="P19" s="255"/>
+      <c r="O19" s="268"/>
+      <c r="P19" s="268"/>
       <c r="Q19" s="100">
         <v>1</v>
       </c>
@@ -10906,15 +12573,15 @@
       <c r="K20" s="85" t="s">
         <v>399</v>
       </c>
-      <c r="L20" s="256" t="s">
+      <c r="L20" s="269" t="s">
         <v>389</v>
       </c>
-      <c r="M20" s="256"/>
-      <c r="N20" s="255" t="s">
+      <c r="M20" s="269"/>
+      <c r="N20" s="268" t="s">
         <v>406</v>
       </c>
-      <c r="O20" s="255"/>
-      <c r="P20" s="255"/>
+      <c r="O20" s="268"/>
+      <c r="P20" s="268"/>
       <c r="Q20" s="100">
         <v>1</v>
       </c>
@@ -10957,15 +12624,15 @@
       <c r="I21" s="85"/>
       <c r="J21" s="85"/>
       <c r="K21" s="85"/>
-      <c r="L21" s="256" t="s">
+      <c r="L21" s="269" t="s">
         <v>408</v>
       </c>
-      <c r="M21" s="256"/>
-      <c r="N21" s="255" t="s">
+      <c r="M21" s="269"/>
+      <c r="N21" s="268" t="s">
         <v>395</v>
       </c>
-      <c r="O21" s="255"/>
-      <c r="P21" s="255"/>
+      <c r="O21" s="268"/>
+      <c r="P21" s="268"/>
       <c r="Q21" s="98" t="s">
         <v>396</v>
       </c>
@@ -11105,11 +12772,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11237,30 +12904,30 @@
       <c r="L2" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="260" t="s">
+      <c r="M2" s="273" t="s">
         <v>411</v>
       </c>
-      <c r="N2" s="260"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="260"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="260"/>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="260"/>
-      <c r="AD2" s="260"/>
-      <c r="AE2" s="260"/>
-      <c r="AF2" s="260"/>
-      <c r="AG2" s="260"/>
-      <c r="AH2" s="260"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="273"/>
+      <c r="AA2" s="273"/>
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="273"/>
+      <c r="AD2" s="273"/>
+      <c r="AE2" s="273"/>
+      <c r="AF2" s="273"/>
+      <c r="AG2" s="273"/>
+      <c r="AH2" s="273"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
@@ -11495,30 +13162,30 @@
       <c r="L7" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="260" t="s">
+      <c r="M7" s="273" t="s">
         <v>415</v>
       </c>
-      <c r="N7" s="260"/>
-      <c r="O7" s="260"/>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="260"/>
-      <c r="U7" s="260"/>
-      <c r="V7" s="260"/>
-      <c r="W7" s="260"/>
-      <c r="X7" s="260"/>
-      <c r="Y7" s="260"/>
-      <c r="Z7" s="260"/>
-      <c r="AA7" s="260"/>
-      <c r="AB7" s="260"/>
-      <c r="AC7" s="260"/>
-      <c r="AD7" s="260"/>
-      <c r="AE7" s="260"/>
-      <c r="AF7" s="260"/>
-      <c r="AG7" s="260"/>
-      <c r="AH7" s="260"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="273"/>
+      <c r="S7" s="273"/>
+      <c r="T7" s="273"/>
+      <c r="U7" s="273"/>
+      <c r="V7" s="273"/>
+      <c r="W7" s="273"/>
+      <c r="X7" s="273"/>
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="273"/>
+      <c r="AA7" s="273"/>
+      <c r="AB7" s="273"/>
+      <c r="AC7" s="273"/>
+      <c r="AD7" s="273"/>
+      <c r="AE7" s="273"/>
+      <c r="AF7" s="273"/>
+      <c r="AG7" s="273"/>
+      <c r="AH7" s="273"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="85" t="s">
@@ -11795,30 +13462,30 @@
       <c r="L13" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="260" t="s">
+      <c r="M13" s="273" t="s">
         <v>382</v>
       </c>
-      <c r="N13" s="260"/>
-      <c r="O13" s="260"/>
-      <c r="P13" s="260"/>
-      <c r="Q13" s="260"/>
-      <c r="R13" s="260"/>
-      <c r="S13" s="260"/>
-      <c r="T13" s="260"/>
-      <c r="U13" s="260"/>
-      <c r="V13" s="260"/>
-      <c r="W13" s="260"/>
-      <c r="X13" s="260"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="260"/>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="260"/>
-      <c r="AE13" s="260"/>
-      <c r="AF13" s="260"/>
-      <c r="AG13" s="260"/>
-      <c r="AH13" s="260"/>
+      <c r="N13" s="273"/>
+      <c r="O13" s="273"/>
+      <c r="P13" s="273"/>
+      <c r="Q13" s="273"/>
+      <c r="R13" s="273"/>
+      <c r="S13" s="273"/>
+      <c r="T13" s="273"/>
+      <c r="U13" s="273"/>
+      <c r="V13" s="273"/>
+      <c r="W13" s="273"/>
+      <c r="X13" s="273"/>
+      <c r="Y13" s="273"/>
+      <c r="Z13" s="273"/>
+      <c r="AA13" s="273"/>
+      <c r="AB13" s="273"/>
+      <c r="AC13" s="273"/>
+      <c r="AD13" s="273"/>
+      <c r="AE13" s="273"/>
+      <c r="AF13" s="273"/>
+      <c r="AG13" s="273"/>
+      <c r="AH13" s="273"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="85" t="s">
@@ -11985,12 +13652,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12705,44 +14372,44 @@
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
-      <c r="E11" s="261" t="s">
+      <c r="E11" s="274" t="s">
         <v>430</v>
       </c>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="261"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="261"/>
-      <c r="M11" s="261"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="261"/>
-      <c r="R11" s="261"/>
-      <c r="S11" s="261"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="261"/>
-      <c r="V11" s="261"/>
-      <c r="W11" s="261"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="262" t="s">
+      <c r="F11" s="274"/>
+      <c r="G11" s="274"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="274"/>
+      <c r="J11" s="274"/>
+      <c r="K11" s="274"/>
+      <c r="L11" s="274"/>
+      <c r="M11" s="274"/>
+      <c r="N11" s="274"/>
+      <c r="O11" s="274"/>
+      <c r="P11" s="274"/>
+      <c r="Q11" s="274"/>
+      <c r="R11" s="274"/>
+      <c r="S11" s="274"/>
+      <c r="T11" s="274"/>
+      <c r="U11" s="274"/>
+      <c r="V11" s="274"/>
+      <c r="W11" s="274"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="275" t="s">
         <v>431</v>
       </c>
-      <c r="Z11" s="262"/>
-      <c r="AA11" s="262"/>
-      <c r="AB11" s="262"/>
-      <c r="AC11" s="262"/>
-      <c r="AD11" s="262"/>
-      <c r="AE11" s="262"/>
-      <c r="AF11" s="262"/>
-      <c r="AG11" s="262"/>
-      <c r="AH11" s="262"/>
-      <c r="AI11" s="263" t="s">
+      <c r="Z11" s="275"/>
+      <c r="AA11" s="275"/>
+      <c r="AB11" s="275"/>
+      <c r="AC11" s="275"/>
+      <c r="AD11" s="275"/>
+      <c r="AE11" s="275"/>
+      <c r="AF11" s="275"/>
+      <c r="AG11" s="275"/>
+      <c r="AH11" s="275"/>
+      <c r="AI11" s="276" t="s">
         <v>432</v>
       </c>
-      <c r="AJ11" s="263"/>
+      <c r="AJ11" s="276"/>
       <c r="AK11" s="85"/>
       <c r="AL11" s="85"/>
       <c r="AM11" s="85"/>
@@ -13415,50 +15082,50 @@
       <c r="F21" s="124" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="264" t="s">
+      <c r="G21" s="277" t="s">
         <v>441</v>
       </c>
-      <c r="H21" s="264"/>
-      <c r="I21" s="265" t="s">
+      <c r="H21" s="277"/>
+      <c r="I21" s="278" t="s">
         <v>187</v>
       </c>
-      <c r="J21" s="265"/>
-      <c r="K21" s="253" t="s">
+      <c r="J21" s="278"/>
+      <c r="K21" s="266" t="s">
         <v>442</v>
       </c>
-      <c r="L21" s="253"/>
-      <c r="M21" s="253"/>
-      <c r="N21" s="253"/>
-      <c r="O21" s="266" t="s">
+      <c r="L21" s="266"/>
+      <c r="M21" s="266"/>
+      <c r="N21" s="266"/>
+      <c r="O21" s="279" t="s">
         <v>443</v>
       </c>
-      <c r="P21" s="266"/>
-      <c r="Q21" s="266"/>
-      <c r="R21" s="266"/>
-      <c r="S21" s="266"/>
-      <c r="T21" s="266"/>
-      <c r="U21" s="266"/>
-      <c r="V21" s="266"/>
-      <c r="W21" s="261" t="s">
+      <c r="P21" s="279"/>
+      <c r="Q21" s="279"/>
+      <c r="R21" s="279"/>
+      <c r="S21" s="279"/>
+      <c r="T21" s="279"/>
+      <c r="U21" s="279"/>
+      <c r="V21" s="279"/>
+      <c r="W21" s="274" t="s">
         <v>444</v>
       </c>
-      <c r="X21" s="261"/>
-      <c r="Y21" s="261"/>
-      <c r="Z21" s="261"/>
-      <c r="AA21" s="261"/>
-      <c r="AB21" s="261"/>
-      <c r="AC21" s="261"/>
-      <c r="AD21" s="261"/>
-      <c r="AE21" s="267" t="s">
+      <c r="X21" s="274"/>
+      <c r="Y21" s="274"/>
+      <c r="Z21" s="274"/>
+      <c r="AA21" s="274"/>
+      <c r="AB21" s="274"/>
+      <c r="AC21" s="274"/>
+      <c r="AD21" s="274"/>
+      <c r="AE21" s="280" t="s">
         <v>445</v>
       </c>
-      <c r="AF21" s="267"/>
-      <c r="AG21" s="267"/>
-      <c r="AH21" s="267"/>
-      <c r="AI21" s="267"/>
-      <c r="AJ21" s="267"/>
-      <c r="AK21" s="267"/>
-      <c r="AL21" s="267"/>
+      <c r="AF21" s="280"/>
+      <c r="AG21" s="280"/>
+      <c r="AH21" s="280"/>
+      <c r="AI21" s="280"/>
+      <c r="AJ21" s="280"/>
+      <c r="AK21" s="280"/>
+      <c r="AL21" s="280"/>
       <c r="AM21" s="122" t="s">
         <v>446</v>
       </c>
@@ -14477,20 +16144,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1025" width="8.5"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/doc/tinyvm.xlsx
+++ b/doc/tinyvm.xlsx
@@ -832,10 +832,10 @@
     <t>Greater than (1)</t>
   </si>
   <si>
-    <t>STG_DEVICES</t>
-  </si>
-  <si>
-    <t>List of devices (one for each bit, max=0b1111)</t>
+    <t>STG_UNIT</t>
+  </si>
+  <si>
+    <t>List of units (one for each bit, max=0b1111)</t>
   </si>
   <si>
     <t>0xF0030012</t>
@@ -3482,7 +3482,7 @@
   <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9"/>

--- a/doc/tinyvm.xlsx
+++ b/doc/tinyvm.xlsx
@@ -812,9 +812,6 @@
     <t>0xF0030011</t>
   </si>
   <si>
-    <t>STG_STATUS_DONE</t>
-  </si>
-  <si>
     <t>4A</t>
   </si>
   <si>
@@ -1509,6 +1506,9 @@
   </si>
   <si>
     <t>Do nothing</t>
+  </si>
+  <si>
+    <t>STG_STATUS_OK</t>
   </si>
 </sst>
 </file>
@@ -3867,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5123,53 +5123,53 @@
         <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>262</v>
+        <v>494</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>153</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="M24" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="M24" s="36" t="s">
+      <c r="N24" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="O24" s="37" t="s">
         <v>265</v>
-      </c>
-      <c r="O24" s="37" t="s">
-        <v>266</v>
       </c>
       <c r="P24" s="8"/>
       <c r="R24" s="146"/>
       <c r="S24" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="T24" s="27" t="s">
         <v>267</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>268</v>
       </c>
       <c r="U24" s="62"/>
       <c r="V24" s="136">
         <v>4</v>
       </c>
       <c r="W24" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="X24" s="27" t="s">
         <v>269</v>
-      </c>
-      <c r="X24" s="27" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="145"/>
       <c r="B25" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="D25" s="26" t="s">
         <v>272</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>273</v>
       </c>
       <c r="E25" s="26">
         <v>1</v>
@@ -5183,46 +5183,46 @@
       </c>
       <c r="K25" s="34"/>
       <c r="L25" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M25" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="M25" s="36" t="s">
+      <c r="N25" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="N25" s="36" t="s">
+      <c r="O25" s="37" t="s">
         <v>276</v>
-      </c>
-      <c r="O25" s="37" t="s">
-        <v>277</v>
       </c>
       <c r="P25" s="8"/>
       <c r="R25" s="146"/>
       <c r="S25" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="T25" s="27" t="s">
         <v>278</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>279</v>
       </c>
       <c r="U25" s="62"/>
       <c r="V25" s="136">
         <v>5</v>
       </c>
       <c r="W25" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="X25" s="27" t="s">
         <v>280</v>
-      </c>
-      <c r="X25" s="27" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="145"/>
       <c r="B26" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="D26" s="26" t="s">
         <v>283</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>284</v>
       </c>
       <c r="E26" s="26">
         <v>1</v>
@@ -5236,46 +5236,46 @@
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="M26" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="M26" s="36" t="s">
+      <c r="N26" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="N26" s="36" t="s">
+      <c r="O26" s="37" t="s">
         <v>287</v>
-      </c>
-      <c r="O26" s="37" t="s">
-        <v>288</v>
       </c>
       <c r="P26" s="8"/>
       <c r="R26" s="146"/>
       <c r="S26" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="T26" s="27" t="s">
         <v>289</v>
-      </c>
-      <c r="T26" s="27" t="s">
-        <v>290</v>
       </c>
       <c r="U26" s="62"/>
       <c r="V26" s="136">
         <v>6</v>
       </c>
       <c r="W26" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="X26" s="27" t="s">
         <v>291</v>
-      </c>
-      <c r="X26" s="27" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="145"/>
       <c r="B27" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>294</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>295</v>
       </c>
       <c r="E27" s="26">
         <v>32</v>
@@ -5289,46 +5289,46 @@
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M27" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="M27" s="36" t="s">
+      <c r="N27" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="N27" s="36" t="s">
+      <c r="O27" s="37" t="s">
         <v>298</v>
-      </c>
-      <c r="O27" s="37" t="s">
-        <v>299</v>
       </c>
       <c r="P27" s="8"/>
       <c r="R27" s="146"/>
       <c r="S27" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="T27" s="27" t="s">
         <v>300</v>
-      </c>
-      <c r="T27" s="27" t="s">
-        <v>301</v>
       </c>
       <c r="U27" s="62"/>
       <c r="V27" s="137">
         <v>7</v>
       </c>
       <c r="W27" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="X27" s="43" t="s">
         <v>302</v>
-      </c>
-      <c r="X27" s="43" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="143"/>
       <c r="B28" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="D28" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>306</v>
       </c>
       <c r="E28" s="40">
         <v>8</v>
@@ -5341,7 +5341,7 @@
         <v>198</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
@@ -5350,14 +5350,14 @@
       <c r="P28" s="8"/>
       <c r="R28" s="146"/>
       <c r="S28" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="T28" s="27" t="s">
         <v>308</v>
-      </c>
-      <c r="T28" s="27" t="s">
-        <v>309</v>
       </c>
       <c r="U28" s="62"/>
       <c r="W28" s="69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5367,7 +5367,7 @@
         <v>208</v>
       </c>
       <c r="K29" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
@@ -5376,10 +5376,10 @@
       <c r="P29" s="8"/>
       <c r="R29" s="146"/>
       <c r="S29" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="T29" s="27" t="s">
         <v>312</v>
-      </c>
-      <c r="T29" s="27" t="s">
-        <v>313</v>
       </c>
       <c r="U29" s="62"/>
     </row>
@@ -5390,10 +5390,10 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="146"/>
       <c r="S30" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="T30" s="27" t="s">
         <v>314</v>
-      </c>
-      <c r="T30" s="27" t="s">
-        <v>315</v>
       </c>
       <c r="U30" s="62"/>
     </row>
@@ -5402,26 +5402,26 @@
         <v>0</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="F31" s="175" t="s">
         <v>318</v>
-      </c>
-      <c r="F31" s="175" t="s">
-        <v>319</v>
       </c>
       <c r="G31" s="62"/>
       <c r="J31" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K31" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>8</v>
@@ -5435,10 +5435,10 @@
       <c r="P31" s="8"/>
       <c r="R31" s="146"/>
       <c r="S31" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="T31" s="27" t="s">
         <v>322</v>
-      </c>
-      <c r="T31" s="27" t="s">
-        <v>323</v>
       </c>
       <c r="U31" s="62"/>
     </row>
@@ -5447,10 +5447,10 @@
         <v>210</v>
       </c>
       <c r="B32" s="147" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="147" t="s">
         <v>324</v>
-      </c>
-      <c r="C32" s="147" t="s">
-        <v>325</v>
       </c>
       <c r="D32" s="147" t="s">
         <v>44</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G32" s="62"/>
       <c r="J32" s="20" t="s">
@@ -5467,19 +5467,19 @@
       </c>
       <c r="K32" s="54"/>
       <c r="L32" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="146"/>
       <c r="S32" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="T32" s="27" t="s">
         <v>329</v>
-      </c>
-      <c r="T32" s="27" t="s">
-        <v>330</v>
       </c>
       <c r="U32" s="62"/>
     </row>
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G33" s="62"/>
       <c r="J33" s="33" t="s">
@@ -5500,19 +5500,19 @@
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M33" s="35"/>
       <c r="N33" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="146"/>
       <c r="S33" s="71" t="s">
+        <v>333</v>
+      </c>
+      <c r="T33" s="72" t="s">
         <v>334</v>
-      </c>
-      <c r="T33" s="72" t="s">
-        <v>335</v>
       </c>
       <c r="U33" s="62"/>
     </row>
@@ -5525,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G34" s="62"/>
       <c r="J34" s="33" t="s">
@@ -5533,19 +5533,19 @@
       </c>
       <c r="K34" s="34"/>
       <c r="L34" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M34" s="35"/>
       <c r="N34" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O34" s="8"/>
       <c r="R34" s="146"/>
       <c r="S34" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="T34" s="43" t="s">
         <v>339</v>
-      </c>
-      <c r="T34" s="43" t="s">
-        <v>340</v>
       </c>
       <c r="U34" s="62"/>
     </row>
@@ -5558,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G35" s="62"/>
       <c r="J35" s="33" t="s">
@@ -5566,21 +5566,21 @@
       </c>
       <c r="K35" s="34"/>
       <c r="L35" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M35" s="35"/>
       <c r="N35" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O35" s="8"/>
       <c r="R35" s="148" t="s">
+        <v>343</v>
+      </c>
+      <c r="S35" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="S35" s="73" t="s">
+      <c r="T35" s="30" t="s">
         <v>345</v>
-      </c>
-      <c r="T35" s="30" t="s">
-        <v>346</v>
       </c>
       <c r="U35" s="62"/>
     </row>
@@ -5601,29 +5601,29 @@
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M36" s="35"/>
       <c r="N36" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O36" s="8"/>
       <c r="R36" s="148"/>
       <c r="S36" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="T36" s="27" t="s">
         <v>349</v>
-      </c>
-      <c r="T36" s="27" t="s">
-        <v>350</v>
       </c>
       <c r="U36" s="62"/>
     </row>
     <row r="37" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="145"/>
       <c r="B37" s="147" t="s">
+        <v>350</v>
+      </c>
+      <c r="C37" s="147" t="s">
         <v>351</v>
-      </c>
-      <c r="C37" s="147" t="s">
-        <v>352</v>
       </c>
       <c r="D37" s="147" t="s">
         <v>55</v>
@@ -5632,27 +5632,27 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G37" s="62"/>
       <c r="J37" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K37" s="34"/>
       <c r="L37" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M37" s="35"/>
       <c r="N37" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O37" s="8"/>
       <c r="R37" s="148"/>
       <c r="S37" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="T37" s="27" t="s">
         <v>355</v>
-      </c>
-      <c r="T37" s="27" t="s">
-        <v>356</v>
       </c>
       <c r="U37" s="62"/>
     </row>
@@ -5665,11 +5665,11 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G38" s="62"/>
       <c r="J38" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K38" s="34"/>
       <c r="L38" s="36">
@@ -5682,10 +5682,10 @@
       <c r="O38" s="8"/>
       <c r="R38" s="148"/>
       <c r="S38" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="T38" s="27" t="s">
         <v>357</v>
-      </c>
-      <c r="T38" s="27" t="s">
-        <v>358</v>
       </c>
       <c r="U38" s="62"/>
     </row>
@@ -5698,27 +5698,27 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G39" s="62"/>
       <c r="J39" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K39" s="34"/>
       <c r="L39" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M39" s="35"/>
       <c r="N39" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O39" s="8"/>
       <c r="R39" s="148"/>
       <c r="S39" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="T39" s="27" t="s">
         <v>361</v>
-      </c>
-      <c r="T39" s="27" t="s">
-        <v>362</v>
       </c>
       <c r="U39" s="62"/>
     </row>
@@ -5731,27 +5731,27 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G40" s="62"/>
       <c r="J40" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M40" s="35"/>
       <c r="N40" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O40" s="8"/>
       <c r="R40" s="148"/>
       <c r="S40" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="T40" s="27" t="s">
         <v>365</v>
-      </c>
-      <c r="T40" s="27" t="s">
-        <v>366</v>
       </c>
       <c r="U40" s="62"/>
     </row>
@@ -5768,33 +5768,33 @@
       </c>
       <c r="G41" s="62"/>
       <c r="J41" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K41" s="34"/>
       <c r="L41" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M41" s="35"/>
       <c r="N41" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O41" s="8"/>
       <c r="R41" s="148"/>
       <c r="S41" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="T41" s="27" t="s">
         <v>369</v>
-      </c>
-      <c r="T41" s="27" t="s">
-        <v>370</v>
       </c>
       <c r="U41" s="62"/>
     </row>
     <row r="42" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="143"/>
       <c r="B42" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="40" t="s">
         <v>371</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>372</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>68</v>
@@ -5803,11 +5803,11 @@
         <v>0</v>
       </c>
       <c r="F42" s="176" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G42" s="62"/>
       <c r="J42" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K42" s="34"/>
       <c r="L42" s="36">
@@ -5820,10 +5820,10 @@
       <c r="O42" s="8"/>
       <c r="R42" s="148"/>
       <c r="S42" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="T42" s="27" t="s">
         <v>373</v>
-      </c>
-      <c r="T42" s="27" t="s">
-        <v>374</v>
       </c>
       <c r="U42" s="62"/>
     </row>
@@ -5832,7 +5832,7 @@
       <c r="D43" s="69"/>
       <c r="F43" s="177"/>
       <c r="J43" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K43" s="34"/>
       <c r="L43" s="36">
@@ -5844,10 +5844,10 @@
       </c>
       <c r="R43" s="169"/>
       <c r="S43" s="133" t="s">
+        <v>374</v>
+      </c>
+      <c r="T43" s="72" t="s">
         <v>375</v>
-      </c>
-      <c r="T43" s="72" t="s">
-        <v>376</v>
       </c>
       <c r="U43" s="62"/>
     </row>
@@ -5856,7 +5856,7 @@
       <c r="D44" s="69"/>
       <c r="F44" s="177"/>
       <c r="J44" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K44" s="45">
         <v>74</v>
@@ -5865,13 +5865,13 @@
       <c r="M44" s="35"/>
       <c r="N44" s="60"/>
       <c r="R44" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="S44" s="170" t="s">
         <v>492</v>
       </c>
-      <c r="S44" s="170" t="s">
+      <c r="T44" s="171" t="s">
         <v>493</v>
-      </c>
-      <c r="T44" s="171" t="s">
-        <v>494</v>
       </c>
       <c r="U44" s="62"/>
     </row>
@@ -5880,7 +5880,7 @@
       <c r="D45" s="69"/>
       <c r="F45" s="177"/>
       <c r="J45" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K45" s="34"/>
       <c r="L45" s="36">
@@ -5898,7 +5898,7 @@
       <c r="D46" s="69"/>
       <c r="F46" s="177"/>
       <c r="J46" s="74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K46" s="75">
         <v>77</v>
@@ -5914,7 +5914,7 @@
       <c r="D47" s="69"/>
       <c r="F47" s="177"/>
       <c r="J47" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K47" s="49">
         <v>86</v>
@@ -5937,10 +5937,10 @@
       <c r="D49" s="69"/>
       <c r="F49" s="177"/>
       <c r="J49" s="53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>8</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="50" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>17</v>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="F50" s="177"/>
       <c r="J50" s="79" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="23">
@@ -5989,25 +5989,25 @@
         <v>34</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>379</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>380</v>
       </c>
       <c r="D51" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="177"/>
       <c r="J51" s="44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K51" s="35"/>
       <c r="L51" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M51" s="35"/>
       <c r="N51" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O51" s="60"/>
       <c r="U51" s="62"/>
@@ -6015,46 +6015,46 @@
     <row r="52" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="140"/>
       <c r="B52" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>383</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>384</v>
       </c>
       <c r="D52" s="81" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="177"/>
       <c r="J52" s="44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K52" s="35"/>
       <c r="L52" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U52" s="62"/>
     </row>
     <row r="53" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="140"/>
       <c r="B53" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" s="41" t="s">
         <v>387</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>388</v>
       </c>
       <c r="D53" s="82" t="s">
         <v>55</v>
       </c>
       <c r="F53" s="177"/>
       <c r="J53" s="44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K53" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
@@ -6067,21 +6067,21 @@
         <v>114</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D54" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="177"/>
       <c r="J54" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K54" s="35"/>
       <c r="L54" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
@@ -6091,16 +6091,16 @@
     <row r="55" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="140"/>
       <c r="B55" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>392</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>393</v>
       </c>
       <c r="D55" s="81" t="s">
         <v>44</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K55" s="35"/>
       <c r="L55" s="36">
@@ -6114,16 +6114,16 @@
     <row r="56" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="141"/>
       <c r="B56" s="133" t="s">
+        <v>393</v>
+      </c>
+      <c r="C56" s="134" t="s">
         <v>394</v>
-      </c>
-      <c r="C56" s="134" t="s">
-        <v>395</v>
       </c>
       <c r="D56" s="138" t="s">
         <v>55</v>
       </c>
       <c r="J56" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K56" s="35"/>
       <c r="L56" s="36">
@@ -6142,13 +6142,13 @@
         <v>250</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D57" s="80" t="s">
         <v>31</v>
       </c>
       <c r="J57" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K57" s="46">
         <v>82</v>
@@ -6162,16 +6162,16 @@
     <row r="58" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="143"/>
       <c r="B58" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="C58" s="40" t="s">
         <v>397</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>398</v>
       </c>
       <c r="D58" s="82" t="s">
         <v>44</v>
       </c>
       <c r="J58" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K58" s="76"/>
       <c r="L58" s="51">
@@ -6191,10 +6191,10 @@
         <v>259</v>
       </c>
       <c r="B59" s="73" t="s">
-        <v>262</v>
+        <v>494</v>
       </c>
       <c r="C59" s="73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D59" s="179" t="s">
         <v>31</v>
@@ -6203,34 +6203,34 @@
     <row r="60" spans="1:21" ht="9.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="145"/>
       <c r="B60" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>400</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>401</v>
       </c>
       <c r="D60" s="81" t="s">
         <v>44</v>
       </c>
       <c r="J60" s="53" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="9.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="145"/>
       <c r="B61" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C61" s="31" t="s">
         <v>402</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>403</v>
       </c>
       <c r="D61" s="81" t="s">
         <v>55</v>
       </c>
       <c r="J61" s="79" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K61" s="21">
         <v>87</v>
@@ -6239,10 +6239,10 @@
     <row r="62" spans="1:21" ht="9.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="145"/>
       <c r="B62" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>404</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>405</v>
       </c>
       <c r="D62" s="81" t="s">
         <v>68</v>
@@ -6251,10 +6251,10 @@
     <row r="63" spans="1:21" ht="9.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="143"/>
       <c r="B63" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="C63" s="41" t="s">
         <v>406</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>407</v>
       </c>
       <c r="D63" s="82" t="s">
         <v>79</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="2" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="155" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F2" s="155"/>
       <c r="G2" s="155"/>
@@ -6461,7 +6461,7 @@
       <c r="E7" s="85"/>
       <c r="F7" s="85"/>
       <c r="G7" s="154" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H7" s="154"/>
       <c r="I7" s="154"/>
@@ -6537,7 +6537,7 @@
     <row r="10" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="85"/>
       <c r="F10" s="153" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G10" s="153"/>
       <c r="H10" s="153"/>
@@ -6576,7 +6576,7 @@
       <c r="P11" s="85"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="153" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S11" s="153"/>
       <c r="T11" s="153"/>
@@ -6618,7 +6618,7 @@
       <c r="F13" s="85"/>
       <c r="G13" s="85"/>
       <c r="H13" s="153" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I13" s="153"/>
       <c r="J13" s="153"/>
@@ -6651,7 +6651,7 @@
       <c r="L14" s="85"/>
       <c r="M14" s="85"/>
       <c r="N14" s="153" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O14" s="153"/>
       <c r="P14" s="153"/>
@@ -6727,7 +6727,7 @@
       <c r="K17" s="85"/>
       <c r="L17" s="85"/>
       <c r="M17" s="153" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N17" s="153"/>
       <c r="O17" s="153"/>
@@ -6763,7 +6763,7 @@
       <c r="T18" s="85"/>
       <c r="U18" s="87"/>
       <c r="V18" s="87" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W18" s="87"/>
       <c r="X18" s="88"/>
@@ -6774,7 +6774,7 @@
     <row r="19" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="85"/>
       <c r="F19" s="154" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G19" s="154"/>
       <c r="H19" s="154"/>
@@ -6815,7 +6815,7 @@
       <c r="R20" s="85"/>
       <c r="S20" s="85"/>
       <c r="T20" s="153" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U20" s="153"/>
       <c r="V20" s="153"/>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="21" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA21" s="89" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B2" s="91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="92"/>
@@ -7192,7 +7192,7 @@
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
       <c r="D6" s="158" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E6" s="158"/>
       <c r="F6" s="158"/>
@@ -7204,7 +7204,7 @@
       <c r="L6" s="158"/>
       <c r="M6" s="158"/>
       <c r="N6" s="153" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O6" s="153"/>
       <c r="P6" s="153"/>
@@ -7216,7 +7216,7 @@
       <c r="V6" s="153"/>
       <c r="W6" s="153"/>
       <c r="X6" s="159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Y6" s="159"/>
       <c r="Z6" s="159"/>
@@ -7237,7 +7237,7 @@
       <c r="B7" s="92"/>
       <c r="C7" s="92"/>
       <c r="D7" s="160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="160"/>
@@ -7249,7 +7249,7 @@
       <c r="L7" s="160"/>
       <c r="M7" s="160"/>
       <c r="N7" s="160" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O7" s="160"/>
       <c r="P7" s="160"/>
@@ -7261,7 +7261,7 @@
       <c r="V7" s="160"/>
       <c r="W7" s="160"/>
       <c r="X7" s="160" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y7" s="160"/>
       <c r="Z7" s="160"/>
@@ -7359,7 +7359,7 @@
     <row r="10" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B10" s="92"/>
       <c r="C10" s="92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D10" s="92"/>
       <c r="E10" s="156" t="s">
@@ -7369,7 +7369,7 @@
       <c r="G10" s="156"/>
       <c r="H10" s="103"/>
       <c r="I10" s="92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J10" s="104"/>
       <c r="K10" s="92"/>
@@ -7443,7 +7443,7 @@
     <row r="12" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D12" s="92"/>
       <c r="E12" s="92"/>
@@ -7488,20 +7488,20 @@
       <c r="E13" s="92"/>
       <c r="F13" s="92"/>
       <c r="G13" s="157" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H13" s="157"/>
       <c r="I13" s="157"/>
       <c r="J13" s="156" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K13" s="156"/>
       <c r="L13" s="156"/>
       <c r="M13" s="105" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N13" s="106" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O13" s="92"/>
       <c r="P13" s="92"/>
@@ -7535,12 +7535,12 @@
       <c r="E14" s="92"/>
       <c r="F14" s="92"/>
       <c r="G14" s="157" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H14" s="157"/>
       <c r="I14" s="157"/>
       <c r="J14" s="156" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K14" s="156"/>
       <c r="L14" s="156"/>
@@ -7581,15 +7581,15 @@
       <c r="D15" s="92"/>
       <c r="E15" s="92"/>
       <c r="F15" s="92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G15" s="157" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H15" s="157"/>
       <c r="I15" s="157"/>
       <c r="J15" s="156" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K15" s="156"/>
       <c r="L15" s="156"/>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P15" s="92"/>
       <c r="Q15" s="92"/>
@@ -7633,20 +7633,20 @@
       <c r="E16" s="92"/>
       <c r="F16" s="92"/>
       <c r="G16" s="157" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H16" s="157"/>
       <c r="I16" s="157"/>
       <c r="J16" s="156" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K16" s="156"/>
       <c r="L16" s="156"/>
       <c r="M16" s="105" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N16" s="106" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O16" s="92"/>
       <c r="P16" s="92"/>
@@ -7715,7 +7715,7 @@
     <row r="18" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B18" s="92"/>
       <c r="C18" s="92" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D18" s="92"/>
       <c r="E18" s="92"/>
@@ -7765,11 +7765,11 @@
       <c r="J19" s="92"/>
       <c r="K19" s="92"/>
       <c r="L19" s="157" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M19" s="157"/>
       <c r="N19" s="156" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O19" s="156"/>
       <c r="P19" s="156"/>
@@ -7813,14 +7813,14 @@
       <c r="I20" s="92"/>
       <c r="J20" s="92"/>
       <c r="K20" s="92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L20" s="157" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M20" s="157"/>
       <c r="N20" s="156" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O20" s="156"/>
       <c r="P20" s="156"/>
@@ -7834,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="92" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U20" s="92"/>
       <c r="V20" s="92"/>
@@ -7867,22 +7867,22 @@
       <c r="J21" s="92"/>
       <c r="K21" s="92"/>
       <c r="L21" s="157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M21" s="157"/>
       <c r="N21" s="156" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O21" s="156"/>
       <c r="P21" s="156"/>
       <c r="Q21" s="105" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R21" s="111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S21" s="112" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T21" s="104"/>
       <c r="U21" s="92"/>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B23" s="91" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="92"/>
@@ -8029,7 +8029,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="94" t="s">
@@ -8131,7 +8131,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="103"/>
@@ -8147,7 +8147,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N2" s="161"/>
       <c r="O2" s="161"/>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="92" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" s="92"/>
       <c r="C3" s="103"/>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="103"/>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="91" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" s="92"/>
       <c r="C6" s="94" t="s">
@@ -8387,7 +8387,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="92" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B7" s="92"/>
       <c r="C7" s="103"/>
@@ -8405,7 +8405,7 @@
         <v>32</v>
       </c>
       <c r="M7" s="161" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N7" s="161"/>
       <c r="O7" s="161"/>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B8" s="92"/>
       <c r="C8" s="103"/>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="103"/>
@@ -8493,7 +8493,7 @@
       <c r="U9" s="103"/>
       <c r="V9" s="103"/>
       <c r="W9" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="X9" s="103"/>
       <c r="Y9" s="103"/>
@@ -8531,7 +8531,7 @@
       <c r="U10" s="103"/>
       <c r="V10" s="103"/>
       <c r="W10" s="103" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="X10" s="103"/>
       <c r="Y10" s="103"/>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="94" t="s">
@@ -8685,7 +8685,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="92" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B13" s="92"/>
       <c r="C13" s="103"/>
@@ -8695,7 +8695,7 @@
       <c r="G13" s="103"/>
       <c r="H13" s="104"/>
       <c r="I13" s="115" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J13" s="116" t="s">
         <v>50</v>
@@ -8705,7 +8705,7 @@
         <v>32</v>
       </c>
       <c r="M13" s="161" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N13" s="161"/>
       <c r="O13" s="161"/>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B14" s="92"/>
       <c r="C14" s="103"/>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B15" s="92"/>
       <c r="C15" s="92"/>
@@ -8793,7 +8793,7 @@
       <c r="U15" s="92"/>
       <c r="V15" s="92"/>
       <c r="W15" s="92" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="X15" s="92"/>
       <c r="Y15" s="92"/>
@@ -8831,7 +8831,7 @@
       <c r="U16" s="92"/>
       <c r="V16" s="92"/>
       <c r="W16" s="92" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="X16" s="92"/>
       <c r="Y16" s="92"/>
@@ -8869,7 +8869,7 @@
       <c r="U17" s="92"/>
       <c r="V17" s="92"/>
       <c r="W17" s="92" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="X17" s="92"/>
       <c r="Y17" s="92"/>
@@ -8909,7 +8909,7 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -9036,7 +9036,7 @@
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="91" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
@@ -9116,7 +9116,7 @@
       <c r="P4" s="118"/>
       <c r="Q4" s="118"/>
       <c r="R4" s="92" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S4" s="92"/>
       <c r="T4" s="92"/>
@@ -9124,7 +9124,7 @@
       <c r="V4" s="92"/>
       <c r="W4" s="92"/>
       <c r="X4" s="92" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y4" s="92"/>
       <c r="Z4" s="92"/>
@@ -9188,7 +9188,7 @@
       <c r="V5" s="92"/>
       <c r="W5" s="92"/>
       <c r="X5" s="92" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Y5" s="92"/>
       <c r="Z5" s="92"/>
@@ -9232,7 +9232,7 @@
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
       <c r="D6" s="91" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
@@ -9254,7 +9254,7 @@
       <c r="V6" s="92"/>
       <c r="W6" s="92"/>
       <c r="X6" s="92" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Y6" s="92"/>
       <c r="Z6" s="92"/>
@@ -9314,7 +9314,7 @@
       <c r="R7" s="120"/>
       <c r="S7" s="120"/>
       <c r="T7" s="92" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U7" s="92"/>
       <c r="V7" s="92"/>
@@ -9425,7 +9425,7 @@
       <c r="C9" s="92"/>
       <c r="D9" s="92"/>
       <c r="E9" s="121" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F9" s="122"/>
       <c r="G9" s="122"/>
@@ -9615,7 +9615,7 @@
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
       <c r="E11" s="162" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F11" s="162"/>
       <c r="G11" s="162"/>
@@ -9637,7 +9637,7 @@
       <c r="W11" s="162"/>
       <c r="X11" s="162"/>
       <c r="Y11" s="163" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Z11" s="163"/>
       <c r="AA11" s="163"/>
@@ -9649,7 +9649,7 @@
       <c r="AG11" s="163"/>
       <c r="AH11" s="163"/>
       <c r="AI11" s="164" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AJ11" s="164"/>
       <c r="AK11" s="92"/>
@@ -9746,7 +9746,7 @@
       <c r="D13" s="92"/>
       <c r="E13" s="92"/>
       <c r="F13" s="126" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G13" s="126"/>
       <c r="H13" s="126"/>
@@ -9758,7 +9758,7 @@
       <c r="N13" s="92"/>
       <c r="O13" s="92"/>
       <c r="P13" s="127" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q13" s="127"/>
       <c r="R13" s="92"/>
@@ -9812,7 +9812,7 @@
       <c r="D14" s="92"/>
       <c r="E14" s="92"/>
       <c r="F14" s="92" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G14" s="92"/>
       <c r="H14" s="92"/>
@@ -9876,7 +9876,7 @@
       <c r="D15" s="92"/>
       <c r="E15" s="92"/>
       <c r="F15" s="92" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G15" s="92"/>
       <c r="H15" s="92"/>
@@ -9940,7 +9940,7 @@
       <c r="D16" s="92"/>
       <c r="E16" s="92"/>
       <c r="F16" s="92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G16" s="92"/>
       <c r="H16" s="92"/>
@@ -10066,7 +10066,7 @@
       <c r="D18" s="92"/>
       <c r="E18" s="92"/>
       <c r="F18" s="91" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G18" s="92"/>
       <c r="H18" s="92"/>
@@ -10131,7 +10131,7 @@
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
       <c r="G19" s="92" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H19" s="92"/>
       <c r="I19" s="92"/>
@@ -10291,7 +10291,7 @@
         <v>31</v>
       </c>
       <c r="AM20" s="129" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN20" s="130"/>
       <c r="AO20" s="130"/>
@@ -10322,10 +10322,10 @@
       <c r="D21" s="92"/>
       <c r="E21" s="92"/>
       <c r="F21" s="131" t="s">
+        <v>468</v>
+      </c>
+      <c r="G21" s="165" t="s">
         <v>469</v>
-      </c>
-      <c r="G21" s="165" t="s">
-        <v>470</v>
       </c>
       <c r="H21" s="165"/>
       <c r="I21" s="166" t="s">
@@ -10333,13 +10333,13 @@
       </c>
       <c r="J21" s="166"/>
       <c r="K21" s="154" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L21" s="154"/>
       <c r="M21" s="154"/>
       <c r="N21" s="154"/>
       <c r="O21" s="167" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P21" s="167"/>
       <c r="Q21" s="167"/>
@@ -10349,7 +10349,7 @@
       <c r="U21" s="167"/>
       <c r="V21" s="167"/>
       <c r="W21" s="162" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X21" s="162"/>
       <c r="Y21" s="162"/>
@@ -10359,7 +10359,7 @@
       <c r="AC21" s="162"/>
       <c r="AD21" s="162"/>
       <c r="AE21" s="168" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF21" s="168"/>
       <c r="AG21" s="168"/>
@@ -10369,7 +10369,7 @@
       <c r="AK21" s="168"/>
       <c r="AL21" s="168"/>
       <c r="AM21" s="129" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AN21" s="130"/>
       <c r="AO21" s="130"/>
@@ -10401,11 +10401,11 @@
       <c r="E22" s="92"/>
       <c r="F22" s="92"/>
       <c r="G22" s="92" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H22" s="92"/>
       <c r="I22" s="92" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J22" s="92"/>
       <c r="K22" s="92"/>
@@ -10574,13 +10574,13 @@
       <c r="R24" s="104"/>
       <c r="S24" s="104"/>
       <c r="T24" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="U24" s="132" t="s">
         <v>478</v>
       </c>
-      <c r="U24" s="132" t="s">
+      <c r="V24" s="92" t="s">
         <v>479</v>
-      </c>
-      <c r="V24" s="92" t="s">
-        <v>480</v>
       </c>
       <c r="W24" s="104"/>
       <c r="X24" s="92"/>
@@ -10644,7 +10644,7 @@
       <c r="T25" s="104"/>
       <c r="U25" s="104"/>
       <c r="V25" s="92" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W25" s="92"/>
       <c r="X25" s="92"/>
@@ -10754,7 +10754,7 @@
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
       <c r="F27" s="91" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
@@ -10821,13 +10821,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H28" s="92">
         <v>3</v>
       </c>
       <c r="I28" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J28" s="92"/>
       <c r="K28" s="92"/>
@@ -10891,13 +10891,13 @@
         <v>4</v>
       </c>
       <c r="G29" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H29" s="92">
         <v>7</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J29" s="92"/>
       <c r="K29" s="92"/>
@@ -10961,13 +10961,13 @@
         <v>8</v>
       </c>
       <c r="G30" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H30" s="92" t="s">
         <v>84</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J30" s="92"/>
       <c r="K30" s="92"/>
@@ -11031,13 +11031,13 @@
         <v>10</v>
       </c>
       <c r="G31" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H31" s="92">
         <v>17</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J31" s="92"/>
       <c r="K31" s="92"/>
@@ -11101,13 +11101,13 @@
         <v>18</v>
       </c>
       <c r="G32" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H32" s="92" t="s">
         <v>162</v>
       </c>
       <c r="I32" s="92" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J32" s="92"/>
       <c r="K32" s="92"/>
@@ -11171,13 +11171,13 @@
         <v>30</v>
       </c>
       <c r="G33" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H33" s="92">
         <v>33</v>
       </c>
       <c r="I33" s="92" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J33" s="92"/>
       <c r="K33" s="92"/>
@@ -11241,13 +11241,13 @@
         <v>34</v>
       </c>
       <c r="G34" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H34" s="92">
         <v>37</v>
       </c>
       <c r="I34" s="92" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J34" s="92"/>
       <c r="K34" s="92"/>
@@ -11311,13 +11311,13 @@
         <v>38</v>
       </c>
       <c r="G35" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H35" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="I35" s="92" t="s">
         <v>490</v>
-      </c>
-      <c r="I35" s="92" t="s">
-        <v>491</v>
       </c>
       <c r="J35" s="92"/>
       <c r="K35" s="92"/>
